--- a/cp-descriptionsummary/ig/all-profiles.xlsx
+++ b/cp-descriptionsummary/ig/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11358" uniqueCount="954">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11229" uniqueCount="945">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-21T14:27:17+00:00</t>
+    <t>2025-07-21T14:42:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1916,34 +1916,7 @@
     <t>Texte bref décrivant l'essai / Brief text explaining the study.</t>
   </si>
   <si>
-    <t>Cette extension implemente l'élément descriptionSummary de R5. elle permet l'ajout d'un texte bref décrivant l'essai</t>
-  </si>
-  <si>
-    <t>ResearchStudy.extension:eclaire-description-summary-r5.id</t>
-  </si>
-  <si>
-    <t>ResearchStudy.extension.id</t>
-  </si>
-  <si>
-    <t>ResearchStudy.extension:eclaire-description-summary-r5.extension</t>
-  </si>
-  <si>
-    <t>ResearchStudy.extension.extension</t>
-  </si>
-  <si>
-    <t>ResearchStudy.extension:eclaire-description-summary-r5.url</t>
-  </si>
-  <si>
-    <t>ResearchStudy.extension.url</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ResearchStudy.descriptionSummary</t>
-  </si>
-  <si>
-    <t>ResearchStudy.extension:eclaire-description-summary-r5.value[x]</t>
-  </si>
-  <si>
-    <t>ResearchStudy.extension.value[x]</t>
+    <t>Cette extension implemente l'élément descriptionSummary de R5 https://hl7.org/fhir/R5/researchstudy-definitions.html#ResearchStudy.descriptionSummary. elle permet l'ajout d'un texte bref décrivant l'essai</t>
   </si>
   <si>
     <t>ResearchStudy.extension:eclaire-outcome-measure-r5</t>
@@ -5452,7 +5425,7 @@
         <v>4</v>
       </c>
       <c r="B308" t="s" s="2">
-        <v>947</v>
+        <v>938</v>
       </c>
     </row>
     <row r="309">
@@ -5468,7 +5441,7 @@
         <v>8</v>
       </c>
       <c r="B310" t="s" s="2">
-        <v>948</v>
+        <v>939</v>
       </c>
     </row>
     <row r="311">
@@ -5620,7 +5593,7 @@
         <v>4</v>
       </c>
       <c r="B330" t="s" s="2">
-        <v>949</v>
+        <v>940</v>
       </c>
     </row>
     <row r="331">
@@ -5636,7 +5609,7 @@
         <v>8</v>
       </c>
       <c r="B332" t="s" s="2">
-        <v>950</v>
+        <v>941</v>
       </c>
     </row>
     <row r="333">
@@ -5764,7 +5737,7 @@
         <v>38</v>
       </c>
       <c r="B349" t="s" s="2">
-        <v>951</v>
+        <v>942</v>
       </c>
     </row>
     <row r="350">
@@ -5788,7 +5761,7 @@
         <v>4</v>
       </c>
       <c r="B352" t="s" s="2">
-        <v>952</v>
+        <v>943</v>
       </c>
     </row>
     <row r="353">
@@ -5804,7 +5777,7 @@
         <v>8</v>
       </c>
       <c r="B354" t="s" s="2">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="355">
@@ -5942,7 +5915,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK325"/>
+  <dimension ref="A1:AK321"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -5952,7 +5925,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="23.3125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="54.44140625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="51.9140625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="37.0078125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="25.6796875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="34.21875" customWidth="true" bestFit="true"/>
@@ -28433,9 +28406,11 @@
         <v>614</v>
       </c>
       <c r="C216" t="s" s="2">
-        <v>615</v>
-      </c>
-      <c r="D216" s="2"/>
+        <v>589</v>
+      </c>
+      <c r="D216" t="s" s="2">
+        <v>547</v>
+      </c>
       <c r="E216" t="s" s="2">
         <v>76</v>
       </c>
@@ -28444,10 +28419,10 @@
         <v>77</v>
       </c>
       <c r="H216" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I216" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="J216" t="s" s="2">
         <v>76</v>
@@ -28456,13 +28431,13 @@
         <v>76</v>
       </c>
       <c r="L216" t="s" s="2">
-        <v>84</v>
+        <v>615</v>
       </c>
       <c r="M216" t="s" s="2">
-        <v>85</v>
+        <v>616</v>
       </c>
       <c r="N216" t="s" s="2">
-        <v>86</v>
+        <v>617</v>
       </c>
       <c r="O216" s="2"/>
       <c r="P216" s="2"/>
@@ -28513,19 +28488,19 @@
         <v>76</v>
       </c>
       <c r="AG216" t="s" s="2">
-        <v>87</v>
+        <v>246</v>
       </c>
       <c r="AH216" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI216" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ216" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AK216" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="217">
@@ -28533,12 +28508,14 @@
         <v>573</v>
       </c>
       <c r="B217" t="s" s="2">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="C217" t="s" s="2">
-        <v>617</v>
-      </c>
-      <c r="D217" s="2"/>
+        <v>589</v>
+      </c>
+      <c r="D217" t="s" s="2">
+        <v>133</v>
+      </c>
       <c r="E217" t="s" s="2">
         <v>76</v>
       </c>
@@ -28547,10 +28524,10 @@
         <v>77</v>
       </c>
       <c r="H217" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I217" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="J217" t="s" s="2">
         <v>76</v>
@@ -28559,13 +28536,13 @@
         <v>76</v>
       </c>
       <c r="L217" t="s" s="2">
-        <v>89</v>
+        <v>619</v>
       </c>
       <c r="M217" t="s" s="2">
-        <v>31</v>
+        <v>620</v>
       </c>
       <c r="N217" t="s" s="2">
-        <v>90</v>
+        <v>621</v>
       </c>
       <c r="O217" s="2"/>
       <c r="P217" s="2"/>
@@ -28604,19 +28581,19 @@
         <v>76</v>
       </c>
       <c r="AC217" t="s" s="2">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AD217" t="s" s="2">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="AE217" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF217" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AG217" t="s" s="2">
-        <v>94</v>
+        <v>246</v>
       </c>
       <c r="AH217" t="s" s="2">
         <v>77</v>
@@ -28636,24 +28613,26 @@
         <v>573</v>
       </c>
       <c r="B218" t="s" s="2">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="C218" t="s" s="2">
-        <v>619</v>
-      </c>
-      <c r="D218" s="2"/>
+        <v>589</v>
+      </c>
+      <c r="D218" t="s" s="2">
+        <v>360</v>
+      </c>
       <c r="E218" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F218" s="2"/>
       <c r="G218" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H218" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I218" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="J218" t="s" s="2">
         <v>76</v>
@@ -28662,24 +28641,22 @@
         <v>76</v>
       </c>
       <c r="L218" t="s" s="2">
-        <v>96</v>
+        <v>623</v>
       </c>
       <c r="M218" t="s" s="2">
-        <v>97</v>
+        <v>624</v>
       </c>
       <c r="N218" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="O218" t="s" s="2">
-        <v>99</v>
-      </c>
+        <v>625</v>
+      </c>
+      <c r="O218" s="2"/>
       <c r="P218" s="2"/>
       <c r="Q218" t="s" s="2">
         <v>76</v>
       </c>
       <c r="R218" s="2"/>
       <c r="S218" t="s" s="2">
-        <v>620</v>
+        <v>76</v>
       </c>
       <c r="T218" t="s" s="2">
         <v>76</v>
@@ -28721,19 +28698,19 @@
         <v>76</v>
       </c>
       <c r="AG218" t="s" s="2">
-        <v>95</v>
+        <v>246</v>
       </c>
       <c r="AH218" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AI218" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ218" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AK218" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="219">
@@ -28741,42 +28718,46 @@
         <v>573</v>
       </c>
       <c r="B219" t="s" s="2">
-        <v>621</v>
+        <v>626</v>
       </c>
       <c r="C219" t="s" s="2">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="D219" s="2"/>
       <c r="E219" t="s" s="2">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="F219" s="2"/>
       <c r="G219" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H219" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I219" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J219" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="K219" t="s" s="2">
         <v>76</v>
       </c>
       <c r="L219" t="s" s="2">
-        <v>555</v>
+        <v>89</v>
       </c>
       <c r="M219" t="s" s="2">
-        <v>102</v>
+        <v>248</v>
       </c>
       <c r="N219" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="O219" s="2"/>
-      <c r="P219" s="2"/>
+        <v>249</v>
+      </c>
+      <c r="O219" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="P219" t="s" s="2">
+        <v>250</v>
+      </c>
       <c r="Q219" t="s" s="2">
         <v>76</v>
       </c>
@@ -28812,31 +28793,31 @@
         <v>76</v>
       </c>
       <c r="AC219" t="s" s="2">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="AD219" t="s" s="2">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="AE219" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF219" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AG219" t="s" s="2">
-        <v>100</v>
+        <v>251</v>
       </c>
       <c r="AH219" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI219" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ219" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK219" t="s" s="2">
-        <v>104</v>
+        <v>81</v>
       </c>
     </row>
     <row r="220">
@@ -28844,14 +28825,12 @@
         <v>573</v>
       </c>
       <c r="B220" t="s" s="2">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="C220" t="s" s="2">
-        <v>589</v>
-      </c>
-      <c r="D220" t="s" s="2">
-        <v>547</v>
-      </c>
+        <v>627</v>
+      </c>
+      <c r="D220" s="2"/>
       <c r="E220" t="s" s="2">
         <v>76</v>
       </c>
@@ -28863,25 +28842,27 @@
         <v>78</v>
       </c>
       <c r="I220" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J220" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K220" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="J220" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K220" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="L220" t="s" s="2">
-        <v>624</v>
+        <v>253</v>
       </c>
       <c r="M220" t="s" s="2">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="N220" t="s" s="2">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="O220" s="2"/>
-      <c r="P220" s="2"/>
+      <c r="P220" t="s" s="2">
+        <v>630</v>
+      </c>
       <c r="Q220" t="s" s="2">
         <v>76</v>
       </c>
@@ -28917,19 +28898,19 @@
         <v>76</v>
       </c>
       <c r="AC220" t="s" s="2">
-        <v>76</v>
+        <v>631</v>
       </c>
       <c r="AD220" t="s" s="2">
-        <v>76</v>
+        <v>632</v>
       </c>
       <c r="AE220" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF220" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AG220" t="s" s="2">
-        <v>246</v>
+        <v>627</v>
       </c>
       <c r="AH220" t="s" s="2">
         <v>77</v>
@@ -28941,7 +28922,7 @@
         <v>80</v>
       </c>
       <c r="AK220" t="s" s="2">
-        <v>81</v>
+        <v>104</v>
       </c>
     </row>
     <row r="221">
@@ -28949,13 +28930,13 @@
         <v>573</v>
       </c>
       <c r="B221" t="s" s="2">
+        <v>633</v>
+      </c>
+      <c r="C221" t="s" s="2">
         <v>627</v>
       </c>
-      <c r="C221" t="s" s="2">
-        <v>589</v>
-      </c>
       <c r="D221" t="s" s="2">
-        <v>133</v>
+        <v>634</v>
       </c>
       <c r="E221" t="s" s="2">
         <v>76</v>
@@ -28965,7 +28946,7 @@
         <v>77</v>
       </c>
       <c r="H221" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I221" t="s" s="2">
         <v>205</v>
@@ -28974,19 +28955,21 @@
         <v>76</v>
       </c>
       <c r="K221" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="L221" t="s" s="2">
-        <v>628</v>
+        <v>253</v>
       </c>
       <c r="M221" t="s" s="2">
+        <v>635</v>
+      </c>
+      <c r="N221" t="s" s="2">
         <v>629</v>
       </c>
-      <c r="N221" t="s" s="2">
+      <c r="O221" s="2"/>
+      <c r="P221" t="s" s="2">
         <v>630</v>
       </c>
-      <c r="O221" s="2"/>
-      <c r="P221" s="2"/>
       <c r="Q221" t="s" s="2">
         <v>76</v>
       </c>
@@ -29034,7 +29017,7 @@
         <v>76</v>
       </c>
       <c r="AG221" t="s" s="2">
-        <v>246</v>
+        <v>627</v>
       </c>
       <c r="AH221" t="s" s="2">
         <v>77</v>
@@ -29046,7 +29029,7 @@
         <v>80</v>
       </c>
       <c r="AK221" t="s" s="2">
-        <v>81</v>
+        <v>104</v>
       </c>
     </row>
     <row r="222">
@@ -29054,14 +29037,12 @@
         <v>573</v>
       </c>
       <c r="B222" t="s" s="2">
-        <v>631</v>
+        <v>636</v>
       </c>
       <c r="C222" t="s" s="2">
-        <v>589</v>
-      </c>
-      <c r="D222" t="s" s="2">
-        <v>360</v>
-      </c>
+        <v>637</v>
+      </c>
+      <c r="D222" s="2"/>
       <c r="E222" t="s" s="2">
         <v>76</v>
       </c>
@@ -29070,10 +29051,10 @@
         <v>77</v>
       </c>
       <c r="H222" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I222" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="J222" t="s" s="2">
         <v>76</v>
@@ -29082,13 +29063,13 @@
         <v>76</v>
       </c>
       <c r="L222" t="s" s="2">
-        <v>632</v>
+        <v>84</v>
       </c>
       <c r="M222" t="s" s="2">
-        <v>633</v>
+        <v>85</v>
       </c>
       <c r="N222" t="s" s="2">
-        <v>634</v>
+        <v>86</v>
       </c>
       <c r="O222" s="2"/>
       <c r="P222" s="2"/>
@@ -29139,19 +29120,19 @@
         <v>76</v>
       </c>
       <c r="AG222" t="s" s="2">
-        <v>246</v>
+        <v>87</v>
       </c>
       <c r="AH222" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI222" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ222" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AK222" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="223">
@@ -29159,10 +29140,10 @@
         <v>573</v>
       </c>
       <c r="B223" t="s" s="2">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="C223" t="s" s="2">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="D223" s="2"/>
       <c r="E223" t="s" s="2">
@@ -29179,7 +29160,7 @@
         <v>76</v>
       </c>
       <c r="J223" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="K223" t="s" s="2">
         <v>76</v>
@@ -29188,17 +29169,15 @@
         <v>89</v>
       </c>
       <c r="M223" t="s" s="2">
-        <v>248</v>
+        <v>111</v>
       </c>
       <c r="N223" t="s" s="2">
-        <v>249</v>
+        <v>112</v>
       </c>
       <c r="O223" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="P223" t="s" s="2">
-        <v>250</v>
-      </c>
+      <c r="P223" s="2"/>
       <c r="Q223" t="s" s="2">
         <v>76</v>
       </c>
@@ -29246,7 +29225,7 @@
         <v>93</v>
       </c>
       <c r="AG223" t="s" s="2">
-        <v>251</v>
+        <v>94</v>
       </c>
       <c r="AH223" t="s" s="2">
         <v>77</v>
@@ -29266,10 +29245,10 @@
         <v>573</v>
       </c>
       <c r="B224" t="s" s="2">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="C224" t="s" s="2">
-        <v>636</v>
+        <v>641</v>
       </c>
       <c r="D224" s="2"/>
       <c r="E224" t="s" s="2">
@@ -29277,32 +29256,34 @@
       </c>
       <c r="F224" s="2"/>
       <c r="G224" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="H224" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I224" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J224" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="K224" t="s" s="2">
         <v>205</v>
       </c>
       <c r="L224" t="s" s="2">
-        <v>253</v>
+        <v>222</v>
       </c>
       <c r="M224" t="s" s="2">
-        <v>637</v>
+        <v>642</v>
       </c>
       <c r="N224" t="s" s="2">
-        <v>638</v>
-      </c>
-      <c r="O224" s="2"/>
+        <v>643</v>
+      </c>
+      <c r="O224" t="s" s="2">
+        <v>644</v>
+      </c>
       <c r="P224" t="s" s="2">
-        <v>639</v>
+        <v>645</v>
       </c>
       <c r="Q224" t="s" s="2">
         <v>76</v>
@@ -29312,7 +29293,7 @@
         <v>76</v>
       </c>
       <c r="T224" t="s" s="2">
-        <v>76</v>
+        <v>646</v>
       </c>
       <c r="U224" t="s" s="2">
         <v>76</v>
@@ -29327,37 +29308,37 @@
         <v>76</v>
       </c>
       <c r="Y224" t="s" s="2">
-        <v>76</v>
+        <v>191</v>
       </c>
       <c r="Z224" t="s" s="2">
-        <v>76</v>
+        <v>647</v>
       </c>
       <c r="AA224" t="s" s="2">
-        <v>76</v>
+        <v>648</v>
       </c>
       <c r="AB224" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AC224" t="s" s="2">
-        <v>640</v>
+        <v>76</v>
       </c>
       <c r="AD224" t="s" s="2">
-        <v>641</v>
+        <v>76</v>
       </c>
       <c r="AE224" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF224" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AG224" t="s" s="2">
-        <v>636</v>
+        <v>649</v>
       </c>
       <c r="AH224" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI224" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ224" t="s" s="2">
         <v>80</v>
@@ -29371,14 +29352,12 @@
         <v>573</v>
       </c>
       <c r="B225" t="s" s="2">
-        <v>642</v>
+        <v>650</v>
       </c>
       <c r="C225" t="s" s="2">
-        <v>636</v>
-      </c>
-      <c r="D225" t="s" s="2">
-        <v>643</v>
-      </c>
+        <v>651</v>
+      </c>
+      <c r="D225" s="2"/>
       <c r="E225" t="s" s="2">
         <v>76</v>
       </c>
@@ -29390,7 +29369,7 @@
         <v>83</v>
       </c>
       <c r="I225" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="J225" t="s" s="2">
         <v>76</v>
@@ -29399,17 +29378,19 @@
         <v>205</v>
       </c>
       <c r="L225" t="s" s="2">
-        <v>253</v>
+        <v>145</v>
       </c>
       <c r="M225" t="s" s="2">
-        <v>644</v>
+        <v>652</v>
       </c>
       <c r="N225" t="s" s="2">
-        <v>638</v>
-      </c>
-      <c r="O225" s="2"/>
+        <v>653</v>
+      </c>
+      <c r="O225" t="s" s="2">
+        <v>654</v>
+      </c>
       <c r="P225" t="s" s="2">
-        <v>639</v>
+        <v>655</v>
       </c>
       <c r="Q225" t="s" s="2">
         <v>76</v>
@@ -29434,13 +29415,13 @@
         <v>76</v>
       </c>
       <c r="Y225" t="s" s="2">
-        <v>76</v>
+        <v>146</v>
       </c>
       <c r="Z225" t="s" s="2">
-        <v>76</v>
+        <v>656</v>
       </c>
       <c r="AA225" t="s" s="2">
-        <v>76</v>
+        <v>657</v>
       </c>
       <c r="AB225" t="s" s="2">
         <v>76</v>
@@ -29458,13 +29439,13 @@
         <v>76</v>
       </c>
       <c r="AG225" t="s" s="2">
-        <v>636</v>
+        <v>658</v>
       </c>
       <c r="AH225" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI225" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ225" t="s" s="2">
         <v>80</v>
@@ -29478,10 +29459,10 @@
         <v>573</v>
       </c>
       <c r="B226" t="s" s="2">
-        <v>645</v>
+        <v>659</v>
       </c>
       <c r="C226" t="s" s="2">
-        <v>646</v>
+        <v>660</v>
       </c>
       <c r="D226" s="2"/>
       <c r="E226" t="s" s="2">
@@ -29501,19 +29482,23 @@
         <v>76</v>
       </c>
       <c r="K226" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="L226" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="M226" t="s" s="2">
-        <v>85</v>
+        <v>661</v>
       </c>
       <c r="N226" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="O226" s="2"/>
-      <c r="P226" s="2"/>
+        <v>662</v>
+      </c>
+      <c r="O226" t="s" s="2">
+        <v>663</v>
+      </c>
+      <c r="P226" t="s" s="2">
+        <v>664</v>
+      </c>
       <c r="Q226" t="s" s="2">
         <v>76</v>
       </c>
@@ -29525,7 +29510,7 @@
         <v>76</v>
       </c>
       <c r="U226" t="s" s="2">
-        <v>76</v>
+        <v>665</v>
       </c>
       <c r="V226" t="s" s="2">
         <v>76</v>
@@ -29561,7 +29546,7 @@
         <v>76</v>
       </c>
       <c r="AG226" t="s" s="2">
-        <v>87</v>
+        <v>666</v>
       </c>
       <c r="AH226" t="s" s="2">
         <v>77</v>
@@ -29570,10 +29555,10 @@
         <v>83</v>
       </c>
       <c r="AJ226" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AK226" t="s" s="2">
-        <v>76</v>
+        <v>104</v>
       </c>
     </row>
     <row r="227">
@@ -29581,21 +29566,21 @@
         <v>573</v>
       </c>
       <c r="B227" t="s" s="2">
-        <v>647</v>
+        <v>667</v>
       </c>
       <c r="C227" t="s" s="2">
-        <v>648</v>
+        <v>668</v>
       </c>
       <c r="D227" s="2"/>
       <c r="E227" t="s" s="2">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="F227" s="2"/>
       <c r="G227" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H227" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I227" t="s" s="2">
         <v>76</v>
@@ -29604,19 +29589,19 @@
         <v>76</v>
       </c>
       <c r="K227" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="L227" t="s" s="2">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="M227" t="s" s="2">
-        <v>111</v>
+        <v>669</v>
       </c>
       <c r="N227" t="s" s="2">
-        <v>112</v>
+        <v>670</v>
       </c>
       <c r="O227" t="s" s="2">
-        <v>113</v>
+        <v>671</v>
       </c>
       <c r="P227" s="2"/>
       <c r="Q227" t="s" s="2">
@@ -29630,7 +29615,7 @@
         <v>76</v>
       </c>
       <c r="U227" t="s" s="2">
-        <v>76</v>
+        <v>672</v>
       </c>
       <c r="V227" t="s" s="2">
         <v>76</v>
@@ -29654,31 +29639,31 @@
         <v>76</v>
       </c>
       <c r="AC227" t="s" s="2">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AD227" t="s" s="2">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="AE227" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF227" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AG227" t="s" s="2">
-        <v>94</v>
+        <v>673</v>
       </c>
       <c r="AH227" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI227" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ227" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK227" t="s" s="2">
-        <v>81</v>
+        <v>104</v>
       </c>
     </row>
     <row r="228">
@@ -29686,10 +29671,10 @@
         <v>573</v>
       </c>
       <c r="B228" t="s" s="2">
-        <v>649</v>
+        <v>674</v>
       </c>
       <c r="C228" t="s" s="2">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="D228" s="2"/>
       <c r="E228" t="s" s="2">
@@ -29697,7 +29682,7 @@
       </c>
       <c r="F228" s="2"/>
       <c r="G228" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H228" t="s" s="2">
         <v>83</v>
@@ -29706,26 +29691,24 @@
         <v>76</v>
       </c>
       <c r="J228" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="K228" t="s" s="2">
         <v>205</v>
       </c>
       <c r="L228" t="s" s="2">
-        <v>222</v>
+        <v>155</v>
       </c>
       <c r="M228" t="s" s="2">
-        <v>651</v>
+        <v>676</v>
       </c>
       <c r="N228" t="s" s="2">
-        <v>652</v>
+        <v>677</v>
       </c>
       <c r="O228" t="s" s="2">
-        <v>653</v>
-      </c>
-      <c r="P228" t="s" s="2">
-        <v>654</v>
-      </c>
+        <v>336</v>
+      </c>
+      <c r="P228" s="2"/>
       <c r="Q228" t="s" s="2">
         <v>76</v>
       </c>
@@ -29734,7 +29717,7 @@
         <v>76</v>
       </c>
       <c r="T228" t="s" s="2">
-        <v>655</v>
+        <v>76</v>
       </c>
       <c r="U228" t="s" s="2">
         <v>76</v>
@@ -29749,13 +29732,13 @@
         <v>76</v>
       </c>
       <c r="Y228" t="s" s="2">
-        <v>191</v>
+        <v>76</v>
       </c>
       <c r="Z228" t="s" s="2">
-        <v>656</v>
+        <v>76</v>
       </c>
       <c r="AA228" t="s" s="2">
-        <v>657</v>
+        <v>76</v>
       </c>
       <c r="AB228" t="s" s="2">
         <v>76</v>
@@ -29773,7 +29756,7 @@
         <v>76</v>
       </c>
       <c r="AG228" t="s" s="2">
-        <v>658</v>
+        <v>678</v>
       </c>
       <c r="AH228" t="s" s="2">
         <v>77</v>
@@ -29785,7 +29768,7 @@
         <v>80</v>
       </c>
       <c r="AK228" t="s" s="2">
-        <v>104</v>
+        <v>337</v>
       </c>
     </row>
     <row r="229">
@@ -29793,10 +29776,10 @@
         <v>573</v>
       </c>
       <c r="B229" t="s" s="2">
-        <v>659</v>
+        <v>679</v>
       </c>
       <c r="C229" t="s" s="2">
-        <v>660</v>
+        <v>680</v>
       </c>
       <c r="D229" s="2"/>
       <c r="E229" t="s" s="2">
@@ -29816,23 +29799,19 @@
         <v>76</v>
       </c>
       <c r="K229" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="L229" t="s" s="2">
-        <v>145</v>
+        <v>84</v>
       </c>
       <c r="M229" t="s" s="2">
-        <v>661</v>
+        <v>85</v>
       </c>
       <c r="N229" t="s" s="2">
-        <v>662</v>
-      </c>
-      <c r="O229" t="s" s="2">
-        <v>663</v>
-      </c>
-      <c r="P229" t="s" s="2">
-        <v>664</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="O229" s="2"/>
+      <c r="P229" s="2"/>
       <c r="Q229" t="s" s="2">
         <v>76</v>
       </c>
@@ -29856,13 +29835,13 @@
         <v>76</v>
       </c>
       <c r="Y229" t="s" s="2">
-        <v>146</v>
+        <v>76</v>
       </c>
       <c r="Z229" t="s" s="2">
-        <v>665</v>
+        <v>76</v>
       </c>
       <c r="AA229" t="s" s="2">
-        <v>666</v>
+        <v>76</v>
       </c>
       <c r="AB229" t="s" s="2">
         <v>76</v>
@@ -29880,7 +29859,7 @@
         <v>76</v>
       </c>
       <c r="AG229" t="s" s="2">
-        <v>667</v>
+        <v>87</v>
       </c>
       <c r="AH229" t="s" s="2">
         <v>77</v>
@@ -29889,10 +29868,10 @@
         <v>83</v>
       </c>
       <c r="AJ229" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AK229" t="s" s="2">
-        <v>104</v>
+        <v>76</v>
       </c>
     </row>
     <row r="230">
@@ -29900,21 +29879,21 @@
         <v>573</v>
       </c>
       <c r="B230" t="s" s="2">
-        <v>668</v>
+        <v>681</v>
       </c>
       <c r="C230" t="s" s="2">
-        <v>669</v>
+        <v>682</v>
       </c>
       <c r="D230" s="2"/>
       <c r="E230" t="s" s="2">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="F230" s="2"/>
       <c r="G230" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H230" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I230" t="s" s="2">
         <v>76</v>
@@ -29923,23 +29902,21 @@
         <v>76</v>
       </c>
       <c r="K230" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="L230" t="s" s="2">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="M230" t="s" s="2">
-        <v>670</v>
+        <v>111</v>
       </c>
       <c r="N230" t="s" s="2">
-        <v>671</v>
+        <v>112</v>
       </c>
       <c r="O230" t="s" s="2">
-        <v>672</v>
-      </c>
-      <c r="P230" t="s" s="2">
-        <v>673</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="P230" s="2"/>
       <c r="Q230" t="s" s="2">
         <v>76</v>
       </c>
@@ -29951,7 +29928,7 @@
         <v>76</v>
       </c>
       <c r="U230" t="s" s="2">
-        <v>674</v>
+        <v>76</v>
       </c>
       <c r="V230" t="s" s="2">
         <v>76</v>
@@ -29975,31 +29952,31 @@
         <v>76</v>
       </c>
       <c r="AC230" t="s" s="2">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="AD230" t="s" s="2">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="AE230" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF230" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AG230" t="s" s="2">
-        <v>675</v>
+        <v>94</v>
       </c>
       <c r="AH230" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI230" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ230" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK230" t="s" s="2">
-        <v>104</v>
+        <v>81</v>
       </c>
     </row>
     <row r="231">
@@ -30007,10 +29984,10 @@
         <v>573</v>
       </c>
       <c r="B231" t="s" s="2">
-        <v>676</v>
+        <v>683</v>
       </c>
       <c r="C231" t="s" s="2">
-        <v>677</v>
+        <v>684</v>
       </c>
       <c r="D231" s="2"/>
       <c r="E231" t="s" s="2">
@@ -30033,16 +30010,16 @@
         <v>205</v>
       </c>
       <c r="L231" t="s" s="2">
-        <v>84</v>
+        <v>685</v>
       </c>
       <c r="M231" t="s" s="2">
-        <v>678</v>
+        <v>686</v>
       </c>
       <c r="N231" t="s" s="2">
-        <v>679</v>
+        <v>687</v>
       </c>
       <c r="O231" t="s" s="2">
-        <v>680</v>
+        <v>688</v>
       </c>
       <c r="P231" s="2"/>
       <c r="Q231" t="s" s="2">
@@ -30056,7 +30033,7 @@
         <v>76</v>
       </c>
       <c r="U231" t="s" s="2">
-        <v>681</v>
+        <v>76</v>
       </c>
       <c r="V231" t="s" s="2">
         <v>76</v>
@@ -30092,7 +30069,7 @@
         <v>76</v>
       </c>
       <c r="AG231" t="s" s="2">
-        <v>682</v>
+        <v>689</v>
       </c>
       <c r="AH231" t="s" s="2">
         <v>77</v>
@@ -30101,7 +30078,7 @@
         <v>83</v>
       </c>
       <c r="AJ231" t="s" s="2">
-        <v>80</v>
+        <v>690</v>
       </c>
       <c r="AK231" t="s" s="2">
         <v>104</v>
@@ -30112,10 +30089,10 @@
         <v>573</v>
       </c>
       <c r="B232" t="s" s="2">
-        <v>683</v>
+        <v>691</v>
       </c>
       <c r="C232" t="s" s="2">
-        <v>684</v>
+        <v>692</v>
       </c>
       <c r="D232" s="2"/>
       <c r="E232" t="s" s="2">
@@ -30138,22 +30115,24 @@
         <v>205</v>
       </c>
       <c r="L232" t="s" s="2">
-        <v>155</v>
+        <v>685</v>
       </c>
       <c r="M232" t="s" s="2">
-        <v>685</v>
+        <v>693</v>
       </c>
       <c r="N232" t="s" s="2">
-        <v>686</v>
+        <v>694</v>
       </c>
       <c r="O232" t="s" s="2">
-        <v>336</v>
+        <v>695</v>
       </c>
       <c r="P232" s="2"/>
       <c r="Q232" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="R232" s="2"/>
+      <c r="R232" t="s" s="2">
+        <v>696</v>
+      </c>
       <c r="S232" t="s" s="2">
         <v>76</v>
       </c>
@@ -30197,7 +30176,7 @@
         <v>76</v>
       </c>
       <c r="AG232" t="s" s="2">
-        <v>687</v>
+        <v>697</v>
       </c>
       <c r="AH232" t="s" s="2">
         <v>77</v>
@@ -30206,10 +30185,10 @@
         <v>83</v>
       </c>
       <c r="AJ232" t="s" s="2">
-        <v>80</v>
+        <v>690</v>
       </c>
       <c r="AK232" t="s" s="2">
-        <v>337</v>
+        <v>104</v>
       </c>
     </row>
     <row r="233">
@@ -30217,10 +30196,10 @@
         <v>573</v>
       </c>
       <c r="B233" t="s" s="2">
-        <v>688</v>
+        <v>698</v>
       </c>
       <c r="C233" t="s" s="2">
-        <v>689</v>
+        <v>699</v>
       </c>
       <c r="D233" s="2"/>
       <c r="E233" t="s" s="2">
@@ -30240,18 +30219,20 @@
         <v>76</v>
       </c>
       <c r="K233" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="L233" t="s" s="2">
-        <v>84</v>
+        <v>507</v>
       </c>
       <c r="M233" t="s" s="2">
-        <v>85</v>
+        <v>700</v>
       </c>
       <c r="N233" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="O233" s="2"/>
+        <v>701</v>
+      </c>
+      <c r="O233" t="s" s="2">
+        <v>702</v>
+      </c>
       <c r="P233" s="2"/>
       <c r="Q233" t="s" s="2">
         <v>76</v>
@@ -30300,7 +30281,7 @@
         <v>76</v>
       </c>
       <c r="AG233" t="s" s="2">
-        <v>87</v>
+        <v>703</v>
       </c>
       <c r="AH233" t="s" s="2">
         <v>77</v>
@@ -30309,10 +30290,10 @@
         <v>83</v>
       </c>
       <c r="AJ233" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AK233" t="s" s="2">
-        <v>76</v>
+        <v>297</v>
       </c>
     </row>
     <row r="234">
@@ -30320,14 +30301,16 @@
         <v>573</v>
       </c>
       <c r="B234" t="s" s="2">
-        <v>690</v>
+        <v>704</v>
       </c>
       <c r="C234" t="s" s="2">
-        <v>691</v>
-      </c>
-      <c r="D234" s="2"/>
+        <v>627</v>
+      </c>
+      <c r="D234" t="s" s="2">
+        <v>705</v>
+      </c>
       <c r="E234" t="s" s="2">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="F234" s="2"/>
       <c r="G234" t="s" s="2">
@@ -30337,27 +30320,27 @@
         <v>78</v>
       </c>
       <c r="I234" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="J234" t="s" s="2">
         <v>76</v>
       </c>
       <c r="K234" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="L234" t="s" s="2">
-        <v>89</v>
+        <v>253</v>
       </c>
       <c r="M234" t="s" s="2">
-        <v>111</v>
+        <v>706</v>
       </c>
       <c r="N234" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="O234" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="P234" s="2"/>
+        <v>629</v>
+      </c>
+      <c r="O234" s="2"/>
+      <c r="P234" t="s" s="2">
+        <v>630</v>
+      </c>
       <c r="Q234" t="s" s="2">
         <v>76</v>
       </c>
@@ -30393,19 +30376,19 @@
         <v>76</v>
       </c>
       <c r="AC234" t="s" s="2">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AD234" t="s" s="2">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="AE234" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF234" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AG234" t="s" s="2">
-        <v>94</v>
+        <v>627</v>
       </c>
       <c r="AH234" t="s" s="2">
         <v>77</v>
@@ -30417,7 +30400,7 @@
         <v>80</v>
       </c>
       <c r="AK234" t="s" s="2">
-        <v>81</v>
+        <v>104</v>
       </c>
     </row>
     <row r="235">
@@ -30425,10 +30408,10 @@
         <v>573</v>
       </c>
       <c r="B235" t="s" s="2">
-        <v>692</v>
+        <v>707</v>
       </c>
       <c r="C235" t="s" s="2">
-        <v>693</v>
+        <v>637</v>
       </c>
       <c r="D235" s="2"/>
       <c r="E235" t="s" s="2">
@@ -30448,20 +30431,18 @@
         <v>76</v>
       </c>
       <c r="K235" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="L235" t="s" s="2">
-        <v>694</v>
+        <v>84</v>
       </c>
       <c r="M235" t="s" s="2">
-        <v>695</v>
+        <v>85</v>
       </c>
       <c r="N235" t="s" s="2">
-        <v>696</v>
-      </c>
-      <c r="O235" t="s" s="2">
-        <v>697</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="O235" s="2"/>
       <c r="P235" s="2"/>
       <c r="Q235" t="s" s="2">
         <v>76</v>
@@ -30510,7 +30491,7 @@
         <v>76</v>
       </c>
       <c r="AG235" t="s" s="2">
-        <v>698</v>
+        <v>87</v>
       </c>
       <c r="AH235" t="s" s="2">
         <v>77</v>
@@ -30519,10 +30500,10 @@
         <v>83</v>
       </c>
       <c r="AJ235" t="s" s="2">
-        <v>699</v>
+        <v>76</v>
       </c>
       <c r="AK235" t="s" s="2">
-        <v>104</v>
+        <v>76</v>
       </c>
     </row>
     <row r="236">
@@ -30530,21 +30511,21 @@
         <v>573</v>
       </c>
       <c r="B236" t="s" s="2">
-        <v>700</v>
+        <v>708</v>
       </c>
       <c r="C236" t="s" s="2">
-        <v>701</v>
+        <v>639</v>
       </c>
       <c r="D236" s="2"/>
       <c r="E236" t="s" s="2">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="F236" s="2"/>
       <c r="G236" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H236" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I236" t="s" s="2">
         <v>76</v>
@@ -30553,27 +30534,25 @@
         <v>76</v>
       </c>
       <c r="K236" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="L236" t="s" s="2">
-        <v>694</v>
+        <v>89</v>
       </c>
       <c r="M236" t="s" s="2">
-        <v>702</v>
+        <v>111</v>
       </c>
       <c r="N236" t="s" s="2">
-        <v>703</v>
+        <v>112</v>
       </c>
       <c r="O236" t="s" s="2">
-        <v>704</v>
+        <v>113</v>
       </c>
       <c r="P236" s="2"/>
       <c r="Q236" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="R236" t="s" s="2">
-        <v>705</v>
-      </c>
+      <c r="R236" s="2"/>
       <c r="S236" t="s" s="2">
         <v>76</v>
       </c>
@@ -30605,31 +30584,31 @@
         <v>76</v>
       </c>
       <c r="AC236" t="s" s="2">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="AD236" t="s" s="2">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="AE236" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF236" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AG236" t="s" s="2">
-        <v>706</v>
+        <v>94</v>
       </c>
       <c r="AH236" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI236" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ236" t="s" s="2">
-        <v>699</v>
+        <v>80</v>
       </c>
       <c r="AK236" t="s" s="2">
-        <v>104</v>
+        <v>81</v>
       </c>
     </row>
     <row r="237">
@@ -30637,10 +30616,10 @@
         <v>573</v>
       </c>
       <c r="B237" t="s" s="2">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="C237" t="s" s="2">
-        <v>708</v>
+        <v>641</v>
       </c>
       <c r="D237" s="2"/>
       <c r="E237" t="s" s="2">
@@ -30648,7 +30627,7 @@
       </c>
       <c r="F237" s="2"/>
       <c r="G237" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="H237" t="s" s="2">
         <v>83</v>
@@ -30657,24 +30636,26 @@
         <v>76</v>
       </c>
       <c r="J237" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="K237" t="s" s="2">
         <v>205</v>
       </c>
       <c r="L237" t="s" s="2">
-        <v>507</v>
+        <v>222</v>
       </c>
       <c r="M237" t="s" s="2">
-        <v>709</v>
+        <v>642</v>
       </c>
       <c r="N237" t="s" s="2">
-        <v>710</v>
+        <v>643</v>
       </c>
       <c r="O237" t="s" s="2">
-        <v>711</v>
-      </c>
-      <c r="P237" s="2"/>
+        <v>644</v>
+      </c>
+      <c r="P237" t="s" s="2">
+        <v>645</v>
+      </c>
       <c r="Q237" t="s" s="2">
         <v>76</v>
       </c>
@@ -30683,7 +30664,7 @@
         <v>76</v>
       </c>
       <c r="T237" t="s" s="2">
-        <v>76</v>
+        <v>710</v>
       </c>
       <c r="U237" t="s" s="2">
         <v>76</v>
@@ -30698,13 +30679,13 @@
         <v>76</v>
       </c>
       <c r="Y237" t="s" s="2">
-        <v>76</v>
+        <v>191</v>
       </c>
       <c r="Z237" t="s" s="2">
-        <v>76</v>
+        <v>647</v>
       </c>
       <c r="AA237" t="s" s="2">
-        <v>76</v>
+        <v>648</v>
       </c>
       <c r="AB237" t="s" s="2">
         <v>76</v>
@@ -30722,7 +30703,7 @@
         <v>76</v>
       </c>
       <c r="AG237" t="s" s="2">
-        <v>712</v>
+        <v>649</v>
       </c>
       <c r="AH237" t="s" s="2">
         <v>77</v>
@@ -30734,7 +30715,7 @@
         <v>80</v>
       </c>
       <c r="AK237" t="s" s="2">
-        <v>297</v>
+        <v>104</v>
       </c>
     </row>
     <row r="238">
@@ -30742,14 +30723,12 @@
         <v>573</v>
       </c>
       <c r="B238" t="s" s="2">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C238" t="s" s="2">
-        <v>636</v>
-      </c>
-      <c r="D238" t="s" s="2">
-        <v>714</v>
-      </c>
+        <v>651</v>
+      </c>
+      <c r="D238" s="2"/>
       <c r="E238" t="s" s="2">
         <v>76</v>
       </c>
@@ -30758,10 +30737,10 @@
         <v>77</v>
       </c>
       <c r="H238" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I238" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="J238" t="s" s="2">
         <v>76</v>
@@ -30770,17 +30749,19 @@
         <v>205</v>
       </c>
       <c r="L238" t="s" s="2">
-        <v>253</v>
+        <v>145</v>
       </c>
       <c r="M238" t="s" s="2">
-        <v>715</v>
+        <v>652</v>
       </c>
       <c r="N238" t="s" s="2">
-        <v>638</v>
-      </c>
-      <c r="O238" s="2"/>
+        <v>653</v>
+      </c>
+      <c r="O238" t="s" s="2">
+        <v>654</v>
+      </c>
       <c r="P238" t="s" s="2">
-        <v>639</v>
+        <v>655</v>
       </c>
       <c r="Q238" t="s" s="2">
         <v>76</v>
@@ -30805,13 +30786,13 @@
         <v>76</v>
       </c>
       <c r="Y238" t="s" s="2">
-        <v>76</v>
+        <v>146</v>
       </c>
       <c r="Z238" t="s" s="2">
-        <v>76</v>
+        <v>656</v>
       </c>
       <c r="AA238" t="s" s="2">
-        <v>76</v>
+        <v>657</v>
       </c>
       <c r="AB238" t="s" s="2">
         <v>76</v>
@@ -30829,13 +30810,13 @@
         <v>76</v>
       </c>
       <c r="AG238" t="s" s="2">
-        <v>636</v>
+        <v>658</v>
       </c>
       <c r="AH238" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI238" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ238" t="s" s="2">
         <v>80</v>
@@ -30849,10 +30830,10 @@
         <v>573</v>
       </c>
       <c r="B239" t="s" s="2">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="C239" t="s" s="2">
-        <v>646</v>
+        <v>660</v>
       </c>
       <c r="D239" s="2"/>
       <c r="E239" t="s" s="2">
@@ -30872,19 +30853,23 @@
         <v>76</v>
       </c>
       <c r="K239" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="L239" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="M239" t="s" s="2">
-        <v>85</v>
+        <v>661</v>
       </c>
       <c r="N239" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="O239" s="2"/>
-      <c r="P239" s="2"/>
+        <v>662</v>
+      </c>
+      <c r="O239" t="s" s="2">
+        <v>663</v>
+      </c>
+      <c r="P239" t="s" s="2">
+        <v>664</v>
+      </c>
       <c r="Q239" t="s" s="2">
         <v>76</v>
       </c>
@@ -30896,7 +30881,7 @@
         <v>76</v>
       </c>
       <c r="U239" t="s" s="2">
-        <v>76</v>
+        <v>665</v>
       </c>
       <c r="V239" t="s" s="2">
         <v>76</v>
@@ -30932,7 +30917,7 @@
         <v>76</v>
       </c>
       <c r="AG239" t="s" s="2">
-        <v>87</v>
+        <v>666</v>
       </c>
       <c r="AH239" t="s" s="2">
         <v>77</v>
@@ -30941,10 +30926,10 @@
         <v>83</v>
       </c>
       <c r="AJ239" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AK239" t="s" s="2">
-        <v>76</v>
+        <v>104</v>
       </c>
     </row>
     <row r="240">
@@ -30952,21 +30937,21 @@
         <v>573</v>
       </c>
       <c r="B240" t="s" s="2">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="C240" t="s" s="2">
-        <v>648</v>
+        <v>668</v>
       </c>
       <c r="D240" s="2"/>
       <c r="E240" t="s" s="2">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="F240" s="2"/>
       <c r="G240" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H240" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I240" t="s" s="2">
         <v>76</v>
@@ -30975,19 +30960,19 @@
         <v>76</v>
       </c>
       <c r="K240" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="L240" t="s" s="2">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="M240" t="s" s="2">
-        <v>111</v>
+        <v>669</v>
       </c>
       <c r="N240" t="s" s="2">
-        <v>112</v>
+        <v>670</v>
       </c>
       <c r="O240" t="s" s="2">
-        <v>113</v>
+        <v>671</v>
       </c>
       <c r="P240" s="2"/>
       <c r="Q240" t="s" s="2">
@@ -31001,7 +30986,7 @@
         <v>76</v>
       </c>
       <c r="U240" t="s" s="2">
-        <v>76</v>
+        <v>672</v>
       </c>
       <c r="V240" t="s" s="2">
         <v>76</v>
@@ -31025,31 +31010,31 @@
         <v>76</v>
       </c>
       <c r="AC240" t="s" s="2">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AD240" t="s" s="2">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="AE240" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF240" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AG240" t="s" s="2">
-        <v>94</v>
+        <v>673</v>
       </c>
       <c r="AH240" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI240" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ240" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK240" t="s" s="2">
-        <v>81</v>
+        <v>104</v>
       </c>
     </row>
     <row r="241">
@@ -31057,10 +31042,10 @@
         <v>573</v>
       </c>
       <c r="B241" t="s" s="2">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="C241" t="s" s="2">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="D241" s="2"/>
       <c r="E241" t="s" s="2">
@@ -31068,7 +31053,7 @@
       </c>
       <c r="F241" s="2"/>
       <c r="G241" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H241" t="s" s="2">
         <v>83</v>
@@ -31077,26 +31062,24 @@
         <v>76</v>
       </c>
       <c r="J241" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="K241" t="s" s="2">
         <v>205</v>
       </c>
       <c r="L241" t="s" s="2">
-        <v>222</v>
+        <v>155</v>
       </c>
       <c r="M241" t="s" s="2">
-        <v>651</v>
+        <v>676</v>
       </c>
       <c r="N241" t="s" s="2">
-        <v>652</v>
+        <v>677</v>
       </c>
       <c r="O241" t="s" s="2">
-        <v>653</v>
-      </c>
-      <c r="P241" t="s" s="2">
-        <v>654</v>
-      </c>
+        <v>336</v>
+      </c>
+      <c r="P241" s="2"/>
       <c r="Q241" t="s" s="2">
         <v>76</v>
       </c>
@@ -31105,7 +31088,7 @@
         <v>76</v>
       </c>
       <c r="T241" t="s" s="2">
-        <v>719</v>
+        <v>76</v>
       </c>
       <c r="U241" t="s" s="2">
         <v>76</v>
@@ -31120,13 +31103,13 @@
         <v>76</v>
       </c>
       <c r="Y241" t="s" s="2">
-        <v>191</v>
+        <v>76</v>
       </c>
       <c r="Z241" t="s" s="2">
-        <v>656</v>
+        <v>76</v>
       </c>
       <c r="AA241" t="s" s="2">
-        <v>657</v>
+        <v>76</v>
       </c>
       <c r="AB241" t="s" s="2">
         <v>76</v>
@@ -31144,7 +31127,7 @@
         <v>76</v>
       </c>
       <c r="AG241" t="s" s="2">
-        <v>658</v>
+        <v>678</v>
       </c>
       <c r="AH241" t="s" s="2">
         <v>77</v>
@@ -31156,7 +31139,7 @@
         <v>80</v>
       </c>
       <c r="AK241" t="s" s="2">
-        <v>104</v>
+        <v>337</v>
       </c>
     </row>
     <row r="242">
@@ -31164,10 +31147,10 @@
         <v>573</v>
       </c>
       <c r="B242" t="s" s="2">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="C242" t="s" s="2">
-        <v>660</v>
+        <v>699</v>
       </c>
       <c r="D242" s="2"/>
       <c r="E242" t="s" s="2">
@@ -31190,20 +31173,18 @@
         <v>205</v>
       </c>
       <c r="L242" t="s" s="2">
-        <v>145</v>
+        <v>507</v>
       </c>
       <c r="M242" t="s" s="2">
-        <v>661</v>
+        <v>700</v>
       </c>
       <c r="N242" t="s" s="2">
-        <v>662</v>
+        <v>701</v>
       </c>
       <c r="O242" t="s" s="2">
-        <v>663</v>
-      </c>
-      <c r="P242" t="s" s="2">
-        <v>664</v>
-      </c>
+        <v>702</v>
+      </c>
+      <c r="P242" s="2"/>
       <c r="Q242" t="s" s="2">
         <v>76</v>
       </c>
@@ -31227,13 +31208,13 @@
         <v>76</v>
       </c>
       <c r="Y242" t="s" s="2">
-        <v>146</v>
+        <v>76</v>
       </c>
       <c r="Z242" t="s" s="2">
-        <v>665</v>
+        <v>76</v>
       </c>
       <c r="AA242" t="s" s="2">
-        <v>666</v>
+        <v>76</v>
       </c>
       <c r="AB242" t="s" s="2">
         <v>76</v>
@@ -31251,7 +31232,7 @@
         <v>76</v>
       </c>
       <c r="AG242" t="s" s="2">
-        <v>667</v>
+        <v>703</v>
       </c>
       <c r="AH242" t="s" s="2">
         <v>77</v>
@@ -31263,7 +31244,7 @@
         <v>80</v>
       </c>
       <c r="AK242" t="s" s="2">
-        <v>104</v>
+        <v>297</v>
       </c>
     </row>
     <row r="243">
@@ -31271,10 +31252,10 @@
         <v>573</v>
       </c>
       <c r="B243" t="s" s="2">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="C243" t="s" s="2">
-        <v>669</v>
+        <v>716</v>
       </c>
       <c r="D243" s="2"/>
       <c r="E243" t="s" s="2">
@@ -31288,7 +31269,7 @@
         <v>83</v>
       </c>
       <c r="I243" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="J243" t="s" s="2">
         <v>76</v>
@@ -31297,20 +31278,18 @@
         <v>205</v>
       </c>
       <c r="L243" t="s" s="2">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="M243" t="s" s="2">
-        <v>670</v>
+        <v>717</v>
       </c>
       <c r="N243" t="s" s="2">
-        <v>671</v>
+        <v>718</v>
       </c>
       <c r="O243" t="s" s="2">
-        <v>672</v>
-      </c>
-      <c r="P243" t="s" s="2">
-        <v>673</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="P243" s="2"/>
       <c r="Q243" t="s" s="2">
         <v>76</v>
       </c>
@@ -31322,7 +31301,7 @@
         <v>76</v>
       </c>
       <c r="U243" t="s" s="2">
-        <v>674</v>
+        <v>76</v>
       </c>
       <c r="V243" t="s" s="2">
         <v>76</v>
@@ -31358,7 +31337,7 @@
         <v>76</v>
       </c>
       <c r="AG243" t="s" s="2">
-        <v>675</v>
+        <v>716</v>
       </c>
       <c r="AH243" t="s" s="2">
         <v>77</v>
@@ -31378,10 +31357,10 @@
         <v>573</v>
       </c>
       <c r="B244" t="s" s="2">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="C244" t="s" s="2">
-        <v>677</v>
+        <v>719</v>
       </c>
       <c r="D244" s="2"/>
       <c r="E244" t="s" s="2">
@@ -31392,7 +31371,7 @@
         <v>77</v>
       </c>
       <c r="H244" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I244" t="s" s="2">
         <v>76</v>
@@ -31404,16 +31383,16 @@
         <v>205</v>
       </c>
       <c r="L244" t="s" s="2">
-        <v>84</v>
+        <v>720</v>
       </c>
       <c r="M244" t="s" s="2">
-        <v>678</v>
+        <v>721</v>
       </c>
       <c r="N244" t="s" s="2">
-        <v>679</v>
+        <v>722</v>
       </c>
       <c r="O244" t="s" s="2">
-        <v>680</v>
+        <v>349</v>
       </c>
       <c r="P244" s="2"/>
       <c r="Q244" t="s" s="2">
@@ -31427,7 +31406,7 @@
         <v>76</v>
       </c>
       <c r="U244" t="s" s="2">
-        <v>681</v>
+        <v>76</v>
       </c>
       <c r="V244" t="s" s="2">
         <v>76</v>
@@ -31463,19 +31442,19 @@
         <v>76</v>
       </c>
       <c r="AG244" t="s" s="2">
-        <v>682</v>
+        <v>719</v>
       </c>
       <c r="AH244" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI244" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ244" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK244" t="s" s="2">
-        <v>104</v>
+        <v>297</v>
       </c>
     </row>
     <row r="245">
@@ -31486,18 +31465,18 @@
         <v>723</v>
       </c>
       <c r="C245" t="s" s="2">
-        <v>684</v>
+        <v>723</v>
       </c>
       <c r="D245" s="2"/>
       <c r="E245" t="s" s="2">
-        <v>76</v>
+        <v>724</v>
       </c>
       <c r="F245" s="2"/>
       <c r="G245" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H245" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I245" t="s" s="2">
         <v>76</v>
@@ -31509,18 +31488,20 @@
         <v>205</v>
       </c>
       <c r="L245" t="s" s="2">
-        <v>155</v>
+        <v>725</v>
       </c>
       <c r="M245" t="s" s="2">
-        <v>685</v>
+        <v>726</v>
       </c>
       <c r="N245" t="s" s="2">
-        <v>686</v>
+        <v>727</v>
       </c>
       <c r="O245" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="P245" s="2"/>
+        <v>349</v>
+      </c>
+      <c r="P245" t="s" s="2">
+        <v>728</v>
+      </c>
       <c r="Q245" t="s" s="2">
         <v>76</v>
       </c>
@@ -31568,19 +31549,19 @@
         <v>76</v>
       </c>
       <c r="AG245" t="s" s="2">
-        <v>687</v>
+        <v>723</v>
       </c>
       <c r="AH245" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI245" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ245" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK245" t="s" s="2">
-        <v>337</v>
+        <v>297</v>
       </c>
     </row>
     <row r="246">
@@ -31588,10 +31569,10 @@
         <v>573</v>
       </c>
       <c r="B246" t="s" s="2">
-        <v>724</v>
+        <v>729</v>
       </c>
       <c r="C246" t="s" s="2">
-        <v>708</v>
+        <v>729</v>
       </c>
       <c r="D246" s="2"/>
       <c r="E246" t="s" s="2">
@@ -31599,31 +31580,31 @@
       </c>
       <c r="F246" s="2"/>
       <c r="G246" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="H246" t="s" s="2">
         <v>83</v>
       </c>
       <c r="I246" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="J246" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="K246" t="s" s="2">
         <v>205</v>
       </c>
       <c r="L246" t="s" s="2">
-        <v>507</v>
+        <v>222</v>
       </c>
       <c r="M246" t="s" s="2">
-        <v>709</v>
+        <v>730</v>
       </c>
       <c r="N246" t="s" s="2">
-        <v>710</v>
+        <v>731</v>
       </c>
       <c r="O246" t="s" s="2">
-        <v>711</v>
+        <v>284</v>
       </c>
       <c r="P246" s="2"/>
       <c r="Q246" t="s" s="2">
@@ -31649,13 +31630,13 @@
         <v>76</v>
       </c>
       <c r="Y246" t="s" s="2">
-        <v>76</v>
+        <v>191</v>
       </c>
       <c r="Z246" t="s" s="2">
-        <v>76</v>
+        <v>732</v>
       </c>
       <c r="AA246" t="s" s="2">
-        <v>76</v>
+        <v>733</v>
       </c>
       <c r="AB246" t="s" s="2">
         <v>76</v>
@@ -31673,10 +31654,10 @@
         <v>76</v>
       </c>
       <c r="AG246" t="s" s="2">
-        <v>712</v>
+        <v>729</v>
       </c>
       <c r="AH246" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="AI246" t="s" s="2">
         <v>83</v>
@@ -31685,7 +31666,7 @@
         <v>80</v>
       </c>
       <c r="AK246" t="s" s="2">
-        <v>297</v>
+        <v>104</v>
       </c>
     </row>
     <row r="247">
@@ -31693,10 +31674,10 @@
         <v>573</v>
       </c>
       <c r="B247" t="s" s="2">
-        <v>725</v>
+        <v>734</v>
       </c>
       <c r="C247" t="s" s="2">
-        <v>725</v>
+        <v>734</v>
       </c>
       <c r="D247" s="2"/>
       <c r="E247" t="s" s="2">
@@ -31719,16 +31700,16 @@
         <v>205</v>
       </c>
       <c r="L247" t="s" s="2">
-        <v>84</v>
+        <v>145</v>
       </c>
       <c r="M247" t="s" s="2">
-        <v>726</v>
+        <v>735</v>
       </c>
       <c r="N247" t="s" s="2">
-        <v>727</v>
+        <v>736</v>
       </c>
       <c r="O247" t="s" s="2">
-        <v>284</v>
+        <v>314</v>
       </c>
       <c r="P247" s="2"/>
       <c r="Q247" t="s" s="2">
@@ -31754,13 +31735,13 @@
         <v>76</v>
       </c>
       <c r="Y247" t="s" s="2">
-        <v>76</v>
+        <v>146</v>
       </c>
       <c r="Z247" t="s" s="2">
-        <v>76</v>
+        <v>737</v>
       </c>
       <c r="AA247" t="s" s="2">
-        <v>76</v>
+        <v>738</v>
       </c>
       <c r="AB247" t="s" s="2">
         <v>76</v>
@@ -31778,7 +31759,7 @@
         <v>76</v>
       </c>
       <c r="AG247" t="s" s="2">
-        <v>725</v>
+        <v>734</v>
       </c>
       <c r="AH247" t="s" s="2">
         <v>77</v>
@@ -31798,10 +31779,10 @@
         <v>573</v>
       </c>
       <c r="B248" t="s" s="2">
-        <v>728</v>
+        <v>739</v>
       </c>
       <c r="C248" t="s" s="2">
-        <v>728</v>
+        <v>739</v>
       </c>
       <c r="D248" s="2"/>
       <c r="E248" t="s" s="2">
@@ -31812,10 +31793,10 @@
         <v>77</v>
       </c>
       <c r="H248" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I248" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="J248" t="s" s="2">
         <v>76</v>
@@ -31824,16 +31805,16 @@
         <v>205</v>
       </c>
       <c r="L248" t="s" s="2">
-        <v>729</v>
+        <v>145</v>
       </c>
       <c r="M248" t="s" s="2">
-        <v>730</v>
+        <v>740</v>
       </c>
       <c r="N248" t="s" s="2">
-        <v>731</v>
+        <v>741</v>
       </c>
       <c r="O248" t="s" s="2">
-        <v>349</v>
+        <v>314</v>
       </c>
       <c r="P248" s="2"/>
       <c r="Q248" t="s" s="2">
@@ -31859,13 +31840,11 @@
         <v>76</v>
       </c>
       <c r="Y248" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z248" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="Z248" s="2"/>
       <c r="AA248" t="s" s="2">
-        <v>76</v>
+        <v>742</v>
       </c>
       <c r="AB248" t="s" s="2">
         <v>76</v>
@@ -31883,19 +31862,19 @@
         <v>76</v>
       </c>
       <c r="AG248" t="s" s="2">
-        <v>728</v>
+        <v>739</v>
       </c>
       <c r="AH248" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI248" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ248" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK248" t="s" s="2">
-        <v>297</v>
+        <v>104</v>
       </c>
     </row>
     <row r="249">
@@ -31903,14 +31882,14 @@
         <v>573</v>
       </c>
       <c r="B249" t="s" s="2">
-        <v>732</v>
+        <v>743</v>
       </c>
       <c r="C249" t="s" s="2">
-        <v>732</v>
+        <v>743</v>
       </c>
       <c r="D249" s="2"/>
       <c r="E249" t="s" s="2">
-        <v>733</v>
+        <v>76</v>
       </c>
       <c r="F249" s="2"/>
       <c r="G249" t="s" s="2">
@@ -31920,7 +31899,7 @@
         <v>78</v>
       </c>
       <c r="I249" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="J249" t="s" s="2">
         <v>76</v>
@@ -31929,20 +31908,18 @@
         <v>205</v>
       </c>
       <c r="L249" t="s" s="2">
-        <v>734</v>
+        <v>145</v>
       </c>
       <c r="M249" t="s" s="2">
-        <v>735</v>
+        <v>744</v>
       </c>
       <c r="N249" t="s" s="2">
-        <v>736</v>
+        <v>745</v>
       </c>
       <c r="O249" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="P249" t="s" s="2">
-        <v>737</v>
-      </c>
+        <v>314</v>
+      </c>
+      <c r="P249" s="2"/>
       <c r="Q249" t="s" s="2">
         <v>76</v>
       </c>
@@ -31966,13 +31943,11 @@
         <v>76</v>
       </c>
       <c r="Y249" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z249" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="Z249" s="2"/>
       <c r="AA249" t="s" s="2">
-        <v>76</v>
+        <v>746</v>
       </c>
       <c r="AB249" t="s" s="2">
         <v>76</v>
@@ -31990,7 +31965,7 @@
         <v>76</v>
       </c>
       <c r="AG249" t="s" s="2">
-        <v>732</v>
+        <v>743</v>
       </c>
       <c r="AH249" t="s" s="2">
         <v>77</v>
@@ -32002,7 +31977,7 @@
         <v>80</v>
       </c>
       <c r="AK249" t="s" s="2">
-        <v>297</v>
+        <v>104</v>
       </c>
     </row>
     <row r="250">
@@ -32010,10 +31985,10 @@
         <v>573</v>
       </c>
       <c r="B250" t="s" s="2">
-        <v>738</v>
+        <v>747</v>
       </c>
       <c r="C250" t="s" s="2">
-        <v>738</v>
+        <v>747</v>
       </c>
       <c r="D250" s="2"/>
       <c r="E250" t="s" s="2">
@@ -32021,31 +31996,31 @@
       </c>
       <c r="F250" s="2"/>
       <c r="G250" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H250" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I250" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="J250" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="K250" t="s" s="2">
         <v>205</v>
       </c>
       <c r="L250" t="s" s="2">
-        <v>222</v>
+        <v>145</v>
       </c>
       <c r="M250" t="s" s="2">
-        <v>739</v>
+        <v>748</v>
       </c>
       <c r="N250" t="s" s="2">
-        <v>740</v>
+        <v>749</v>
       </c>
       <c r="O250" t="s" s="2">
-        <v>284</v>
+        <v>314</v>
       </c>
       <c r="P250" s="2"/>
       <c r="Q250" t="s" s="2">
@@ -32071,13 +32046,13 @@
         <v>76</v>
       </c>
       <c r="Y250" t="s" s="2">
-        <v>191</v>
+        <v>279</v>
       </c>
       <c r="Z250" t="s" s="2">
-        <v>741</v>
+        <v>750</v>
       </c>
       <c r="AA250" t="s" s="2">
-        <v>742</v>
+        <v>76</v>
       </c>
       <c r="AB250" t="s" s="2">
         <v>76</v>
@@ -32095,13 +32070,13 @@
         <v>76</v>
       </c>
       <c r="AG250" t="s" s="2">
-        <v>738</v>
+        <v>747</v>
       </c>
       <c r="AH250" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AI250" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ250" t="s" s="2">
         <v>80</v>
@@ -32115,10 +32090,10 @@
         <v>573</v>
       </c>
       <c r="B251" t="s" s="2">
-        <v>743</v>
+        <v>751</v>
       </c>
       <c r="C251" t="s" s="2">
-        <v>743</v>
+        <v>751</v>
       </c>
       <c r="D251" s="2"/>
       <c r="E251" t="s" s="2">
@@ -32129,7 +32104,7 @@
         <v>77</v>
       </c>
       <c r="H251" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I251" t="s" s="2">
         <v>205</v>
@@ -32144,10 +32119,10 @@
         <v>145</v>
       </c>
       <c r="M251" t="s" s="2">
-        <v>744</v>
+        <v>752</v>
       </c>
       <c r="N251" t="s" s="2">
-        <v>745</v>
+        <v>753</v>
       </c>
       <c r="O251" t="s" s="2">
         <v>314</v>
@@ -32176,13 +32151,13 @@
         <v>76</v>
       </c>
       <c r="Y251" t="s" s="2">
-        <v>146</v>
+        <v>279</v>
       </c>
       <c r="Z251" t="s" s="2">
-        <v>746</v>
+        <v>754</v>
       </c>
       <c r="AA251" t="s" s="2">
-        <v>747</v>
+        <v>755</v>
       </c>
       <c r="AB251" t="s" s="2">
         <v>76</v>
@@ -32191,22 +32166,22 @@
         <v>76</v>
       </c>
       <c r="AD251" t="s" s="2">
-        <v>76</v>
+        <v>756</v>
       </c>
       <c r="AE251" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF251" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AG251" t="s" s="2">
-        <v>743</v>
+        <v>751</v>
       </c>
       <c r="AH251" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI251" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ251" t="s" s="2">
         <v>80</v>
@@ -32220,12 +32195,14 @@
         <v>573</v>
       </c>
       <c r="B252" t="s" s="2">
-        <v>748</v>
+        <v>757</v>
       </c>
       <c r="C252" t="s" s="2">
-        <v>748</v>
-      </c>
-      <c r="D252" s="2"/>
+        <v>751</v>
+      </c>
+      <c r="D252" t="s" s="2">
+        <v>758</v>
+      </c>
       <c r="E252" t="s" s="2">
         <v>76</v>
       </c>
@@ -32234,7 +32211,7 @@
         <v>77</v>
       </c>
       <c r="H252" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I252" t="s" s="2">
         <v>205</v>
@@ -32249,10 +32226,10 @@
         <v>145</v>
       </c>
       <c r="M252" t="s" s="2">
-        <v>749</v>
+        <v>759</v>
       </c>
       <c r="N252" t="s" s="2">
-        <v>750</v>
+        <v>753</v>
       </c>
       <c r="O252" t="s" s="2">
         <v>314</v>
@@ -32281,35 +32258,37 @@
         <v>76</v>
       </c>
       <c r="Y252" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="Z252" s="2"/>
+        <v>279</v>
+      </c>
+      <c r="Z252" t="s" s="2">
+        <v>754</v>
+      </c>
       <c r="AA252" t="s" s="2">
+        <v>755</v>
+      </c>
+      <c r="AB252" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC252" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD252" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE252" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF252" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG252" t="s" s="2">
         <v>751</v>
       </c>
-      <c r="AB252" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC252" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD252" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE252" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF252" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG252" t="s" s="2">
-        <v>748</v>
-      </c>
       <c r="AH252" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI252" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ252" t="s" s="2">
         <v>80</v>
@@ -32323,10 +32302,10 @@
         <v>573</v>
       </c>
       <c r="B253" t="s" s="2">
-        <v>752</v>
+        <v>760</v>
       </c>
       <c r="C253" t="s" s="2">
-        <v>752</v>
+        <v>761</v>
       </c>
       <c r="D253" s="2"/>
       <c r="E253" t="s" s="2">
@@ -32337,29 +32316,27 @@
         <v>77</v>
       </c>
       <c r="H253" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I253" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="J253" t="s" s="2">
         <v>76</v>
       </c>
       <c r="K253" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="L253" t="s" s="2">
-        <v>145</v>
+        <v>84</v>
       </c>
       <c r="M253" t="s" s="2">
-        <v>753</v>
+        <v>85</v>
       </c>
       <c r="N253" t="s" s="2">
-        <v>754</v>
-      </c>
-      <c r="O253" t="s" s="2">
-        <v>314</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="O253" s="2"/>
       <c r="P253" s="2"/>
       <c r="Q253" t="s" s="2">
         <v>76</v>
@@ -32369,7 +32346,7 @@
         <v>76</v>
       </c>
       <c r="T253" t="s" s="2">
-        <v>76</v>
+        <v>762</v>
       </c>
       <c r="U253" t="s" s="2">
         <v>76</v>
@@ -32384,11 +32361,13 @@
         <v>76</v>
       </c>
       <c r="Y253" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="Z253" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="Z253" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="AA253" t="s" s="2">
-        <v>755</v>
+        <v>76</v>
       </c>
       <c r="AB253" t="s" s="2">
         <v>76</v>
@@ -32406,19 +32385,19 @@
         <v>76</v>
       </c>
       <c r="AG253" t="s" s="2">
-        <v>752</v>
+        <v>87</v>
       </c>
       <c r="AH253" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI253" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ253" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AK253" t="s" s="2">
-        <v>104</v>
+        <v>76</v>
       </c>
     </row>
     <row r="254">
@@ -32426,14 +32405,14 @@
         <v>573</v>
       </c>
       <c r="B254" t="s" s="2">
-        <v>756</v>
+        <v>763</v>
       </c>
       <c r="C254" t="s" s="2">
-        <v>756</v>
+        <v>764</v>
       </c>
       <c r="D254" s="2"/>
       <c r="E254" t="s" s="2">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="F254" s="2"/>
       <c r="G254" t="s" s="2">
@@ -32449,19 +32428,19 @@
         <v>76</v>
       </c>
       <c r="K254" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="L254" t="s" s="2">
-        <v>145</v>
+        <v>89</v>
       </c>
       <c r="M254" t="s" s="2">
-        <v>757</v>
+        <v>111</v>
       </c>
       <c r="N254" t="s" s="2">
-        <v>758</v>
+        <v>112</v>
       </c>
       <c r="O254" t="s" s="2">
-        <v>314</v>
+        <v>113</v>
       </c>
       <c r="P254" s="2"/>
       <c r="Q254" t="s" s="2">
@@ -32487,10 +32466,10 @@
         <v>76</v>
       </c>
       <c r="Y254" t="s" s="2">
-        <v>279</v>
+        <v>76</v>
       </c>
       <c r="Z254" t="s" s="2">
-        <v>759</v>
+        <v>76</v>
       </c>
       <c r="AA254" t="s" s="2">
         <v>76</v>
@@ -32499,19 +32478,19 @@
         <v>76</v>
       </c>
       <c r="AC254" t="s" s="2">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="AD254" t="s" s="2">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="AE254" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF254" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AG254" t="s" s="2">
-        <v>756</v>
+        <v>94</v>
       </c>
       <c r="AH254" t="s" s="2">
         <v>77</v>
@@ -32523,7 +32502,7 @@
         <v>80</v>
       </c>
       <c r="AK254" t="s" s="2">
-        <v>104</v>
+        <v>81</v>
       </c>
     </row>
     <row r="255">
@@ -32531,10 +32510,10 @@
         <v>573</v>
       </c>
       <c r="B255" t="s" s="2">
-        <v>760</v>
+        <v>765</v>
       </c>
       <c r="C255" t="s" s="2">
-        <v>760</v>
+        <v>766</v>
       </c>
       <c r="D255" s="2"/>
       <c r="E255" t="s" s="2">
@@ -32548,7 +32527,7 @@
         <v>78</v>
       </c>
       <c r="I255" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="J255" t="s" s="2">
         <v>76</v>
@@ -32557,18 +32536,20 @@
         <v>205</v>
       </c>
       <c r="L255" t="s" s="2">
-        <v>145</v>
+        <v>405</v>
       </c>
       <c r="M255" t="s" s="2">
-        <v>761</v>
+        <v>767</v>
       </c>
       <c r="N255" t="s" s="2">
-        <v>762</v>
+        <v>768</v>
       </c>
       <c r="O255" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="P255" s="2"/>
+        <v>769</v>
+      </c>
+      <c r="P255" t="s" s="2">
+        <v>770</v>
+      </c>
       <c r="Q255" t="s" s="2">
         <v>76</v>
       </c>
@@ -32592,13 +32573,13 @@
         <v>76</v>
       </c>
       <c r="Y255" t="s" s="2">
-        <v>279</v>
+        <v>76</v>
       </c>
       <c r="Z255" t="s" s="2">
-        <v>763</v>
+        <v>76</v>
       </c>
       <c r="AA255" t="s" s="2">
-        <v>764</v>
+        <v>76</v>
       </c>
       <c r="AB255" t="s" s="2">
         <v>76</v>
@@ -32607,16 +32588,16 @@
         <v>76</v>
       </c>
       <c r="AD255" t="s" s="2">
-        <v>765</v>
+        <v>76</v>
       </c>
       <c r="AE255" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF255" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AG255" t="s" s="2">
-        <v>760</v>
+        <v>771</v>
       </c>
       <c r="AH255" t="s" s="2">
         <v>77</v>
@@ -32636,14 +32617,12 @@
         <v>573</v>
       </c>
       <c r="B256" t="s" s="2">
-        <v>766</v>
+        <v>772</v>
       </c>
       <c r="C256" t="s" s="2">
-        <v>760</v>
-      </c>
-      <c r="D256" t="s" s="2">
-        <v>767</v>
-      </c>
+        <v>773</v>
+      </c>
+      <c r="D256" s="2"/>
       <c r="E256" t="s" s="2">
         <v>76</v>
       </c>
@@ -32652,29 +32631,27 @@
         <v>77</v>
       </c>
       <c r="H256" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I256" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="J256" t="s" s="2">
         <v>76</v>
       </c>
       <c r="K256" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="L256" t="s" s="2">
-        <v>145</v>
+        <v>84</v>
       </c>
       <c r="M256" t="s" s="2">
-        <v>768</v>
+        <v>85</v>
       </c>
       <c r="N256" t="s" s="2">
-        <v>762</v>
-      </c>
-      <c r="O256" t="s" s="2">
-        <v>314</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="O256" s="2"/>
       <c r="P256" s="2"/>
       <c r="Q256" t="s" s="2">
         <v>76</v>
@@ -32699,13 +32676,13 @@
         <v>76</v>
       </c>
       <c r="Y256" t="s" s="2">
-        <v>279</v>
+        <v>76</v>
       </c>
       <c r="Z256" t="s" s="2">
-        <v>763</v>
+        <v>76</v>
       </c>
       <c r="AA256" t="s" s="2">
-        <v>764</v>
+        <v>76</v>
       </c>
       <c r="AB256" t="s" s="2">
         <v>76</v>
@@ -32723,19 +32700,19 @@
         <v>76</v>
       </c>
       <c r="AG256" t="s" s="2">
-        <v>760</v>
+        <v>87</v>
       </c>
       <c r="AH256" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI256" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ256" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AK256" t="s" s="2">
-        <v>104</v>
+        <v>76</v>
       </c>
     </row>
     <row r="257">
@@ -32743,21 +32720,21 @@
         <v>573</v>
       </c>
       <c r="B257" t="s" s="2">
-        <v>769</v>
+        <v>774</v>
       </c>
       <c r="C257" t="s" s="2">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="D257" s="2"/>
       <c r="E257" t="s" s="2">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="F257" s="2"/>
       <c r="G257" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H257" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I257" t="s" s="2">
         <v>76</v>
@@ -32769,15 +32746,17 @@
         <v>76</v>
       </c>
       <c r="L257" t="s" s="2">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="M257" t="s" s="2">
-        <v>85</v>
+        <v>111</v>
       </c>
       <c r="N257" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="O257" s="2"/>
+        <v>112</v>
+      </c>
+      <c r="O257" t="s" s="2">
+        <v>113</v>
+      </c>
       <c r="P257" s="2"/>
       <c r="Q257" t="s" s="2">
         <v>76</v>
@@ -32787,7 +32766,7 @@
         <v>76</v>
       </c>
       <c r="T257" t="s" s="2">
-        <v>771</v>
+        <v>76</v>
       </c>
       <c r="U257" t="s" s="2">
         <v>76</v>
@@ -32814,31 +32793,31 @@
         <v>76</v>
       </c>
       <c r="AC257" t="s" s="2">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="AD257" t="s" s="2">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="AE257" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF257" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AG257" t="s" s="2">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="AH257" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI257" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ257" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AK257" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="258">
@@ -32846,21 +32825,21 @@
         <v>573</v>
       </c>
       <c r="B258" t="s" s="2">
-        <v>772</v>
+        <v>776</v>
       </c>
       <c r="C258" t="s" s="2">
-        <v>773</v>
+        <v>777</v>
       </c>
       <c r="D258" s="2"/>
       <c r="E258" t="s" s="2">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="F258" s="2"/>
       <c r="G258" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H258" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I258" t="s" s="2">
         <v>76</v>
@@ -32869,21 +32848,23 @@
         <v>76</v>
       </c>
       <c r="K258" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="L258" t="s" s="2">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="M258" t="s" s="2">
-        <v>111</v>
+        <v>778</v>
       </c>
       <c r="N258" t="s" s="2">
-        <v>112</v>
+        <v>779</v>
       </c>
       <c r="O258" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="P258" s="2"/>
+        <v>780</v>
+      </c>
+      <c r="P258" t="s" s="2">
+        <v>781</v>
+      </c>
       <c r="Q258" t="s" s="2">
         <v>76</v>
       </c>
@@ -32892,7 +32873,7 @@
         <v>76</v>
       </c>
       <c r="T258" t="s" s="2">
-        <v>76</v>
+        <v>782</v>
       </c>
       <c r="U258" t="s" s="2">
         <v>76</v>
@@ -32919,31 +32900,31 @@
         <v>76</v>
       </c>
       <c r="AC258" t="s" s="2">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AD258" t="s" s="2">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="AE258" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF258" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AG258" t="s" s="2">
-        <v>94</v>
+        <v>783</v>
       </c>
       <c r="AH258" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI258" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ258" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK258" t="s" s="2">
-        <v>81</v>
+        <v>104</v>
       </c>
     </row>
     <row r="259">
@@ -32951,10 +32932,10 @@
         <v>573</v>
       </c>
       <c r="B259" t="s" s="2">
-        <v>774</v>
+        <v>784</v>
       </c>
       <c r="C259" t="s" s="2">
-        <v>775</v>
+        <v>785</v>
       </c>
       <c r="D259" s="2"/>
       <c r="E259" t="s" s="2">
@@ -32965,7 +32946,7 @@
         <v>77</v>
       </c>
       <c r="H259" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I259" t="s" s="2">
         <v>76</v>
@@ -32977,20 +32958,18 @@
         <v>205</v>
       </c>
       <c r="L259" t="s" s="2">
-        <v>405</v>
+        <v>84</v>
       </c>
       <c r="M259" t="s" s="2">
-        <v>776</v>
+        <v>786</v>
       </c>
       <c r="N259" t="s" s="2">
-        <v>777</v>
+        <v>787</v>
       </c>
       <c r="O259" t="s" s="2">
-        <v>778</v>
-      </c>
-      <c r="P259" t="s" s="2">
-        <v>779</v>
-      </c>
+        <v>788</v>
+      </c>
+      <c r="P259" s="2"/>
       <c r="Q259" t="s" s="2">
         <v>76</v>
       </c>
@@ -33038,13 +33017,13 @@
         <v>76</v>
       </c>
       <c r="AG259" t="s" s="2">
-        <v>780</v>
+        <v>789</v>
       </c>
       <c r="AH259" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI259" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ259" t="s" s="2">
         <v>80</v>
@@ -33058,10 +33037,10 @@
         <v>573</v>
       </c>
       <c r="B260" t="s" s="2">
-        <v>781</v>
+        <v>790</v>
       </c>
       <c r="C260" t="s" s="2">
-        <v>782</v>
+        <v>791</v>
       </c>
       <c r="D260" s="2"/>
       <c r="E260" t="s" s="2">
@@ -33081,19 +33060,23 @@
         <v>76</v>
       </c>
       <c r="K260" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="L260" t="s" s="2">
-        <v>84</v>
+        <v>222</v>
       </c>
       <c r="M260" t="s" s="2">
-        <v>85</v>
+        <v>792</v>
       </c>
       <c r="N260" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="O260" s="2"/>
-      <c r="P260" s="2"/>
+        <v>793</v>
+      </c>
+      <c r="O260" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="P260" t="s" s="2">
+        <v>794</v>
+      </c>
       <c r="Q260" t="s" s="2">
         <v>76</v>
       </c>
@@ -33141,7 +33124,7 @@
         <v>76</v>
       </c>
       <c r="AG260" t="s" s="2">
-        <v>87</v>
+        <v>795</v>
       </c>
       <c r="AH260" t="s" s="2">
         <v>77</v>
@@ -33150,10 +33133,10 @@
         <v>83</v>
       </c>
       <c r="AJ260" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AK260" t="s" s="2">
-        <v>76</v>
+        <v>104</v>
       </c>
     </row>
     <row r="261">
@@ -33161,21 +33144,21 @@
         <v>573</v>
       </c>
       <c r="B261" t="s" s="2">
-        <v>783</v>
+        <v>796</v>
       </c>
       <c r="C261" t="s" s="2">
-        <v>784</v>
+        <v>797</v>
       </c>
       <c r="D261" s="2"/>
       <c r="E261" t="s" s="2">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="F261" s="2"/>
       <c r="G261" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H261" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I261" t="s" s="2">
         <v>76</v>
@@ -33184,21 +33167,23 @@
         <v>76</v>
       </c>
       <c r="K261" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="L261" t="s" s="2">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="M261" t="s" s="2">
-        <v>111</v>
+        <v>798</v>
       </c>
       <c r="N261" t="s" s="2">
-        <v>112</v>
+        <v>799</v>
       </c>
       <c r="O261" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="P261" s="2"/>
+        <v>284</v>
+      </c>
+      <c r="P261" t="s" s="2">
+        <v>800</v>
+      </c>
       <c r="Q261" t="s" s="2">
         <v>76</v>
       </c>
@@ -33234,31 +33219,31 @@
         <v>76</v>
       </c>
       <c r="AC261" t="s" s="2">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AD261" t="s" s="2">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="AE261" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF261" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AG261" t="s" s="2">
-        <v>94</v>
+        <v>801</v>
       </c>
       <c r="AH261" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI261" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ261" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK261" t="s" s="2">
-        <v>81</v>
+        <v>104</v>
       </c>
     </row>
     <row r="262">
@@ -33266,10 +33251,10 @@
         <v>573</v>
       </c>
       <c r="B262" t="s" s="2">
-        <v>785</v>
+        <v>802</v>
       </c>
       <c r="C262" t="s" s="2">
-        <v>786</v>
+        <v>803</v>
       </c>
       <c r="D262" s="2"/>
       <c r="E262" t="s" s="2">
@@ -33292,19 +33277,19 @@
         <v>205</v>
       </c>
       <c r="L262" t="s" s="2">
-        <v>96</v>
+        <v>258</v>
       </c>
       <c r="M262" t="s" s="2">
-        <v>787</v>
+        <v>804</v>
       </c>
       <c r="N262" t="s" s="2">
-        <v>788</v>
+        <v>805</v>
       </c>
       <c r="O262" t="s" s="2">
-        <v>789</v>
+        <v>806</v>
       </c>
       <c r="P262" t="s" s="2">
-        <v>790</v>
+        <v>807</v>
       </c>
       <c r="Q262" t="s" s="2">
         <v>76</v>
@@ -33314,7 +33299,7 @@
         <v>76</v>
       </c>
       <c r="T262" t="s" s="2">
-        <v>791</v>
+        <v>76</v>
       </c>
       <c r="U262" t="s" s="2">
         <v>76</v>
@@ -33353,7 +33338,7 @@
         <v>76</v>
       </c>
       <c r="AG262" t="s" s="2">
-        <v>792</v>
+        <v>808</v>
       </c>
       <c r="AH262" t="s" s="2">
         <v>77</v>
@@ -33373,10 +33358,10 @@
         <v>573</v>
       </c>
       <c r="B263" t="s" s="2">
-        <v>793</v>
+        <v>809</v>
       </c>
       <c r="C263" t="s" s="2">
-        <v>794</v>
+        <v>810</v>
       </c>
       <c r="D263" s="2"/>
       <c r="E263" t="s" s="2">
@@ -33402,15 +33387,17 @@
         <v>84</v>
       </c>
       <c r="M263" t="s" s="2">
-        <v>795</v>
+        <v>811</v>
       </c>
       <c r="N263" t="s" s="2">
-        <v>796</v>
+        <v>812</v>
       </c>
       <c r="O263" t="s" s="2">
-        <v>797</v>
-      </c>
-      <c r="P263" s="2"/>
+        <v>813</v>
+      </c>
+      <c r="P263" t="s" s="2">
+        <v>814</v>
+      </c>
       <c r="Q263" t="s" s="2">
         <v>76</v>
       </c>
@@ -33458,7 +33445,7 @@
         <v>76</v>
       </c>
       <c r="AG263" t="s" s="2">
-        <v>798</v>
+        <v>815</v>
       </c>
       <c r="AH263" t="s" s="2">
         <v>77</v>
@@ -33478,12 +33465,14 @@
         <v>573</v>
       </c>
       <c r="B264" t="s" s="2">
-        <v>799</v>
+        <v>816</v>
       </c>
       <c r="C264" t="s" s="2">
-        <v>800</v>
-      </c>
-      <c r="D264" s="2"/>
+        <v>751</v>
+      </c>
+      <c r="D264" t="s" s="2">
+        <v>817</v>
+      </c>
       <c r="E264" t="s" s="2">
         <v>76</v>
       </c>
@@ -33492,10 +33481,10 @@
         <v>77</v>
       </c>
       <c r="H264" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I264" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="J264" t="s" s="2">
         <v>76</v>
@@ -33504,20 +33493,18 @@
         <v>205</v>
       </c>
       <c r="L264" t="s" s="2">
-        <v>222</v>
+        <v>145</v>
       </c>
       <c r="M264" t="s" s="2">
-        <v>801</v>
+        <v>818</v>
       </c>
       <c r="N264" t="s" s="2">
-        <v>802</v>
+        <v>753</v>
       </c>
       <c r="O264" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="P264" t="s" s="2">
-        <v>803</v>
-      </c>
+        <v>314</v>
+      </c>
+      <c r="P264" s="2"/>
       <c r="Q264" t="s" s="2">
         <v>76</v>
       </c>
@@ -33541,13 +33528,13 @@
         <v>76</v>
       </c>
       <c r="Y264" t="s" s="2">
-        <v>76</v>
+        <v>279</v>
       </c>
       <c r="Z264" t="s" s="2">
-        <v>76</v>
+        <v>754</v>
       </c>
       <c r="AA264" t="s" s="2">
-        <v>76</v>
+        <v>755</v>
       </c>
       <c r="AB264" t="s" s="2">
         <v>76</v>
@@ -33565,13 +33552,13 @@
         <v>76</v>
       </c>
       <c r="AG264" t="s" s="2">
-        <v>804</v>
+        <v>751</v>
       </c>
       <c r="AH264" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI264" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ264" t="s" s="2">
         <v>80</v>
@@ -33585,10 +33572,10 @@
         <v>573</v>
       </c>
       <c r="B265" t="s" s="2">
-        <v>805</v>
+        <v>819</v>
       </c>
       <c r="C265" t="s" s="2">
-        <v>806</v>
+        <v>761</v>
       </c>
       <c r="D265" s="2"/>
       <c r="E265" t="s" s="2">
@@ -33608,23 +33595,19 @@
         <v>76</v>
       </c>
       <c r="K265" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="L265" t="s" s="2">
         <v>84</v>
       </c>
       <c r="M265" t="s" s="2">
-        <v>807</v>
+        <v>85</v>
       </c>
       <c r="N265" t="s" s="2">
-        <v>808</v>
-      </c>
-      <c r="O265" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="P265" t="s" s="2">
-        <v>809</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="O265" s="2"/>
+      <c r="P265" s="2"/>
       <c r="Q265" t="s" s="2">
         <v>76</v>
       </c>
@@ -33633,7 +33616,7 @@
         <v>76</v>
       </c>
       <c r="T265" t="s" s="2">
-        <v>76</v>
+        <v>820</v>
       </c>
       <c r="U265" t="s" s="2">
         <v>76</v>
@@ -33672,7 +33655,7 @@
         <v>76</v>
       </c>
       <c r="AG265" t="s" s="2">
-        <v>810</v>
+        <v>87</v>
       </c>
       <c r="AH265" t="s" s="2">
         <v>77</v>
@@ -33681,10 +33664,10 @@
         <v>83</v>
       </c>
       <c r="AJ265" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AK265" t="s" s="2">
-        <v>104</v>
+        <v>76</v>
       </c>
     </row>
     <row r="266">
@@ -33692,21 +33675,21 @@
         <v>573</v>
       </c>
       <c r="B266" t="s" s="2">
-        <v>811</v>
+        <v>821</v>
       </c>
       <c r="C266" t="s" s="2">
-        <v>812</v>
+        <v>764</v>
       </c>
       <c r="D266" s="2"/>
       <c r="E266" t="s" s="2">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="F266" s="2"/>
       <c r="G266" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H266" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I266" t="s" s="2">
         <v>76</v>
@@ -33715,23 +33698,21 @@
         <v>76</v>
       </c>
       <c r="K266" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="L266" t="s" s="2">
-        <v>258</v>
+        <v>89</v>
       </c>
       <c r="M266" t="s" s="2">
-        <v>813</v>
+        <v>111</v>
       </c>
       <c r="N266" t="s" s="2">
-        <v>814</v>
+        <v>112</v>
       </c>
       <c r="O266" t="s" s="2">
-        <v>815</v>
-      </c>
-      <c r="P266" t="s" s="2">
-        <v>816</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="P266" s="2"/>
       <c r="Q266" t="s" s="2">
         <v>76</v>
       </c>
@@ -33767,31 +33748,31 @@
         <v>76</v>
       </c>
       <c r="AC266" t="s" s="2">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="AD266" t="s" s="2">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="AE266" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF266" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AG266" t="s" s="2">
-        <v>817</v>
+        <v>94</v>
       </c>
       <c r="AH266" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI266" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ266" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK266" t="s" s="2">
-        <v>104</v>
+        <v>81</v>
       </c>
     </row>
     <row r="267">
@@ -33799,10 +33780,10 @@
         <v>573</v>
       </c>
       <c r="B267" t="s" s="2">
-        <v>818</v>
+        <v>822</v>
       </c>
       <c r="C267" t="s" s="2">
-        <v>819</v>
+        <v>766</v>
       </c>
       <c r="D267" s="2"/>
       <c r="E267" t="s" s="2">
@@ -33813,7 +33794,7 @@
         <v>77</v>
       </c>
       <c r="H267" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I267" t="s" s="2">
         <v>76</v>
@@ -33825,19 +33806,19 @@
         <v>205</v>
       </c>
       <c r="L267" t="s" s="2">
-        <v>84</v>
+        <v>405</v>
       </c>
       <c r="M267" t="s" s="2">
-        <v>820</v>
+        <v>767</v>
       </c>
       <c r="N267" t="s" s="2">
-        <v>821</v>
+        <v>768</v>
       </c>
       <c r="O267" t="s" s="2">
-        <v>822</v>
+        <v>769</v>
       </c>
       <c r="P267" t="s" s="2">
-        <v>823</v>
+        <v>770</v>
       </c>
       <c r="Q267" t="s" s="2">
         <v>76</v>
@@ -33886,13 +33867,13 @@
         <v>76</v>
       </c>
       <c r="AG267" t="s" s="2">
-        <v>824</v>
+        <v>771</v>
       </c>
       <c r="AH267" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI267" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ267" t="s" s="2">
         <v>80</v>
@@ -33906,26 +33887,24 @@
         <v>573</v>
       </c>
       <c r="B268" t="s" s="2">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="C268" t="s" s="2">
-        <v>760</v>
-      </c>
-      <c r="D268" t="s" s="2">
-        <v>826</v>
-      </c>
+        <v>810</v>
+      </c>
+      <c r="D268" s="2"/>
       <c r="E268" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F268" s="2"/>
       <c r="G268" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="H268" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I268" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="J268" t="s" s="2">
         <v>76</v>
@@ -33934,18 +33913,20 @@
         <v>205</v>
       </c>
       <c r="L268" t="s" s="2">
-        <v>145</v>
+        <v>84</v>
       </c>
       <c r="M268" t="s" s="2">
-        <v>827</v>
+        <v>811</v>
       </c>
       <c r="N268" t="s" s="2">
-        <v>762</v>
+        <v>812</v>
       </c>
       <c r="O268" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="P268" s="2"/>
+        <v>813</v>
+      </c>
+      <c r="P268" t="s" s="2">
+        <v>814</v>
+      </c>
       <c r="Q268" t="s" s="2">
         <v>76</v>
       </c>
@@ -33969,13 +33950,13 @@
         <v>76</v>
       </c>
       <c r="Y268" t="s" s="2">
-        <v>279</v>
+        <v>76</v>
       </c>
       <c r="Z268" t="s" s="2">
-        <v>763</v>
+        <v>76</v>
       </c>
       <c r="AA268" t="s" s="2">
-        <v>764</v>
+        <v>76</v>
       </c>
       <c r="AB268" t="s" s="2">
         <v>76</v>
@@ -33993,13 +33974,13 @@
         <v>76</v>
       </c>
       <c r="AG268" t="s" s="2">
-        <v>760</v>
+        <v>815</v>
       </c>
       <c r="AH268" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI268" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ268" t="s" s="2">
         <v>80</v>
@@ -34013,10 +33994,10 @@
         <v>573</v>
       </c>
       <c r="B269" t="s" s="2">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="C269" t="s" s="2">
-        <v>770</v>
+        <v>824</v>
       </c>
       <c r="D269" s="2"/>
       <c r="E269" t="s" s="2">
@@ -34027,25 +34008,25 @@
         <v>77</v>
       </c>
       <c r="H269" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I269" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="J269" t="s" s="2">
         <v>76</v>
       </c>
       <c r="K269" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="L269" t="s" s="2">
-        <v>84</v>
+        <v>825</v>
       </c>
       <c r="M269" t="s" s="2">
-        <v>85</v>
+        <v>826</v>
       </c>
       <c r="N269" t="s" s="2">
-        <v>86</v>
+        <v>827</v>
       </c>
       <c r="O269" s="2"/>
       <c r="P269" s="2"/>
@@ -34057,7 +34038,7 @@
         <v>76</v>
       </c>
       <c r="T269" t="s" s="2">
-        <v>829</v>
+        <v>76</v>
       </c>
       <c r="U269" t="s" s="2">
         <v>76</v>
@@ -34096,19 +34077,19 @@
         <v>76</v>
       </c>
       <c r="AG269" t="s" s="2">
-        <v>87</v>
+        <v>824</v>
       </c>
       <c r="AH269" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI269" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ269" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AK269" t="s" s="2">
-        <v>76</v>
+        <v>104</v>
       </c>
     </row>
     <row r="270">
@@ -34116,21 +34097,21 @@
         <v>573</v>
       </c>
       <c r="B270" t="s" s="2">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="C270" t="s" s="2">
-        <v>773</v>
+        <v>828</v>
       </c>
       <c r="D270" s="2"/>
       <c r="E270" t="s" s="2">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="F270" s="2"/>
       <c r="G270" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H270" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I270" t="s" s="2">
         <v>76</v>
@@ -34142,17 +34123,15 @@
         <v>76</v>
       </c>
       <c r="L270" t="s" s="2">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="M270" t="s" s="2">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="N270" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="O270" t="s" s="2">
-        <v>113</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="O270" s="2"/>
       <c r="P270" s="2"/>
       <c r="Q270" t="s" s="2">
         <v>76</v>
@@ -34189,31 +34168,31 @@
         <v>76</v>
       </c>
       <c r="AC270" t="s" s="2">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AD270" t="s" s="2">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="AE270" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF270" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AG270" t="s" s="2">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="AH270" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI270" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ270" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AK270" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="271">
@@ -34221,14 +34200,14 @@
         <v>573</v>
       </c>
       <c r="B271" t="s" s="2">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="C271" t="s" s="2">
-        <v>775</v>
+        <v>829</v>
       </c>
       <c r="D271" s="2"/>
       <c r="E271" t="s" s="2">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="F271" s="2"/>
       <c r="G271" t="s" s="2">
@@ -34244,23 +34223,21 @@
         <v>76</v>
       </c>
       <c r="K271" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="L271" t="s" s="2">
-        <v>405</v>
+        <v>89</v>
       </c>
       <c r="M271" t="s" s="2">
-        <v>776</v>
+        <v>111</v>
       </c>
       <c r="N271" t="s" s="2">
-        <v>777</v>
+        <v>112</v>
       </c>
       <c r="O271" t="s" s="2">
-        <v>778</v>
-      </c>
-      <c r="P271" t="s" s="2">
-        <v>779</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="P271" s="2"/>
       <c r="Q271" t="s" s="2">
         <v>76</v>
       </c>
@@ -34296,19 +34273,19 @@
         <v>76</v>
       </c>
       <c r="AC271" t="s" s="2">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="AD271" t="s" s="2">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="AE271" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF271" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AG271" t="s" s="2">
-        <v>780</v>
+        <v>94</v>
       </c>
       <c r="AH271" t="s" s="2">
         <v>77</v>
@@ -34320,7 +34297,7 @@
         <v>80</v>
       </c>
       <c r="AK271" t="s" s="2">
-        <v>104</v>
+        <v>81</v>
       </c>
     </row>
     <row r="272">
@@ -34328,46 +34305,44 @@
         <v>573</v>
       </c>
       <c r="B272" t="s" s="2">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="C272" t="s" s="2">
-        <v>819</v>
-      </c>
-      <c r="D272" s="2"/>
+        <v>829</v>
+      </c>
+      <c r="D272" t="s" s="2">
+        <v>187</v>
+      </c>
       <c r="E272" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F272" s="2"/>
       <c r="G272" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H272" t="s" s="2">
         <v>83</v>
       </c>
       <c r="I272" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="J272" t="s" s="2">
         <v>76</v>
       </c>
       <c r="K272" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="L272" t="s" s="2">
-        <v>84</v>
+        <v>831</v>
       </c>
       <c r="M272" t="s" s="2">
-        <v>820</v>
+        <v>832</v>
       </c>
       <c r="N272" t="s" s="2">
-        <v>821</v>
-      </c>
-      <c r="O272" t="s" s="2">
-        <v>822</v>
-      </c>
-      <c r="P272" t="s" s="2">
-        <v>823</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="O272" s="2"/>
+      <c r="P272" s="2"/>
       <c r="Q272" t="s" s="2">
         <v>76</v>
       </c>
@@ -34415,19 +34390,19 @@
         <v>76</v>
       </c>
       <c r="AG272" t="s" s="2">
-        <v>824</v>
+        <v>94</v>
       </c>
       <c r="AH272" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI272" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ272" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK272" t="s" s="2">
-        <v>104</v>
+        <v>81</v>
       </c>
     </row>
     <row r="273">
@@ -34438,9 +34413,11 @@
         <v>833</v>
       </c>
       <c r="C273" t="s" s="2">
-        <v>833</v>
-      </c>
-      <c r="D273" s="2"/>
+        <v>829</v>
+      </c>
+      <c r="D273" t="s" s="2">
+        <v>172</v>
+      </c>
       <c r="E273" t="s" s="2">
         <v>76</v>
       </c>
@@ -34449,7 +34426,7 @@
         <v>77</v>
       </c>
       <c r="H273" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I273" t="s" s="2">
         <v>205</v>
@@ -34458,7 +34435,7 @@
         <v>76</v>
       </c>
       <c r="K273" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="L273" t="s" s="2">
         <v>834</v>
@@ -34467,7 +34444,7 @@
         <v>835</v>
       </c>
       <c r="N273" t="s" s="2">
-        <v>836</v>
+        <v>175</v>
       </c>
       <c r="O273" s="2"/>
       <c r="P273" s="2"/>
@@ -34518,7 +34495,7 @@
         <v>76</v>
       </c>
       <c r="AG273" t="s" s="2">
-        <v>833</v>
+        <v>94</v>
       </c>
       <c r="AH273" t="s" s="2">
         <v>77</v>
@@ -34530,7 +34507,7 @@
         <v>80</v>
       </c>
       <c r="AK273" t="s" s="2">
-        <v>104</v>
+        <v>81</v>
       </c>
     </row>
     <row r="274">
@@ -34538,12 +34515,14 @@
         <v>573</v>
       </c>
       <c r="B274" t="s" s="2">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="C274" t="s" s="2">
-        <v>837</v>
-      </c>
-      <c r="D274" s="2"/>
+        <v>829</v>
+      </c>
+      <c r="D274" t="s" s="2">
+        <v>178</v>
+      </c>
       <c r="E274" t="s" s="2">
         <v>76</v>
       </c>
@@ -34555,7 +34534,7 @@
         <v>83</v>
       </c>
       <c r="I274" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="J274" t="s" s="2">
         <v>76</v>
@@ -34564,13 +34543,13 @@
         <v>76</v>
       </c>
       <c r="L274" t="s" s="2">
-        <v>84</v>
+        <v>837</v>
       </c>
       <c r="M274" t="s" s="2">
-        <v>85</v>
+        <v>838</v>
       </c>
       <c r="N274" t="s" s="2">
-        <v>86</v>
+        <v>181</v>
       </c>
       <c r="O274" s="2"/>
       <c r="P274" s="2"/>
@@ -34621,19 +34600,19 @@
         <v>76</v>
       </c>
       <c r="AG274" t="s" s="2">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="AH274" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI274" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ274" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AK274" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="275">
@@ -34641,24 +34620,26 @@
         <v>573</v>
       </c>
       <c r="B275" t="s" s="2">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="C275" t="s" s="2">
-        <v>838</v>
-      </c>
-      <c r="D275" s="2"/>
+        <v>829</v>
+      </c>
+      <c r="D275" t="s" s="2">
+        <v>182</v>
+      </c>
       <c r="E275" t="s" s="2">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="F275" s="2"/>
       <c r="G275" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H275" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I275" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="J275" t="s" s="2">
         <v>76</v>
@@ -34667,17 +34648,15 @@
         <v>76</v>
       </c>
       <c r="L275" t="s" s="2">
-        <v>89</v>
+        <v>840</v>
       </c>
       <c r="M275" t="s" s="2">
-        <v>111</v>
+        <v>841</v>
       </c>
       <c r="N275" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="O275" t="s" s="2">
-        <v>113</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="O275" s="2"/>
       <c r="P275" s="2"/>
       <c r="Q275" t="s" s="2">
         <v>76</v>
@@ -34714,16 +34693,16 @@
         <v>76</v>
       </c>
       <c r="AC275" t="s" s="2">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AD275" t="s" s="2">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="AE275" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF275" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AG275" t="s" s="2">
         <v>94</v>
@@ -34746,14 +34725,12 @@
         <v>573</v>
       </c>
       <c r="B276" t="s" s="2">
-        <v>839</v>
+        <v>842</v>
       </c>
       <c r="C276" t="s" s="2">
-        <v>838</v>
-      </c>
-      <c r="D276" t="s" s="2">
-        <v>187</v>
-      </c>
+        <v>842</v>
+      </c>
+      <c r="D276" s="2"/>
       <c r="E276" t="s" s="2">
         <v>76</v>
       </c>
@@ -34765,24 +34742,26 @@
         <v>83</v>
       </c>
       <c r="I276" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J276" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K276" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="J276" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K276" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="L276" t="s" s="2">
-        <v>840</v>
+        <v>84</v>
       </c>
       <c r="M276" t="s" s="2">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="N276" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="O276" s="2"/>
+        <v>844</v>
+      </c>
+      <c r="O276" t="s" s="2">
+        <v>845</v>
+      </c>
       <c r="P276" s="2"/>
       <c r="Q276" t="s" s="2">
         <v>76</v>
@@ -34831,19 +34810,19 @@
         <v>76</v>
       </c>
       <c r="AG276" t="s" s="2">
-        <v>94</v>
+        <v>846</v>
       </c>
       <c r="AH276" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI276" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ276" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK276" t="s" s="2">
-        <v>81</v>
+        <v>104</v>
       </c>
     </row>
     <row r="277">
@@ -34851,14 +34830,12 @@
         <v>573</v>
       </c>
       <c r="B277" t="s" s="2">
-        <v>842</v>
+        <v>847</v>
       </c>
       <c r="C277" t="s" s="2">
-        <v>838</v>
-      </c>
-      <c r="D277" t="s" s="2">
-        <v>172</v>
-      </c>
+        <v>847</v>
+      </c>
+      <c r="D277" s="2"/>
       <c r="E277" t="s" s="2">
         <v>76</v>
       </c>
@@ -34867,25 +34844,25 @@
         <v>77</v>
       </c>
       <c r="H277" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I277" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J277" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K277" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="J277" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K277" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="L277" t="s" s="2">
-        <v>843</v>
+        <v>435</v>
       </c>
       <c r="M277" t="s" s="2">
-        <v>844</v>
+        <v>848</v>
       </c>
       <c r="N277" t="s" s="2">
-        <v>175</v>
+        <v>849</v>
       </c>
       <c r="O277" s="2"/>
       <c r="P277" s="2"/>
@@ -34936,7 +34913,7 @@
         <v>76</v>
       </c>
       <c r="AG277" t="s" s="2">
-        <v>94</v>
+        <v>850</v>
       </c>
       <c r="AH277" t="s" s="2">
         <v>77</v>
@@ -34948,7 +34925,7 @@
         <v>80</v>
       </c>
       <c r="AK277" t="s" s="2">
-        <v>81</v>
+        <v>438</v>
       </c>
     </row>
     <row r="278">
@@ -34956,14 +34933,12 @@
         <v>573</v>
       </c>
       <c r="B278" t="s" s="2">
-        <v>845</v>
+        <v>851</v>
       </c>
       <c r="C278" t="s" s="2">
-        <v>838</v>
-      </c>
-      <c r="D278" t="s" s="2">
-        <v>178</v>
-      </c>
+        <v>851</v>
+      </c>
+      <c r="D278" s="2"/>
       <c r="E278" t="s" s="2">
         <v>76</v>
       </c>
@@ -34972,7 +34947,7 @@
         <v>77</v>
       </c>
       <c r="H278" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I278" t="s" s="2">
         <v>205</v>
@@ -34984,15 +34959,17 @@
         <v>76</v>
       </c>
       <c r="L278" t="s" s="2">
-        <v>846</v>
+        <v>852</v>
       </c>
       <c r="M278" t="s" s="2">
-        <v>847</v>
+        <v>853</v>
       </c>
       <c r="N278" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="O278" s="2"/>
+        <v>854</v>
+      </c>
+      <c r="O278" t="s" s="2">
+        <v>855</v>
+      </c>
       <c r="P278" s="2"/>
       <c r="Q278" t="s" s="2">
         <v>76</v>
@@ -35041,7 +35018,7 @@
         <v>76</v>
       </c>
       <c r="AG278" t="s" s="2">
-        <v>94</v>
+        <v>851</v>
       </c>
       <c r="AH278" t="s" s="2">
         <v>77</v>
@@ -35053,7 +35030,7 @@
         <v>80</v>
       </c>
       <c r="AK278" t="s" s="2">
-        <v>81</v>
+        <v>104</v>
       </c>
     </row>
     <row r="279">
@@ -35061,14 +35038,12 @@
         <v>573</v>
       </c>
       <c r="B279" t="s" s="2">
-        <v>848</v>
+        <v>856</v>
       </c>
       <c r="C279" t="s" s="2">
-        <v>838</v>
-      </c>
-      <c r="D279" t="s" s="2">
-        <v>182</v>
-      </c>
+        <v>856</v>
+      </c>
+      <c r="D279" s="2"/>
       <c r="E279" t="s" s="2">
         <v>76</v>
       </c>
@@ -35077,27 +35052,29 @@
         <v>77</v>
       </c>
       <c r="H279" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I279" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J279" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K279" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="J279" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K279" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="L279" t="s" s="2">
-        <v>849</v>
+        <v>145</v>
       </c>
       <c r="M279" t="s" s="2">
-        <v>850</v>
+        <v>857</v>
       </c>
       <c r="N279" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="O279" s="2"/>
+        <v>858</v>
+      </c>
+      <c r="O279" t="s" s="2">
+        <v>314</v>
+      </c>
       <c r="P279" s="2"/>
       <c r="Q279" t="s" s="2">
         <v>76</v>
@@ -35122,10 +35099,10 @@
         <v>76</v>
       </c>
       <c r="Y279" t="s" s="2">
-        <v>76</v>
+        <v>279</v>
       </c>
       <c r="Z279" t="s" s="2">
-        <v>76</v>
+        <v>859</v>
       </c>
       <c r="AA279" t="s" s="2">
         <v>76</v>
@@ -35146,7 +35123,7 @@
         <v>76</v>
       </c>
       <c r="AG279" t="s" s="2">
-        <v>94</v>
+        <v>856</v>
       </c>
       <c r="AH279" t="s" s="2">
         <v>77</v>
@@ -35158,7 +35135,7 @@
         <v>80</v>
       </c>
       <c r="AK279" t="s" s="2">
-        <v>81</v>
+        <v>104</v>
       </c>
     </row>
     <row r="280">
@@ -35166,10 +35143,10 @@
         <v>573</v>
       </c>
       <c r="B280" t="s" s="2">
-        <v>851</v>
+        <v>860</v>
       </c>
       <c r="C280" t="s" s="2">
-        <v>851</v>
+        <v>860</v>
       </c>
       <c r="D280" s="2"/>
       <c r="E280" t="s" s="2">
@@ -35180,10 +35157,10 @@
         <v>77</v>
       </c>
       <c r="H280" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I280" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="J280" t="s" s="2">
         <v>76</v>
@@ -35192,16 +35169,16 @@
         <v>205</v>
       </c>
       <c r="L280" t="s" s="2">
-        <v>84</v>
+        <v>145</v>
       </c>
       <c r="M280" t="s" s="2">
-        <v>852</v>
+        <v>861</v>
       </c>
       <c r="N280" t="s" s="2">
-        <v>853</v>
+        <v>862</v>
       </c>
       <c r="O280" t="s" s="2">
-        <v>854</v>
+        <v>314</v>
       </c>
       <c r="P280" s="2"/>
       <c r="Q280" t="s" s="2">
@@ -35227,13 +35204,13 @@
         <v>76</v>
       </c>
       <c r="Y280" t="s" s="2">
-        <v>76</v>
+        <v>146</v>
       </c>
       <c r="Z280" t="s" s="2">
-        <v>76</v>
+        <v>863</v>
       </c>
       <c r="AA280" t="s" s="2">
-        <v>76</v>
+        <v>864</v>
       </c>
       <c r="AB280" t="s" s="2">
         <v>76</v>
@@ -35251,13 +35228,13 @@
         <v>76</v>
       </c>
       <c r="AG280" t="s" s="2">
-        <v>855</v>
+        <v>860</v>
       </c>
       <c r="AH280" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI280" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ280" t="s" s="2">
         <v>80</v>
@@ -35271,10 +35248,10 @@
         <v>573</v>
       </c>
       <c r="B281" t="s" s="2">
-        <v>856</v>
+        <v>865</v>
       </c>
       <c r="C281" t="s" s="2">
-        <v>856</v>
+        <v>865</v>
       </c>
       <c r="D281" s="2"/>
       <c r="E281" t="s" s="2">
@@ -35285,27 +35262,29 @@
         <v>77</v>
       </c>
       <c r="H281" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I281" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="J281" t="s" s="2">
         <v>76</v>
       </c>
       <c r="K281" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="L281" t="s" s="2">
-        <v>435</v>
+        <v>555</v>
       </c>
       <c r="M281" t="s" s="2">
-        <v>857</v>
+        <v>866</v>
       </c>
       <c r="N281" t="s" s="2">
-        <v>858</v>
-      </c>
-      <c r="O281" s="2"/>
+        <v>867</v>
+      </c>
+      <c r="O281" t="s" s="2">
+        <v>868</v>
+      </c>
       <c r="P281" s="2"/>
       <c r="Q281" t="s" s="2">
         <v>76</v>
@@ -35354,19 +35333,19 @@
         <v>76</v>
       </c>
       <c r="AG281" t="s" s="2">
-        <v>859</v>
+        <v>865</v>
       </c>
       <c r="AH281" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI281" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ281" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK281" t="s" s="2">
-        <v>438</v>
+        <v>104</v>
       </c>
     </row>
     <row r="282">
@@ -35374,14 +35353,14 @@
         <v>573</v>
       </c>
       <c r="B282" t="s" s="2">
-        <v>860</v>
+        <v>869</v>
       </c>
       <c r="C282" t="s" s="2">
-        <v>860</v>
+        <v>869</v>
       </c>
       <c r="D282" s="2"/>
       <c r="E282" t="s" s="2">
-        <v>76</v>
+        <v>870</v>
       </c>
       <c r="F282" s="2"/>
       <c r="G282" t="s" s="2">
@@ -35397,19 +35376,19 @@
         <v>76</v>
       </c>
       <c r="K282" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="L282" t="s" s="2">
-        <v>861</v>
+        <v>871</v>
       </c>
       <c r="M282" t="s" s="2">
-        <v>862</v>
+        <v>872</v>
       </c>
       <c r="N282" t="s" s="2">
-        <v>863</v>
+        <v>873</v>
       </c>
       <c r="O282" t="s" s="2">
-        <v>864</v>
+        <v>874</v>
       </c>
       <c r="P282" s="2"/>
       <c r="Q282" t="s" s="2">
@@ -35459,7 +35438,7 @@
         <v>76</v>
       </c>
       <c r="AG282" t="s" s="2">
-        <v>860</v>
+        <v>869</v>
       </c>
       <c r="AH282" t="s" s="2">
         <v>77</v>
@@ -35471,7 +35450,7 @@
         <v>80</v>
       </c>
       <c r="AK282" t="s" s="2">
-        <v>104</v>
+        <v>297</v>
       </c>
     </row>
     <row r="283">
@@ -35479,21 +35458,21 @@
         <v>573</v>
       </c>
       <c r="B283" t="s" s="2">
-        <v>865</v>
+        <v>875</v>
       </c>
       <c r="C283" t="s" s="2">
-        <v>865</v>
+        <v>875</v>
       </c>
       <c r="D283" s="2"/>
       <c r="E283" t="s" s="2">
-        <v>76</v>
+        <v>876</v>
       </c>
       <c r="F283" s="2"/>
       <c r="G283" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H283" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I283" t="s" s="2">
         <v>76</v>
@@ -35505,16 +35484,16 @@
         <v>205</v>
       </c>
       <c r="L283" t="s" s="2">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="M283" t="s" s="2">
-        <v>866</v>
+        <v>877</v>
       </c>
       <c r="N283" t="s" s="2">
-        <v>867</v>
+        <v>878</v>
       </c>
       <c r="O283" t="s" s="2">
-        <v>314</v>
+        <v>336</v>
       </c>
       <c r="P283" s="2"/>
       <c r="Q283" t="s" s="2">
@@ -35540,10 +35519,10 @@
         <v>76</v>
       </c>
       <c r="Y283" t="s" s="2">
-        <v>279</v>
+        <v>76</v>
       </c>
       <c r="Z283" t="s" s="2">
-        <v>868</v>
+        <v>76</v>
       </c>
       <c r="AA283" t="s" s="2">
         <v>76</v>
@@ -35564,19 +35543,19 @@
         <v>76</v>
       </c>
       <c r="AG283" t="s" s="2">
-        <v>865</v>
+        <v>875</v>
       </c>
       <c r="AH283" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI283" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ283" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK283" t="s" s="2">
-        <v>104</v>
+        <v>337</v>
       </c>
     </row>
     <row r="284">
@@ -35584,10 +35563,10 @@
         <v>573</v>
       </c>
       <c r="B284" t="s" s="2">
-        <v>869</v>
+        <v>879</v>
       </c>
       <c r="C284" t="s" s="2">
-        <v>869</v>
+        <v>879</v>
       </c>
       <c r="D284" s="2"/>
       <c r="E284" t="s" s="2">
@@ -35598,29 +35577,27 @@
         <v>77</v>
       </c>
       <c r="H284" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I284" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="J284" t="s" s="2">
         <v>76</v>
       </c>
       <c r="K284" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="L284" t="s" s="2">
-        <v>145</v>
+        <v>84</v>
       </c>
       <c r="M284" t="s" s="2">
-        <v>870</v>
+        <v>85</v>
       </c>
       <c r="N284" t="s" s="2">
-        <v>871</v>
-      </c>
-      <c r="O284" t="s" s="2">
-        <v>314</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="O284" s="2"/>
       <c r="P284" s="2"/>
       <c r="Q284" t="s" s="2">
         <v>76</v>
@@ -35645,13 +35622,13 @@
         <v>76</v>
       </c>
       <c r="Y284" t="s" s="2">
-        <v>146</v>
+        <v>76</v>
       </c>
       <c r="Z284" t="s" s="2">
-        <v>872</v>
+        <v>76</v>
       </c>
       <c r="AA284" t="s" s="2">
-        <v>873</v>
+        <v>76</v>
       </c>
       <c r="AB284" t="s" s="2">
         <v>76</v>
@@ -35669,19 +35646,19 @@
         <v>76</v>
       </c>
       <c r="AG284" t="s" s="2">
-        <v>869</v>
+        <v>87</v>
       </c>
       <c r="AH284" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI284" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ284" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AK284" t="s" s="2">
-        <v>104</v>
+        <v>76</v>
       </c>
     </row>
     <row r="285">
@@ -35689,24 +35666,24 @@
         <v>573</v>
       </c>
       <c r="B285" t="s" s="2">
-        <v>874</v>
+        <v>880</v>
       </c>
       <c r="C285" t="s" s="2">
-        <v>874</v>
+        <v>880</v>
       </c>
       <c r="D285" s="2"/>
       <c r="E285" t="s" s="2">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="F285" s="2"/>
       <c r="G285" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H285" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I285" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="J285" t="s" s="2">
         <v>76</v>
@@ -35715,16 +35692,16 @@
         <v>76</v>
       </c>
       <c r="L285" t="s" s="2">
-        <v>555</v>
+        <v>89</v>
       </c>
       <c r="M285" t="s" s="2">
-        <v>875</v>
+        <v>111</v>
       </c>
       <c r="N285" t="s" s="2">
-        <v>876</v>
+        <v>112</v>
       </c>
       <c r="O285" t="s" s="2">
-        <v>877</v>
+        <v>113</v>
       </c>
       <c r="P285" s="2"/>
       <c r="Q285" t="s" s="2">
@@ -35762,31 +35739,31 @@
         <v>76</v>
       </c>
       <c r="AC285" t="s" s="2">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="AD285" t="s" s="2">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="AE285" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF285" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AG285" t="s" s="2">
-        <v>874</v>
+        <v>94</v>
       </c>
       <c r="AH285" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI285" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ285" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK285" t="s" s="2">
-        <v>104</v>
+        <v>81</v>
       </c>
     </row>
     <row r="286">
@@ -35794,24 +35771,24 @@
         <v>573</v>
       </c>
       <c r="B286" t="s" s="2">
-        <v>878</v>
+        <v>881</v>
       </c>
       <c r="C286" t="s" s="2">
-        <v>878</v>
+        <v>881</v>
       </c>
       <c r="D286" s="2"/>
       <c r="E286" t="s" s="2">
-        <v>879</v>
+        <v>76</v>
       </c>
       <c r="F286" s="2"/>
       <c r="G286" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H286" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I286" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="J286" t="s" s="2">
         <v>76</v>
@@ -35820,16 +35797,16 @@
         <v>205</v>
       </c>
       <c r="L286" t="s" s="2">
-        <v>880</v>
+        <v>685</v>
       </c>
       <c r="M286" t="s" s="2">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="N286" t="s" s="2">
-        <v>882</v>
+        <v>687</v>
       </c>
       <c r="O286" t="s" s="2">
-        <v>883</v>
+        <v>688</v>
       </c>
       <c r="P286" s="2"/>
       <c r="Q286" t="s" s="2">
@@ -35879,19 +35856,19 @@
         <v>76</v>
       </c>
       <c r="AG286" t="s" s="2">
-        <v>878</v>
+        <v>689</v>
       </c>
       <c r="AH286" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI286" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ286" t="s" s="2">
-        <v>80</v>
+        <v>690</v>
       </c>
       <c r="AK286" t="s" s="2">
-        <v>297</v>
+        <v>104</v>
       </c>
     </row>
     <row r="287">
@@ -35899,14 +35876,14 @@
         <v>573</v>
       </c>
       <c r="B287" t="s" s="2">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C287" t="s" s="2">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="D287" s="2"/>
       <c r="E287" t="s" s="2">
-        <v>885</v>
+        <v>76</v>
       </c>
       <c r="F287" s="2"/>
       <c r="G287" t="s" s="2">
@@ -35916,7 +35893,7 @@
         <v>83</v>
       </c>
       <c r="I287" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="J287" t="s" s="2">
         <v>76</v>
@@ -35925,22 +35902,24 @@
         <v>205</v>
       </c>
       <c r="L287" t="s" s="2">
-        <v>155</v>
+        <v>685</v>
       </c>
       <c r="M287" t="s" s="2">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="N287" t="s" s="2">
-        <v>887</v>
+        <v>694</v>
       </c>
       <c r="O287" t="s" s="2">
-        <v>336</v>
+        <v>695</v>
       </c>
       <c r="P287" s="2"/>
       <c r="Q287" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="R287" s="2"/>
+      <c r="R287" t="s" s="2">
+        <v>696</v>
+      </c>
       <c r="S287" t="s" s="2">
         <v>76</v>
       </c>
@@ -35984,7 +35963,7 @@
         <v>76</v>
       </c>
       <c r="AG287" t="s" s="2">
-        <v>884</v>
+        <v>697</v>
       </c>
       <c r="AH287" t="s" s="2">
         <v>77</v>
@@ -35993,10 +35972,10 @@
         <v>83</v>
       </c>
       <c r="AJ287" t="s" s="2">
-        <v>80</v>
+        <v>690</v>
       </c>
       <c r="AK287" t="s" s="2">
-        <v>337</v>
+        <v>104</v>
       </c>
     </row>
     <row r="288">
@@ -36004,10 +35983,10 @@
         <v>573</v>
       </c>
       <c r="B288" t="s" s="2">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="C288" t="s" s="2">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="D288" s="2"/>
       <c r="E288" t="s" s="2">
@@ -36018,7 +35997,7 @@
         <v>77</v>
       </c>
       <c r="H288" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I288" t="s" s="2">
         <v>76</v>
@@ -36027,18 +36006,20 @@
         <v>76</v>
       </c>
       <c r="K288" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="L288" t="s" s="2">
-        <v>84</v>
+        <v>507</v>
       </c>
       <c r="M288" t="s" s="2">
-        <v>85</v>
+        <v>886</v>
       </c>
       <c r="N288" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="O288" s="2"/>
+        <v>887</v>
+      </c>
+      <c r="O288" t="s" s="2">
+        <v>349</v>
+      </c>
       <c r="P288" s="2"/>
       <c r="Q288" t="s" s="2">
         <v>76</v>
@@ -36087,7 +36068,7 @@
         <v>76</v>
       </c>
       <c r="AG288" t="s" s="2">
-        <v>87</v>
+        <v>885</v>
       </c>
       <c r="AH288" t="s" s="2">
         <v>77</v>
@@ -36096,10 +36077,10 @@
         <v>83</v>
       </c>
       <c r="AJ288" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AK288" t="s" s="2">
-        <v>76</v>
+        <v>297</v>
       </c>
     </row>
     <row r="289">
@@ -36107,21 +36088,21 @@
         <v>573</v>
       </c>
       <c r="B289" t="s" s="2">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="C289" t="s" s="2">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="D289" s="2"/>
       <c r="E289" t="s" s="2">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="F289" s="2"/>
       <c r="G289" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H289" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I289" t="s" s="2">
         <v>76</v>
@@ -36130,19 +36111,19 @@
         <v>76</v>
       </c>
       <c r="K289" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="L289" t="s" s="2">
-        <v>89</v>
+        <v>889</v>
       </c>
       <c r="M289" t="s" s="2">
-        <v>111</v>
+        <v>890</v>
       </c>
       <c r="N289" t="s" s="2">
-        <v>112</v>
+        <v>891</v>
       </c>
       <c r="O289" t="s" s="2">
-        <v>113</v>
+        <v>349</v>
       </c>
       <c r="P289" s="2"/>
       <c r="Q289" t="s" s="2">
@@ -36180,31 +36161,31 @@
         <v>76</v>
       </c>
       <c r="AC289" t="s" s="2">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AD289" t="s" s="2">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="AE289" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF289" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AG289" t="s" s="2">
-        <v>94</v>
+        <v>888</v>
       </c>
       <c r="AH289" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI289" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ289" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK289" t="s" s="2">
-        <v>81</v>
+        <v>297</v>
       </c>
     </row>
     <row r="290">
@@ -36212,10 +36193,10 @@
         <v>573</v>
       </c>
       <c r="B290" t="s" s="2">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="C290" t="s" s="2">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="D290" s="2"/>
       <c r="E290" t="s" s="2">
@@ -36226,10 +36207,10 @@
         <v>77</v>
       </c>
       <c r="H290" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I290" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="J290" t="s" s="2">
         <v>76</v>
@@ -36238,16 +36219,16 @@
         <v>205</v>
       </c>
       <c r="L290" t="s" s="2">
-        <v>694</v>
+        <v>893</v>
       </c>
       <c r="M290" t="s" s="2">
-        <v>891</v>
+        <v>894</v>
       </c>
       <c r="N290" t="s" s="2">
-        <v>696</v>
+        <v>895</v>
       </c>
       <c r="O290" t="s" s="2">
-        <v>697</v>
+        <v>349</v>
       </c>
       <c r="P290" s="2"/>
       <c r="Q290" t="s" s="2">
@@ -36297,19 +36278,19 @@
         <v>76</v>
       </c>
       <c r="AG290" t="s" s="2">
-        <v>698</v>
+        <v>892</v>
       </c>
       <c r="AH290" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI290" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ290" t="s" s="2">
-        <v>699</v>
+        <v>80</v>
       </c>
       <c r="AK290" t="s" s="2">
-        <v>104</v>
+        <v>297</v>
       </c>
     </row>
     <row r="291">
@@ -36317,10 +36298,10 @@
         <v>573</v>
       </c>
       <c r="B291" t="s" s="2">
-        <v>892</v>
+        <v>896</v>
       </c>
       <c r="C291" t="s" s="2">
-        <v>892</v>
+        <v>896</v>
       </c>
       <c r="D291" s="2"/>
       <c r="E291" t="s" s="2">
@@ -36334,7 +36315,7 @@
         <v>83</v>
       </c>
       <c r="I291" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="J291" t="s" s="2">
         <v>76</v>
@@ -36343,24 +36324,22 @@
         <v>205</v>
       </c>
       <c r="L291" t="s" s="2">
-        <v>694</v>
+        <v>145</v>
       </c>
       <c r="M291" t="s" s="2">
-        <v>893</v>
+        <v>897</v>
       </c>
       <c r="N291" t="s" s="2">
-        <v>703</v>
+        <v>898</v>
       </c>
       <c r="O291" t="s" s="2">
-        <v>704</v>
+        <v>314</v>
       </c>
       <c r="P291" s="2"/>
       <c r="Q291" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="R291" t="s" s="2">
-        <v>705</v>
-      </c>
+      <c r="R291" s="2"/>
       <c r="S291" t="s" s="2">
         <v>76</v>
       </c>
@@ -36380,13 +36359,13 @@
         <v>76</v>
       </c>
       <c r="Y291" t="s" s="2">
-        <v>76</v>
+        <v>279</v>
       </c>
       <c r="Z291" t="s" s="2">
-        <v>76</v>
+        <v>899</v>
       </c>
       <c r="AA291" t="s" s="2">
-        <v>76</v>
+        <v>900</v>
       </c>
       <c r="AB291" t="s" s="2">
         <v>76</v>
@@ -36404,7 +36383,7 @@
         <v>76</v>
       </c>
       <c r="AG291" t="s" s="2">
-        <v>706</v>
+        <v>896</v>
       </c>
       <c r="AH291" t="s" s="2">
         <v>77</v>
@@ -36413,7 +36392,7 @@
         <v>83</v>
       </c>
       <c r="AJ291" t="s" s="2">
-        <v>699</v>
+        <v>80</v>
       </c>
       <c r="AK291" t="s" s="2">
         <v>104</v>
@@ -36424,10 +36403,10 @@
         <v>573</v>
       </c>
       <c r="B292" t="s" s="2">
-        <v>894</v>
+        <v>901</v>
       </c>
       <c r="C292" t="s" s="2">
-        <v>894</v>
+        <v>901</v>
       </c>
       <c r="D292" s="2"/>
       <c r="E292" t="s" s="2">
@@ -36438,7 +36417,7 @@
         <v>77</v>
       </c>
       <c r="H292" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I292" t="s" s="2">
         <v>76</v>
@@ -36447,19 +36426,19 @@
         <v>76</v>
       </c>
       <c r="K292" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="L292" t="s" s="2">
-        <v>507</v>
+        <v>902</v>
       </c>
       <c r="M292" t="s" s="2">
-        <v>895</v>
+        <v>903</v>
       </c>
       <c r="N292" t="s" s="2">
-        <v>896</v>
+        <v>904</v>
       </c>
       <c r="O292" t="s" s="2">
-        <v>349</v>
+        <v>905</v>
       </c>
       <c r="P292" s="2"/>
       <c r="Q292" t="s" s="2">
@@ -36509,19 +36488,19 @@
         <v>76</v>
       </c>
       <c r="AG292" t="s" s="2">
-        <v>894</v>
+        <v>901</v>
       </c>
       <c r="AH292" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI292" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ292" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK292" t="s" s="2">
-        <v>297</v>
+        <v>104</v>
       </c>
     </row>
     <row r="293">
@@ -36529,10 +36508,10 @@
         <v>573</v>
       </c>
       <c r="B293" t="s" s="2">
-        <v>897</v>
+        <v>906</v>
       </c>
       <c r="C293" t="s" s="2">
-        <v>897</v>
+        <v>906</v>
       </c>
       <c r="D293" s="2"/>
       <c r="E293" t="s" s="2">
@@ -36543,7 +36522,7 @@
         <v>77</v>
       </c>
       <c r="H293" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I293" t="s" s="2">
         <v>76</v>
@@ -36552,20 +36531,18 @@
         <v>76</v>
       </c>
       <c r="K293" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="L293" t="s" s="2">
-        <v>898</v>
+        <v>299</v>
       </c>
       <c r="M293" t="s" s="2">
-        <v>899</v>
+        <v>907</v>
       </c>
       <c r="N293" t="s" s="2">
-        <v>900</v>
-      </c>
-      <c r="O293" t="s" s="2">
-        <v>349</v>
-      </c>
+        <v>908</v>
+      </c>
+      <c r="O293" s="2"/>
       <c r="P293" s="2"/>
       <c r="Q293" t="s" s="2">
         <v>76</v>
@@ -36614,19 +36591,19 @@
         <v>76</v>
       </c>
       <c r="AG293" t="s" s="2">
-        <v>897</v>
+        <v>906</v>
       </c>
       <c r="AH293" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI293" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ293" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK293" t="s" s="2">
-        <v>297</v>
+        <v>104</v>
       </c>
     </row>
     <row r="294">
@@ -36634,10 +36611,10 @@
         <v>573</v>
       </c>
       <c r="B294" t="s" s="2">
-        <v>901</v>
+        <v>909</v>
       </c>
       <c r="C294" t="s" s="2">
-        <v>901</v>
+        <v>909</v>
       </c>
       <c r="D294" s="2"/>
       <c r="E294" t="s" s="2">
@@ -36648,29 +36625,27 @@
         <v>77</v>
       </c>
       <c r="H294" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I294" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="J294" t="s" s="2">
         <v>76</v>
       </c>
       <c r="K294" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="L294" t="s" s="2">
-        <v>902</v>
+        <v>84</v>
       </c>
       <c r="M294" t="s" s="2">
-        <v>903</v>
+        <v>85</v>
       </c>
       <c r="N294" t="s" s="2">
-        <v>904</v>
-      </c>
-      <c r="O294" t="s" s="2">
-        <v>349</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="O294" s="2"/>
       <c r="P294" s="2"/>
       <c r="Q294" t="s" s="2">
         <v>76</v>
@@ -36719,19 +36694,19 @@
         <v>76</v>
       </c>
       <c r="AG294" t="s" s="2">
-        <v>901</v>
+        <v>87</v>
       </c>
       <c r="AH294" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI294" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ294" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AK294" t="s" s="2">
-        <v>297</v>
+        <v>76</v>
       </c>
     </row>
     <row r="295">
@@ -36739,21 +36714,21 @@
         <v>573</v>
       </c>
       <c r="B295" t="s" s="2">
-        <v>905</v>
+        <v>910</v>
       </c>
       <c r="C295" t="s" s="2">
-        <v>905</v>
+        <v>910</v>
       </c>
       <c r="D295" s="2"/>
       <c r="E295" t="s" s="2">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="F295" s="2"/>
       <c r="G295" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H295" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I295" t="s" s="2">
         <v>76</v>
@@ -36762,19 +36737,19 @@
         <v>76</v>
       </c>
       <c r="K295" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="L295" t="s" s="2">
-        <v>145</v>
+        <v>89</v>
       </c>
       <c r="M295" t="s" s="2">
-        <v>906</v>
+        <v>111</v>
       </c>
       <c r="N295" t="s" s="2">
-        <v>907</v>
+        <v>112</v>
       </c>
       <c r="O295" t="s" s="2">
-        <v>314</v>
+        <v>113</v>
       </c>
       <c r="P295" s="2"/>
       <c r="Q295" t="s" s="2">
@@ -36800,43 +36775,43 @@
         <v>76</v>
       </c>
       <c r="Y295" t="s" s="2">
-        <v>279</v>
+        <v>76</v>
       </c>
       <c r="Z295" t="s" s="2">
-        <v>908</v>
+        <v>76</v>
       </c>
       <c r="AA295" t="s" s="2">
-        <v>909</v>
+        <v>76</v>
       </c>
       <c r="AB295" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AC295" t="s" s="2">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="AD295" t="s" s="2">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="AE295" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF295" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AG295" t="s" s="2">
-        <v>905</v>
+        <v>94</v>
       </c>
       <c r="AH295" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI295" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ295" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK295" t="s" s="2">
-        <v>104</v>
+        <v>81</v>
       </c>
     </row>
     <row r="296">
@@ -36844,12 +36819,14 @@
         <v>573</v>
       </c>
       <c r="B296" t="s" s="2">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="C296" t="s" s="2">
         <v>910</v>
       </c>
-      <c r="D296" s="2"/>
+      <c r="D296" t="s" s="2">
+        <v>105</v>
+      </c>
       <c r="E296" t="s" s="2">
         <v>76</v>
       </c>
@@ -36861,7 +36838,7 @@
         <v>78</v>
       </c>
       <c r="I296" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="J296" t="s" s="2">
         <v>76</v>
@@ -36870,17 +36847,15 @@
         <v>76</v>
       </c>
       <c r="L296" t="s" s="2">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="M296" t="s" s="2">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="N296" t="s" s="2">
-        <v>913</v>
-      </c>
-      <c r="O296" t="s" s="2">
-        <v>914</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="O296" s="2"/>
       <c r="P296" s="2"/>
       <c r="Q296" t="s" s="2">
         <v>76</v>
@@ -36929,7 +36904,7 @@
         <v>76</v>
       </c>
       <c r="AG296" t="s" s="2">
-        <v>910</v>
+        <v>94</v>
       </c>
       <c r="AH296" t="s" s="2">
         <v>77</v>
@@ -36941,7 +36916,7 @@
         <v>80</v>
       </c>
       <c r="AK296" t="s" s="2">
-        <v>104</v>
+        <v>81</v>
       </c>
     </row>
     <row r="297">
@@ -36949,14 +36924,14 @@
         <v>573</v>
       </c>
       <c r="B297" t="s" s="2">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="C297" t="s" s="2">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="D297" s="2"/>
       <c r="E297" t="s" s="2">
-        <v>76</v>
+        <v>307</v>
       </c>
       <c r="F297" s="2"/>
       <c r="G297" t="s" s="2">
@@ -36969,22 +36944,26 @@
         <v>76</v>
       </c>
       <c r="J297" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="K297" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="L297" t="s" s="2">
-        <v>299</v>
+        <v>89</v>
       </c>
       <c r="M297" t="s" s="2">
-        <v>916</v>
+        <v>308</v>
       </c>
       <c r="N297" t="s" s="2">
-        <v>917</v>
-      </c>
-      <c r="O297" s="2"/>
-      <c r="P297" s="2"/>
+        <v>309</v>
+      </c>
+      <c r="O297" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="P297" t="s" s="2">
+        <v>250</v>
+      </c>
       <c r="Q297" t="s" s="2">
         <v>76</v>
       </c>
@@ -37032,7 +37011,7 @@
         <v>76</v>
       </c>
       <c r="AG297" t="s" s="2">
-        <v>915</v>
+        <v>310</v>
       </c>
       <c r="AH297" t="s" s="2">
         <v>77</v>
@@ -37044,7 +37023,7 @@
         <v>80</v>
       </c>
       <c r="AK297" t="s" s="2">
-        <v>104</v>
+        <v>81</v>
       </c>
     </row>
     <row r="298">
@@ -37052,10 +37031,10 @@
         <v>573</v>
       </c>
       <c r="B298" t="s" s="2">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="C298" t="s" s="2">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="D298" s="2"/>
       <c r="E298" t="s" s="2">
@@ -37063,7 +37042,7 @@
       </c>
       <c r="F298" s="2"/>
       <c r="G298" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="H298" t="s" s="2">
         <v>83</v>
@@ -37081,12 +37060,14 @@
         <v>84</v>
       </c>
       <c r="M298" t="s" s="2">
-        <v>85</v>
+        <v>916</v>
       </c>
       <c r="N298" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="O298" s="2"/>
+        <v>917</v>
+      </c>
+      <c r="O298" t="s" s="2">
+        <v>284</v>
+      </c>
       <c r="P298" s="2"/>
       <c r="Q298" t="s" s="2">
         <v>76</v>
@@ -37135,19 +37116,19 @@
         <v>76</v>
       </c>
       <c r="AG298" t="s" s="2">
-        <v>87</v>
+        <v>915</v>
       </c>
       <c r="AH298" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="AI298" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ298" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AK298" t="s" s="2">
-        <v>76</v>
+        <v>104</v>
       </c>
     </row>
     <row r="299">
@@ -37155,21 +37136,21 @@
         <v>573</v>
       </c>
       <c r="B299" t="s" s="2">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="C299" t="s" s="2">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="D299" s="2"/>
       <c r="E299" t="s" s="2">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="F299" s="2"/>
       <c r="G299" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H299" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I299" t="s" s="2">
         <v>76</v>
@@ -37181,16 +37162,16 @@
         <v>76</v>
       </c>
       <c r="L299" t="s" s="2">
-        <v>89</v>
+        <v>145</v>
       </c>
       <c r="M299" t="s" s="2">
-        <v>111</v>
+        <v>919</v>
       </c>
       <c r="N299" t="s" s="2">
-        <v>112</v>
+        <v>920</v>
       </c>
       <c r="O299" t="s" s="2">
-        <v>113</v>
+        <v>314</v>
       </c>
       <c r="P299" s="2"/>
       <c r="Q299" t="s" s="2">
@@ -37228,31 +37209,31 @@
         <v>76</v>
       </c>
       <c r="AC299" t="s" s="2">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AD299" t="s" s="2">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="AE299" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF299" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AG299" t="s" s="2">
-        <v>94</v>
+        <v>918</v>
       </c>
       <c r="AH299" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI299" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ299" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK299" t="s" s="2">
-        <v>81</v>
+        <v>104</v>
       </c>
     </row>
     <row r="300">
@@ -37260,14 +37241,12 @@
         <v>573</v>
       </c>
       <c r="B300" t="s" s="2">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="C300" t="s" s="2">
-        <v>919</v>
-      </c>
-      <c r="D300" t="s" s="2">
-        <v>105</v>
-      </c>
+        <v>921</v>
+      </c>
+      <c r="D300" s="2"/>
       <c r="E300" t="s" s="2">
         <v>76</v>
       </c>
@@ -37276,10 +37255,10 @@
         <v>77</v>
       </c>
       <c r="H300" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I300" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="J300" t="s" s="2">
         <v>76</v>
@@ -37288,15 +37267,17 @@
         <v>76</v>
       </c>
       <c r="L300" t="s" s="2">
-        <v>921</v>
+        <v>84</v>
       </c>
       <c r="M300" t="s" s="2">
         <v>922</v>
       </c>
       <c r="N300" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="O300" s="2"/>
+        <v>923</v>
+      </c>
+      <c r="O300" t="s" s="2">
+        <v>284</v>
+      </c>
       <c r="P300" s="2"/>
       <c r="Q300" t="s" s="2">
         <v>76</v>
@@ -37345,19 +37326,19 @@
         <v>76</v>
       </c>
       <c r="AG300" t="s" s="2">
-        <v>94</v>
+        <v>921</v>
       </c>
       <c r="AH300" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI300" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ300" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK300" t="s" s="2">
-        <v>81</v>
+        <v>104</v>
       </c>
     </row>
     <row r="301">
@@ -37365,14 +37346,14 @@
         <v>573</v>
       </c>
       <c r="B301" t="s" s="2">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="C301" t="s" s="2">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="D301" s="2"/>
       <c r="E301" t="s" s="2">
-        <v>307</v>
+        <v>76</v>
       </c>
       <c r="F301" s="2"/>
       <c r="G301" t="s" s="2">
@@ -37385,26 +37366,22 @@
         <v>76</v>
       </c>
       <c r="J301" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="K301" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="L301" t="s" s="2">
-        <v>89</v>
+        <v>299</v>
       </c>
       <c r="M301" t="s" s="2">
-        <v>308</v>
+        <v>925</v>
       </c>
       <c r="N301" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="O301" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="P301" t="s" s="2">
-        <v>250</v>
-      </c>
+        <v>926</v>
+      </c>
+      <c r="O301" s="2"/>
+      <c r="P301" s="2"/>
       <c r="Q301" t="s" s="2">
         <v>76</v>
       </c>
@@ -37452,7 +37429,7 @@
         <v>76</v>
       </c>
       <c r="AG301" t="s" s="2">
-        <v>310</v>
+        <v>924</v>
       </c>
       <c r="AH301" t="s" s="2">
         <v>77</v>
@@ -37464,7 +37441,7 @@
         <v>80</v>
       </c>
       <c r="AK301" t="s" s="2">
-        <v>81</v>
+        <v>104</v>
       </c>
     </row>
     <row r="302">
@@ -37472,10 +37449,10 @@
         <v>573</v>
       </c>
       <c r="B302" t="s" s="2">
-        <v>924</v>
+        <v>927</v>
       </c>
       <c r="C302" t="s" s="2">
-        <v>924</v>
+        <v>927</v>
       </c>
       <c r="D302" s="2"/>
       <c r="E302" t="s" s="2">
@@ -37483,7 +37460,7 @@
       </c>
       <c r="F302" s="2"/>
       <c r="G302" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H302" t="s" s="2">
         <v>83</v>
@@ -37501,14 +37478,12 @@
         <v>84</v>
       </c>
       <c r="M302" t="s" s="2">
-        <v>925</v>
+        <v>85</v>
       </c>
       <c r="N302" t="s" s="2">
-        <v>926</v>
-      </c>
-      <c r="O302" t="s" s="2">
-        <v>284</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="O302" s="2"/>
       <c r="P302" s="2"/>
       <c r="Q302" t="s" s="2">
         <v>76</v>
@@ -37557,19 +37532,19 @@
         <v>76</v>
       </c>
       <c r="AG302" t="s" s="2">
-        <v>924</v>
+        <v>87</v>
       </c>
       <c r="AH302" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AI302" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ302" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AK302" t="s" s="2">
-        <v>104</v>
+        <v>76</v>
       </c>
     </row>
     <row r="303">
@@ -37577,21 +37552,21 @@
         <v>573</v>
       </c>
       <c r="B303" t="s" s="2">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="C303" t="s" s="2">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="D303" s="2"/>
       <c r="E303" t="s" s="2">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="F303" s="2"/>
       <c r="G303" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H303" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I303" t="s" s="2">
         <v>76</v>
@@ -37603,16 +37578,16 @@
         <v>76</v>
       </c>
       <c r="L303" t="s" s="2">
-        <v>145</v>
+        <v>89</v>
       </c>
       <c r="M303" t="s" s="2">
-        <v>928</v>
+        <v>111</v>
       </c>
       <c r="N303" t="s" s="2">
-        <v>929</v>
+        <v>112</v>
       </c>
       <c r="O303" t="s" s="2">
-        <v>314</v>
+        <v>113</v>
       </c>
       <c r="P303" s="2"/>
       <c r="Q303" t="s" s="2">
@@ -37650,31 +37625,31 @@
         <v>76</v>
       </c>
       <c r="AC303" t="s" s="2">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="AD303" t="s" s="2">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="AE303" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF303" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AG303" t="s" s="2">
-        <v>927</v>
+        <v>94</v>
       </c>
       <c r="AH303" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI303" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ303" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK303" t="s" s="2">
-        <v>104</v>
+        <v>81</v>
       </c>
     </row>
     <row r="304">
@@ -37682,44 +37657,46 @@
         <v>573</v>
       </c>
       <c r="B304" t="s" s="2">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="C304" t="s" s="2">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="D304" s="2"/>
       <c r="E304" t="s" s="2">
-        <v>76</v>
+        <v>307</v>
       </c>
       <c r="F304" s="2"/>
       <c r="G304" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H304" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I304" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J304" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="K304" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="L304" t="s" s="2">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="M304" t="s" s="2">
-        <v>931</v>
+        <v>308</v>
       </c>
       <c r="N304" t="s" s="2">
-        <v>932</v>
+        <v>309</v>
       </c>
       <c r="O304" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="P304" s="2"/>
+        <v>113</v>
+      </c>
+      <c r="P304" t="s" s="2">
+        <v>250</v>
+      </c>
       <c r="Q304" t="s" s="2">
         <v>76</v>
       </c>
@@ -37767,19 +37744,19 @@
         <v>76</v>
       </c>
       <c r="AG304" t="s" s="2">
-        <v>930</v>
+        <v>310</v>
       </c>
       <c r="AH304" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI304" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ304" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK304" t="s" s="2">
-        <v>104</v>
+        <v>81</v>
       </c>
     </row>
     <row r="305">
@@ -37787,10 +37764,10 @@
         <v>573</v>
       </c>
       <c r="B305" t="s" s="2">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="C305" t="s" s="2">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="D305" s="2"/>
       <c r="E305" t="s" s="2">
@@ -37801,7 +37778,7 @@
         <v>77</v>
       </c>
       <c r="H305" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I305" t="s" s="2">
         <v>76</v>
@@ -37813,15 +37790,17 @@
         <v>76</v>
       </c>
       <c r="L305" t="s" s="2">
-        <v>299</v>
+        <v>84</v>
       </c>
       <c r="M305" t="s" s="2">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="N305" t="s" s="2">
-        <v>935</v>
-      </c>
-      <c r="O305" s="2"/>
+        <v>932</v>
+      </c>
+      <c r="O305" t="s" s="2">
+        <v>284</v>
+      </c>
       <c r="P305" s="2"/>
       <c r="Q305" t="s" s="2">
         <v>76</v>
@@ -37870,13 +37849,13 @@
         <v>76</v>
       </c>
       <c r="AG305" t="s" s="2">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="AH305" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI305" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ305" t="s" s="2">
         <v>80</v>
@@ -37890,10 +37869,10 @@
         <v>573</v>
       </c>
       <c r="B306" t="s" s="2">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="C306" t="s" s="2">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="D306" s="2"/>
       <c r="E306" t="s" s="2">
@@ -37916,15 +37895,17 @@
         <v>76</v>
       </c>
       <c r="L306" t="s" s="2">
-        <v>84</v>
+        <v>145</v>
       </c>
       <c r="M306" t="s" s="2">
-        <v>85</v>
+        <v>934</v>
       </c>
       <c r="N306" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="O306" s="2"/>
+        <v>935</v>
+      </c>
+      <c r="O306" t="s" s="2">
+        <v>314</v>
+      </c>
       <c r="P306" s="2"/>
       <c r="Q306" t="s" s="2">
         <v>76</v>
@@ -37949,13 +37930,13 @@
         <v>76</v>
       </c>
       <c r="Y306" t="s" s="2">
-        <v>76</v>
+        <v>226</v>
       </c>
       <c r="Z306" t="s" s="2">
-        <v>76</v>
+        <v>936</v>
       </c>
       <c r="AA306" t="s" s="2">
-        <v>76</v>
+        <v>937</v>
       </c>
       <c r="AB306" t="s" s="2">
         <v>76</v>
@@ -37973,7 +37954,7 @@
         <v>76</v>
       </c>
       <c r="AG306" t="s" s="2">
-        <v>87</v>
+        <v>933</v>
       </c>
       <c r="AH306" t="s" s="2">
         <v>77</v>
@@ -37982,25 +37963,25 @@
         <v>83</v>
       </c>
       <c r="AJ306" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AK306" t="s" s="2">
-        <v>76</v>
+        <v>104</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="s" s="2">
-        <v>573</v>
+        <v>591</v>
       </c>
       <c r="B307" t="s" s="2">
-        <v>937</v>
+        <v>31</v>
       </c>
       <c r="C307" t="s" s="2">
-        <v>937</v>
+        <v>31</v>
       </c>
       <c r="D307" s="2"/>
       <c r="E307" t="s" s="2">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="F307" s="2"/>
       <c r="G307" t="s" s="2">
@@ -38019,17 +38000,15 @@
         <v>76</v>
       </c>
       <c r="L307" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="M307" t="s" s="2">
-        <v>111</v>
+        <v>31</v>
       </c>
       <c r="N307" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="O307" t="s" s="2">
-        <v>113</v>
-      </c>
+        <v>594</v>
+      </c>
+      <c r="O307" s="2"/>
       <c r="P307" s="2"/>
       <c r="Q307" t="s" s="2">
         <v>76</v>
@@ -38066,19 +38045,19 @@
         <v>76</v>
       </c>
       <c r="AC307" t="s" s="2">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AD307" t="s" s="2">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="AE307" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF307" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AG307" t="s" s="2">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="AH307" t="s" s="2">
         <v>77</v>
@@ -38095,49 +38074,45 @@
     </row>
     <row r="308">
       <c r="A308" t="s" s="2">
-        <v>573</v>
+        <v>591</v>
       </c>
       <c r="B308" t="s" s="2">
-        <v>938</v>
+        <v>82</v>
       </c>
       <c r="C308" t="s" s="2">
-        <v>938</v>
+        <v>82</v>
       </c>
       <c r="D308" s="2"/>
       <c r="E308" t="s" s="2">
-        <v>307</v>
+        <v>76</v>
       </c>
       <c r="F308" s="2"/>
       <c r="G308" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H308" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I308" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J308" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="K308" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="L308" t="s" s="2">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="M308" t="s" s="2">
-        <v>308</v>
+        <v>85</v>
       </c>
       <c r="N308" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="O308" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="P308" t="s" s="2">
-        <v>250</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="O308" s="2"/>
+      <c r="P308" s="2"/>
       <c r="Q308" t="s" s="2">
         <v>76</v>
       </c>
@@ -38185,30 +38160,30 @@
         <v>76</v>
       </c>
       <c r="AG308" t="s" s="2">
-        <v>310</v>
+        <v>87</v>
       </c>
       <c r="AH308" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI308" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ308" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AK308" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="s" s="2">
-        <v>573</v>
+        <v>591</v>
       </c>
       <c r="B309" t="s" s="2">
-        <v>939</v>
+        <v>88</v>
       </c>
       <c r="C309" t="s" s="2">
-        <v>939</v>
+        <v>88</v>
       </c>
       <c r="D309" s="2"/>
       <c r="E309" t="s" s="2">
@@ -38219,7 +38194,7 @@
         <v>77</v>
       </c>
       <c r="H309" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I309" t="s" s="2">
         <v>76</v>
@@ -38231,17 +38206,15 @@
         <v>76</v>
       </c>
       <c r="L309" t="s" s="2">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="M309" t="s" s="2">
-        <v>940</v>
+        <v>31</v>
       </c>
       <c r="N309" t="s" s="2">
-        <v>941</v>
-      </c>
-      <c r="O309" t="s" s="2">
-        <v>284</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="O309" s="2"/>
       <c r="P309" s="2"/>
       <c r="Q309" t="s" s="2">
         <v>76</v>
@@ -38278,42 +38251,42 @@
         <v>76</v>
       </c>
       <c r="AC309" t="s" s="2">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="AD309" t="s" s="2">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="AE309" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF309" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AG309" t="s" s="2">
-        <v>939</v>
+        <v>94</v>
       </c>
       <c r="AH309" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI309" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ309" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK309" t="s" s="2">
-        <v>104</v>
+        <v>81</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="s" s="2">
-        <v>573</v>
+        <v>591</v>
       </c>
       <c r="B310" t="s" s="2">
-        <v>942</v>
+        <v>95</v>
       </c>
       <c r="C310" t="s" s="2">
-        <v>942</v>
+        <v>95</v>
       </c>
       <c r="D310" s="2"/>
       <c r="E310" t="s" s="2">
@@ -38321,7 +38294,7 @@
       </c>
       <c r="F310" s="2"/>
       <c r="G310" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="H310" t="s" s="2">
         <v>83</v>
@@ -38336,16 +38309,16 @@
         <v>76</v>
       </c>
       <c r="L310" t="s" s="2">
-        <v>145</v>
+        <v>96</v>
       </c>
       <c r="M310" t="s" s="2">
-        <v>943</v>
+        <v>97</v>
       </c>
       <c r="N310" t="s" s="2">
-        <v>944</v>
+        <v>98</v>
       </c>
       <c r="O310" t="s" s="2">
-        <v>314</v>
+        <v>99</v>
       </c>
       <c r="P310" s="2"/>
       <c r="Q310" t="s" s="2">
@@ -38353,7 +38326,7 @@
       </c>
       <c r="R310" s="2"/>
       <c r="S310" t="s" s="2">
-        <v>76</v>
+        <v>938</v>
       </c>
       <c r="T310" t="s" s="2">
         <v>76</v>
@@ -38371,13 +38344,13 @@
         <v>76</v>
       </c>
       <c r="Y310" t="s" s="2">
-        <v>226</v>
+        <v>76</v>
       </c>
       <c r="Z310" t="s" s="2">
-        <v>945</v>
+        <v>76</v>
       </c>
       <c r="AA310" t="s" s="2">
-        <v>946</v>
+        <v>76</v>
       </c>
       <c r="AB310" t="s" s="2">
         <v>76</v>
@@ -38395,19 +38368,19 @@
         <v>76</v>
       </c>
       <c r="AG310" t="s" s="2">
-        <v>942</v>
+        <v>95</v>
       </c>
       <c r="AH310" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="AI310" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ310" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AK310" t="s" s="2">
-        <v>104</v>
+        <v>76</v>
       </c>
     </row>
     <row r="311">
@@ -38415,10 +38388,10 @@
         <v>591</v>
       </c>
       <c r="B311" t="s" s="2">
-        <v>31</v>
+        <v>100</v>
       </c>
       <c r="C311" t="s" s="2">
-        <v>31</v>
+        <v>100</v>
       </c>
       <c r="D311" s="2"/>
       <c r="E311" t="s" s="2">
@@ -38429,7 +38402,7 @@
         <v>77</v>
       </c>
       <c r="H311" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I311" t="s" s="2">
         <v>76</v>
@@ -38441,13 +38414,13 @@
         <v>76</v>
       </c>
       <c r="L311" t="s" s="2">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="M311" t="s" s="2">
-        <v>31</v>
+        <v>102</v>
       </c>
       <c r="N311" t="s" s="2">
-        <v>594</v>
+        <v>103</v>
       </c>
       <c r="O311" s="2"/>
       <c r="P311" s="2"/>
@@ -38498,30 +38471,30 @@
         <v>76</v>
       </c>
       <c r="AG311" t="s" s="2">
-        <v>31</v>
+        <v>100</v>
       </c>
       <c r="AH311" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI311" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ311" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK311" t="s" s="2">
-        <v>81</v>
+        <v>104</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="s" s="2">
-        <v>591</v>
+        <v>442</v>
       </c>
       <c r="B312" t="s" s="2">
-        <v>82</v>
+        <v>31</v>
       </c>
       <c r="C312" t="s" s="2">
-        <v>82</v>
+        <v>31</v>
       </c>
       <c r="D312" s="2"/>
       <c r="E312" t="s" s="2">
@@ -38532,7 +38505,7 @@
         <v>77</v>
       </c>
       <c r="H312" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I312" t="s" s="2">
         <v>76</v>
@@ -38544,13 +38517,13 @@
         <v>76</v>
       </c>
       <c r="L312" t="s" s="2">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="M312" t="s" s="2">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="N312" t="s" s="2">
-        <v>86</v>
+        <v>445</v>
       </c>
       <c r="O312" s="2"/>
       <c r="P312" s="2"/>
@@ -38601,30 +38574,30 @@
         <v>76</v>
       </c>
       <c r="AG312" t="s" s="2">
-        <v>87</v>
+        <v>31</v>
       </c>
       <c r="AH312" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI312" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ312" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AK312" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="s" s="2">
-        <v>591</v>
+        <v>442</v>
       </c>
       <c r="B313" t="s" s="2">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C313" t="s" s="2">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D313" s="2"/>
       <c r="E313" t="s" s="2">
@@ -38635,7 +38608,7 @@
         <v>77</v>
       </c>
       <c r="H313" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I313" t="s" s="2">
         <v>76</v>
@@ -38647,13 +38620,13 @@
         <v>76</v>
       </c>
       <c r="L313" t="s" s="2">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="M313" t="s" s="2">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="N313" t="s" s="2">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="O313" s="2"/>
       <c r="P313" s="2"/>
@@ -38692,42 +38665,42 @@
         <v>76</v>
       </c>
       <c r="AC313" t="s" s="2">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AD313" t="s" s="2">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="AE313" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF313" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AG313" t="s" s="2">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="AH313" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI313" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ313" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AK313" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="s" s="2">
-        <v>591</v>
+        <v>442</v>
       </c>
       <c r="B314" t="s" s="2">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C314" t="s" s="2">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="D314" s="2"/>
       <c r="E314" t="s" s="2">
@@ -38735,10 +38708,10 @@
       </c>
       <c r="F314" s="2"/>
       <c r="G314" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H314" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I314" t="s" s="2">
         <v>76</v>
@@ -38750,24 +38723,22 @@
         <v>76</v>
       </c>
       <c r="L314" t="s" s="2">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="M314" t="s" s="2">
-        <v>97</v>
+        <v>31</v>
       </c>
       <c r="N314" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="O314" t="s" s="2">
-        <v>99</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="O314" s="2"/>
       <c r="P314" s="2"/>
       <c r="Q314" t="s" s="2">
         <v>76</v>
       </c>
       <c r="R314" s="2"/>
       <c r="S314" t="s" s="2">
-        <v>947</v>
+        <v>76</v>
       </c>
       <c r="T314" t="s" s="2">
         <v>76</v>
@@ -38797,42 +38768,42 @@
         <v>76</v>
       </c>
       <c r="AC314" t="s" s="2">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="AD314" t="s" s="2">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="AE314" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF314" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AG314" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AH314" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AI314" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ314" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AK314" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="s" s="2">
-        <v>591</v>
+        <v>442</v>
       </c>
       <c r="B315" t="s" s="2">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C315" t="s" s="2">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D315" s="2"/>
       <c r="E315" t="s" s="2">
@@ -38840,7 +38811,7 @@
       </c>
       <c r="F315" s="2"/>
       <c r="G315" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="H315" t="s" s="2">
         <v>83</v>
@@ -38855,22 +38826,24 @@
         <v>76</v>
       </c>
       <c r="L315" t="s" s="2">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="M315" t="s" s="2">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="N315" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="O315" s="2"/>
+        <v>98</v>
+      </c>
+      <c r="O315" t="s" s="2">
+        <v>99</v>
+      </c>
       <c r="P315" s="2"/>
       <c r="Q315" t="s" s="2">
         <v>76</v>
       </c>
       <c r="R315" s="2"/>
       <c r="S315" t="s" s="2">
-        <v>76</v>
+        <v>940</v>
       </c>
       <c r="T315" t="s" s="2">
         <v>76</v>
@@ -38912,19 +38885,19 @@
         <v>76</v>
       </c>
       <c r="AG315" t="s" s="2">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AH315" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="AI315" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ315" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AK315" t="s" s="2">
-        <v>104</v>
+        <v>76</v>
       </c>
     </row>
     <row r="316">
@@ -38932,10 +38905,10 @@
         <v>442</v>
       </c>
       <c r="B316" t="s" s="2">
-        <v>31</v>
+        <v>100</v>
       </c>
       <c r="C316" t="s" s="2">
-        <v>31</v>
+        <v>100</v>
       </c>
       <c r="D316" s="2"/>
       <c r="E316" t="s" s="2">
@@ -38946,7 +38919,7 @@
         <v>77</v>
       </c>
       <c r="H316" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I316" t="s" s="2">
         <v>76</v>
@@ -38958,13 +38931,13 @@
         <v>76</v>
       </c>
       <c r="L316" t="s" s="2">
-        <v>79</v>
+        <v>186</v>
       </c>
       <c r="M316" t="s" s="2">
-        <v>31</v>
+        <v>102</v>
       </c>
       <c r="N316" t="s" s="2">
-        <v>445</v>
+        <v>103</v>
       </c>
       <c r="O316" s="2"/>
       <c r="P316" s="2"/>
@@ -39015,30 +38988,30 @@
         <v>76</v>
       </c>
       <c r="AG316" t="s" s="2">
-        <v>31</v>
+        <v>100</v>
       </c>
       <c r="AH316" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI316" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ316" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK316" t="s" s="2">
-        <v>81</v>
+        <v>104</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="s" s="2">
-        <v>442</v>
+        <v>599</v>
       </c>
       <c r="B317" t="s" s="2">
-        <v>82</v>
+        <v>31</v>
       </c>
       <c r="C317" t="s" s="2">
-        <v>82</v>
+        <v>31</v>
       </c>
       <c r="D317" s="2"/>
       <c r="E317" t="s" s="2">
@@ -39049,7 +39022,7 @@
         <v>77</v>
       </c>
       <c r="H317" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I317" t="s" s="2">
         <v>76</v>
@@ -39061,13 +39034,13 @@
         <v>76</v>
       </c>
       <c r="L317" t="s" s="2">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="M317" t="s" s="2">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="N317" t="s" s="2">
-        <v>86</v>
+        <v>602</v>
       </c>
       <c r="O317" s="2"/>
       <c r="P317" s="2"/>
@@ -39118,30 +39091,30 @@
         <v>76</v>
       </c>
       <c r="AG317" t="s" s="2">
-        <v>87</v>
+        <v>31</v>
       </c>
       <c r="AH317" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI317" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ317" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AK317" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="s" s="2">
-        <v>442</v>
+        <v>599</v>
       </c>
       <c r="B318" t="s" s="2">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C318" t="s" s="2">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D318" s="2"/>
       <c r="E318" t="s" s="2">
@@ -39152,7 +39125,7 @@
         <v>77</v>
       </c>
       <c r="H318" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I318" t="s" s="2">
         <v>76</v>
@@ -39164,13 +39137,13 @@
         <v>76</v>
       </c>
       <c r="L318" t="s" s="2">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="M318" t="s" s="2">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="N318" t="s" s="2">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="O318" s="2"/>
       <c r="P318" s="2"/>
@@ -39209,42 +39182,42 @@
         <v>76</v>
       </c>
       <c r="AC318" t="s" s="2">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AD318" t="s" s="2">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="AE318" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF318" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AG318" t="s" s="2">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="AH318" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI318" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ318" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AK318" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="s" s="2">
-        <v>442</v>
+        <v>599</v>
       </c>
       <c r="B319" t="s" s="2">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C319" t="s" s="2">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="D319" s="2"/>
       <c r="E319" t="s" s="2">
@@ -39252,10 +39225,10 @@
       </c>
       <c r="F319" s="2"/>
       <c r="G319" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H319" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I319" t="s" s="2">
         <v>76</v>
@@ -39267,24 +39240,22 @@
         <v>76</v>
       </c>
       <c r="L319" t="s" s="2">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="M319" t="s" s="2">
-        <v>97</v>
+        <v>31</v>
       </c>
       <c r="N319" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="O319" t="s" s="2">
-        <v>99</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="O319" s="2"/>
       <c r="P319" s="2"/>
       <c r="Q319" t="s" s="2">
         <v>76</v>
       </c>
       <c r="R319" s="2"/>
       <c r="S319" t="s" s="2">
-        <v>949</v>
+        <v>76</v>
       </c>
       <c r="T319" t="s" s="2">
         <v>76</v>
@@ -39314,42 +39285,42 @@
         <v>76</v>
       </c>
       <c r="AC319" t="s" s="2">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="AD319" t="s" s="2">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="AE319" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF319" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AG319" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AH319" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AI319" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ319" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AK319" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="s" s="2">
-        <v>442</v>
+        <v>599</v>
       </c>
       <c r="B320" t="s" s="2">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C320" t="s" s="2">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D320" s="2"/>
       <c r="E320" t="s" s="2">
@@ -39357,7 +39328,7 @@
       </c>
       <c r="F320" s="2"/>
       <c r="G320" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="H320" t="s" s="2">
         <v>83</v>
@@ -39372,22 +39343,24 @@
         <v>76</v>
       </c>
       <c r="L320" t="s" s="2">
-        <v>186</v>
+        <v>96</v>
       </c>
       <c r="M320" t="s" s="2">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="N320" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="O320" s="2"/>
+        <v>98</v>
+      </c>
+      <c r="O320" t="s" s="2">
+        <v>99</v>
+      </c>
       <c r="P320" s="2"/>
       <c r="Q320" t="s" s="2">
         <v>76</v>
       </c>
       <c r="R320" s="2"/>
       <c r="S320" t="s" s="2">
-        <v>76</v>
+        <v>943</v>
       </c>
       <c r="T320" t="s" s="2">
         <v>76</v>
@@ -39429,19 +39402,19 @@
         <v>76</v>
       </c>
       <c r="AG320" t="s" s="2">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AH320" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="AI320" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ320" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AK320" t="s" s="2">
-        <v>104</v>
+        <v>76</v>
       </c>
     </row>
     <row r="321">
@@ -39449,10 +39422,10 @@
         <v>599</v>
       </c>
       <c r="B321" t="s" s="2">
-        <v>31</v>
+        <v>100</v>
       </c>
       <c r="C321" t="s" s="2">
-        <v>31</v>
+        <v>100</v>
       </c>
       <c r="D321" s="2"/>
       <c r="E321" t="s" s="2">
@@ -39463,7 +39436,7 @@
         <v>77</v>
       </c>
       <c r="H321" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I321" t="s" s="2">
         <v>76</v>
@@ -39475,13 +39448,13 @@
         <v>76</v>
       </c>
       <c r="L321" t="s" s="2">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="M321" t="s" s="2">
-        <v>31</v>
+        <v>102</v>
       </c>
       <c r="N321" t="s" s="2">
-        <v>602</v>
+        <v>103</v>
       </c>
       <c r="O321" s="2"/>
       <c r="P321" s="2"/>
@@ -39532,432 +39505,18 @@
         <v>76</v>
       </c>
       <c r="AG321" t="s" s="2">
-        <v>31</v>
+        <v>100</v>
       </c>
       <c r="AH321" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI321" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ321" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK321" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="322">
-      <c r="A322" t="s" s="2">
-        <v>599</v>
-      </c>
-      <c r="B322" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="C322" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="D322" s="2"/>
-      <c r="E322" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="F322" s="2"/>
-      <c r="G322" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H322" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="I322" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J322" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K322" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="L322" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="M322" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="N322" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="O322" s="2"/>
-      <c r="P322" s="2"/>
-      <c r="Q322" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R322" s="2"/>
-      <c r="S322" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T322" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U322" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V322" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W322" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X322" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y322" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z322" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA322" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB322" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC322" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD322" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE322" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF322" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG322" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH322" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI322" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AJ322" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK322" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="323">
-      <c r="A323" t="s" s="2">
-        <v>599</v>
-      </c>
-      <c r="B323" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="C323" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="D323" s="2"/>
-      <c r="E323" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="F323" s="2"/>
-      <c r="G323" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H323" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I323" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J323" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K323" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="L323" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="M323" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="N323" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="O323" s="2"/>
-      <c r="P323" s="2"/>
-      <c r="Q323" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R323" s="2"/>
-      <c r="S323" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T323" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U323" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V323" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W323" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X323" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y323" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z323" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA323" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB323" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC323" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AD323" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AE323" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF323" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AG323" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AH323" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI323" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ323" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK323" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="324">
-      <c r="A324" t="s" s="2">
-        <v>599</v>
-      </c>
-      <c r="B324" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="C324" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="D324" s="2"/>
-      <c r="E324" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="F324" s="2"/>
-      <c r="G324" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="H324" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="I324" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J324" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K324" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="L324" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="M324" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="N324" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="O324" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="P324" s="2"/>
-      <c r="Q324" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R324" s="2"/>
-      <c r="S324" t="s" s="2">
-        <v>952</v>
-      </c>
-      <c r="T324" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U324" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V324" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W324" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X324" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y324" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z324" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA324" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB324" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC324" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD324" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE324" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF324" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG324" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AH324" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI324" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AJ324" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK324" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="325">
-      <c r="A325" t="s" s="2">
-        <v>599</v>
-      </c>
-      <c r="B325" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="C325" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="D325" s="2"/>
-      <c r="E325" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="F325" s="2"/>
-      <c r="G325" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H325" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="I325" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J325" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K325" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="L325" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="M325" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="N325" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="O325" s="2"/>
-      <c r="P325" s="2"/>
-      <c r="Q325" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R325" s="2"/>
-      <c r="S325" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T325" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U325" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V325" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W325" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X325" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y325" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z325" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA325" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB325" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC325" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD325" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE325" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF325" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG325" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AH325" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI325" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AJ325" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK325" t="s" s="2">
         <v>104</v>
       </c>
     </row>

--- a/cp-descriptionsummary/ig/all-profiles.xlsx
+++ b/cp-descriptionsummary/ig/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-21T14:42:49+00:00</t>
+    <t>2025-07-21T14:51:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/cp-descriptionsummary/ig/all-profiles.xlsx
+++ b/cp-descriptionsummary/ig/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11229" uniqueCount="945">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11388" uniqueCount="956">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-21T14:51:20+00:00</t>
+    <t>2025-07-23T12:40:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1913,10 +1913,43 @@
 </t>
   </si>
   <si>
-    <t>Texte bref décrivant l'essai / Brief text explaining the study.</t>
-  </si>
-  <si>
-    <t>Cette extension implemente l'élément descriptionSummary de R5 https://hl7.org/fhir/R5/researchstudy-definitions.html#ResearchStudy.descriptionSummary. elle permet l'ajout d'un texte bref décrivant l'essai</t>
+    <t>Texte bref décrivant l'essai / Brief text explaining the study (Brief summary)</t>
+  </si>
+  <si>
+    <t>Cette extension implemente l'élément descriptionSummary de R5 https://hl7.org/fhir/R5/researchstudy-definitions.html#ResearchStudy.descriptionSummary. elle permet l'ajout d'un texte bref décrivant l'essai (Brief summary)</t>
+  </si>
+  <si>
+    <t>ResearchStudy.extension:eclaire-description-summary-r5.id</t>
+  </si>
+  <si>
+    <t>ResearchStudy.extension.id</t>
+  </si>
+  <si>
+    <t>ResearchStudy.extension:eclaire-description-summary-r5.extension</t>
+  </si>
+  <si>
+    <t>ResearchStudy.extension.extension</t>
+  </si>
+  <si>
+    <t>ResearchStudy.extension:eclaire-description-summary-r5.url</t>
+  </si>
+  <si>
+    <t>ResearchStudy.extension.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ResearchStudy.descriptionSummary</t>
+  </si>
+  <si>
+    <t>ResearchStudy.extension:eclaire-description-summary-r5.value[x]</t>
+  </si>
+  <si>
+    <t>ResearchStudy.extension.value[x]</t>
+  </si>
+  <si>
+    <t>Brief text explaining the study</t>
+  </si>
+  <si>
+    <t>A brief text for explaining the study.</t>
   </si>
   <si>
     <t>ResearchStudy.extension:eclaire-outcome-measure-r5</t>
@@ -5425,7 +5458,7 @@
         <v>4</v>
       </c>
       <c r="B308" t="s" s="2">
-        <v>938</v>
+        <v>949</v>
       </c>
     </row>
     <row r="309">
@@ -5441,7 +5474,7 @@
         <v>8</v>
       </c>
       <c r="B310" t="s" s="2">
-        <v>939</v>
+        <v>950</v>
       </c>
     </row>
     <row r="311">
@@ -5593,7 +5626,7 @@
         <v>4</v>
       </c>
       <c r="B330" t="s" s="2">
-        <v>940</v>
+        <v>951</v>
       </c>
     </row>
     <row r="331">
@@ -5609,7 +5642,7 @@
         <v>8</v>
       </c>
       <c r="B332" t="s" s="2">
-        <v>941</v>
+        <v>952</v>
       </c>
     </row>
     <row r="333">
@@ -5737,7 +5770,7 @@
         <v>38</v>
       </c>
       <c r="B349" t="s" s="2">
-        <v>942</v>
+        <v>953</v>
       </c>
     </row>
     <row r="350">
@@ -5761,7 +5794,7 @@
         <v>4</v>
       </c>
       <c r="B352" t="s" s="2">
-        <v>943</v>
+        <v>954</v>
       </c>
     </row>
     <row r="353">
@@ -5777,7 +5810,7 @@
         <v>8</v>
       </c>
       <c r="B354" t="s" s="2">
-        <v>944</v>
+        <v>955</v>
       </c>
     </row>
     <row r="355">
@@ -5915,7 +5948,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK321"/>
+  <dimension ref="A1:AK326"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -5925,7 +5958,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="23.3125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="51.9140625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="54.44140625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="37.0078125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="25.6796875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="34.21875" customWidth="true" bestFit="true"/>
@@ -28406,11 +28439,9 @@
         <v>614</v>
       </c>
       <c r="C216" t="s" s="2">
-        <v>589</v>
-      </c>
-      <c r="D216" t="s" s="2">
-        <v>547</v>
-      </c>
+        <v>615</v>
+      </c>
+      <c r="D216" s="2"/>
       <c r="E216" t="s" s="2">
         <v>76</v>
       </c>
@@ -28419,10 +28450,10 @@
         <v>77</v>
       </c>
       <c r="H216" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I216" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="J216" t="s" s="2">
         <v>76</v>
@@ -28431,13 +28462,13 @@
         <v>76</v>
       </c>
       <c r="L216" t="s" s="2">
-        <v>615</v>
+        <v>206</v>
       </c>
       <c r="M216" t="s" s="2">
-        <v>616</v>
+        <v>85</v>
       </c>
       <c r="N216" t="s" s="2">
-        <v>617</v>
+        <v>86</v>
       </c>
       <c r="O216" s="2"/>
       <c r="P216" s="2"/>
@@ -28488,19 +28519,19 @@
         <v>76</v>
       </c>
       <c r="AG216" t="s" s="2">
-        <v>246</v>
+        <v>87</v>
       </c>
       <c r="AH216" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI216" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ216" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AK216" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="217">
@@ -28508,14 +28539,12 @@
         <v>573</v>
       </c>
       <c r="B217" t="s" s="2">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="C217" t="s" s="2">
-        <v>589</v>
-      </c>
-      <c r="D217" t="s" s="2">
-        <v>133</v>
-      </c>
+        <v>617</v>
+      </c>
+      <c r="D217" s="2"/>
       <c r="E217" t="s" s="2">
         <v>76</v>
       </c>
@@ -28524,10 +28553,10 @@
         <v>77</v>
       </c>
       <c r="H217" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I217" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="J217" t="s" s="2">
         <v>76</v>
@@ -28536,13 +28565,13 @@
         <v>76</v>
       </c>
       <c r="L217" t="s" s="2">
-        <v>619</v>
+        <v>89</v>
       </c>
       <c r="M217" t="s" s="2">
-        <v>620</v>
+        <v>31</v>
       </c>
       <c r="N217" t="s" s="2">
-        <v>621</v>
+        <v>90</v>
       </c>
       <c r="O217" s="2"/>
       <c r="P217" s="2"/>
@@ -28581,19 +28610,19 @@
         <v>76</v>
       </c>
       <c r="AC217" t="s" s="2">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="AD217" t="s" s="2">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="AE217" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF217" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AG217" t="s" s="2">
-        <v>246</v>
+        <v>94</v>
       </c>
       <c r="AH217" t="s" s="2">
         <v>77</v>
@@ -28602,7 +28631,7 @@
         <v>78</v>
       </c>
       <c r="AJ217" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AK217" t="s" s="2">
         <v>81</v>
@@ -28613,26 +28642,24 @@
         <v>573</v>
       </c>
       <c r="B218" t="s" s="2">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="C218" t="s" s="2">
-        <v>589</v>
-      </c>
-      <c r="D218" t="s" s="2">
-        <v>360</v>
-      </c>
+        <v>619</v>
+      </c>
+      <c r="D218" s="2"/>
       <c r="E218" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F218" s="2"/>
       <c r="G218" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="H218" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I218" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="J218" t="s" s="2">
         <v>76</v>
@@ -28641,22 +28668,24 @@
         <v>76</v>
       </c>
       <c r="L218" t="s" s="2">
-        <v>623</v>
+        <v>96</v>
       </c>
       <c r="M218" t="s" s="2">
-        <v>624</v>
+        <v>97</v>
       </c>
       <c r="N218" t="s" s="2">
-        <v>625</v>
-      </c>
-      <c r="O218" s="2"/>
+        <v>98</v>
+      </c>
+      <c r="O218" t="s" s="2">
+        <v>99</v>
+      </c>
       <c r="P218" s="2"/>
       <c r="Q218" t="s" s="2">
         <v>76</v>
       </c>
       <c r="R218" s="2"/>
       <c r="S218" t="s" s="2">
-        <v>76</v>
+        <v>620</v>
       </c>
       <c r="T218" t="s" s="2">
         <v>76</v>
@@ -28698,19 +28727,19 @@
         <v>76</v>
       </c>
       <c r="AG218" t="s" s="2">
-        <v>246</v>
+        <v>95</v>
       </c>
       <c r="AH218" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="AI218" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ218" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AK218" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="219">
@@ -28718,46 +28747,42 @@
         <v>573</v>
       </c>
       <c r="B219" t="s" s="2">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="C219" t="s" s="2">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="D219" s="2"/>
       <c r="E219" t="s" s="2">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="F219" s="2"/>
       <c r="G219" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H219" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I219" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J219" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="K219" t="s" s="2">
         <v>76</v>
       </c>
       <c r="L219" t="s" s="2">
-        <v>89</v>
+        <v>555</v>
       </c>
       <c r="M219" t="s" s="2">
-        <v>248</v>
+        <v>623</v>
       </c>
       <c r="N219" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="O219" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="P219" t="s" s="2">
-        <v>250</v>
-      </c>
+        <v>624</v>
+      </c>
+      <c r="O219" s="2"/>
+      <c r="P219" s="2"/>
       <c r="Q219" t="s" s="2">
         <v>76</v>
       </c>
@@ -28793,31 +28818,31 @@
         <v>76</v>
       </c>
       <c r="AC219" t="s" s="2">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AD219" t="s" s="2">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="AE219" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF219" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AG219" t="s" s="2">
-        <v>251</v>
+        <v>100</v>
       </c>
       <c r="AH219" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI219" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ219" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AK219" t="s" s="2">
-        <v>81</v>
+        <v>104</v>
       </c>
     </row>
     <row r="220">
@@ -28825,10 +28850,10 @@
         <v>573</v>
       </c>
       <c r="B220" t="s" s="2">
-        <v>627</v>
+        <v>618</v>
       </c>
       <c r="C220" t="s" s="2">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="D220" s="2"/>
       <c r="E220" t="s" s="2">
@@ -28836,10 +28861,10 @@
       </c>
       <c r="F220" s="2"/>
       <c r="G220" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="H220" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I220" t="s" s="2">
         <v>76</v>
@@ -28848,27 +28873,21 @@
         <v>76</v>
       </c>
       <c r="K220" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="L220" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="M220" t="s" s="2">
-        <v>628</v>
-      </c>
-      <c r="N220" t="s" s="2">
-        <v>629</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="M220" s="2"/>
+      <c r="N220" s="2"/>
       <c r="O220" s="2"/>
-      <c r="P220" t="s" s="2">
-        <v>630</v>
-      </c>
+      <c r="P220" s="2"/>
       <c r="Q220" t="s" s="2">
         <v>76</v>
       </c>
       <c r="R220" s="2"/>
       <c r="S220" t="s" s="2">
-        <v>76</v>
+        <v>620</v>
       </c>
       <c r="T220" t="s" s="2">
         <v>76</v>
@@ -28898,31 +28917,31 @@
         <v>76</v>
       </c>
       <c r="AC220" t="s" s="2">
-        <v>631</v>
+        <v>76</v>
       </c>
       <c r="AD220" t="s" s="2">
-        <v>632</v>
+        <v>76</v>
       </c>
       <c r="AE220" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF220" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AG220" t="s" s="2">
-        <v>627</v>
+        <v>95</v>
       </c>
       <c r="AH220" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="AI220" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ220" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AK220" t="s" s="2">
-        <v>104</v>
+        <v>76</v>
       </c>
     </row>
     <row r="221">
@@ -28930,13 +28949,13 @@
         <v>573</v>
       </c>
       <c r="B221" t="s" s="2">
-        <v>633</v>
+        <v>625</v>
       </c>
       <c r="C221" t="s" s="2">
-        <v>627</v>
+        <v>589</v>
       </c>
       <c r="D221" t="s" s="2">
-        <v>634</v>
+        <v>547</v>
       </c>
       <c r="E221" t="s" s="2">
         <v>76</v>
@@ -28946,7 +28965,7 @@
         <v>77</v>
       </c>
       <c r="H221" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I221" t="s" s="2">
         <v>205</v>
@@ -28955,21 +28974,19 @@
         <v>76</v>
       </c>
       <c r="K221" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="L221" t="s" s="2">
-        <v>253</v>
+        <v>626</v>
       </c>
       <c r="M221" t="s" s="2">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="N221" t="s" s="2">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="O221" s="2"/>
-      <c r="P221" t="s" s="2">
-        <v>630</v>
-      </c>
+      <c r="P221" s="2"/>
       <c r="Q221" t="s" s="2">
         <v>76</v>
       </c>
@@ -29017,7 +29034,7 @@
         <v>76</v>
       </c>
       <c r="AG221" t="s" s="2">
-        <v>627</v>
+        <v>246</v>
       </c>
       <c r="AH221" t="s" s="2">
         <v>77</v>
@@ -29029,7 +29046,7 @@
         <v>80</v>
       </c>
       <c r="AK221" t="s" s="2">
-        <v>104</v>
+        <v>81</v>
       </c>
     </row>
     <row r="222">
@@ -29037,12 +29054,14 @@
         <v>573</v>
       </c>
       <c r="B222" t="s" s="2">
-        <v>636</v>
+        <v>629</v>
       </c>
       <c r="C222" t="s" s="2">
-        <v>637</v>
-      </c>
-      <c r="D222" s="2"/>
+        <v>589</v>
+      </c>
+      <c r="D222" t="s" s="2">
+        <v>133</v>
+      </c>
       <c r="E222" t="s" s="2">
         <v>76</v>
       </c>
@@ -29051,10 +29070,10 @@
         <v>77</v>
       </c>
       <c r="H222" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I222" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="J222" t="s" s="2">
         <v>76</v>
@@ -29063,13 +29082,13 @@
         <v>76</v>
       </c>
       <c r="L222" t="s" s="2">
-        <v>84</v>
+        <v>630</v>
       </c>
       <c r="M222" t="s" s="2">
-        <v>85</v>
+        <v>631</v>
       </c>
       <c r="N222" t="s" s="2">
-        <v>86</v>
+        <v>632</v>
       </c>
       <c r="O222" s="2"/>
       <c r="P222" s="2"/>
@@ -29120,19 +29139,19 @@
         <v>76</v>
       </c>
       <c r="AG222" t="s" s="2">
-        <v>87</v>
+        <v>246</v>
       </c>
       <c r="AH222" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI222" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ222" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AK222" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="223">
@@ -29140,14 +29159,16 @@
         <v>573</v>
       </c>
       <c r="B223" t="s" s="2">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="C223" t="s" s="2">
-        <v>639</v>
-      </c>
-      <c r="D223" s="2"/>
+        <v>589</v>
+      </c>
+      <c r="D223" t="s" s="2">
+        <v>360</v>
+      </c>
       <c r="E223" t="s" s="2">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="F223" s="2"/>
       <c r="G223" t="s" s="2">
@@ -29157,7 +29178,7 @@
         <v>78</v>
       </c>
       <c r="I223" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="J223" t="s" s="2">
         <v>76</v>
@@ -29166,17 +29187,15 @@
         <v>76</v>
       </c>
       <c r="L223" t="s" s="2">
-        <v>89</v>
+        <v>634</v>
       </c>
       <c r="M223" t="s" s="2">
-        <v>111</v>
+        <v>635</v>
       </c>
       <c r="N223" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="O223" t="s" s="2">
-        <v>113</v>
-      </c>
+        <v>636</v>
+      </c>
+      <c r="O223" s="2"/>
       <c r="P223" s="2"/>
       <c r="Q223" t="s" s="2">
         <v>76</v>
@@ -29213,19 +29232,19 @@
         <v>76</v>
       </c>
       <c r="AC223" t="s" s="2">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AD223" t="s" s="2">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="AE223" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF223" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AG223" t="s" s="2">
-        <v>94</v>
+        <v>246</v>
       </c>
       <c r="AH223" t="s" s="2">
         <v>77</v>
@@ -29245,21 +29264,21 @@
         <v>573</v>
       </c>
       <c r="B224" t="s" s="2">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="C224" t="s" s="2">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="D224" s="2"/>
       <c r="E224" t="s" s="2">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="F224" s="2"/>
       <c r="G224" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H224" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I224" t="s" s="2">
         <v>76</v>
@@ -29268,22 +29287,22 @@
         <v>205</v>
       </c>
       <c r="K224" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="L224" t="s" s="2">
-        <v>222</v>
+        <v>89</v>
       </c>
       <c r="M224" t="s" s="2">
-        <v>642</v>
+        <v>248</v>
       </c>
       <c r="N224" t="s" s="2">
-        <v>643</v>
+        <v>249</v>
       </c>
       <c r="O224" t="s" s="2">
-        <v>644</v>
+        <v>113</v>
       </c>
       <c r="P224" t="s" s="2">
-        <v>645</v>
+        <v>250</v>
       </c>
       <c r="Q224" t="s" s="2">
         <v>76</v>
@@ -29293,7 +29312,7 @@
         <v>76</v>
       </c>
       <c r="T224" t="s" s="2">
-        <v>646</v>
+        <v>76</v>
       </c>
       <c r="U224" t="s" s="2">
         <v>76</v>
@@ -29308,43 +29327,43 @@
         <v>76</v>
       </c>
       <c r="Y224" t="s" s="2">
-        <v>191</v>
+        <v>76</v>
       </c>
       <c r="Z224" t="s" s="2">
-        <v>647</v>
+        <v>76</v>
       </c>
       <c r="AA224" t="s" s="2">
-        <v>648</v>
+        <v>76</v>
       </c>
       <c r="AB224" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AC224" t="s" s="2">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="AD224" t="s" s="2">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="AE224" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF224" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AG224" t="s" s="2">
-        <v>649</v>
+        <v>251</v>
       </c>
       <c r="AH224" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI224" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ224" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK224" t="s" s="2">
-        <v>104</v>
+        <v>81</v>
       </c>
     </row>
     <row r="225">
@@ -29352,10 +29371,10 @@
         <v>573</v>
       </c>
       <c r="B225" t="s" s="2">
-        <v>650</v>
+        <v>638</v>
       </c>
       <c r="C225" t="s" s="2">
-        <v>651</v>
+        <v>638</v>
       </c>
       <c r="D225" s="2"/>
       <c r="E225" t="s" s="2">
@@ -29366,7 +29385,7 @@
         <v>77</v>
       </c>
       <c r="H225" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I225" t="s" s="2">
         <v>76</v>
@@ -29378,19 +29397,17 @@
         <v>205</v>
       </c>
       <c r="L225" t="s" s="2">
-        <v>145</v>
+        <v>253</v>
       </c>
       <c r="M225" t="s" s="2">
-        <v>652</v>
+        <v>639</v>
       </c>
       <c r="N225" t="s" s="2">
-        <v>653</v>
-      </c>
-      <c r="O225" t="s" s="2">
-        <v>654</v>
-      </c>
+        <v>640</v>
+      </c>
+      <c r="O225" s="2"/>
       <c r="P225" t="s" s="2">
-        <v>655</v>
+        <v>641</v>
       </c>
       <c r="Q225" t="s" s="2">
         <v>76</v>
@@ -29415,37 +29432,37 @@
         <v>76</v>
       </c>
       <c r="Y225" t="s" s="2">
-        <v>146</v>
+        <v>76</v>
       </c>
       <c r="Z225" t="s" s="2">
-        <v>656</v>
+        <v>76</v>
       </c>
       <c r="AA225" t="s" s="2">
-        <v>657</v>
+        <v>76</v>
       </c>
       <c r="AB225" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AC225" t="s" s="2">
-        <v>76</v>
+        <v>642</v>
       </c>
       <c r="AD225" t="s" s="2">
-        <v>76</v>
+        <v>643</v>
       </c>
       <c r="AE225" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF225" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AG225" t="s" s="2">
-        <v>658</v>
+        <v>638</v>
       </c>
       <c r="AH225" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI225" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ225" t="s" s="2">
         <v>80</v>
@@ -29459,12 +29476,14 @@
         <v>573</v>
       </c>
       <c r="B226" t="s" s="2">
-        <v>659</v>
+        <v>644</v>
       </c>
       <c r="C226" t="s" s="2">
-        <v>660</v>
-      </c>
-      <c r="D226" s="2"/>
+        <v>638</v>
+      </c>
+      <c r="D226" t="s" s="2">
+        <v>645</v>
+      </c>
       <c r="E226" t="s" s="2">
         <v>76</v>
       </c>
@@ -29476,7 +29495,7 @@
         <v>83</v>
       </c>
       <c r="I226" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="J226" t="s" s="2">
         <v>76</v>
@@ -29485,19 +29504,17 @@
         <v>205</v>
       </c>
       <c r="L226" t="s" s="2">
-        <v>96</v>
+        <v>253</v>
       </c>
       <c r="M226" t="s" s="2">
-        <v>661</v>
+        <v>646</v>
       </c>
       <c r="N226" t="s" s="2">
-        <v>662</v>
-      </c>
-      <c r="O226" t="s" s="2">
-        <v>663</v>
-      </c>
+        <v>640</v>
+      </c>
+      <c r="O226" s="2"/>
       <c r="P226" t="s" s="2">
-        <v>664</v>
+        <v>641</v>
       </c>
       <c r="Q226" t="s" s="2">
         <v>76</v>
@@ -29510,7 +29527,7 @@
         <v>76</v>
       </c>
       <c r="U226" t="s" s="2">
-        <v>665</v>
+        <v>76</v>
       </c>
       <c r="V226" t="s" s="2">
         <v>76</v>
@@ -29546,13 +29563,13 @@
         <v>76</v>
       </c>
       <c r="AG226" t="s" s="2">
-        <v>666</v>
+        <v>638</v>
       </c>
       <c r="AH226" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI226" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ226" t="s" s="2">
         <v>80</v>
@@ -29566,10 +29583,10 @@
         <v>573</v>
       </c>
       <c r="B227" t="s" s="2">
-        <v>667</v>
+        <v>647</v>
       </c>
       <c r="C227" t="s" s="2">
-        <v>668</v>
+        <v>648</v>
       </c>
       <c r="D227" s="2"/>
       <c r="E227" t="s" s="2">
@@ -29589,20 +29606,18 @@
         <v>76</v>
       </c>
       <c r="K227" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="L227" t="s" s="2">
         <v>84</v>
       </c>
       <c r="M227" t="s" s="2">
-        <v>669</v>
+        <v>85</v>
       </c>
       <c r="N227" t="s" s="2">
-        <v>670</v>
-      </c>
-      <c r="O227" t="s" s="2">
-        <v>671</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="O227" s="2"/>
       <c r="P227" s="2"/>
       <c r="Q227" t="s" s="2">
         <v>76</v>
@@ -29615,7 +29630,7 @@
         <v>76</v>
       </c>
       <c r="U227" t="s" s="2">
-        <v>672</v>
+        <v>76</v>
       </c>
       <c r="V227" t="s" s="2">
         <v>76</v>
@@ -29651,7 +29666,7 @@
         <v>76</v>
       </c>
       <c r="AG227" t="s" s="2">
-        <v>673</v>
+        <v>87</v>
       </c>
       <c r="AH227" t="s" s="2">
         <v>77</v>
@@ -29660,10 +29675,10 @@
         <v>83</v>
       </c>
       <c r="AJ227" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AK227" t="s" s="2">
-        <v>104</v>
+        <v>76</v>
       </c>
     </row>
     <row r="228">
@@ -29671,21 +29686,21 @@
         <v>573</v>
       </c>
       <c r="B228" t="s" s="2">
-        <v>674</v>
+        <v>649</v>
       </c>
       <c r="C228" t="s" s="2">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="D228" s="2"/>
       <c r="E228" t="s" s="2">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="F228" s="2"/>
       <c r="G228" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H228" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I228" t="s" s="2">
         <v>76</v>
@@ -29694,19 +29709,19 @@
         <v>76</v>
       </c>
       <c r="K228" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="L228" t="s" s="2">
-        <v>155</v>
+        <v>89</v>
       </c>
       <c r="M228" t="s" s="2">
-        <v>676</v>
+        <v>111</v>
       </c>
       <c r="N228" t="s" s="2">
-        <v>677</v>
+        <v>112</v>
       </c>
       <c r="O228" t="s" s="2">
-        <v>336</v>
+        <v>113</v>
       </c>
       <c r="P228" s="2"/>
       <c r="Q228" t="s" s="2">
@@ -29744,31 +29759,31 @@
         <v>76</v>
       </c>
       <c r="AC228" t="s" s="2">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="AD228" t="s" s="2">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="AE228" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF228" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AG228" t="s" s="2">
-        <v>678</v>
+        <v>94</v>
       </c>
       <c r="AH228" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI228" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ228" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK228" t="s" s="2">
-        <v>337</v>
+        <v>81</v>
       </c>
     </row>
     <row r="229">
@@ -29776,10 +29791,10 @@
         <v>573</v>
       </c>
       <c r="B229" t="s" s="2">
-        <v>679</v>
+        <v>651</v>
       </c>
       <c r="C229" t="s" s="2">
-        <v>680</v>
+        <v>652</v>
       </c>
       <c r="D229" s="2"/>
       <c r="E229" t="s" s="2">
@@ -29787,7 +29802,7 @@
       </c>
       <c r="F229" s="2"/>
       <c r="G229" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="H229" t="s" s="2">
         <v>83</v>
@@ -29796,22 +29811,26 @@
         <v>76</v>
       </c>
       <c r="J229" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="K229" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="L229" t="s" s="2">
-        <v>84</v>
+        <v>222</v>
       </c>
       <c r="M229" t="s" s="2">
-        <v>85</v>
+        <v>653</v>
       </c>
       <c r="N229" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="O229" s="2"/>
-      <c r="P229" s="2"/>
+        <v>654</v>
+      </c>
+      <c r="O229" t="s" s="2">
+        <v>655</v>
+      </c>
+      <c r="P229" t="s" s="2">
+        <v>656</v>
+      </c>
       <c r="Q229" t="s" s="2">
         <v>76</v>
       </c>
@@ -29820,7 +29839,7 @@
         <v>76</v>
       </c>
       <c r="T229" t="s" s="2">
-        <v>76</v>
+        <v>657</v>
       </c>
       <c r="U229" t="s" s="2">
         <v>76</v>
@@ -29835,13 +29854,13 @@
         <v>76</v>
       </c>
       <c r="Y229" t="s" s="2">
-        <v>76</v>
+        <v>191</v>
       </c>
       <c r="Z229" t="s" s="2">
-        <v>76</v>
+        <v>658</v>
       </c>
       <c r="AA229" t="s" s="2">
-        <v>76</v>
+        <v>659</v>
       </c>
       <c r="AB229" t="s" s="2">
         <v>76</v>
@@ -29859,7 +29878,7 @@
         <v>76</v>
       </c>
       <c r="AG229" t="s" s="2">
-        <v>87</v>
+        <v>660</v>
       </c>
       <c r="AH229" t="s" s="2">
         <v>77</v>
@@ -29868,10 +29887,10 @@
         <v>83</v>
       </c>
       <c r="AJ229" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AK229" t="s" s="2">
-        <v>76</v>
+        <v>104</v>
       </c>
     </row>
     <row r="230">
@@ -29879,21 +29898,21 @@
         <v>573</v>
       </c>
       <c r="B230" t="s" s="2">
-        <v>681</v>
+        <v>661</v>
       </c>
       <c r="C230" t="s" s="2">
-        <v>682</v>
+        <v>662</v>
       </c>
       <c r="D230" s="2"/>
       <c r="E230" t="s" s="2">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="F230" s="2"/>
       <c r="G230" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H230" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I230" t="s" s="2">
         <v>76</v>
@@ -29902,21 +29921,23 @@
         <v>76</v>
       </c>
       <c r="K230" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="L230" t="s" s="2">
-        <v>89</v>
+        <v>145</v>
       </c>
       <c r="M230" t="s" s="2">
-        <v>111</v>
+        <v>663</v>
       </c>
       <c r="N230" t="s" s="2">
-        <v>112</v>
+        <v>664</v>
       </c>
       <c r="O230" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="P230" s="2"/>
+        <v>665</v>
+      </c>
+      <c r="P230" t="s" s="2">
+        <v>666</v>
+      </c>
       <c r="Q230" t="s" s="2">
         <v>76</v>
       </c>
@@ -29940,43 +29961,43 @@
         <v>76</v>
       </c>
       <c r="Y230" t="s" s="2">
-        <v>76</v>
+        <v>146</v>
       </c>
       <c r="Z230" t="s" s="2">
-        <v>76</v>
+        <v>667</v>
       </c>
       <c r="AA230" t="s" s="2">
-        <v>76</v>
+        <v>668</v>
       </c>
       <c r="AB230" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AC230" t="s" s="2">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AD230" t="s" s="2">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="AE230" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF230" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AG230" t="s" s="2">
-        <v>94</v>
+        <v>669</v>
       </c>
       <c r="AH230" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI230" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ230" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK230" t="s" s="2">
-        <v>81</v>
+        <v>104</v>
       </c>
     </row>
     <row r="231">
@@ -29984,10 +30005,10 @@
         <v>573</v>
       </c>
       <c r="B231" t="s" s="2">
-        <v>683</v>
+        <v>670</v>
       </c>
       <c r="C231" t="s" s="2">
-        <v>684</v>
+        <v>671</v>
       </c>
       <c r="D231" s="2"/>
       <c r="E231" t="s" s="2">
@@ -30010,18 +30031,20 @@
         <v>205</v>
       </c>
       <c r="L231" t="s" s="2">
-        <v>685</v>
+        <v>96</v>
       </c>
       <c r="M231" t="s" s="2">
-        <v>686</v>
+        <v>672</v>
       </c>
       <c r="N231" t="s" s="2">
-        <v>687</v>
+        <v>673</v>
       </c>
       <c r="O231" t="s" s="2">
-        <v>688</v>
-      </c>
-      <c r="P231" s="2"/>
+        <v>674</v>
+      </c>
+      <c r="P231" t="s" s="2">
+        <v>675</v>
+      </c>
       <c r="Q231" t="s" s="2">
         <v>76</v>
       </c>
@@ -30033,7 +30056,7 @@
         <v>76</v>
       </c>
       <c r="U231" t="s" s="2">
-        <v>76</v>
+        <v>676</v>
       </c>
       <c r="V231" t="s" s="2">
         <v>76</v>
@@ -30069,7 +30092,7 @@
         <v>76</v>
       </c>
       <c r="AG231" t="s" s="2">
-        <v>689</v>
+        <v>677</v>
       </c>
       <c r="AH231" t="s" s="2">
         <v>77</v>
@@ -30078,7 +30101,7 @@
         <v>83</v>
       </c>
       <c r="AJ231" t="s" s="2">
-        <v>690</v>
+        <v>80</v>
       </c>
       <c r="AK231" t="s" s="2">
         <v>104</v>
@@ -30089,10 +30112,10 @@
         <v>573</v>
       </c>
       <c r="B232" t="s" s="2">
-        <v>691</v>
+        <v>678</v>
       </c>
       <c r="C232" t="s" s="2">
-        <v>692</v>
+        <v>679</v>
       </c>
       <c r="D232" s="2"/>
       <c r="E232" t="s" s="2">
@@ -30115,24 +30138,22 @@
         <v>205</v>
       </c>
       <c r="L232" t="s" s="2">
-        <v>685</v>
+        <v>84</v>
       </c>
       <c r="M232" t="s" s="2">
-        <v>693</v>
+        <v>680</v>
       </c>
       <c r="N232" t="s" s="2">
-        <v>694</v>
+        <v>681</v>
       </c>
       <c r="O232" t="s" s="2">
-        <v>695</v>
+        <v>682</v>
       </c>
       <c r="P232" s="2"/>
       <c r="Q232" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="R232" t="s" s="2">
-        <v>696</v>
-      </c>
+      <c r="R232" s="2"/>
       <c r="S232" t="s" s="2">
         <v>76</v>
       </c>
@@ -30140,7 +30161,7 @@
         <v>76</v>
       </c>
       <c r="U232" t="s" s="2">
-        <v>76</v>
+        <v>683</v>
       </c>
       <c r="V232" t="s" s="2">
         <v>76</v>
@@ -30176,7 +30197,7 @@
         <v>76</v>
       </c>
       <c r="AG232" t="s" s="2">
-        <v>697</v>
+        <v>684</v>
       </c>
       <c r="AH232" t="s" s="2">
         <v>77</v>
@@ -30185,7 +30206,7 @@
         <v>83</v>
       </c>
       <c r="AJ232" t="s" s="2">
-        <v>690</v>
+        <v>80</v>
       </c>
       <c r="AK232" t="s" s="2">
         <v>104</v>
@@ -30196,10 +30217,10 @@
         <v>573</v>
       </c>
       <c r="B233" t="s" s="2">
-        <v>698</v>
+        <v>685</v>
       </c>
       <c r="C233" t="s" s="2">
-        <v>699</v>
+        <v>686</v>
       </c>
       <c r="D233" s="2"/>
       <c r="E233" t="s" s="2">
@@ -30222,16 +30243,16 @@
         <v>205</v>
       </c>
       <c r="L233" t="s" s="2">
-        <v>507</v>
+        <v>155</v>
       </c>
       <c r="M233" t="s" s="2">
-        <v>700</v>
+        <v>687</v>
       </c>
       <c r="N233" t="s" s="2">
-        <v>701</v>
+        <v>688</v>
       </c>
       <c r="O233" t="s" s="2">
-        <v>702</v>
+        <v>336</v>
       </c>
       <c r="P233" s="2"/>
       <c r="Q233" t="s" s="2">
@@ -30281,7 +30302,7 @@
         <v>76</v>
       </c>
       <c r="AG233" t="s" s="2">
-        <v>703</v>
+        <v>689</v>
       </c>
       <c r="AH233" t="s" s="2">
         <v>77</v>
@@ -30293,7 +30314,7 @@
         <v>80</v>
       </c>
       <c r="AK233" t="s" s="2">
-        <v>297</v>
+        <v>337</v>
       </c>
     </row>
     <row r="234">
@@ -30301,14 +30322,12 @@
         <v>573</v>
       </c>
       <c r="B234" t="s" s="2">
-        <v>704</v>
+        <v>690</v>
       </c>
       <c r="C234" t="s" s="2">
-        <v>627</v>
-      </c>
-      <c r="D234" t="s" s="2">
-        <v>705</v>
-      </c>
+        <v>691</v>
+      </c>
+      <c r="D234" s="2"/>
       <c r="E234" t="s" s="2">
         <v>76</v>
       </c>
@@ -30317,30 +30336,28 @@
         <v>77</v>
       </c>
       <c r="H234" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I234" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="J234" t="s" s="2">
         <v>76</v>
       </c>
       <c r="K234" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="L234" t="s" s="2">
-        <v>253</v>
+        <v>84</v>
       </c>
       <c r="M234" t="s" s="2">
-        <v>706</v>
+        <v>85</v>
       </c>
       <c r="N234" t="s" s="2">
-        <v>629</v>
+        <v>86</v>
       </c>
       <c r="O234" s="2"/>
-      <c r="P234" t="s" s="2">
-        <v>630</v>
-      </c>
+      <c r="P234" s="2"/>
       <c r="Q234" t="s" s="2">
         <v>76</v>
       </c>
@@ -30388,19 +30405,19 @@
         <v>76</v>
       </c>
       <c r="AG234" t="s" s="2">
-        <v>627</v>
+        <v>87</v>
       </c>
       <c r="AH234" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI234" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ234" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AK234" t="s" s="2">
-        <v>104</v>
+        <v>76</v>
       </c>
     </row>
     <row r="235">
@@ -30408,21 +30425,21 @@
         <v>573</v>
       </c>
       <c r="B235" t="s" s="2">
-        <v>707</v>
+        <v>692</v>
       </c>
       <c r="C235" t="s" s="2">
-        <v>637</v>
+        <v>693</v>
       </c>
       <c r="D235" s="2"/>
       <c r="E235" t="s" s="2">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="F235" s="2"/>
       <c r="G235" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H235" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I235" t="s" s="2">
         <v>76</v>
@@ -30434,15 +30451,17 @@
         <v>76</v>
       </c>
       <c r="L235" t="s" s="2">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="M235" t="s" s="2">
-        <v>85</v>
+        <v>111</v>
       </c>
       <c r="N235" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="O235" s="2"/>
+        <v>112</v>
+      </c>
+      <c r="O235" t="s" s="2">
+        <v>113</v>
+      </c>
       <c r="P235" s="2"/>
       <c r="Q235" t="s" s="2">
         <v>76</v>
@@ -30479,31 +30498,31 @@
         <v>76</v>
       </c>
       <c r="AC235" t="s" s="2">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="AD235" t="s" s="2">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="AE235" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF235" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AG235" t="s" s="2">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="AH235" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI235" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ235" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AK235" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="236">
@@ -30511,21 +30530,21 @@
         <v>573</v>
       </c>
       <c r="B236" t="s" s="2">
-        <v>708</v>
+        <v>694</v>
       </c>
       <c r="C236" t="s" s="2">
-        <v>639</v>
+        <v>695</v>
       </c>
       <c r="D236" s="2"/>
       <c r="E236" t="s" s="2">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="F236" s="2"/>
       <c r="G236" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H236" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I236" t="s" s="2">
         <v>76</v>
@@ -30534,19 +30553,19 @@
         <v>76</v>
       </c>
       <c r="K236" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="L236" t="s" s="2">
-        <v>89</v>
+        <v>696</v>
       </c>
       <c r="M236" t="s" s="2">
-        <v>111</v>
+        <v>697</v>
       </c>
       <c r="N236" t="s" s="2">
-        <v>112</v>
+        <v>698</v>
       </c>
       <c r="O236" t="s" s="2">
-        <v>113</v>
+        <v>699</v>
       </c>
       <c r="P236" s="2"/>
       <c r="Q236" t="s" s="2">
@@ -30584,31 +30603,31 @@
         <v>76</v>
       </c>
       <c r="AC236" t="s" s="2">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AD236" t="s" s="2">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="AE236" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF236" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AG236" t="s" s="2">
-        <v>94</v>
+        <v>700</v>
       </c>
       <c r="AH236" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI236" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ236" t="s" s="2">
-        <v>80</v>
+        <v>701</v>
       </c>
       <c r="AK236" t="s" s="2">
-        <v>81</v>
+        <v>104</v>
       </c>
     </row>
     <row r="237">
@@ -30616,10 +30635,10 @@
         <v>573</v>
       </c>
       <c r="B237" t="s" s="2">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="C237" t="s" s="2">
-        <v>641</v>
+        <v>703</v>
       </c>
       <c r="D237" s="2"/>
       <c r="E237" t="s" s="2">
@@ -30627,7 +30646,7 @@
       </c>
       <c r="F237" s="2"/>
       <c r="G237" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H237" t="s" s="2">
         <v>83</v>
@@ -30636,35 +30655,35 @@
         <v>76</v>
       </c>
       <c r="J237" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="K237" t="s" s="2">
         <v>205</v>
       </c>
       <c r="L237" t="s" s="2">
-        <v>222</v>
+        <v>696</v>
       </c>
       <c r="M237" t="s" s="2">
-        <v>642</v>
+        <v>704</v>
       </c>
       <c r="N237" t="s" s="2">
-        <v>643</v>
+        <v>705</v>
       </c>
       <c r="O237" t="s" s="2">
-        <v>644</v>
-      </c>
-      <c r="P237" t="s" s="2">
-        <v>645</v>
-      </c>
+        <v>706</v>
+      </c>
+      <c r="P237" s="2"/>
       <c r="Q237" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="R237" s="2"/>
+      <c r="R237" t="s" s="2">
+        <v>707</v>
+      </c>
       <c r="S237" t="s" s="2">
         <v>76</v>
       </c>
       <c r="T237" t="s" s="2">
-        <v>710</v>
+        <v>76</v>
       </c>
       <c r="U237" t="s" s="2">
         <v>76</v>
@@ -30679,13 +30698,13 @@
         <v>76</v>
       </c>
       <c r="Y237" t="s" s="2">
-        <v>191</v>
+        <v>76</v>
       </c>
       <c r="Z237" t="s" s="2">
-        <v>647</v>
+        <v>76</v>
       </c>
       <c r="AA237" t="s" s="2">
-        <v>648</v>
+        <v>76</v>
       </c>
       <c r="AB237" t="s" s="2">
         <v>76</v>
@@ -30703,7 +30722,7 @@
         <v>76</v>
       </c>
       <c r="AG237" t="s" s="2">
-        <v>649</v>
+        <v>708</v>
       </c>
       <c r="AH237" t="s" s="2">
         <v>77</v>
@@ -30712,7 +30731,7 @@
         <v>83</v>
       </c>
       <c r="AJ237" t="s" s="2">
-        <v>80</v>
+        <v>701</v>
       </c>
       <c r="AK237" t="s" s="2">
         <v>104</v>
@@ -30723,10 +30742,10 @@
         <v>573</v>
       </c>
       <c r="B238" t="s" s="2">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="C238" t="s" s="2">
-        <v>651</v>
+        <v>710</v>
       </c>
       <c r="D238" s="2"/>
       <c r="E238" t="s" s="2">
@@ -30749,20 +30768,18 @@
         <v>205</v>
       </c>
       <c r="L238" t="s" s="2">
-        <v>145</v>
+        <v>507</v>
       </c>
       <c r="M238" t="s" s="2">
-        <v>652</v>
+        <v>711</v>
       </c>
       <c r="N238" t="s" s="2">
-        <v>653</v>
+        <v>712</v>
       </c>
       <c r="O238" t="s" s="2">
-        <v>654</v>
-      </c>
-      <c r="P238" t="s" s="2">
-        <v>655</v>
-      </c>
+        <v>713</v>
+      </c>
+      <c r="P238" s="2"/>
       <c r="Q238" t="s" s="2">
         <v>76</v>
       </c>
@@ -30786,13 +30803,13 @@
         <v>76</v>
       </c>
       <c r="Y238" t="s" s="2">
-        <v>146</v>
+        <v>76</v>
       </c>
       <c r="Z238" t="s" s="2">
-        <v>656</v>
+        <v>76</v>
       </c>
       <c r="AA238" t="s" s="2">
-        <v>657</v>
+        <v>76</v>
       </c>
       <c r="AB238" t="s" s="2">
         <v>76</v>
@@ -30810,7 +30827,7 @@
         <v>76</v>
       </c>
       <c r="AG238" t="s" s="2">
-        <v>658</v>
+        <v>714</v>
       </c>
       <c r="AH238" t="s" s="2">
         <v>77</v>
@@ -30822,7 +30839,7 @@
         <v>80</v>
       </c>
       <c r="AK238" t="s" s="2">
-        <v>104</v>
+        <v>297</v>
       </c>
     </row>
     <row r="239">
@@ -30830,12 +30847,14 @@
         <v>573</v>
       </c>
       <c r="B239" t="s" s="2">
-        <v>712</v>
+        <v>715</v>
       </c>
       <c r="C239" t="s" s="2">
-        <v>660</v>
-      </c>
-      <c r="D239" s="2"/>
+        <v>638</v>
+      </c>
+      <c r="D239" t="s" s="2">
+        <v>716</v>
+      </c>
       <c r="E239" t="s" s="2">
         <v>76</v>
       </c>
@@ -30844,10 +30863,10 @@
         <v>77</v>
       </c>
       <c r="H239" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I239" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="J239" t="s" s="2">
         <v>76</v>
@@ -30856,19 +30875,17 @@
         <v>205</v>
       </c>
       <c r="L239" t="s" s="2">
-        <v>96</v>
+        <v>253</v>
       </c>
       <c r="M239" t="s" s="2">
-        <v>661</v>
+        <v>717</v>
       </c>
       <c r="N239" t="s" s="2">
-        <v>662</v>
-      </c>
-      <c r="O239" t="s" s="2">
-        <v>663</v>
-      </c>
+        <v>640</v>
+      </c>
+      <c r="O239" s="2"/>
       <c r="P239" t="s" s="2">
-        <v>664</v>
+        <v>641</v>
       </c>
       <c r="Q239" t="s" s="2">
         <v>76</v>
@@ -30881,7 +30898,7 @@
         <v>76</v>
       </c>
       <c r="U239" t="s" s="2">
-        <v>665</v>
+        <v>76</v>
       </c>
       <c r="V239" t="s" s="2">
         <v>76</v>
@@ -30917,13 +30934,13 @@
         <v>76</v>
       </c>
       <c r="AG239" t="s" s="2">
-        <v>666</v>
+        <v>638</v>
       </c>
       <c r="AH239" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI239" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ239" t="s" s="2">
         <v>80</v>
@@ -30937,10 +30954,10 @@
         <v>573</v>
       </c>
       <c r="B240" t="s" s="2">
-        <v>713</v>
+        <v>718</v>
       </c>
       <c r="C240" t="s" s="2">
-        <v>668</v>
+        <v>648</v>
       </c>
       <c r="D240" s="2"/>
       <c r="E240" t="s" s="2">
@@ -30960,20 +30977,18 @@
         <v>76</v>
       </c>
       <c r="K240" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="L240" t="s" s="2">
         <v>84</v>
       </c>
       <c r="M240" t="s" s="2">
-        <v>669</v>
+        <v>85</v>
       </c>
       <c r="N240" t="s" s="2">
-        <v>670</v>
-      </c>
-      <c r="O240" t="s" s="2">
-        <v>671</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="O240" s="2"/>
       <c r="P240" s="2"/>
       <c r="Q240" t="s" s="2">
         <v>76</v>
@@ -30986,7 +31001,7 @@
         <v>76</v>
       </c>
       <c r="U240" t="s" s="2">
-        <v>672</v>
+        <v>76</v>
       </c>
       <c r="V240" t="s" s="2">
         <v>76</v>
@@ -31022,7 +31037,7 @@
         <v>76</v>
       </c>
       <c r="AG240" t="s" s="2">
-        <v>673</v>
+        <v>87</v>
       </c>
       <c r="AH240" t="s" s="2">
         <v>77</v>
@@ -31031,10 +31046,10 @@
         <v>83</v>
       </c>
       <c r="AJ240" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AK240" t="s" s="2">
-        <v>104</v>
+        <v>76</v>
       </c>
     </row>
     <row r="241">
@@ -31042,21 +31057,21 @@
         <v>573</v>
       </c>
       <c r="B241" t="s" s="2">
-        <v>714</v>
+        <v>719</v>
       </c>
       <c r="C241" t="s" s="2">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="D241" s="2"/>
       <c r="E241" t="s" s="2">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="F241" s="2"/>
       <c r="G241" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H241" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I241" t="s" s="2">
         <v>76</v>
@@ -31065,19 +31080,19 @@
         <v>76</v>
       </c>
       <c r="K241" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="L241" t="s" s="2">
-        <v>155</v>
+        <v>89</v>
       </c>
       <c r="M241" t="s" s="2">
-        <v>676</v>
+        <v>111</v>
       </c>
       <c r="N241" t="s" s="2">
-        <v>677</v>
+        <v>112</v>
       </c>
       <c r="O241" t="s" s="2">
-        <v>336</v>
+        <v>113</v>
       </c>
       <c r="P241" s="2"/>
       <c r="Q241" t="s" s="2">
@@ -31115,31 +31130,31 @@
         <v>76</v>
       </c>
       <c r="AC241" t="s" s="2">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="AD241" t="s" s="2">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="AE241" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF241" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AG241" t="s" s="2">
-        <v>678</v>
+        <v>94</v>
       </c>
       <c r="AH241" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI241" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ241" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK241" t="s" s="2">
-        <v>337</v>
+        <v>81</v>
       </c>
     </row>
     <row r="242">
@@ -31147,10 +31162,10 @@
         <v>573</v>
       </c>
       <c r="B242" t="s" s="2">
-        <v>715</v>
+        <v>720</v>
       </c>
       <c r="C242" t="s" s="2">
-        <v>699</v>
+        <v>652</v>
       </c>
       <c r="D242" s="2"/>
       <c r="E242" t="s" s="2">
@@ -31158,7 +31173,7 @@
       </c>
       <c r="F242" s="2"/>
       <c r="G242" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="H242" t="s" s="2">
         <v>83</v>
@@ -31167,24 +31182,26 @@
         <v>76</v>
       </c>
       <c r="J242" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="K242" t="s" s="2">
         <v>205</v>
       </c>
       <c r="L242" t="s" s="2">
-        <v>507</v>
+        <v>222</v>
       </c>
       <c r="M242" t="s" s="2">
-        <v>700</v>
+        <v>653</v>
       </c>
       <c r="N242" t="s" s="2">
-        <v>701</v>
+        <v>654</v>
       </c>
       <c r="O242" t="s" s="2">
-        <v>702</v>
-      </c>
-      <c r="P242" s="2"/>
+        <v>655</v>
+      </c>
+      <c r="P242" t="s" s="2">
+        <v>656</v>
+      </c>
       <c r="Q242" t="s" s="2">
         <v>76</v>
       </c>
@@ -31193,7 +31210,7 @@
         <v>76</v>
       </c>
       <c r="T242" t="s" s="2">
-        <v>76</v>
+        <v>721</v>
       </c>
       <c r="U242" t="s" s="2">
         <v>76</v>
@@ -31208,13 +31225,13 @@
         <v>76</v>
       </c>
       <c r="Y242" t="s" s="2">
-        <v>76</v>
+        <v>191</v>
       </c>
       <c r="Z242" t="s" s="2">
-        <v>76</v>
+        <v>658</v>
       </c>
       <c r="AA242" t="s" s="2">
-        <v>76</v>
+        <v>659</v>
       </c>
       <c r="AB242" t="s" s="2">
         <v>76</v>
@@ -31232,7 +31249,7 @@
         <v>76</v>
       </c>
       <c r="AG242" t="s" s="2">
-        <v>703</v>
+        <v>660</v>
       </c>
       <c r="AH242" t="s" s="2">
         <v>77</v>
@@ -31244,7 +31261,7 @@
         <v>80</v>
       </c>
       <c r="AK242" t="s" s="2">
-        <v>297</v>
+        <v>104</v>
       </c>
     </row>
     <row r="243">
@@ -31252,10 +31269,10 @@
         <v>573</v>
       </c>
       <c r="B243" t="s" s="2">
-        <v>716</v>
+        <v>722</v>
       </c>
       <c r="C243" t="s" s="2">
-        <v>716</v>
+        <v>662</v>
       </c>
       <c r="D243" s="2"/>
       <c r="E243" t="s" s="2">
@@ -31269,7 +31286,7 @@
         <v>83</v>
       </c>
       <c r="I243" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="J243" t="s" s="2">
         <v>76</v>
@@ -31278,18 +31295,20 @@
         <v>205</v>
       </c>
       <c r="L243" t="s" s="2">
-        <v>84</v>
+        <v>145</v>
       </c>
       <c r="M243" t="s" s="2">
-        <v>717</v>
+        <v>663</v>
       </c>
       <c r="N243" t="s" s="2">
-        <v>718</v>
+        <v>664</v>
       </c>
       <c r="O243" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="P243" s="2"/>
+        <v>665</v>
+      </c>
+      <c r="P243" t="s" s="2">
+        <v>666</v>
+      </c>
       <c r="Q243" t="s" s="2">
         <v>76</v>
       </c>
@@ -31313,13 +31332,13 @@
         <v>76</v>
       </c>
       <c r="Y243" t="s" s="2">
-        <v>76</v>
+        <v>146</v>
       </c>
       <c r="Z243" t="s" s="2">
-        <v>76</v>
+        <v>667</v>
       </c>
       <c r="AA243" t="s" s="2">
-        <v>76</v>
+        <v>668</v>
       </c>
       <c r="AB243" t="s" s="2">
         <v>76</v>
@@ -31337,7 +31356,7 @@
         <v>76</v>
       </c>
       <c r="AG243" t="s" s="2">
-        <v>716</v>
+        <v>669</v>
       </c>
       <c r="AH243" t="s" s="2">
         <v>77</v>
@@ -31357,10 +31376,10 @@
         <v>573</v>
       </c>
       <c r="B244" t="s" s="2">
-        <v>719</v>
+        <v>723</v>
       </c>
       <c r="C244" t="s" s="2">
-        <v>719</v>
+        <v>671</v>
       </c>
       <c r="D244" s="2"/>
       <c r="E244" t="s" s="2">
@@ -31371,7 +31390,7 @@
         <v>77</v>
       </c>
       <c r="H244" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I244" t="s" s="2">
         <v>76</v>
@@ -31383,18 +31402,20 @@
         <v>205</v>
       </c>
       <c r="L244" t="s" s="2">
-        <v>720</v>
+        <v>96</v>
       </c>
       <c r="M244" t="s" s="2">
-        <v>721</v>
+        <v>672</v>
       </c>
       <c r="N244" t="s" s="2">
-        <v>722</v>
+        <v>673</v>
       </c>
       <c r="O244" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="P244" s="2"/>
+        <v>674</v>
+      </c>
+      <c r="P244" t="s" s="2">
+        <v>675</v>
+      </c>
       <c r="Q244" t="s" s="2">
         <v>76</v>
       </c>
@@ -31406,7 +31427,7 @@
         <v>76</v>
       </c>
       <c r="U244" t="s" s="2">
-        <v>76</v>
+        <v>676</v>
       </c>
       <c r="V244" t="s" s="2">
         <v>76</v>
@@ -31442,19 +31463,19 @@
         <v>76</v>
       </c>
       <c r="AG244" t="s" s="2">
-        <v>719</v>
+        <v>677</v>
       </c>
       <c r="AH244" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI244" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ244" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK244" t="s" s="2">
-        <v>297</v>
+        <v>104</v>
       </c>
     </row>
     <row r="245">
@@ -31462,21 +31483,21 @@
         <v>573</v>
       </c>
       <c r="B245" t="s" s="2">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="C245" t="s" s="2">
-        <v>723</v>
+        <v>679</v>
       </c>
       <c r="D245" s="2"/>
       <c r="E245" t="s" s="2">
-        <v>724</v>
+        <v>76</v>
       </c>
       <c r="F245" s="2"/>
       <c r="G245" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H245" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I245" t="s" s="2">
         <v>76</v>
@@ -31488,20 +31509,18 @@
         <v>205</v>
       </c>
       <c r="L245" t="s" s="2">
-        <v>725</v>
+        <v>84</v>
       </c>
       <c r="M245" t="s" s="2">
-        <v>726</v>
+        <v>680</v>
       </c>
       <c r="N245" t="s" s="2">
-        <v>727</v>
+        <v>681</v>
       </c>
       <c r="O245" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="P245" t="s" s="2">
-        <v>728</v>
-      </c>
+        <v>682</v>
+      </c>
+      <c r="P245" s="2"/>
       <c r="Q245" t="s" s="2">
         <v>76</v>
       </c>
@@ -31513,7 +31532,7 @@
         <v>76</v>
       </c>
       <c r="U245" t="s" s="2">
-        <v>76</v>
+        <v>683</v>
       </c>
       <c r="V245" t="s" s="2">
         <v>76</v>
@@ -31549,19 +31568,19 @@
         <v>76</v>
       </c>
       <c r="AG245" t="s" s="2">
-        <v>723</v>
+        <v>684</v>
       </c>
       <c r="AH245" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI245" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ245" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK245" t="s" s="2">
-        <v>297</v>
+        <v>104</v>
       </c>
     </row>
     <row r="246">
@@ -31569,10 +31588,10 @@
         <v>573</v>
       </c>
       <c r="B246" t="s" s="2">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="C246" t="s" s="2">
-        <v>729</v>
+        <v>686</v>
       </c>
       <c r="D246" s="2"/>
       <c r="E246" t="s" s="2">
@@ -31580,31 +31599,31 @@
       </c>
       <c r="F246" s="2"/>
       <c r="G246" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H246" t="s" s="2">
         <v>83</v>
       </c>
       <c r="I246" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="J246" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="K246" t="s" s="2">
         <v>205</v>
       </c>
       <c r="L246" t="s" s="2">
-        <v>222</v>
+        <v>155</v>
       </c>
       <c r="M246" t="s" s="2">
-        <v>730</v>
+        <v>687</v>
       </c>
       <c r="N246" t="s" s="2">
-        <v>731</v>
+        <v>688</v>
       </c>
       <c r="O246" t="s" s="2">
-        <v>284</v>
+        <v>336</v>
       </c>
       <c r="P246" s="2"/>
       <c r="Q246" t="s" s="2">
@@ -31630,13 +31649,13 @@
         <v>76</v>
       </c>
       <c r="Y246" t="s" s="2">
-        <v>191</v>
+        <v>76</v>
       </c>
       <c r="Z246" t="s" s="2">
-        <v>732</v>
+        <v>76</v>
       </c>
       <c r="AA246" t="s" s="2">
-        <v>733</v>
+        <v>76</v>
       </c>
       <c r="AB246" t="s" s="2">
         <v>76</v>
@@ -31654,10 +31673,10 @@
         <v>76</v>
       </c>
       <c r="AG246" t="s" s="2">
-        <v>729</v>
+        <v>689</v>
       </c>
       <c r="AH246" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AI246" t="s" s="2">
         <v>83</v>
@@ -31666,7 +31685,7 @@
         <v>80</v>
       </c>
       <c r="AK246" t="s" s="2">
-        <v>104</v>
+        <v>337</v>
       </c>
     </row>
     <row r="247">
@@ -31674,10 +31693,10 @@
         <v>573</v>
       </c>
       <c r="B247" t="s" s="2">
-        <v>734</v>
+        <v>726</v>
       </c>
       <c r="C247" t="s" s="2">
-        <v>734</v>
+        <v>710</v>
       </c>
       <c r="D247" s="2"/>
       <c r="E247" t="s" s="2">
@@ -31691,7 +31710,7 @@
         <v>83</v>
       </c>
       <c r="I247" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="J247" t="s" s="2">
         <v>76</v>
@@ -31700,16 +31719,16 @@
         <v>205</v>
       </c>
       <c r="L247" t="s" s="2">
-        <v>145</v>
+        <v>507</v>
       </c>
       <c r="M247" t="s" s="2">
-        <v>735</v>
+        <v>711</v>
       </c>
       <c r="N247" t="s" s="2">
-        <v>736</v>
+        <v>712</v>
       </c>
       <c r="O247" t="s" s="2">
-        <v>314</v>
+        <v>713</v>
       </c>
       <c r="P247" s="2"/>
       <c r="Q247" t="s" s="2">
@@ -31735,13 +31754,13 @@
         <v>76</v>
       </c>
       <c r="Y247" t="s" s="2">
-        <v>146</v>
+        <v>76</v>
       </c>
       <c r="Z247" t="s" s="2">
-        <v>737</v>
+        <v>76</v>
       </c>
       <c r="AA247" t="s" s="2">
-        <v>738</v>
+        <v>76</v>
       </c>
       <c r="AB247" t="s" s="2">
         <v>76</v>
@@ -31759,7 +31778,7 @@
         <v>76</v>
       </c>
       <c r="AG247" t="s" s="2">
-        <v>734</v>
+        <v>714</v>
       </c>
       <c r="AH247" t="s" s="2">
         <v>77</v>
@@ -31771,7 +31790,7 @@
         <v>80</v>
       </c>
       <c r="AK247" t="s" s="2">
-        <v>104</v>
+        <v>297</v>
       </c>
     </row>
     <row r="248">
@@ -31779,10 +31798,10 @@
         <v>573</v>
       </c>
       <c r="B248" t="s" s="2">
-        <v>739</v>
+        <v>727</v>
       </c>
       <c r="C248" t="s" s="2">
-        <v>739</v>
+        <v>727</v>
       </c>
       <c r="D248" s="2"/>
       <c r="E248" t="s" s="2">
@@ -31805,16 +31824,16 @@
         <v>205</v>
       </c>
       <c r="L248" t="s" s="2">
-        <v>145</v>
+        <v>84</v>
       </c>
       <c r="M248" t="s" s="2">
-        <v>740</v>
+        <v>728</v>
       </c>
       <c r="N248" t="s" s="2">
-        <v>741</v>
+        <v>729</v>
       </c>
       <c r="O248" t="s" s="2">
-        <v>314</v>
+        <v>284</v>
       </c>
       <c r="P248" s="2"/>
       <c r="Q248" t="s" s="2">
@@ -31840,11 +31859,13 @@
         <v>76</v>
       </c>
       <c r="Y248" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="Z248" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="Z248" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="AA248" t="s" s="2">
-        <v>742</v>
+        <v>76</v>
       </c>
       <c r="AB248" t="s" s="2">
         <v>76</v>
@@ -31862,7 +31883,7 @@
         <v>76</v>
       </c>
       <c r="AG248" t="s" s="2">
-        <v>739</v>
+        <v>727</v>
       </c>
       <c r="AH248" t="s" s="2">
         <v>77</v>
@@ -31882,10 +31903,10 @@
         <v>573</v>
       </c>
       <c r="B249" t="s" s="2">
-        <v>743</v>
+        <v>730</v>
       </c>
       <c r="C249" t="s" s="2">
-        <v>743</v>
+        <v>730</v>
       </c>
       <c r="D249" s="2"/>
       <c r="E249" t="s" s="2">
@@ -31899,7 +31920,7 @@
         <v>78</v>
       </c>
       <c r="I249" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="J249" t="s" s="2">
         <v>76</v>
@@ -31908,16 +31929,16 @@
         <v>205</v>
       </c>
       <c r="L249" t="s" s="2">
-        <v>145</v>
+        <v>731</v>
       </c>
       <c r="M249" t="s" s="2">
-        <v>744</v>
+        <v>732</v>
       </c>
       <c r="N249" t="s" s="2">
-        <v>745</v>
+        <v>733</v>
       </c>
       <c r="O249" t="s" s="2">
-        <v>314</v>
+        <v>349</v>
       </c>
       <c r="P249" s="2"/>
       <c r="Q249" t="s" s="2">
@@ -31943,11 +31964,13 @@
         <v>76</v>
       </c>
       <c r="Y249" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="Z249" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="Z249" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="AA249" t="s" s="2">
-        <v>746</v>
+        <v>76</v>
       </c>
       <c r="AB249" t="s" s="2">
         <v>76</v>
@@ -31965,7 +31988,7 @@
         <v>76</v>
       </c>
       <c r="AG249" t="s" s="2">
-        <v>743</v>
+        <v>730</v>
       </c>
       <c r="AH249" t="s" s="2">
         <v>77</v>
@@ -31977,7 +32000,7 @@
         <v>80</v>
       </c>
       <c r="AK249" t="s" s="2">
-        <v>104</v>
+        <v>297</v>
       </c>
     </row>
     <row r="250">
@@ -31985,14 +32008,14 @@
         <v>573</v>
       </c>
       <c r="B250" t="s" s="2">
-        <v>747</v>
+        <v>734</v>
       </c>
       <c r="C250" t="s" s="2">
-        <v>747</v>
+        <v>734</v>
       </c>
       <c r="D250" s="2"/>
       <c r="E250" t="s" s="2">
-        <v>76</v>
+        <v>735</v>
       </c>
       <c r="F250" s="2"/>
       <c r="G250" t="s" s="2">
@@ -32011,18 +32034,20 @@
         <v>205</v>
       </c>
       <c r="L250" t="s" s="2">
-        <v>145</v>
+        <v>736</v>
       </c>
       <c r="M250" t="s" s="2">
-        <v>748</v>
+        <v>737</v>
       </c>
       <c r="N250" t="s" s="2">
-        <v>749</v>
+        <v>738</v>
       </c>
       <c r="O250" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="P250" s="2"/>
+        <v>349</v>
+      </c>
+      <c r="P250" t="s" s="2">
+        <v>739</v>
+      </c>
       <c r="Q250" t="s" s="2">
         <v>76</v>
       </c>
@@ -32046,10 +32071,10 @@
         <v>76</v>
       </c>
       <c r="Y250" t="s" s="2">
-        <v>279</v>
+        <v>76</v>
       </c>
       <c r="Z250" t="s" s="2">
-        <v>750</v>
+        <v>76</v>
       </c>
       <c r="AA250" t="s" s="2">
         <v>76</v>
@@ -32070,7 +32095,7 @@
         <v>76</v>
       </c>
       <c r="AG250" t="s" s="2">
-        <v>747</v>
+        <v>734</v>
       </c>
       <c r="AH250" t="s" s="2">
         <v>77</v>
@@ -32082,7 +32107,7 @@
         <v>80</v>
       </c>
       <c r="AK250" t="s" s="2">
-        <v>104</v>
+        <v>297</v>
       </c>
     </row>
     <row r="251">
@@ -32090,10 +32115,10 @@
         <v>573</v>
       </c>
       <c r="B251" t="s" s="2">
-        <v>751</v>
+        <v>740</v>
       </c>
       <c r="C251" t="s" s="2">
-        <v>751</v>
+        <v>740</v>
       </c>
       <c r="D251" s="2"/>
       <c r="E251" t="s" s="2">
@@ -32101,31 +32126,31 @@
       </c>
       <c r="F251" s="2"/>
       <c r="G251" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="H251" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I251" t="s" s="2">
         <v>205</v>
       </c>
       <c r="J251" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="K251" t="s" s="2">
         <v>205</v>
       </c>
       <c r="L251" t="s" s="2">
-        <v>145</v>
+        <v>222</v>
       </c>
       <c r="M251" t="s" s="2">
-        <v>752</v>
+        <v>741</v>
       </c>
       <c r="N251" t="s" s="2">
-        <v>753</v>
+        <v>742</v>
       </c>
       <c r="O251" t="s" s="2">
-        <v>314</v>
+        <v>284</v>
       </c>
       <c r="P251" s="2"/>
       <c r="Q251" t="s" s="2">
@@ -32151,13 +32176,13 @@
         <v>76</v>
       </c>
       <c r="Y251" t="s" s="2">
-        <v>279</v>
+        <v>191</v>
       </c>
       <c r="Z251" t="s" s="2">
-        <v>754</v>
+        <v>743</v>
       </c>
       <c r="AA251" t="s" s="2">
-        <v>755</v>
+        <v>744</v>
       </c>
       <c r="AB251" t="s" s="2">
         <v>76</v>
@@ -32166,22 +32191,22 @@
         <v>76</v>
       </c>
       <c r="AD251" t="s" s="2">
-        <v>756</v>
+        <v>76</v>
       </c>
       <c r="AE251" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF251" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AG251" t="s" s="2">
-        <v>751</v>
+        <v>740</v>
       </c>
       <c r="AH251" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="AI251" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ251" t="s" s="2">
         <v>80</v>
@@ -32195,14 +32220,12 @@
         <v>573</v>
       </c>
       <c r="B252" t="s" s="2">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="C252" t="s" s="2">
-        <v>751</v>
-      </c>
-      <c r="D252" t="s" s="2">
-        <v>758</v>
-      </c>
+        <v>745</v>
+      </c>
+      <c r="D252" s="2"/>
       <c r="E252" t="s" s="2">
         <v>76</v>
       </c>
@@ -32211,7 +32234,7 @@
         <v>77</v>
       </c>
       <c r="H252" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I252" t="s" s="2">
         <v>205</v>
@@ -32226,10 +32249,10 @@
         <v>145</v>
       </c>
       <c r="M252" t="s" s="2">
-        <v>759</v>
+        <v>746</v>
       </c>
       <c r="N252" t="s" s="2">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="O252" t="s" s="2">
         <v>314</v>
@@ -32258,13 +32281,13 @@
         <v>76</v>
       </c>
       <c r="Y252" t="s" s="2">
-        <v>279</v>
+        <v>146</v>
       </c>
       <c r="Z252" t="s" s="2">
-        <v>754</v>
+        <v>748</v>
       </c>
       <c r="AA252" t="s" s="2">
-        <v>755</v>
+        <v>749</v>
       </c>
       <c r="AB252" t="s" s="2">
         <v>76</v>
@@ -32282,13 +32305,13 @@
         <v>76</v>
       </c>
       <c r="AG252" t="s" s="2">
-        <v>751</v>
+        <v>745</v>
       </c>
       <c r="AH252" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI252" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ252" t="s" s="2">
         <v>80</v>
@@ -32302,10 +32325,10 @@
         <v>573</v>
       </c>
       <c r="B253" t="s" s="2">
-        <v>760</v>
+        <v>750</v>
       </c>
       <c r="C253" t="s" s="2">
-        <v>761</v>
+        <v>750</v>
       </c>
       <c r="D253" s="2"/>
       <c r="E253" t="s" s="2">
@@ -32319,24 +32342,26 @@
         <v>83</v>
       </c>
       <c r="I253" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="J253" t="s" s="2">
         <v>76</v>
       </c>
       <c r="K253" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="L253" t="s" s="2">
-        <v>84</v>
+        <v>145</v>
       </c>
       <c r="M253" t="s" s="2">
-        <v>85</v>
+        <v>751</v>
       </c>
       <c r="N253" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="O253" s="2"/>
+        <v>752</v>
+      </c>
+      <c r="O253" t="s" s="2">
+        <v>314</v>
+      </c>
       <c r="P253" s="2"/>
       <c r="Q253" t="s" s="2">
         <v>76</v>
@@ -32346,7 +32371,7 @@
         <v>76</v>
       </c>
       <c r="T253" t="s" s="2">
-        <v>762</v>
+        <v>76</v>
       </c>
       <c r="U253" t="s" s="2">
         <v>76</v>
@@ -32361,13 +32386,11 @@
         <v>76</v>
       </c>
       <c r="Y253" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z253" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="Z253" s="2"/>
       <c r="AA253" t="s" s="2">
-        <v>76</v>
+        <v>753</v>
       </c>
       <c r="AB253" t="s" s="2">
         <v>76</v>
@@ -32385,7 +32408,7 @@
         <v>76</v>
       </c>
       <c r="AG253" t="s" s="2">
-        <v>87</v>
+        <v>750</v>
       </c>
       <c r="AH253" t="s" s="2">
         <v>77</v>
@@ -32394,10 +32417,10 @@
         <v>83</v>
       </c>
       <c r="AJ253" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AK253" t="s" s="2">
-        <v>76</v>
+        <v>104</v>
       </c>
     </row>
     <row r="254">
@@ -32405,14 +32428,14 @@
         <v>573</v>
       </c>
       <c r="B254" t="s" s="2">
-        <v>763</v>
+        <v>754</v>
       </c>
       <c r="C254" t="s" s="2">
-        <v>764</v>
+        <v>754</v>
       </c>
       <c r="D254" s="2"/>
       <c r="E254" t="s" s="2">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="F254" s="2"/>
       <c r="G254" t="s" s="2">
@@ -32422,25 +32445,25 @@
         <v>78</v>
       </c>
       <c r="I254" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="J254" t="s" s="2">
         <v>76</v>
       </c>
       <c r="K254" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="L254" t="s" s="2">
-        <v>89</v>
+        <v>145</v>
       </c>
       <c r="M254" t="s" s="2">
-        <v>111</v>
+        <v>755</v>
       </c>
       <c r="N254" t="s" s="2">
-        <v>112</v>
+        <v>756</v>
       </c>
       <c r="O254" t="s" s="2">
-        <v>113</v>
+        <v>314</v>
       </c>
       <c r="P254" s="2"/>
       <c r="Q254" t="s" s="2">
@@ -32466,31 +32489,29 @@
         <v>76</v>
       </c>
       <c r="Y254" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z254" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="Z254" s="2"/>
       <c r="AA254" t="s" s="2">
-        <v>76</v>
+        <v>757</v>
       </c>
       <c r="AB254" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AC254" t="s" s="2">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AD254" t="s" s="2">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="AE254" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF254" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AG254" t="s" s="2">
-        <v>94</v>
+        <v>754</v>
       </c>
       <c r="AH254" t="s" s="2">
         <v>77</v>
@@ -32502,7 +32523,7 @@
         <v>80</v>
       </c>
       <c r="AK254" t="s" s="2">
-        <v>81</v>
+        <v>104</v>
       </c>
     </row>
     <row r="255">
@@ -32510,10 +32531,10 @@
         <v>573</v>
       </c>
       <c r="B255" t="s" s="2">
-        <v>765</v>
+        <v>758</v>
       </c>
       <c r="C255" t="s" s="2">
-        <v>766</v>
+        <v>758</v>
       </c>
       <c r="D255" s="2"/>
       <c r="E255" t="s" s="2">
@@ -32536,20 +32557,18 @@
         <v>205</v>
       </c>
       <c r="L255" t="s" s="2">
-        <v>405</v>
+        <v>145</v>
       </c>
       <c r="M255" t="s" s="2">
-        <v>767</v>
+        <v>759</v>
       </c>
       <c r="N255" t="s" s="2">
-        <v>768</v>
+        <v>760</v>
       </c>
       <c r="O255" t="s" s="2">
-        <v>769</v>
-      </c>
-      <c r="P255" t="s" s="2">
-        <v>770</v>
-      </c>
+        <v>314</v>
+      </c>
+      <c r="P255" s="2"/>
       <c r="Q255" t="s" s="2">
         <v>76</v>
       </c>
@@ -32573,10 +32592,10 @@
         <v>76</v>
       </c>
       <c r="Y255" t="s" s="2">
-        <v>76</v>
+        <v>279</v>
       </c>
       <c r="Z255" t="s" s="2">
-        <v>76</v>
+        <v>761</v>
       </c>
       <c r="AA255" t="s" s="2">
         <v>76</v>
@@ -32597,7 +32616,7 @@
         <v>76</v>
       </c>
       <c r="AG255" t="s" s="2">
-        <v>771</v>
+        <v>758</v>
       </c>
       <c r="AH255" t="s" s="2">
         <v>77</v>
@@ -32617,10 +32636,10 @@
         <v>573</v>
       </c>
       <c r="B256" t="s" s="2">
-        <v>772</v>
+        <v>762</v>
       </c>
       <c r="C256" t="s" s="2">
-        <v>773</v>
+        <v>762</v>
       </c>
       <c r="D256" s="2"/>
       <c r="E256" t="s" s="2">
@@ -32631,27 +32650,29 @@
         <v>77</v>
       </c>
       <c r="H256" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I256" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="J256" t="s" s="2">
         <v>76</v>
       </c>
       <c r="K256" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="L256" t="s" s="2">
-        <v>84</v>
+        <v>145</v>
       </c>
       <c r="M256" t="s" s="2">
-        <v>85</v>
+        <v>763</v>
       </c>
       <c r="N256" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="O256" s="2"/>
+        <v>764</v>
+      </c>
+      <c r="O256" t="s" s="2">
+        <v>314</v>
+      </c>
       <c r="P256" s="2"/>
       <c r="Q256" t="s" s="2">
         <v>76</v>
@@ -32676,13 +32697,13 @@
         <v>76</v>
       </c>
       <c r="Y256" t="s" s="2">
-        <v>76</v>
+        <v>279</v>
       </c>
       <c r="Z256" t="s" s="2">
-        <v>76</v>
+        <v>765</v>
       </c>
       <c r="AA256" t="s" s="2">
-        <v>76</v>
+        <v>766</v>
       </c>
       <c r="AB256" t="s" s="2">
         <v>76</v>
@@ -32691,28 +32712,28 @@
         <v>76</v>
       </c>
       <c r="AD256" t="s" s="2">
-        <v>76</v>
+        <v>767</v>
       </c>
       <c r="AE256" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF256" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AG256" t="s" s="2">
-        <v>87</v>
+        <v>762</v>
       </c>
       <c r="AH256" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI256" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ256" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AK256" t="s" s="2">
-        <v>76</v>
+        <v>104</v>
       </c>
     </row>
     <row r="257">
@@ -32720,14 +32741,16 @@
         <v>573</v>
       </c>
       <c r="B257" t="s" s="2">
-        <v>774</v>
+        <v>768</v>
       </c>
       <c r="C257" t="s" s="2">
-        <v>775</v>
-      </c>
-      <c r="D257" s="2"/>
+        <v>762</v>
+      </c>
+      <c r="D257" t="s" s="2">
+        <v>769</v>
+      </c>
       <c r="E257" t="s" s="2">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="F257" s="2"/>
       <c r="G257" t="s" s="2">
@@ -32737,25 +32760,25 @@
         <v>78</v>
       </c>
       <c r="I257" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="J257" t="s" s="2">
         <v>76</v>
       </c>
       <c r="K257" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="L257" t="s" s="2">
-        <v>89</v>
+        <v>145</v>
       </c>
       <c r="M257" t="s" s="2">
-        <v>111</v>
+        <v>770</v>
       </c>
       <c r="N257" t="s" s="2">
-        <v>112</v>
+        <v>764</v>
       </c>
       <c r="O257" t="s" s="2">
-        <v>113</v>
+        <v>314</v>
       </c>
       <c r="P257" s="2"/>
       <c r="Q257" t="s" s="2">
@@ -32781,31 +32804,31 @@
         <v>76</v>
       </c>
       <c r="Y257" t="s" s="2">
-        <v>76</v>
+        <v>279</v>
       </c>
       <c r="Z257" t="s" s="2">
-        <v>76</v>
+        <v>765</v>
       </c>
       <c r="AA257" t="s" s="2">
-        <v>76</v>
+        <v>766</v>
       </c>
       <c r="AB257" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AC257" t="s" s="2">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AD257" t="s" s="2">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="AE257" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF257" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AG257" t="s" s="2">
-        <v>94</v>
+        <v>762</v>
       </c>
       <c r="AH257" t="s" s="2">
         <v>77</v>
@@ -32817,7 +32840,7 @@
         <v>80</v>
       </c>
       <c r="AK257" t="s" s="2">
-        <v>81</v>
+        <v>104</v>
       </c>
     </row>
     <row r="258">
@@ -32825,10 +32848,10 @@
         <v>573</v>
       </c>
       <c r="B258" t="s" s="2">
-        <v>776</v>
+        <v>771</v>
       </c>
       <c r="C258" t="s" s="2">
-        <v>777</v>
+        <v>772</v>
       </c>
       <c r="D258" s="2"/>
       <c r="E258" t="s" s="2">
@@ -32848,23 +32871,19 @@
         <v>76</v>
       </c>
       <c r="K258" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="L258" t="s" s="2">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="M258" t="s" s="2">
-        <v>778</v>
+        <v>85</v>
       </c>
       <c r="N258" t="s" s="2">
-        <v>779</v>
-      </c>
-      <c r="O258" t="s" s="2">
-        <v>780</v>
-      </c>
-      <c r="P258" t="s" s="2">
-        <v>781</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="O258" s="2"/>
+      <c r="P258" s="2"/>
       <c r="Q258" t="s" s="2">
         <v>76</v>
       </c>
@@ -32873,7 +32892,7 @@
         <v>76</v>
       </c>
       <c r="T258" t="s" s="2">
-        <v>782</v>
+        <v>773</v>
       </c>
       <c r="U258" t="s" s="2">
         <v>76</v>
@@ -32912,7 +32931,7 @@
         <v>76</v>
       </c>
       <c r="AG258" t="s" s="2">
-        <v>783</v>
+        <v>87</v>
       </c>
       <c r="AH258" t="s" s="2">
         <v>77</v>
@@ -32921,10 +32940,10 @@
         <v>83</v>
       </c>
       <c r="AJ258" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AK258" t="s" s="2">
-        <v>104</v>
+        <v>76</v>
       </c>
     </row>
     <row r="259">
@@ -32932,21 +32951,21 @@
         <v>573</v>
       </c>
       <c r="B259" t="s" s="2">
-        <v>784</v>
+        <v>774</v>
       </c>
       <c r="C259" t="s" s="2">
-        <v>785</v>
+        <v>775</v>
       </c>
       <c r="D259" s="2"/>
       <c r="E259" t="s" s="2">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="F259" s="2"/>
       <c r="G259" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H259" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I259" t="s" s="2">
         <v>76</v>
@@ -32955,19 +32974,19 @@
         <v>76</v>
       </c>
       <c r="K259" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="L259" t="s" s="2">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="M259" t="s" s="2">
-        <v>786</v>
+        <v>111</v>
       </c>
       <c r="N259" t="s" s="2">
-        <v>787</v>
+        <v>112</v>
       </c>
       <c r="O259" t="s" s="2">
-        <v>788</v>
+        <v>113</v>
       </c>
       <c r="P259" s="2"/>
       <c r="Q259" t="s" s="2">
@@ -33005,31 +33024,31 @@
         <v>76</v>
       </c>
       <c r="AC259" t="s" s="2">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="AD259" t="s" s="2">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="AE259" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF259" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AG259" t="s" s="2">
-        <v>789</v>
+        <v>94</v>
       </c>
       <c r="AH259" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI259" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ259" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK259" t="s" s="2">
-        <v>104</v>
+        <v>81</v>
       </c>
     </row>
     <row r="260">
@@ -33037,10 +33056,10 @@
         <v>573</v>
       </c>
       <c r="B260" t="s" s="2">
-        <v>790</v>
+        <v>776</v>
       </c>
       <c r="C260" t="s" s="2">
-        <v>791</v>
+        <v>777</v>
       </c>
       <c r="D260" s="2"/>
       <c r="E260" t="s" s="2">
@@ -33051,7 +33070,7 @@
         <v>77</v>
       </c>
       <c r="H260" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I260" t="s" s="2">
         <v>76</v>
@@ -33063,19 +33082,19 @@
         <v>205</v>
       </c>
       <c r="L260" t="s" s="2">
-        <v>222</v>
+        <v>405</v>
       </c>
       <c r="M260" t="s" s="2">
-        <v>792</v>
+        <v>778</v>
       </c>
       <c r="N260" t="s" s="2">
-        <v>793</v>
+        <v>779</v>
       </c>
       <c r="O260" t="s" s="2">
-        <v>284</v>
+        <v>780</v>
       </c>
       <c r="P260" t="s" s="2">
-        <v>794</v>
+        <v>781</v>
       </c>
       <c r="Q260" t="s" s="2">
         <v>76</v>
@@ -33124,13 +33143,13 @@
         <v>76</v>
       </c>
       <c r="AG260" t="s" s="2">
-        <v>795</v>
+        <v>782</v>
       </c>
       <c r="AH260" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI260" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ260" t="s" s="2">
         <v>80</v>
@@ -33144,10 +33163,10 @@
         <v>573</v>
       </c>
       <c r="B261" t="s" s="2">
-        <v>796</v>
+        <v>783</v>
       </c>
       <c r="C261" t="s" s="2">
-        <v>797</v>
+        <v>784</v>
       </c>
       <c r="D261" s="2"/>
       <c r="E261" t="s" s="2">
@@ -33167,23 +33186,19 @@
         <v>76</v>
       </c>
       <c r="K261" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="L261" t="s" s="2">
         <v>84</v>
       </c>
       <c r="M261" t="s" s="2">
-        <v>798</v>
+        <v>85</v>
       </c>
       <c r="N261" t="s" s="2">
-        <v>799</v>
-      </c>
-      <c r="O261" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="P261" t="s" s="2">
-        <v>800</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="O261" s="2"/>
+      <c r="P261" s="2"/>
       <c r="Q261" t="s" s="2">
         <v>76</v>
       </c>
@@ -33231,7 +33246,7 @@
         <v>76</v>
       </c>
       <c r="AG261" t="s" s="2">
-        <v>801</v>
+        <v>87</v>
       </c>
       <c r="AH261" t="s" s="2">
         <v>77</v>
@@ -33240,10 +33255,10 @@
         <v>83</v>
       </c>
       <c r="AJ261" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AK261" t="s" s="2">
-        <v>104</v>
+        <v>76</v>
       </c>
     </row>
     <row r="262">
@@ -33251,21 +33266,21 @@
         <v>573</v>
       </c>
       <c r="B262" t="s" s="2">
-        <v>802</v>
+        <v>785</v>
       </c>
       <c r="C262" t="s" s="2">
-        <v>803</v>
+        <v>786</v>
       </c>
       <c r="D262" s="2"/>
       <c r="E262" t="s" s="2">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="F262" s="2"/>
       <c r="G262" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H262" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I262" t="s" s="2">
         <v>76</v>
@@ -33274,23 +33289,21 @@
         <v>76</v>
       </c>
       <c r="K262" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="L262" t="s" s="2">
-        <v>258</v>
+        <v>89</v>
       </c>
       <c r="M262" t="s" s="2">
-        <v>804</v>
+        <v>111</v>
       </c>
       <c r="N262" t="s" s="2">
-        <v>805</v>
+        <v>112</v>
       </c>
       <c r="O262" t="s" s="2">
-        <v>806</v>
-      </c>
-      <c r="P262" t="s" s="2">
-        <v>807</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="P262" s="2"/>
       <c r="Q262" t="s" s="2">
         <v>76</v>
       </c>
@@ -33326,31 +33339,31 @@
         <v>76</v>
       </c>
       <c r="AC262" t="s" s="2">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="AD262" t="s" s="2">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="AE262" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF262" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AG262" t="s" s="2">
-        <v>808</v>
+        <v>94</v>
       </c>
       <c r="AH262" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI262" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ262" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK262" t="s" s="2">
-        <v>104</v>
+        <v>81</v>
       </c>
     </row>
     <row r="263">
@@ -33358,10 +33371,10 @@
         <v>573</v>
       </c>
       <c r="B263" t="s" s="2">
-        <v>809</v>
+        <v>787</v>
       </c>
       <c r="C263" t="s" s="2">
-        <v>810</v>
+        <v>788</v>
       </c>
       <c r="D263" s="2"/>
       <c r="E263" t="s" s="2">
@@ -33384,19 +33397,19 @@
         <v>205</v>
       </c>
       <c r="L263" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="M263" t="s" s="2">
-        <v>811</v>
+        <v>789</v>
       </c>
       <c r="N263" t="s" s="2">
-        <v>812</v>
+        <v>790</v>
       </c>
       <c r="O263" t="s" s="2">
-        <v>813</v>
+        <v>791</v>
       </c>
       <c r="P263" t="s" s="2">
-        <v>814</v>
+        <v>792</v>
       </c>
       <c r="Q263" t="s" s="2">
         <v>76</v>
@@ -33406,7 +33419,7 @@
         <v>76</v>
       </c>
       <c r="T263" t="s" s="2">
-        <v>76</v>
+        <v>793</v>
       </c>
       <c r="U263" t="s" s="2">
         <v>76</v>
@@ -33445,7 +33458,7 @@
         <v>76</v>
       </c>
       <c r="AG263" t="s" s="2">
-        <v>815</v>
+        <v>794</v>
       </c>
       <c r="AH263" t="s" s="2">
         <v>77</v>
@@ -33465,14 +33478,12 @@
         <v>573</v>
       </c>
       <c r="B264" t="s" s="2">
-        <v>816</v>
+        <v>795</v>
       </c>
       <c r="C264" t="s" s="2">
-        <v>751</v>
-      </c>
-      <c r="D264" t="s" s="2">
-        <v>817</v>
-      </c>
+        <v>796</v>
+      </c>
+      <c r="D264" s="2"/>
       <c r="E264" t="s" s="2">
         <v>76</v>
       </c>
@@ -33481,10 +33492,10 @@
         <v>77</v>
       </c>
       <c r="H264" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I264" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="J264" t="s" s="2">
         <v>76</v>
@@ -33493,16 +33504,16 @@
         <v>205</v>
       </c>
       <c r="L264" t="s" s="2">
-        <v>145</v>
+        <v>84</v>
       </c>
       <c r="M264" t="s" s="2">
-        <v>818</v>
+        <v>797</v>
       </c>
       <c r="N264" t="s" s="2">
-        <v>753</v>
+        <v>798</v>
       </c>
       <c r="O264" t="s" s="2">
-        <v>314</v>
+        <v>799</v>
       </c>
       <c r="P264" s="2"/>
       <c r="Q264" t="s" s="2">
@@ -33528,13 +33539,13 @@
         <v>76</v>
       </c>
       <c r="Y264" t="s" s="2">
-        <v>279</v>
+        <v>76</v>
       </c>
       <c r="Z264" t="s" s="2">
-        <v>754</v>
+        <v>76</v>
       </c>
       <c r="AA264" t="s" s="2">
-        <v>755</v>
+        <v>76</v>
       </c>
       <c r="AB264" t="s" s="2">
         <v>76</v>
@@ -33552,13 +33563,13 @@
         <v>76</v>
       </c>
       <c r="AG264" t="s" s="2">
-        <v>751</v>
+        <v>800</v>
       </c>
       <c r="AH264" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI264" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ264" t="s" s="2">
         <v>80</v>
@@ -33572,10 +33583,10 @@
         <v>573</v>
       </c>
       <c r="B265" t="s" s="2">
-        <v>819</v>
+        <v>801</v>
       </c>
       <c r="C265" t="s" s="2">
-        <v>761</v>
+        <v>802</v>
       </c>
       <c r="D265" s="2"/>
       <c r="E265" t="s" s="2">
@@ -33595,19 +33606,23 @@
         <v>76</v>
       </c>
       <c r="K265" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="L265" t="s" s="2">
-        <v>84</v>
+        <v>222</v>
       </c>
       <c r="M265" t="s" s="2">
-        <v>85</v>
+        <v>803</v>
       </c>
       <c r="N265" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="O265" s="2"/>
-      <c r="P265" s="2"/>
+        <v>804</v>
+      </c>
+      <c r="O265" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="P265" t="s" s="2">
+        <v>805</v>
+      </c>
       <c r="Q265" t="s" s="2">
         <v>76</v>
       </c>
@@ -33616,7 +33631,7 @@
         <v>76</v>
       </c>
       <c r="T265" t="s" s="2">
-        <v>820</v>
+        <v>76</v>
       </c>
       <c r="U265" t="s" s="2">
         <v>76</v>
@@ -33655,7 +33670,7 @@
         <v>76</v>
       </c>
       <c r="AG265" t="s" s="2">
-        <v>87</v>
+        <v>806</v>
       </c>
       <c r="AH265" t="s" s="2">
         <v>77</v>
@@ -33664,10 +33679,10 @@
         <v>83</v>
       </c>
       <c r="AJ265" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AK265" t="s" s="2">
-        <v>76</v>
+        <v>104</v>
       </c>
     </row>
     <row r="266">
@@ -33675,21 +33690,21 @@
         <v>573</v>
       </c>
       <c r="B266" t="s" s="2">
-        <v>821</v>
+        <v>807</v>
       </c>
       <c r="C266" t="s" s="2">
-        <v>764</v>
+        <v>808</v>
       </c>
       <c r="D266" s="2"/>
       <c r="E266" t="s" s="2">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="F266" s="2"/>
       <c r="G266" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H266" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I266" t="s" s="2">
         <v>76</v>
@@ -33698,21 +33713,23 @@
         <v>76</v>
       </c>
       <c r="K266" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="L266" t="s" s="2">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="M266" t="s" s="2">
-        <v>111</v>
+        <v>809</v>
       </c>
       <c r="N266" t="s" s="2">
-        <v>112</v>
+        <v>810</v>
       </c>
       <c r="O266" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="P266" s="2"/>
+        <v>284</v>
+      </c>
+      <c r="P266" t="s" s="2">
+        <v>811</v>
+      </c>
       <c r="Q266" t="s" s="2">
         <v>76</v>
       </c>
@@ -33748,31 +33765,31 @@
         <v>76</v>
       </c>
       <c r="AC266" t="s" s="2">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AD266" t="s" s="2">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="AE266" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF266" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AG266" t="s" s="2">
-        <v>94</v>
+        <v>812</v>
       </c>
       <c r="AH266" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI266" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ266" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK266" t="s" s="2">
-        <v>81</v>
+        <v>104</v>
       </c>
     </row>
     <row r="267">
@@ -33780,10 +33797,10 @@
         <v>573</v>
       </c>
       <c r="B267" t="s" s="2">
-        <v>822</v>
+        <v>813</v>
       </c>
       <c r="C267" t="s" s="2">
-        <v>766</v>
+        <v>814</v>
       </c>
       <c r="D267" s="2"/>
       <c r="E267" t="s" s="2">
@@ -33794,7 +33811,7 @@
         <v>77</v>
       </c>
       <c r="H267" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I267" t="s" s="2">
         <v>76</v>
@@ -33806,19 +33823,19 @@
         <v>205</v>
       </c>
       <c r="L267" t="s" s="2">
-        <v>405</v>
+        <v>258</v>
       </c>
       <c r="M267" t="s" s="2">
-        <v>767</v>
+        <v>815</v>
       </c>
       <c r="N267" t="s" s="2">
-        <v>768</v>
+        <v>816</v>
       </c>
       <c r="O267" t="s" s="2">
-        <v>769</v>
+        <v>817</v>
       </c>
       <c r="P267" t="s" s="2">
-        <v>770</v>
+        <v>818</v>
       </c>
       <c r="Q267" t="s" s="2">
         <v>76</v>
@@ -33867,13 +33884,13 @@
         <v>76</v>
       </c>
       <c r="AG267" t="s" s="2">
-        <v>771</v>
+        <v>819</v>
       </c>
       <c r="AH267" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI267" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ267" t="s" s="2">
         <v>80</v>
@@ -33887,10 +33904,10 @@
         <v>573</v>
       </c>
       <c r="B268" t="s" s="2">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="C268" t="s" s="2">
-        <v>810</v>
+        <v>821</v>
       </c>
       <c r="D268" s="2"/>
       <c r="E268" t="s" s="2">
@@ -33898,7 +33915,7 @@
       </c>
       <c r="F268" s="2"/>
       <c r="G268" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H268" t="s" s="2">
         <v>83</v>
@@ -33916,16 +33933,16 @@
         <v>84</v>
       </c>
       <c r="M268" t="s" s="2">
-        <v>811</v>
+        <v>822</v>
       </c>
       <c r="N268" t="s" s="2">
-        <v>812</v>
+        <v>823</v>
       </c>
       <c r="O268" t="s" s="2">
-        <v>813</v>
+        <v>824</v>
       </c>
       <c r="P268" t="s" s="2">
-        <v>814</v>
+        <v>825</v>
       </c>
       <c r="Q268" t="s" s="2">
         <v>76</v>
@@ -33974,7 +33991,7 @@
         <v>76</v>
       </c>
       <c r="AG268" t="s" s="2">
-        <v>815</v>
+        <v>826</v>
       </c>
       <c r="AH268" t="s" s="2">
         <v>77</v>
@@ -33994,12 +34011,14 @@
         <v>573</v>
       </c>
       <c r="B269" t="s" s="2">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="C269" t="s" s="2">
-        <v>824</v>
-      </c>
-      <c r="D269" s="2"/>
+        <v>762</v>
+      </c>
+      <c r="D269" t="s" s="2">
+        <v>828</v>
+      </c>
       <c r="E269" t="s" s="2">
         <v>76</v>
       </c>
@@ -34020,15 +34039,17 @@
         <v>205</v>
       </c>
       <c r="L269" t="s" s="2">
-        <v>825</v>
+        <v>145</v>
       </c>
       <c r="M269" t="s" s="2">
-        <v>826</v>
+        <v>829</v>
       </c>
       <c r="N269" t="s" s="2">
-        <v>827</v>
-      </c>
-      <c r="O269" s="2"/>
+        <v>764</v>
+      </c>
+      <c r="O269" t="s" s="2">
+        <v>314</v>
+      </c>
       <c r="P269" s="2"/>
       <c r="Q269" t="s" s="2">
         <v>76</v>
@@ -34053,13 +34074,13 @@
         <v>76</v>
       </c>
       <c r="Y269" t="s" s="2">
-        <v>76</v>
+        <v>279</v>
       </c>
       <c r="Z269" t="s" s="2">
-        <v>76</v>
+        <v>765</v>
       </c>
       <c r="AA269" t="s" s="2">
-        <v>76</v>
+        <v>766</v>
       </c>
       <c r="AB269" t="s" s="2">
         <v>76</v>
@@ -34077,7 +34098,7 @@
         <v>76</v>
       </c>
       <c r="AG269" t="s" s="2">
-        <v>824</v>
+        <v>762</v>
       </c>
       <c r="AH269" t="s" s="2">
         <v>77</v>
@@ -34097,10 +34118,10 @@
         <v>573</v>
       </c>
       <c r="B270" t="s" s="2">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="C270" t="s" s="2">
-        <v>828</v>
+        <v>772</v>
       </c>
       <c r="D270" s="2"/>
       <c r="E270" t="s" s="2">
@@ -34141,7 +34162,7 @@
         <v>76</v>
       </c>
       <c r="T270" t="s" s="2">
-        <v>76</v>
+        <v>831</v>
       </c>
       <c r="U270" t="s" s="2">
         <v>76</v>
@@ -34200,10 +34221,10 @@
         <v>573</v>
       </c>
       <c r="B271" t="s" s="2">
-        <v>829</v>
+        <v>832</v>
       </c>
       <c r="C271" t="s" s="2">
-        <v>829</v>
+        <v>775</v>
       </c>
       <c r="D271" s="2"/>
       <c r="E271" t="s" s="2">
@@ -34305,14 +34326,12 @@
         <v>573</v>
       </c>
       <c r="B272" t="s" s="2">
-        <v>830</v>
+        <v>833</v>
       </c>
       <c r="C272" t="s" s="2">
-        <v>829</v>
-      </c>
-      <c r="D272" t="s" s="2">
-        <v>187</v>
-      </c>
+        <v>777</v>
+      </c>
+      <c r="D272" s="2"/>
       <c r="E272" t="s" s="2">
         <v>76</v>
       </c>
@@ -34321,28 +34340,32 @@
         <v>77</v>
       </c>
       <c r="H272" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I272" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J272" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K272" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="J272" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K272" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="L272" t="s" s="2">
-        <v>831</v>
+        <v>405</v>
       </c>
       <c r="M272" t="s" s="2">
-        <v>832</v>
+        <v>778</v>
       </c>
       <c r="N272" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="O272" s="2"/>
-      <c r="P272" s="2"/>
+        <v>779</v>
+      </c>
+      <c r="O272" t="s" s="2">
+        <v>780</v>
+      </c>
+      <c r="P272" t="s" s="2">
+        <v>781</v>
+      </c>
       <c r="Q272" t="s" s="2">
         <v>76</v>
       </c>
@@ -34390,7 +34413,7 @@
         <v>76</v>
       </c>
       <c r="AG272" t="s" s="2">
-        <v>94</v>
+        <v>782</v>
       </c>
       <c r="AH272" t="s" s="2">
         <v>77</v>
@@ -34402,7 +34425,7 @@
         <v>80</v>
       </c>
       <c r="AK272" t="s" s="2">
-        <v>81</v>
+        <v>104</v>
       </c>
     </row>
     <row r="273">
@@ -34410,44 +34433,46 @@
         <v>573</v>
       </c>
       <c r="B273" t="s" s="2">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="C273" t="s" s="2">
-        <v>829</v>
-      </c>
-      <c r="D273" t="s" s="2">
-        <v>172</v>
-      </c>
+        <v>821</v>
+      </c>
+      <c r="D273" s="2"/>
       <c r="E273" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F273" s="2"/>
       <c r="G273" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="H273" t="s" s="2">
         <v>83</v>
       </c>
       <c r="I273" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J273" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K273" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="J273" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K273" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="L273" t="s" s="2">
-        <v>834</v>
+        <v>84</v>
       </c>
       <c r="M273" t="s" s="2">
-        <v>835</v>
+        <v>822</v>
       </c>
       <c r="N273" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="O273" s="2"/>
-      <c r="P273" s="2"/>
+        <v>823</v>
+      </c>
+      <c r="O273" t="s" s="2">
+        <v>824</v>
+      </c>
+      <c r="P273" t="s" s="2">
+        <v>825</v>
+      </c>
       <c r="Q273" t="s" s="2">
         <v>76</v>
       </c>
@@ -34495,19 +34520,19 @@
         <v>76</v>
       </c>
       <c r="AG273" t="s" s="2">
-        <v>94</v>
+        <v>826</v>
       </c>
       <c r="AH273" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI273" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ273" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK273" t="s" s="2">
-        <v>81</v>
+        <v>104</v>
       </c>
     </row>
     <row r="274">
@@ -34515,14 +34540,12 @@
         <v>573</v>
       </c>
       <c r="B274" t="s" s="2">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="C274" t="s" s="2">
-        <v>829</v>
-      </c>
-      <c r="D274" t="s" s="2">
-        <v>178</v>
-      </c>
+        <v>835</v>
+      </c>
+      <c r="D274" s="2"/>
       <c r="E274" t="s" s="2">
         <v>76</v>
       </c>
@@ -34531,7 +34554,7 @@
         <v>77</v>
       </c>
       <c r="H274" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I274" t="s" s="2">
         <v>205</v>
@@ -34540,16 +34563,16 @@
         <v>76</v>
       </c>
       <c r="K274" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="L274" t="s" s="2">
+        <v>836</v>
+      </c>
+      <c r="M274" t="s" s="2">
         <v>837</v>
       </c>
-      <c r="M274" t="s" s="2">
+      <c r="N274" t="s" s="2">
         <v>838</v>
-      </c>
-      <c r="N274" t="s" s="2">
-        <v>181</v>
       </c>
       <c r="O274" s="2"/>
       <c r="P274" s="2"/>
@@ -34600,7 +34623,7 @@
         <v>76</v>
       </c>
       <c r="AG274" t="s" s="2">
-        <v>94</v>
+        <v>835</v>
       </c>
       <c r="AH274" t="s" s="2">
         <v>77</v>
@@ -34612,7 +34635,7 @@
         <v>80</v>
       </c>
       <c r="AK274" t="s" s="2">
-        <v>81</v>
+        <v>104</v>
       </c>
     </row>
     <row r="275">
@@ -34623,11 +34646,9 @@
         <v>839</v>
       </c>
       <c r="C275" t="s" s="2">
-        <v>829</v>
-      </c>
-      <c r="D275" t="s" s="2">
-        <v>182</v>
-      </c>
+        <v>839</v>
+      </c>
+      <c r="D275" s="2"/>
       <c r="E275" t="s" s="2">
         <v>76</v>
       </c>
@@ -34639,7 +34660,7 @@
         <v>83</v>
       </c>
       <c r="I275" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="J275" t="s" s="2">
         <v>76</v>
@@ -34648,13 +34669,13 @@
         <v>76</v>
       </c>
       <c r="L275" t="s" s="2">
-        <v>840</v>
+        <v>84</v>
       </c>
       <c r="M275" t="s" s="2">
-        <v>841</v>
+        <v>85</v>
       </c>
       <c r="N275" t="s" s="2">
-        <v>185</v>
+        <v>86</v>
       </c>
       <c r="O275" s="2"/>
       <c r="P275" s="2"/>
@@ -34705,19 +34726,19 @@
         <v>76</v>
       </c>
       <c r="AG275" t="s" s="2">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="AH275" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI275" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ275" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AK275" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="276">
@@ -34725,21 +34746,21 @@
         <v>573</v>
       </c>
       <c r="B276" t="s" s="2">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="C276" t="s" s="2">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="D276" s="2"/>
       <c r="E276" t="s" s="2">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="F276" s="2"/>
       <c r="G276" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H276" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I276" t="s" s="2">
         <v>76</v>
@@ -34748,19 +34769,19 @@
         <v>76</v>
       </c>
       <c r="K276" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="L276" t="s" s="2">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="M276" t="s" s="2">
-        <v>843</v>
+        <v>111</v>
       </c>
       <c r="N276" t="s" s="2">
-        <v>844</v>
+        <v>112</v>
       </c>
       <c r="O276" t="s" s="2">
-        <v>845</v>
+        <v>113</v>
       </c>
       <c r="P276" s="2"/>
       <c r="Q276" t="s" s="2">
@@ -34798,31 +34819,31 @@
         <v>76</v>
       </c>
       <c r="AC276" t="s" s="2">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="AD276" t="s" s="2">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="AE276" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF276" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AG276" t="s" s="2">
-        <v>846</v>
+        <v>94</v>
       </c>
       <c r="AH276" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI276" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ276" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK276" t="s" s="2">
-        <v>104</v>
+        <v>81</v>
       </c>
     </row>
     <row r="277">
@@ -34830,12 +34851,14 @@
         <v>573</v>
       </c>
       <c r="B277" t="s" s="2">
-        <v>847</v>
+        <v>841</v>
       </c>
       <c r="C277" t="s" s="2">
-        <v>847</v>
-      </c>
-      <c r="D277" s="2"/>
+        <v>840</v>
+      </c>
+      <c r="D277" t="s" s="2">
+        <v>187</v>
+      </c>
       <c r="E277" t="s" s="2">
         <v>76</v>
       </c>
@@ -34844,25 +34867,25 @@
         <v>77</v>
       </c>
       <c r="H277" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I277" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="J277" t="s" s="2">
         <v>76</v>
       </c>
       <c r="K277" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="L277" t="s" s="2">
-        <v>435</v>
+        <v>842</v>
       </c>
       <c r="M277" t="s" s="2">
-        <v>848</v>
+        <v>843</v>
       </c>
       <c r="N277" t="s" s="2">
-        <v>849</v>
+        <v>190</v>
       </c>
       <c r="O277" s="2"/>
       <c r="P277" s="2"/>
@@ -34913,7 +34936,7 @@
         <v>76</v>
       </c>
       <c r="AG277" t="s" s="2">
-        <v>850</v>
+        <v>94</v>
       </c>
       <c r="AH277" t="s" s="2">
         <v>77</v>
@@ -34925,7 +34948,7 @@
         <v>80</v>
       </c>
       <c r="AK277" t="s" s="2">
-        <v>438</v>
+        <v>81</v>
       </c>
     </row>
     <row r="278">
@@ -34933,12 +34956,14 @@
         <v>573</v>
       </c>
       <c r="B278" t="s" s="2">
-        <v>851</v>
+        <v>844</v>
       </c>
       <c r="C278" t="s" s="2">
-        <v>851</v>
-      </c>
-      <c r="D278" s="2"/>
+        <v>840</v>
+      </c>
+      <c r="D278" t="s" s="2">
+        <v>172</v>
+      </c>
       <c r="E278" t="s" s="2">
         <v>76</v>
       </c>
@@ -34947,7 +34972,7 @@
         <v>77</v>
       </c>
       <c r="H278" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I278" t="s" s="2">
         <v>205</v>
@@ -34959,17 +34984,15 @@
         <v>76</v>
       </c>
       <c r="L278" t="s" s="2">
-        <v>852</v>
+        <v>845</v>
       </c>
       <c r="M278" t="s" s="2">
-        <v>853</v>
+        <v>846</v>
       </c>
       <c r="N278" t="s" s="2">
-        <v>854</v>
-      </c>
-      <c r="O278" t="s" s="2">
-        <v>855</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="O278" s="2"/>
       <c r="P278" s="2"/>
       <c r="Q278" t="s" s="2">
         <v>76</v>
@@ -35018,7 +35041,7 @@
         <v>76</v>
       </c>
       <c r="AG278" t="s" s="2">
-        <v>851</v>
+        <v>94</v>
       </c>
       <c r="AH278" t="s" s="2">
         <v>77</v>
@@ -35030,7 +35053,7 @@
         <v>80</v>
       </c>
       <c r="AK278" t="s" s="2">
-        <v>104</v>
+        <v>81</v>
       </c>
     </row>
     <row r="279">
@@ -35038,12 +35061,14 @@
         <v>573</v>
       </c>
       <c r="B279" t="s" s="2">
-        <v>856</v>
+        <v>847</v>
       </c>
       <c r="C279" t="s" s="2">
-        <v>856</v>
-      </c>
-      <c r="D279" s="2"/>
+        <v>840</v>
+      </c>
+      <c r="D279" t="s" s="2">
+        <v>178</v>
+      </c>
       <c r="E279" t="s" s="2">
         <v>76</v>
       </c>
@@ -35052,29 +35077,27 @@
         <v>77</v>
       </c>
       <c r="H279" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I279" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="J279" t="s" s="2">
         <v>76</v>
       </c>
       <c r="K279" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="L279" t="s" s="2">
-        <v>145</v>
+        <v>848</v>
       </c>
       <c r="M279" t="s" s="2">
-        <v>857</v>
+        <v>849</v>
       </c>
       <c r="N279" t="s" s="2">
-        <v>858</v>
-      </c>
-      <c r="O279" t="s" s="2">
-        <v>314</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="O279" s="2"/>
       <c r="P279" s="2"/>
       <c r="Q279" t="s" s="2">
         <v>76</v>
@@ -35099,10 +35122,10 @@
         <v>76</v>
       </c>
       <c r="Y279" t="s" s="2">
-        <v>279</v>
+        <v>76</v>
       </c>
       <c r="Z279" t="s" s="2">
-        <v>859</v>
+        <v>76</v>
       </c>
       <c r="AA279" t="s" s="2">
         <v>76</v>
@@ -35123,7 +35146,7 @@
         <v>76</v>
       </c>
       <c r="AG279" t="s" s="2">
-        <v>856</v>
+        <v>94</v>
       </c>
       <c r="AH279" t="s" s="2">
         <v>77</v>
@@ -35135,7 +35158,7 @@
         <v>80</v>
       </c>
       <c r="AK279" t="s" s="2">
-        <v>104</v>
+        <v>81</v>
       </c>
     </row>
     <row r="280">
@@ -35143,12 +35166,14 @@
         <v>573</v>
       </c>
       <c r="B280" t="s" s="2">
-        <v>860</v>
+        <v>850</v>
       </c>
       <c r="C280" t="s" s="2">
-        <v>860</v>
-      </c>
-      <c r="D280" s="2"/>
+        <v>840</v>
+      </c>
+      <c r="D280" t="s" s="2">
+        <v>182</v>
+      </c>
       <c r="E280" t="s" s="2">
         <v>76</v>
       </c>
@@ -35157,7 +35182,7 @@
         <v>77</v>
       </c>
       <c r="H280" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I280" t="s" s="2">
         <v>205</v>
@@ -35166,20 +35191,18 @@
         <v>76</v>
       </c>
       <c r="K280" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="L280" t="s" s="2">
-        <v>145</v>
+        <v>851</v>
       </c>
       <c r="M280" t="s" s="2">
-        <v>861</v>
+        <v>852</v>
       </c>
       <c r="N280" t="s" s="2">
-        <v>862</v>
-      </c>
-      <c r="O280" t="s" s="2">
-        <v>314</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="O280" s="2"/>
       <c r="P280" s="2"/>
       <c r="Q280" t="s" s="2">
         <v>76</v>
@@ -35204,13 +35227,13 @@
         <v>76</v>
       </c>
       <c r="Y280" t="s" s="2">
-        <v>146</v>
+        <v>76</v>
       </c>
       <c r="Z280" t="s" s="2">
-        <v>863</v>
+        <v>76</v>
       </c>
       <c r="AA280" t="s" s="2">
-        <v>864</v>
+        <v>76</v>
       </c>
       <c r="AB280" t="s" s="2">
         <v>76</v>
@@ -35228,7 +35251,7 @@
         <v>76</v>
       </c>
       <c r="AG280" t="s" s="2">
-        <v>860</v>
+        <v>94</v>
       </c>
       <c r="AH280" t="s" s="2">
         <v>77</v>
@@ -35240,7 +35263,7 @@
         <v>80</v>
       </c>
       <c r="AK280" t="s" s="2">
-        <v>104</v>
+        <v>81</v>
       </c>
     </row>
     <row r="281">
@@ -35248,10 +35271,10 @@
         <v>573</v>
       </c>
       <c r="B281" t="s" s="2">
-        <v>865</v>
+        <v>853</v>
       </c>
       <c r="C281" t="s" s="2">
-        <v>865</v>
+        <v>853</v>
       </c>
       <c r="D281" s="2"/>
       <c r="E281" t="s" s="2">
@@ -35265,25 +35288,25 @@
         <v>83</v>
       </c>
       <c r="I281" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J281" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K281" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="J281" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K281" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="L281" t="s" s="2">
-        <v>555</v>
+        <v>84</v>
       </c>
       <c r="M281" t="s" s="2">
-        <v>866</v>
+        <v>854</v>
       </c>
       <c r="N281" t="s" s="2">
-        <v>867</v>
+        <v>855</v>
       </c>
       <c r="O281" t="s" s="2">
-        <v>868</v>
+        <v>856</v>
       </c>
       <c r="P281" s="2"/>
       <c r="Q281" t="s" s="2">
@@ -35333,7 +35356,7 @@
         <v>76</v>
       </c>
       <c r="AG281" t="s" s="2">
-        <v>865</v>
+        <v>857</v>
       </c>
       <c r="AH281" t="s" s="2">
         <v>77</v>
@@ -35353,14 +35376,14 @@
         <v>573</v>
       </c>
       <c r="B282" t="s" s="2">
-        <v>869</v>
+        <v>858</v>
       </c>
       <c r="C282" t="s" s="2">
-        <v>869</v>
+        <v>858</v>
       </c>
       <c r="D282" s="2"/>
       <c r="E282" t="s" s="2">
-        <v>870</v>
+        <v>76</v>
       </c>
       <c r="F282" s="2"/>
       <c r="G282" t="s" s="2">
@@ -35370,7 +35393,7 @@
         <v>78</v>
       </c>
       <c r="I282" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="J282" t="s" s="2">
         <v>76</v>
@@ -35379,17 +35402,15 @@
         <v>205</v>
       </c>
       <c r="L282" t="s" s="2">
-        <v>871</v>
+        <v>435</v>
       </c>
       <c r="M282" t="s" s="2">
-        <v>872</v>
+        <v>859</v>
       </c>
       <c r="N282" t="s" s="2">
-        <v>873</v>
-      </c>
-      <c r="O282" t="s" s="2">
-        <v>874</v>
-      </c>
+        <v>860</v>
+      </c>
+      <c r="O282" s="2"/>
       <c r="P282" s="2"/>
       <c r="Q282" t="s" s="2">
         <v>76</v>
@@ -35438,7 +35459,7 @@
         <v>76</v>
       </c>
       <c r="AG282" t="s" s="2">
-        <v>869</v>
+        <v>861</v>
       </c>
       <c r="AH282" t="s" s="2">
         <v>77</v>
@@ -35450,7 +35471,7 @@
         <v>80</v>
       </c>
       <c r="AK282" t="s" s="2">
-        <v>297</v>
+        <v>438</v>
       </c>
     </row>
     <row r="283">
@@ -35458,42 +35479,42 @@
         <v>573</v>
       </c>
       <c r="B283" t="s" s="2">
-        <v>875</v>
+        <v>862</v>
       </c>
       <c r="C283" t="s" s="2">
-        <v>875</v>
+        <v>862</v>
       </c>
       <c r="D283" s="2"/>
       <c r="E283" t="s" s="2">
-        <v>876</v>
+        <v>76</v>
       </c>
       <c r="F283" s="2"/>
       <c r="G283" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H283" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I283" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="J283" t="s" s="2">
         <v>76</v>
       </c>
       <c r="K283" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="L283" t="s" s="2">
-        <v>155</v>
+        <v>863</v>
       </c>
       <c r="M283" t="s" s="2">
-        <v>877</v>
+        <v>864</v>
       </c>
       <c r="N283" t="s" s="2">
-        <v>878</v>
+        <v>865</v>
       </c>
       <c r="O283" t="s" s="2">
-        <v>336</v>
+        <v>866</v>
       </c>
       <c r="P283" s="2"/>
       <c r="Q283" t="s" s="2">
@@ -35543,19 +35564,19 @@
         <v>76</v>
       </c>
       <c r="AG283" t="s" s="2">
-        <v>875</v>
+        <v>862</v>
       </c>
       <c r="AH283" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI283" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ283" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK283" t="s" s="2">
-        <v>337</v>
+        <v>104</v>
       </c>
     </row>
     <row r="284">
@@ -35563,10 +35584,10 @@
         <v>573</v>
       </c>
       <c r="B284" t="s" s="2">
-        <v>879</v>
+        <v>867</v>
       </c>
       <c r="C284" t="s" s="2">
-        <v>879</v>
+        <v>867</v>
       </c>
       <c r="D284" s="2"/>
       <c r="E284" t="s" s="2">
@@ -35577,7 +35598,7 @@
         <v>77</v>
       </c>
       <c r="H284" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I284" t="s" s="2">
         <v>76</v>
@@ -35586,18 +35607,20 @@
         <v>76</v>
       </c>
       <c r="K284" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="L284" t="s" s="2">
-        <v>84</v>
+        <v>145</v>
       </c>
       <c r="M284" t="s" s="2">
-        <v>85</v>
+        <v>868</v>
       </c>
       <c r="N284" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="O284" s="2"/>
+        <v>869</v>
+      </c>
+      <c r="O284" t="s" s="2">
+        <v>314</v>
+      </c>
       <c r="P284" s="2"/>
       <c r="Q284" t="s" s="2">
         <v>76</v>
@@ -35622,10 +35645,10 @@
         <v>76</v>
       </c>
       <c r="Y284" t="s" s="2">
-        <v>76</v>
+        <v>279</v>
       </c>
       <c r="Z284" t="s" s="2">
-        <v>76</v>
+        <v>870</v>
       </c>
       <c r="AA284" t="s" s="2">
         <v>76</v>
@@ -35646,19 +35669,19 @@
         <v>76</v>
       </c>
       <c r="AG284" t="s" s="2">
-        <v>87</v>
+        <v>867</v>
       </c>
       <c r="AH284" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI284" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ284" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AK284" t="s" s="2">
-        <v>76</v>
+        <v>104</v>
       </c>
     </row>
     <row r="285">
@@ -35666,14 +35689,14 @@
         <v>573</v>
       </c>
       <c r="B285" t="s" s="2">
-        <v>880</v>
+        <v>871</v>
       </c>
       <c r="C285" t="s" s="2">
-        <v>880</v>
+        <v>871</v>
       </c>
       <c r="D285" s="2"/>
       <c r="E285" t="s" s="2">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="F285" s="2"/>
       <c r="G285" t="s" s="2">
@@ -35683,25 +35706,25 @@
         <v>78</v>
       </c>
       <c r="I285" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="J285" t="s" s="2">
         <v>76</v>
       </c>
       <c r="K285" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="L285" t="s" s="2">
-        <v>89</v>
+        <v>145</v>
       </c>
       <c r="M285" t="s" s="2">
-        <v>111</v>
+        <v>872</v>
       </c>
       <c r="N285" t="s" s="2">
-        <v>112</v>
+        <v>873</v>
       </c>
       <c r="O285" t="s" s="2">
-        <v>113</v>
+        <v>314</v>
       </c>
       <c r="P285" s="2"/>
       <c r="Q285" t="s" s="2">
@@ -35727,31 +35750,31 @@
         <v>76</v>
       </c>
       <c r="Y285" t="s" s="2">
-        <v>76</v>
+        <v>146</v>
       </c>
       <c r="Z285" t="s" s="2">
-        <v>76</v>
+        <v>874</v>
       </c>
       <c r="AA285" t="s" s="2">
-        <v>76</v>
+        <v>875</v>
       </c>
       <c r="AB285" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AC285" t="s" s="2">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AD285" t="s" s="2">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="AE285" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF285" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AG285" t="s" s="2">
-        <v>94</v>
+        <v>871</v>
       </c>
       <c r="AH285" t="s" s="2">
         <v>77</v>
@@ -35763,7 +35786,7 @@
         <v>80</v>
       </c>
       <c r="AK285" t="s" s="2">
-        <v>81</v>
+        <v>104</v>
       </c>
     </row>
     <row r="286">
@@ -35771,10 +35794,10 @@
         <v>573</v>
       </c>
       <c r="B286" t="s" s="2">
-        <v>881</v>
+        <v>876</v>
       </c>
       <c r="C286" t="s" s="2">
-        <v>881</v>
+        <v>876</v>
       </c>
       <c r="D286" s="2"/>
       <c r="E286" t="s" s="2">
@@ -35788,25 +35811,25 @@
         <v>83</v>
       </c>
       <c r="I286" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="J286" t="s" s="2">
         <v>76</v>
       </c>
       <c r="K286" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="L286" t="s" s="2">
-        <v>685</v>
+        <v>555</v>
       </c>
       <c r="M286" t="s" s="2">
-        <v>882</v>
+        <v>877</v>
       </c>
       <c r="N286" t="s" s="2">
-        <v>687</v>
+        <v>878</v>
       </c>
       <c r="O286" t="s" s="2">
-        <v>688</v>
+        <v>879</v>
       </c>
       <c r="P286" s="2"/>
       <c r="Q286" t="s" s="2">
@@ -35856,7 +35879,7 @@
         <v>76</v>
       </c>
       <c r="AG286" t="s" s="2">
-        <v>689</v>
+        <v>876</v>
       </c>
       <c r="AH286" t="s" s="2">
         <v>77</v>
@@ -35865,7 +35888,7 @@
         <v>83</v>
       </c>
       <c r="AJ286" t="s" s="2">
-        <v>690</v>
+        <v>80</v>
       </c>
       <c r="AK286" t="s" s="2">
         <v>104</v>
@@ -35876,21 +35899,21 @@
         <v>573</v>
       </c>
       <c r="B287" t="s" s="2">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="C287" t="s" s="2">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="D287" s="2"/>
       <c r="E287" t="s" s="2">
-        <v>76</v>
+        <v>881</v>
       </c>
       <c r="F287" s="2"/>
       <c r="G287" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H287" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I287" t="s" s="2">
         <v>205</v>
@@ -35902,24 +35925,22 @@
         <v>205</v>
       </c>
       <c r="L287" t="s" s="2">
-        <v>685</v>
+        <v>882</v>
       </c>
       <c r="M287" t="s" s="2">
+        <v>883</v>
+      </c>
+      <c r="N287" t="s" s="2">
         <v>884</v>
       </c>
-      <c r="N287" t="s" s="2">
-        <v>694</v>
-      </c>
       <c r="O287" t="s" s="2">
-        <v>695</v>
+        <v>885</v>
       </c>
       <c r="P287" s="2"/>
       <c r="Q287" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="R287" t="s" s="2">
-        <v>696</v>
-      </c>
+      <c r="R287" s="2"/>
       <c r="S287" t="s" s="2">
         <v>76</v>
       </c>
@@ -35963,19 +35984,19 @@
         <v>76</v>
       </c>
       <c r="AG287" t="s" s="2">
-        <v>697</v>
+        <v>880</v>
       </c>
       <c r="AH287" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI287" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ287" t="s" s="2">
-        <v>690</v>
+        <v>80</v>
       </c>
       <c r="AK287" t="s" s="2">
-        <v>104</v>
+        <v>297</v>
       </c>
     </row>
     <row r="288">
@@ -35983,21 +36004,21 @@
         <v>573</v>
       </c>
       <c r="B288" t="s" s="2">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="C288" t="s" s="2">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="D288" s="2"/>
       <c r="E288" t="s" s="2">
-        <v>76</v>
+        <v>887</v>
       </c>
       <c r="F288" s="2"/>
       <c r="G288" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H288" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I288" t="s" s="2">
         <v>76</v>
@@ -36009,16 +36030,16 @@
         <v>205</v>
       </c>
       <c r="L288" t="s" s="2">
-        <v>507</v>
+        <v>155</v>
       </c>
       <c r="M288" t="s" s="2">
-        <v>886</v>
+        <v>888</v>
       </c>
       <c r="N288" t="s" s="2">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="O288" t="s" s="2">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="P288" s="2"/>
       <c r="Q288" t="s" s="2">
@@ -36068,7 +36089,7 @@
         <v>76</v>
       </c>
       <c r="AG288" t="s" s="2">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="AH288" t="s" s="2">
         <v>77</v>
@@ -36080,7 +36101,7 @@
         <v>80</v>
       </c>
       <c r="AK288" t="s" s="2">
-        <v>297</v>
+        <v>337</v>
       </c>
     </row>
     <row r="289">
@@ -36088,10 +36109,10 @@
         <v>573</v>
       </c>
       <c r="B289" t="s" s="2">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="C289" t="s" s="2">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="D289" s="2"/>
       <c r="E289" t="s" s="2">
@@ -36102,7 +36123,7 @@
         <v>77</v>
       </c>
       <c r="H289" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I289" t="s" s="2">
         <v>76</v>
@@ -36111,20 +36132,18 @@
         <v>76</v>
       </c>
       <c r="K289" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="L289" t="s" s="2">
-        <v>889</v>
+        <v>84</v>
       </c>
       <c r="M289" t="s" s="2">
-        <v>890</v>
+        <v>85</v>
       </c>
       <c r="N289" t="s" s="2">
-        <v>891</v>
-      </c>
-      <c r="O289" t="s" s="2">
-        <v>349</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="O289" s="2"/>
       <c r="P289" s="2"/>
       <c r="Q289" t="s" s="2">
         <v>76</v>
@@ -36173,7 +36192,7 @@
         <v>76</v>
       </c>
       <c r="AG289" t="s" s="2">
-        <v>888</v>
+        <v>87</v>
       </c>
       <c r="AH289" t="s" s="2">
         <v>77</v>
@@ -36182,10 +36201,10 @@
         <v>83</v>
       </c>
       <c r="AJ289" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AK289" t="s" s="2">
-        <v>297</v>
+        <v>76</v>
       </c>
     </row>
     <row r="290">
@@ -36193,14 +36212,14 @@
         <v>573</v>
       </c>
       <c r="B290" t="s" s="2">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="C290" t="s" s="2">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="D290" s="2"/>
       <c r="E290" t="s" s="2">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="F290" s="2"/>
       <c r="G290" t="s" s="2">
@@ -36210,25 +36229,25 @@
         <v>78</v>
       </c>
       <c r="I290" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="J290" t="s" s="2">
         <v>76</v>
       </c>
       <c r="K290" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="L290" t="s" s="2">
-        <v>893</v>
+        <v>89</v>
       </c>
       <c r="M290" t="s" s="2">
-        <v>894</v>
+        <v>111</v>
       </c>
       <c r="N290" t="s" s="2">
-        <v>895</v>
+        <v>112</v>
       </c>
       <c r="O290" t="s" s="2">
-        <v>349</v>
+        <v>113</v>
       </c>
       <c r="P290" s="2"/>
       <c r="Q290" t="s" s="2">
@@ -36266,19 +36285,19 @@
         <v>76</v>
       </c>
       <c r="AC290" t="s" s="2">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="AD290" t="s" s="2">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="AE290" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF290" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AG290" t="s" s="2">
-        <v>892</v>
+        <v>94</v>
       </c>
       <c r="AH290" t="s" s="2">
         <v>77</v>
@@ -36290,7 +36309,7 @@
         <v>80</v>
       </c>
       <c r="AK290" t="s" s="2">
-        <v>297</v>
+        <v>81</v>
       </c>
     </row>
     <row r="291">
@@ -36298,10 +36317,10 @@
         <v>573</v>
       </c>
       <c r="B291" t="s" s="2">
-        <v>896</v>
+        <v>892</v>
       </c>
       <c r="C291" t="s" s="2">
-        <v>896</v>
+        <v>892</v>
       </c>
       <c r="D291" s="2"/>
       <c r="E291" t="s" s="2">
@@ -36324,16 +36343,16 @@
         <v>205</v>
       </c>
       <c r="L291" t="s" s="2">
-        <v>145</v>
+        <v>696</v>
       </c>
       <c r="M291" t="s" s="2">
-        <v>897</v>
+        <v>893</v>
       </c>
       <c r="N291" t="s" s="2">
-        <v>898</v>
+        <v>698</v>
       </c>
       <c r="O291" t="s" s="2">
-        <v>314</v>
+        <v>699</v>
       </c>
       <c r="P291" s="2"/>
       <c r="Q291" t="s" s="2">
@@ -36359,13 +36378,13 @@
         <v>76</v>
       </c>
       <c r="Y291" t="s" s="2">
-        <v>279</v>
+        <v>76</v>
       </c>
       <c r="Z291" t="s" s="2">
-        <v>899</v>
+        <v>76</v>
       </c>
       <c r="AA291" t="s" s="2">
-        <v>900</v>
+        <v>76</v>
       </c>
       <c r="AB291" t="s" s="2">
         <v>76</v>
@@ -36383,7 +36402,7 @@
         <v>76</v>
       </c>
       <c r="AG291" t="s" s="2">
-        <v>896</v>
+        <v>700</v>
       </c>
       <c r="AH291" t="s" s="2">
         <v>77</v>
@@ -36392,7 +36411,7 @@
         <v>83</v>
       </c>
       <c r="AJ291" t="s" s="2">
-        <v>80</v>
+        <v>701</v>
       </c>
       <c r="AK291" t="s" s="2">
         <v>104</v>
@@ -36403,10 +36422,10 @@
         <v>573</v>
       </c>
       <c r="B292" t="s" s="2">
-        <v>901</v>
+        <v>894</v>
       </c>
       <c r="C292" t="s" s="2">
-        <v>901</v>
+        <v>894</v>
       </c>
       <c r="D292" s="2"/>
       <c r="E292" t="s" s="2">
@@ -36417,34 +36436,36 @@
         <v>77</v>
       </c>
       <c r="H292" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I292" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="J292" t="s" s="2">
         <v>76</v>
       </c>
       <c r="K292" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="L292" t="s" s="2">
-        <v>902</v>
+        <v>696</v>
       </c>
       <c r="M292" t="s" s="2">
-        <v>903</v>
+        <v>895</v>
       </c>
       <c r="N292" t="s" s="2">
-        <v>904</v>
+        <v>705</v>
       </c>
       <c r="O292" t="s" s="2">
-        <v>905</v>
+        <v>706</v>
       </c>
       <c r="P292" s="2"/>
       <c r="Q292" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="R292" s="2"/>
+      <c r="R292" t="s" s="2">
+        <v>707</v>
+      </c>
       <c r="S292" t="s" s="2">
         <v>76</v>
       </c>
@@ -36488,16 +36509,16 @@
         <v>76</v>
       </c>
       <c r="AG292" t="s" s="2">
-        <v>901</v>
+        <v>708</v>
       </c>
       <c r="AH292" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI292" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ292" t="s" s="2">
-        <v>80</v>
+        <v>701</v>
       </c>
       <c r="AK292" t="s" s="2">
         <v>104</v>
@@ -36508,10 +36529,10 @@
         <v>573</v>
       </c>
       <c r="B293" t="s" s="2">
-        <v>906</v>
+        <v>896</v>
       </c>
       <c r="C293" t="s" s="2">
-        <v>906</v>
+        <v>896</v>
       </c>
       <c r="D293" s="2"/>
       <c r="E293" t="s" s="2">
@@ -36522,7 +36543,7 @@
         <v>77</v>
       </c>
       <c r="H293" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I293" t="s" s="2">
         <v>76</v>
@@ -36531,18 +36552,20 @@
         <v>76</v>
       </c>
       <c r="K293" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="L293" t="s" s="2">
-        <v>299</v>
+        <v>507</v>
       </c>
       <c r="M293" t="s" s="2">
-        <v>907</v>
+        <v>897</v>
       </c>
       <c r="N293" t="s" s="2">
-        <v>908</v>
-      </c>
-      <c r="O293" s="2"/>
+        <v>898</v>
+      </c>
+      <c r="O293" t="s" s="2">
+        <v>349</v>
+      </c>
       <c r="P293" s="2"/>
       <c r="Q293" t="s" s="2">
         <v>76</v>
@@ -36591,19 +36614,19 @@
         <v>76</v>
       </c>
       <c r="AG293" t="s" s="2">
-        <v>906</v>
+        <v>896</v>
       </c>
       <c r="AH293" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI293" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ293" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK293" t="s" s="2">
-        <v>104</v>
+        <v>297</v>
       </c>
     </row>
     <row r="294">
@@ -36611,10 +36634,10 @@
         <v>573</v>
       </c>
       <c r="B294" t="s" s="2">
-        <v>909</v>
+        <v>899</v>
       </c>
       <c r="C294" t="s" s="2">
-        <v>909</v>
+        <v>899</v>
       </c>
       <c r="D294" s="2"/>
       <c r="E294" t="s" s="2">
@@ -36625,7 +36648,7 @@
         <v>77</v>
       </c>
       <c r="H294" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I294" t="s" s="2">
         <v>76</v>
@@ -36634,18 +36657,20 @@
         <v>76</v>
       </c>
       <c r="K294" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="L294" t="s" s="2">
-        <v>84</v>
+        <v>900</v>
       </c>
       <c r="M294" t="s" s="2">
-        <v>85</v>
+        <v>901</v>
       </c>
       <c r="N294" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="O294" s="2"/>
+        <v>902</v>
+      </c>
+      <c r="O294" t="s" s="2">
+        <v>349</v>
+      </c>
       <c r="P294" s="2"/>
       <c r="Q294" t="s" s="2">
         <v>76</v>
@@ -36694,7 +36719,7 @@
         <v>76</v>
       </c>
       <c r="AG294" t="s" s="2">
-        <v>87</v>
+        <v>899</v>
       </c>
       <c r="AH294" t="s" s="2">
         <v>77</v>
@@ -36703,10 +36728,10 @@
         <v>83</v>
       </c>
       <c r="AJ294" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AK294" t="s" s="2">
-        <v>76</v>
+        <v>297</v>
       </c>
     </row>
     <row r="295">
@@ -36714,14 +36739,14 @@
         <v>573</v>
       </c>
       <c r="B295" t="s" s="2">
-        <v>910</v>
+        <v>903</v>
       </c>
       <c r="C295" t="s" s="2">
-        <v>910</v>
+        <v>903</v>
       </c>
       <c r="D295" s="2"/>
       <c r="E295" t="s" s="2">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="F295" s="2"/>
       <c r="G295" t="s" s="2">
@@ -36731,25 +36756,25 @@
         <v>78</v>
       </c>
       <c r="I295" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="J295" t="s" s="2">
         <v>76</v>
       </c>
       <c r="K295" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="L295" t="s" s="2">
-        <v>89</v>
+        <v>904</v>
       </c>
       <c r="M295" t="s" s="2">
-        <v>111</v>
+        <v>905</v>
       </c>
       <c r="N295" t="s" s="2">
-        <v>112</v>
+        <v>906</v>
       </c>
       <c r="O295" t="s" s="2">
-        <v>113</v>
+        <v>349</v>
       </c>
       <c r="P295" s="2"/>
       <c r="Q295" t="s" s="2">
@@ -36787,19 +36812,19 @@
         <v>76</v>
       </c>
       <c r="AC295" t="s" s="2">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AD295" t="s" s="2">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="AE295" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF295" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AG295" t="s" s="2">
-        <v>94</v>
+        <v>903</v>
       </c>
       <c r="AH295" t="s" s="2">
         <v>77</v>
@@ -36811,7 +36836,7 @@
         <v>80</v>
       </c>
       <c r="AK295" t="s" s="2">
-        <v>81</v>
+        <v>297</v>
       </c>
     </row>
     <row r="296">
@@ -36819,14 +36844,12 @@
         <v>573</v>
       </c>
       <c r="B296" t="s" s="2">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C296" t="s" s="2">
-        <v>910</v>
-      </c>
-      <c r="D296" t="s" s="2">
-        <v>105</v>
-      </c>
+        <v>907</v>
+      </c>
+      <c r="D296" s="2"/>
       <c r="E296" t="s" s="2">
         <v>76</v>
       </c>
@@ -36835,27 +36858,29 @@
         <v>77</v>
       </c>
       <c r="H296" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I296" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J296" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K296" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="J296" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K296" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="L296" t="s" s="2">
-        <v>912</v>
+        <v>145</v>
       </c>
       <c r="M296" t="s" s="2">
-        <v>913</v>
+        <v>908</v>
       </c>
       <c r="N296" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="O296" s="2"/>
+        <v>909</v>
+      </c>
+      <c r="O296" t="s" s="2">
+        <v>314</v>
+      </c>
       <c r="P296" s="2"/>
       <c r="Q296" t="s" s="2">
         <v>76</v>
@@ -36880,13 +36905,13 @@
         <v>76</v>
       </c>
       <c r="Y296" t="s" s="2">
-        <v>76</v>
+        <v>279</v>
       </c>
       <c r="Z296" t="s" s="2">
-        <v>76</v>
+        <v>910</v>
       </c>
       <c r="AA296" t="s" s="2">
-        <v>76</v>
+        <v>911</v>
       </c>
       <c r="AB296" t="s" s="2">
         <v>76</v>
@@ -36904,19 +36929,19 @@
         <v>76</v>
       </c>
       <c r="AG296" t="s" s="2">
-        <v>94</v>
+        <v>907</v>
       </c>
       <c r="AH296" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI296" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ296" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK296" t="s" s="2">
-        <v>81</v>
+        <v>104</v>
       </c>
     </row>
     <row r="297">
@@ -36924,14 +36949,14 @@
         <v>573</v>
       </c>
       <c r="B297" t="s" s="2">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="C297" t="s" s="2">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="D297" s="2"/>
       <c r="E297" t="s" s="2">
-        <v>307</v>
+        <v>76</v>
       </c>
       <c r="F297" s="2"/>
       <c r="G297" t="s" s="2">
@@ -36944,26 +36969,24 @@
         <v>76</v>
       </c>
       <c r="J297" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="K297" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="L297" t="s" s="2">
-        <v>89</v>
+        <v>913</v>
       </c>
       <c r="M297" t="s" s="2">
-        <v>308</v>
+        <v>914</v>
       </c>
       <c r="N297" t="s" s="2">
-        <v>309</v>
+        <v>915</v>
       </c>
       <c r="O297" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="P297" t="s" s="2">
-        <v>250</v>
-      </c>
+        <v>916</v>
+      </c>
+      <c r="P297" s="2"/>
       <c r="Q297" t="s" s="2">
         <v>76</v>
       </c>
@@ -37011,7 +37034,7 @@
         <v>76</v>
       </c>
       <c r="AG297" t="s" s="2">
-        <v>310</v>
+        <v>912</v>
       </c>
       <c r="AH297" t="s" s="2">
         <v>77</v>
@@ -37023,7 +37046,7 @@
         <v>80</v>
       </c>
       <c r="AK297" t="s" s="2">
-        <v>81</v>
+        <v>104</v>
       </c>
     </row>
     <row r="298">
@@ -37031,10 +37054,10 @@
         <v>573</v>
       </c>
       <c r="B298" t="s" s="2">
-        <v>915</v>
+        <v>917</v>
       </c>
       <c r="C298" t="s" s="2">
-        <v>915</v>
+        <v>917</v>
       </c>
       <c r="D298" s="2"/>
       <c r="E298" t="s" s="2">
@@ -37042,10 +37065,10 @@
       </c>
       <c r="F298" s="2"/>
       <c r="G298" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H298" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I298" t="s" s="2">
         <v>76</v>
@@ -37057,17 +37080,15 @@
         <v>76</v>
       </c>
       <c r="L298" t="s" s="2">
-        <v>84</v>
+        <v>299</v>
       </c>
       <c r="M298" t="s" s="2">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="N298" t="s" s="2">
-        <v>917</v>
-      </c>
-      <c r="O298" t="s" s="2">
-        <v>284</v>
-      </c>
+        <v>919</v>
+      </c>
+      <c r="O298" s="2"/>
       <c r="P298" s="2"/>
       <c r="Q298" t="s" s="2">
         <v>76</v>
@@ -37116,13 +37137,13 @@
         <v>76</v>
       </c>
       <c r="AG298" t="s" s="2">
-        <v>915</v>
+        <v>917</v>
       </c>
       <c r="AH298" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AI298" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ298" t="s" s="2">
         <v>80</v>
@@ -37136,10 +37157,10 @@
         <v>573</v>
       </c>
       <c r="B299" t="s" s="2">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="C299" t="s" s="2">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="D299" s="2"/>
       <c r="E299" t="s" s="2">
@@ -37162,17 +37183,15 @@
         <v>76</v>
       </c>
       <c r="L299" t="s" s="2">
-        <v>145</v>
+        <v>84</v>
       </c>
       <c r="M299" t="s" s="2">
-        <v>919</v>
+        <v>85</v>
       </c>
       <c r="N299" t="s" s="2">
-        <v>920</v>
-      </c>
-      <c r="O299" t="s" s="2">
-        <v>314</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="O299" s="2"/>
       <c r="P299" s="2"/>
       <c r="Q299" t="s" s="2">
         <v>76</v>
@@ -37221,7 +37240,7 @@
         <v>76</v>
       </c>
       <c r="AG299" t="s" s="2">
-        <v>918</v>
+        <v>87</v>
       </c>
       <c r="AH299" t="s" s="2">
         <v>77</v>
@@ -37230,10 +37249,10 @@
         <v>83</v>
       </c>
       <c r="AJ299" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AK299" t="s" s="2">
-        <v>104</v>
+        <v>76</v>
       </c>
     </row>
     <row r="300">
@@ -37248,14 +37267,14 @@
       </c>
       <c r="D300" s="2"/>
       <c r="E300" t="s" s="2">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="F300" s="2"/>
       <c r="G300" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H300" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I300" t="s" s="2">
         <v>76</v>
@@ -37267,16 +37286,16 @@
         <v>76</v>
       </c>
       <c r="L300" t="s" s="2">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="M300" t="s" s="2">
-        <v>922</v>
+        <v>111</v>
       </c>
       <c r="N300" t="s" s="2">
-        <v>923</v>
+        <v>112</v>
       </c>
       <c r="O300" t="s" s="2">
-        <v>284</v>
+        <v>113</v>
       </c>
       <c r="P300" s="2"/>
       <c r="Q300" t="s" s="2">
@@ -37314,31 +37333,31 @@
         <v>76</v>
       </c>
       <c r="AC300" t="s" s="2">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="AD300" t="s" s="2">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="AE300" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF300" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AG300" t="s" s="2">
-        <v>921</v>
+        <v>94</v>
       </c>
       <c r="AH300" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI300" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ300" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK300" t="s" s="2">
-        <v>104</v>
+        <v>81</v>
       </c>
     </row>
     <row r="301">
@@ -37346,12 +37365,14 @@
         <v>573</v>
       </c>
       <c r="B301" t="s" s="2">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="C301" t="s" s="2">
-        <v>924</v>
-      </c>
-      <c r="D301" s="2"/>
+        <v>921</v>
+      </c>
+      <c r="D301" t="s" s="2">
+        <v>105</v>
+      </c>
       <c r="E301" t="s" s="2">
         <v>76</v>
       </c>
@@ -37363,7 +37384,7 @@
         <v>78</v>
       </c>
       <c r="I301" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="J301" t="s" s="2">
         <v>76</v>
@@ -37372,13 +37393,13 @@
         <v>76</v>
       </c>
       <c r="L301" t="s" s="2">
-        <v>299</v>
+        <v>923</v>
       </c>
       <c r="M301" t="s" s="2">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="N301" t="s" s="2">
-        <v>926</v>
+        <v>108</v>
       </c>
       <c r="O301" s="2"/>
       <c r="P301" s="2"/>
@@ -37429,7 +37450,7 @@
         <v>76</v>
       </c>
       <c r="AG301" t="s" s="2">
-        <v>924</v>
+        <v>94</v>
       </c>
       <c r="AH301" t="s" s="2">
         <v>77</v>
@@ -37441,7 +37462,7 @@
         <v>80</v>
       </c>
       <c r="AK301" t="s" s="2">
-        <v>104</v>
+        <v>81</v>
       </c>
     </row>
     <row r="302">
@@ -37449,42 +37470,46 @@
         <v>573</v>
       </c>
       <c r="B302" t="s" s="2">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="C302" t="s" s="2">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="D302" s="2"/>
       <c r="E302" t="s" s="2">
-        <v>76</v>
+        <v>307</v>
       </c>
       <c r="F302" s="2"/>
       <c r="G302" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H302" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I302" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J302" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="K302" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="L302" t="s" s="2">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="M302" t="s" s="2">
-        <v>85</v>
+        <v>308</v>
       </c>
       <c r="N302" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="O302" s="2"/>
-      <c r="P302" s="2"/>
+        <v>309</v>
+      </c>
+      <c r="O302" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="P302" t="s" s="2">
+        <v>250</v>
+      </c>
       <c r="Q302" t="s" s="2">
         <v>76</v>
       </c>
@@ -37532,19 +37557,19 @@
         <v>76</v>
       </c>
       <c r="AG302" t="s" s="2">
-        <v>87</v>
+        <v>310</v>
       </c>
       <c r="AH302" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI302" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ302" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AK302" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="303">
@@ -37552,21 +37577,21 @@
         <v>573</v>
       </c>
       <c r="B303" t="s" s="2">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="C303" t="s" s="2">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="D303" s="2"/>
       <c r="E303" t="s" s="2">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="F303" s="2"/>
       <c r="G303" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="H303" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I303" t="s" s="2">
         <v>76</v>
@@ -37578,16 +37603,16 @@
         <v>76</v>
       </c>
       <c r="L303" t="s" s="2">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="M303" t="s" s="2">
-        <v>111</v>
+        <v>927</v>
       </c>
       <c r="N303" t="s" s="2">
-        <v>112</v>
+        <v>928</v>
       </c>
       <c r="O303" t="s" s="2">
-        <v>113</v>
+        <v>284</v>
       </c>
       <c r="P303" s="2"/>
       <c r="Q303" t="s" s="2">
@@ -37625,31 +37650,31 @@
         <v>76</v>
       </c>
       <c r="AC303" t="s" s="2">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AD303" t="s" s="2">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="AE303" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF303" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AG303" t="s" s="2">
-        <v>94</v>
+        <v>926</v>
       </c>
       <c r="AH303" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="AI303" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ303" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK303" t="s" s="2">
-        <v>81</v>
+        <v>104</v>
       </c>
     </row>
     <row r="304">
@@ -37664,39 +37689,37 @@
       </c>
       <c r="D304" s="2"/>
       <c r="E304" t="s" s="2">
-        <v>307</v>
+        <v>76</v>
       </c>
       <c r="F304" s="2"/>
       <c r="G304" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H304" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I304" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J304" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="K304" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="L304" t="s" s="2">
-        <v>89</v>
+        <v>145</v>
       </c>
       <c r="M304" t="s" s="2">
-        <v>308</v>
+        <v>930</v>
       </c>
       <c r="N304" t="s" s="2">
-        <v>309</v>
+        <v>931</v>
       </c>
       <c r="O304" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="P304" t="s" s="2">
-        <v>250</v>
-      </c>
+        <v>314</v>
+      </c>
+      <c r="P304" s="2"/>
       <c r="Q304" t="s" s="2">
         <v>76</v>
       </c>
@@ -37744,19 +37767,19 @@
         <v>76</v>
       </c>
       <c r="AG304" t="s" s="2">
-        <v>310</v>
+        <v>929</v>
       </c>
       <c r="AH304" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI304" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ304" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK304" t="s" s="2">
-        <v>81</v>
+        <v>104</v>
       </c>
     </row>
     <row r="305">
@@ -37764,10 +37787,10 @@
         <v>573</v>
       </c>
       <c r="B305" t="s" s="2">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="C305" t="s" s="2">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="D305" s="2"/>
       <c r="E305" t="s" s="2">
@@ -37793,10 +37816,10 @@
         <v>84</v>
       </c>
       <c r="M305" t="s" s="2">
-        <v>931</v>
+        <v>933</v>
       </c>
       <c r="N305" t="s" s="2">
-        <v>932</v>
+        <v>934</v>
       </c>
       <c r="O305" t="s" s="2">
         <v>284</v>
@@ -37849,7 +37872,7 @@
         <v>76</v>
       </c>
       <c r="AG305" t="s" s="2">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="AH305" t="s" s="2">
         <v>77</v>
@@ -37869,10 +37892,10 @@
         <v>573</v>
       </c>
       <c r="B306" t="s" s="2">
-        <v>933</v>
+        <v>935</v>
       </c>
       <c r="C306" t="s" s="2">
-        <v>933</v>
+        <v>935</v>
       </c>
       <c r="D306" s="2"/>
       <c r="E306" t="s" s="2">
@@ -37883,7 +37906,7 @@
         <v>77</v>
       </c>
       <c r="H306" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I306" t="s" s="2">
         <v>76</v>
@@ -37895,17 +37918,15 @@
         <v>76</v>
       </c>
       <c r="L306" t="s" s="2">
-        <v>145</v>
+        <v>299</v>
       </c>
       <c r="M306" t="s" s="2">
-        <v>934</v>
+        <v>936</v>
       </c>
       <c r="N306" t="s" s="2">
-        <v>935</v>
-      </c>
-      <c r="O306" t="s" s="2">
-        <v>314</v>
-      </c>
+        <v>937</v>
+      </c>
+      <c r="O306" s="2"/>
       <c r="P306" s="2"/>
       <c r="Q306" t="s" s="2">
         <v>76</v>
@@ -37930,13 +37951,13 @@
         <v>76</v>
       </c>
       <c r="Y306" t="s" s="2">
-        <v>226</v>
+        <v>76</v>
       </c>
       <c r="Z306" t="s" s="2">
-        <v>936</v>
+        <v>76</v>
       </c>
       <c r="AA306" t="s" s="2">
-        <v>937</v>
+        <v>76</v>
       </c>
       <c r="AB306" t="s" s="2">
         <v>76</v>
@@ -37954,13 +37975,13 @@
         <v>76</v>
       </c>
       <c r="AG306" t="s" s="2">
-        <v>933</v>
+        <v>935</v>
       </c>
       <c r="AH306" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI306" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ306" t="s" s="2">
         <v>80</v>
@@ -37971,13 +37992,13 @@
     </row>
     <row r="307">
       <c r="A307" t="s" s="2">
-        <v>591</v>
+        <v>573</v>
       </c>
       <c r="B307" t="s" s="2">
-        <v>31</v>
+        <v>938</v>
       </c>
       <c r="C307" t="s" s="2">
-        <v>31</v>
+        <v>938</v>
       </c>
       <c r="D307" s="2"/>
       <c r="E307" t="s" s="2">
@@ -37988,7 +38009,7 @@
         <v>77</v>
       </c>
       <c r="H307" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I307" t="s" s="2">
         <v>76</v>
@@ -38000,13 +38021,13 @@
         <v>76</v>
       </c>
       <c r="L307" t="s" s="2">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="M307" t="s" s="2">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="N307" t="s" s="2">
-        <v>594</v>
+        <v>86</v>
       </c>
       <c r="O307" s="2"/>
       <c r="P307" s="2"/>
@@ -38057,41 +38078,41 @@
         <v>76</v>
       </c>
       <c r="AG307" t="s" s="2">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="AH307" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI307" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ307" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AK307" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="s" s="2">
-        <v>591</v>
+        <v>573</v>
       </c>
       <c r="B308" t="s" s="2">
-        <v>82</v>
+        <v>939</v>
       </c>
       <c r="C308" t="s" s="2">
-        <v>82</v>
+        <v>939</v>
       </c>
       <c r="D308" s="2"/>
       <c r="E308" t="s" s="2">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="F308" s="2"/>
       <c r="G308" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H308" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I308" t="s" s="2">
         <v>76</v>
@@ -38103,15 +38124,17 @@
         <v>76</v>
       </c>
       <c r="L308" t="s" s="2">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="M308" t="s" s="2">
-        <v>85</v>
+        <v>111</v>
       </c>
       <c r="N308" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="O308" s="2"/>
+        <v>112</v>
+      </c>
+      <c r="O308" t="s" s="2">
+        <v>113</v>
+      </c>
       <c r="P308" s="2"/>
       <c r="Q308" t="s" s="2">
         <v>76</v>
@@ -38148,74 +38171,78 @@
         <v>76</v>
       </c>
       <c r="AC308" t="s" s="2">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="AD308" t="s" s="2">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="AE308" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF308" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AG308" t="s" s="2">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="AH308" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI308" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ308" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AK308" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="s" s="2">
-        <v>591</v>
+        <v>573</v>
       </c>
       <c r="B309" t="s" s="2">
-        <v>88</v>
+        <v>940</v>
       </c>
       <c r="C309" t="s" s="2">
-        <v>88</v>
+        <v>940</v>
       </c>
       <c r="D309" s="2"/>
       <c r="E309" t="s" s="2">
-        <v>76</v>
+        <v>307</v>
       </c>
       <c r="F309" s="2"/>
       <c r="G309" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H309" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I309" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J309" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="K309" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="L309" t="s" s="2">
         <v>89</v>
       </c>
       <c r="M309" t="s" s="2">
-        <v>31</v>
+        <v>308</v>
       </c>
       <c r="N309" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="O309" s="2"/>
-      <c r="P309" s="2"/>
+        <v>309</v>
+      </c>
+      <c r="O309" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="P309" t="s" s="2">
+        <v>250</v>
+      </c>
       <c r="Q309" t="s" s="2">
         <v>76</v>
       </c>
@@ -38251,19 +38278,19 @@
         <v>76</v>
       </c>
       <c r="AC309" t="s" s="2">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AD309" t="s" s="2">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="AE309" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF309" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AG309" t="s" s="2">
-        <v>94</v>
+        <v>310</v>
       </c>
       <c r="AH309" t="s" s="2">
         <v>77</v>
@@ -38280,13 +38307,13 @@
     </row>
     <row r="310">
       <c r="A310" t="s" s="2">
-        <v>591</v>
+        <v>573</v>
       </c>
       <c r="B310" t="s" s="2">
-        <v>95</v>
+        <v>941</v>
       </c>
       <c r="C310" t="s" s="2">
-        <v>95</v>
+        <v>941</v>
       </c>
       <c r="D310" s="2"/>
       <c r="E310" t="s" s="2">
@@ -38294,7 +38321,7 @@
       </c>
       <c r="F310" s="2"/>
       <c r="G310" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H310" t="s" s="2">
         <v>83</v>
@@ -38309,16 +38336,16 @@
         <v>76</v>
       </c>
       <c r="L310" t="s" s="2">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="M310" t="s" s="2">
-        <v>97</v>
+        <v>942</v>
       </c>
       <c r="N310" t="s" s="2">
-        <v>98</v>
+        <v>943</v>
       </c>
       <c r="O310" t="s" s="2">
-        <v>99</v>
+        <v>284</v>
       </c>
       <c r="P310" s="2"/>
       <c r="Q310" t="s" s="2">
@@ -38326,7 +38353,7 @@
       </c>
       <c r="R310" s="2"/>
       <c r="S310" t="s" s="2">
-        <v>938</v>
+        <v>76</v>
       </c>
       <c r="T310" t="s" s="2">
         <v>76</v>
@@ -38368,30 +38395,30 @@
         <v>76</v>
       </c>
       <c r="AG310" t="s" s="2">
-        <v>95</v>
+        <v>941</v>
       </c>
       <c r="AH310" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AI310" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ310" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AK310" t="s" s="2">
-        <v>76</v>
+        <v>104</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="s" s="2">
-        <v>591</v>
+        <v>573</v>
       </c>
       <c r="B311" t="s" s="2">
-        <v>100</v>
+        <v>944</v>
       </c>
       <c r="C311" t="s" s="2">
-        <v>100</v>
+        <v>944</v>
       </c>
       <c r="D311" s="2"/>
       <c r="E311" t="s" s="2">
@@ -38414,15 +38441,17 @@
         <v>76</v>
       </c>
       <c r="L311" t="s" s="2">
-        <v>101</v>
+        <v>145</v>
       </c>
       <c r="M311" t="s" s="2">
-        <v>102</v>
+        <v>945</v>
       </c>
       <c r="N311" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="O311" s="2"/>
+        <v>946</v>
+      </c>
+      <c r="O311" t="s" s="2">
+        <v>314</v>
+      </c>
       <c r="P311" s="2"/>
       <c r="Q311" t="s" s="2">
         <v>76</v>
@@ -38447,13 +38476,13 @@
         <v>76</v>
       </c>
       <c r="Y311" t="s" s="2">
-        <v>76</v>
+        <v>226</v>
       </c>
       <c r="Z311" t="s" s="2">
-        <v>76</v>
+        <v>947</v>
       </c>
       <c r="AA311" t="s" s="2">
-        <v>76</v>
+        <v>948</v>
       </c>
       <c r="AB311" t="s" s="2">
         <v>76</v>
@@ -38471,7 +38500,7 @@
         <v>76</v>
       </c>
       <c r="AG311" t="s" s="2">
-        <v>100</v>
+        <v>944</v>
       </c>
       <c r="AH311" t="s" s="2">
         <v>77</v>
@@ -38488,7 +38517,7 @@
     </row>
     <row r="312">
       <c r="A312" t="s" s="2">
-        <v>442</v>
+        <v>591</v>
       </c>
       <c r="B312" t="s" s="2">
         <v>31</v>
@@ -38523,7 +38552,7 @@
         <v>31</v>
       </c>
       <c r="N312" t="s" s="2">
-        <v>445</v>
+        <v>594</v>
       </c>
       <c r="O312" s="2"/>
       <c r="P312" s="2"/>
@@ -38591,7 +38620,7 @@
     </row>
     <row r="313">
       <c r="A313" t="s" s="2">
-        <v>442</v>
+        <v>591</v>
       </c>
       <c r="B313" t="s" s="2">
         <v>82</v>
@@ -38694,7 +38723,7 @@
     </row>
     <row r="314">
       <c r="A314" t="s" s="2">
-        <v>442</v>
+        <v>591</v>
       </c>
       <c r="B314" t="s" s="2">
         <v>88</v>
@@ -38797,7 +38826,7 @@
     </row>
     <row r="315">
       <c r="A315" t="s" s="2">
-        <v>442</v>
+        <v>591</v>
       </c>
       <c r="B315" t="s" s="2">
         <v>95</v>
@@ -38843,7 +38872,7 @@
       </c>
       <c r="R315" s="2"/>
       <c r="S315" t="s" s="2">
-        <v>940</v>
+        <v>949</v>
       </c>
       <c r="T315" t="s" s="2">
         <v>76</v>
@@ -38902,7 +38931,7 @@
     </row>
     <row r="316">
       <c r="A316" t="s" s="2">
-        <v>442</v>
+        <v>591</v>
       </c>
       <c r="B316" t="s" s="2">
         <v>100</v>
@@ -38931,7 +38960,7 @@
         <v>76</v>
       </c>
       <c r="L316" t="s" s="2">
-        <v>186</v>
+        <v>101</v>
       </c>
       <c r="M316" t="s" s="2">
         <v>102</v>
@@ -39005,7 +39034,7 @@
     </row>
     <row r="317">
       <c r="A317" t="s" s="2">
-        <v>599</v>
+        <v>442</v>
       </c>
       <c r="B317" t="s" s="2">
         <v>31</v>
@@ -39040,7 +39069,7 @@
         <v>31</v>
       </c>
       <c r="N317" t="s" s="2">
-        <v>602</v>
+        <v>445</v>
       </c>
       <c r="O317" s="2"/>
       <c r="P317" s="2"/>
@@ -39108,7 +39137,7 @@
     </row>
     <row r="318">
       <c r="A318" t="s" s="2">
-        <v>599</v>
+        <v>442</v>
       </c>
       <c r="B318" t="s" s="2">
         <v>82</v>
@@ -39211,7 +39240,7 @@
     </row>
     <row r="319">
       <c r="A319" t="s" s="2">
-        <v>599</v>
+        <v>442</v>
       </c>
       <c r="B319" t="s" s="2">
         <v>88</v>
@@ -39314,7 +39343,7 @@
     </row>
     <row r="320">
       <c r="A320" t="s" s="2">
-        <v>599</v>
+        <v>442</v>
       </c>
       <c r="B320" t="s" s="2">
         <v>95</v>
@@ -39360,7 +39389,7 @@
       </c>
       <c r="R320" s="2"/>
       <c r="S320" t="s" s="2">
-        <v>943</v>
+        <v>951</v>
       </c>
       <c r="T320" t="s" s="2">
         <v>76</v>
@@ -39419,7 +39448,7 @@
     </row>
     <row r="321">
       <c r="A321" t="s" s="2">
-        <v>599</v>
+        <v>442</v>
       </c>
       <c r="B321" t="s" s="2">
         <v>100</v>
@@ -39448,7 +39477,7 @@
         <v>76</v>
       </c>
       <c r="L321" t="s" s="2">
-        <v>84</v>
+        <v>186</v>
       </c>
       <c r="M321" t="s" s="2">
         <v>102</v>
@@ -39517,6 +39546,523 @@
         <v>80</v>
       </c>
       <c r="AK321" t="s" s="2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="s" s="2">
+        <v>599</v>
+      </c>
+      <c r="B322" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C322" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="D322" s="2"/>
+      <c r="E322" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F322" s="2"/>
+      <c r="G322" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H322" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I322" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J322" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K322" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="L322" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="M322" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="N322" t="s" s="2">
+        <v>602</v>
+      </c>
+      <c r="O322" s="2"/>
+      <c r="P322" s="2"/>
+      <c r="Q322" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R322" s="2"/>
+      <c r="S322" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T322" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U322" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V322" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W322" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X322" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y322" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z322" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA322" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB322" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC322" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD322" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE322" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF322" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG322" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="AH322" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI322" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ322" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK322" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="s" s="2">
+        <v>599</v>
+      </c>
+      <c r="B323" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="C323" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="D323" s="2"/>
+      <c r="E323" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F323" s="2"/>
+      <c r="G323" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H323" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I323" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J323" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K323" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="L323" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="M323" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="N323" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="O323" s="2"/>
+      <c r="P323" s="2"/>
+      <c r="Q323" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R323" s="2"/>
+      <c r="S323" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T323" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U323" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V323" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W323" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X323" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y323" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z323" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA323" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB323" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC323" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD323" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE323" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF323" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG323" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH323" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI323" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ323" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK323" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="s" s="2">
+        <v>599</v>
+      </c>
+      <c r="B324" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="C324" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="D324" s="2"/>
+      <c r="E324" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F324" s="2"/>
+      <c r="G324" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H324" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I324" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J324" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K324" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="L324" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="M324" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="N324" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="O324" s="2"/>
+      <c r="P324" s="2"/>
+      <c r="Q324" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R324" s="2"/>
+      <c r="S324" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T324" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U324" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V324" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W324" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X324" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y324" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z324" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA324" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB324" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC324" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AD324" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AE324" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF324" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AG324" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AH324" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI324" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ324" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK324" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="s" s="2">
+        <v>599</v>
+      </c>
+      <c r="B325" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="C325" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="D325" s="2"/>
+      <c r="E325" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F325" s="2"/>
+      <c r="G325" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H325" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I325" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J325" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K325" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="L325" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="M325" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="N325" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="O325" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="P325" s="2"/>
+      <c r="Q325" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R325" s="2"/>
+      <c r="S325" t="s" s="2">
+        <v>954</v>
+      </c>
+      <c r="T325" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U325" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V325" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W325" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X325" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y325" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z325" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA325" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB325" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC325" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD325" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE325" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF325" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG325" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AH325" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI325" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ325" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK325" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="s" s="2">
+        <v>599</v>
+      </c>
+      <c r="B326" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="C326" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="D326" s="2"/>
+      <c r="E326" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F326" s="2"/>
+      <c r="G326" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H326" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I326" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J326" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K326" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="L326" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="M326" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="N326" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="O326" s="2"/>
+      <c r="P326" s="2"/>
+      <c r="Q326" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R326" s="2"/>
+      <c r="S326" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T326" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U326" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V326" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W326" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X326" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y326" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z326" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA326" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB326" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC326" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD326" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE326" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF326" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG326" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AH326" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI326" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ326" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK326" t="s" s="2">
         <v>104</v>
       </c>
     </row>

--- a/cp-descriptionsummary/ig/all-profiles.xlsx
+++ b/cp-descriptionsummary/ig/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-23T12:40:47+00:00</t>
+    <t>2025-07-23T13:42:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/cp-descriptionsummary/ig/all-profiles.xlsx
+++ b/cp-descriptionsummary/ig/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-23T13:42:01+00:00</t>
+    <t>2025-07-23T15:03:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/cp-descriptionsummary/ig/all-profiles.xlsx
+++ b/cp-descriptionsummary/ig/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11388" uniqueCount="956">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11229" uniqueCount="945">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-23T15:03:37+00:00</t>
+    <t>2025-07-24T09:17:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1917,39 +1917,6 @@
   </si>
   <si>
     <t>Cette extension implemente l'élément descriptionSummary de R5 https://hl7.org/fhir/R5/researchstudy-definitions.html#ResearchStudy.descriptionSummary. elle permet l'ajout d'un texte bref décrivant l'essai (Brief summary)</t>
-  </si>
-  <si>
-    <t>ResearchStudy.extension:eclaire-description-summary-r5.id</t>
-  </si>
-  <si>
-    <t>ResearchStudy.extension.id</t>
-  </si>
-  <si>
-    <t>ResearchStudy.extension:eclaire-description-summary-r5.extension</t>
-  </si>
-  <si>
-    <t>ResearchStudy.extension.extension</t>
-  </si>
-  <si>
-    <t>ResearchStudy.extension:eclaire-description-summary-r5.url</t>
-  </si>
-  <si>
-    <t>ResearchStudy.extension.url</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ResearchStudy.descriptionSummary</t>
-  </si>
-  <si>
-    <t>ResearchStudy.extension:eclaire-description-summary-r5.value[x]</t>
-  </si>
-  <si>
-    <t>ResearchStudy.extension.value[x]</t>
-  </si>
-  <si>
-    <t>Brief text explaining the study</t>
-  </si>
-  <si>
-    <t>A brief text for explaining the study.</t>
   </si>
   <si>
     <t>ResearchStudy.extension:eclaire-outcome-measure-r5</t>
@@ -5458,7 +5425,7 @@
         <v>4</v>
       </c>
       <c r="B308" t="s" s="2">
-        <v>949</v>
+        <v>938</v>
       </c>
     </row>
     <row r="309">
@@ -5474,7 +5441,7 @@
         <v>8</v>
       </c>
       <c r="B310" t="s" s="2">
-        <v>950</v>
+        <v>939</v>
       </c>
     </row>
     <row r="311">
@@ -5626,7 +5593,7 @@
         <v>4</v>
       </c>
       <c r="B330" t="s" s="2">
-        <v>951</v>
+        <v>940</v>
       </c>
     </row>
     <row r="331">
@@ -5642,7 +5609,7 @@
         <v>8</v>
       </c>
       <c r="B332" t="s" s="2">
-        <v>952</v>
+        <v>941</v>
       </c>
     </row>
     <row r="333">
@@ -5770,7 +5737,7 @@
         <v>38</v>
       </c>
       <c r="B349" t="s" s="2">
-        <v>953</v>
+        <v>942</v>
       </c>
     </row>
     <row r="350">
@@ -5794,7 +5761,7 @@
         <v>4</v>
       </c>
       <c r="B352" t="s" s="2">
-        <v>954</v>
+        <v>943</v>
       </c>
     </row>
     <row r="353">
@@ -5810,7 +5777,7 @@
         <v>8</v>
       </c>
       <c r="B354" t="s" s="2">
-        <v>955</v>
+        <v>944</v>
       </c>
     </row>
     <row r="355">
@@ -5948,7 +5915,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK326"/>
+  <dimension ref="A1:AK321"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -5958,7 +5925,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="23.3125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="54.44140625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="51.9140625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="37.0078125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="25.6796875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="34.21875" customWidth="true" bestFit="true"/>
@@ -28439,9 +28406,11 @@
         <v>614</v>
       </c>
       <c r="C216" t="s" s="2">
-        <v>615</v>
-      </c>
-      <c r="D216" s="2"/>
+        <v>589</v>
+      </c>
+      <c r="D216" t="s" s="2">
+        <v>547</v>
+      </c>
       <c r="E216" t="s" s="2">
         <v>76</v>
       </c>
@@ -28450,10 +28419,10 @@
         <v>77</v>
       </c>
       <c r="H216" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I216" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="J216" t="s" s="2">
         <v>76</v>
@@ -28462,13 +28431,13 @@
         <v>76</v>
       </c>
       <c r="L216" t="s" s="2">
-        <v>206</v>
+        <v>615</v>
       </c>
       <c r="M216" t="s" s="2">
-        <v>85</v>
+        <v>616</v>
       </c>
       <c r="N216" t="s" s="2">
-        <v>86</v>
+        <v>617</v>
       </c>
       <c r="O216" s="2"/>
       <c r="P216" s="2"/>
@@ -28519,19 +28488,19 @@
         <v>76</v>
       </c>
       <c r="AG216" t="s" s="2">
-        <v>87</v>
+        <v>246</v>
       </c>
       <c r="AH216" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI216" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ216" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AK216" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="217">
@@ -28539,12 +28508,14 @@
         <v>573</v>
       </c>
       <c r="B217" t="s" s="2">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="C217" t="s" s="2">
-        <v>617</v>
-      </c>
-      <c r="D217" s="2"/>
+        <v>589</v>
+      </c>
+      <c r="D217" t="s" s="2">
+        <v>133</v>
+      </c>
       <c r="E217" t="s" s="2">
         <v>76</v>
       </c>
@@ -28553,10 +28524,10 @@
         <v>77</v>
       </c>
       <c r="H217" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I217" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="J217" t="s" s="2">
         <v>76</v>
@@ -28565,13 +28536,13 @@
         <v>76</v>
       </c>
       <c r="L217" t="s" s="2">
-        <v>89</v>
+        <v>619</v>
       </c>
       <c r="M217" t="s" s="2">
-        <v>31</v>
+        <v>620</v>
       </c>
       <c r="N217" t="s" s="2">
-        <v>90</v>
+        <v>621</v>
       </c>
       <c r="O217" s="2"/>
       <c r="P217" s="2"/>
@@ -28610,19 +28581,19 @@
         <v>76</v>
       </c>
       <c r="AC217" t="s" s="2">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AD217" t="s" s="2">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="AE217" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF217" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AG217" t="s" s="2">
-        <v>94</v>
+        <v>246</v>
       </c>
       <c r="AH217" t="s" s="2">
         <v>77</v>
@@ -28631,7 +28602,7 @@
         <v>78</v>
       </c>
       <c r="AJ217" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AK217" t="s" s="2">
         <v>81</v>
@@ -28642,24 +28613,26 @@
         <v>573</v>
       </c>
       <c r="B218" t="s" s="2">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="C218" t="s" s="2">
-        <v>619</v>
-      </c>
-      <c r="D218" s="2"/>
+        <v>589</v>
+      </c>
+      <c r="D218" t="s" s="2">
+        <v>360</v>
+      </c>
       <c r="E218" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F218" s="2"/>
       <c r="G218" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H218" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I218" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="J218" t="s" s="2">
         <v>76</v>
@@ -28668,24 +28641,22 @@
         <v>76</v>
       </c>
       <c r="L218" t="s" s="2">
-        <v>96</v>
+        <v>623</v>
       </c>
       <c r="M218" t="s" s="2">
-        <v>97</v>
+        <v>624</v>
       </c>
       <c r="N218" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="O218" t="s" s="2">
-        <v>99</v>
-      </c>
+        <v>625</v>
+      </c>
+      <c r="O218" s="2"/>
       <c r="P218" s="2"/>
       <c r="Q218" t="s" s="2">
         <v>76</v>
       </c>
       <c r="R218" s="2"/>
       <c r="S218" t="s" s="2">
-        <v>620</v>
+        <v>76</v>
       </c>
       <c r="T218" t="s" s="2">
         <v>76</v>
@@ -28727,19 +28698,19 @@
         <v>76</v>
       </c>
       <c r="AG218" t="s" s="2">
-        <v>95</v>
+        <v>246</v>
       </c>
       <c r="AH218" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AI218" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ218" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AK218" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="219">
@@ -28747,42 +28718,46 @@
         <v>573</v>
       </c>
       <c r="B219" t="s" s="2">
-        <v>621</v>
+        <v>626</v>
       </c>
       <c r="C219" t="s" s="2">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="D219" s="2"/>
       <c r="E219" t="s" s="2">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="F219" s="2"/>
       <c r="G219" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H219" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I219" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J219" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="K219" t="s" s="2">
         <v>76</v>
       </c>
       <c r="L219" t="s" s="2">
-        <v>555</v>
+        <v>89</v>
       </c>
       <c r="M219" t="s" s="2">
-        <v>623</v>
+        <v>248</v>
       </c>
       <c r="N219" t="s" s="2">
-        <v>624</v>
-      </c>
-      <c r="O219" s="2"/>
-      <c r="P219" s="2"/>
+        <v>249</v>
+      </c>
+      <c r="O219" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="P219" t="s" s="2">
+        <v>250</v>
+      </c>
       <c r="Q219" t="s" s="2">
         <v>76</v>
       </c>
@@ -28818,31 +28793,31 @@
         <v>76</v>
       </c>
       <c r="AC219" t="s" s="2">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="AD219" t="s" s="2">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="AE219" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF219" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AG219" t="s" s="2">
-        <v>100</v>
+        <v>251</v>
       </c>
       <c r="AH219" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI219" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ219" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AK219" t="s" s="2">
-        <v>104</v>
+        <v>81</v>
       </c>
     </row>
     <row r="220">
@@ -28850,10 +28825,10 @@
         <v>573</v>
       </c>
       <c r="B220" t="s" s="2">
-        <v>618</v>
+        <v>627</v>
       </c>
       <c r="C220" t="s" s="2">
-        <v>619</v>
+        <v>627</v>
       </c>
       <c r="D220" s="2"/>
       <c r="E220" t="s" s="2">
@@ -28861,10 +28836,10 @@
       </c>
       <c r="F220" s="2"/>
       <c r="G220" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H220" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I220" t="s" s="2">
         <v>76</v>
@@ -28873,21 +28848,27 @@
         <v>76</v>
       </c>
       <c r="K220" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="L220" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="M220" s="2"/>
-      <c r="N220" s="2"/>
+        <v>253</v>
+      </c>
+      <c r="M220" t="s" s="2">
+        <v>628</v>
+      </c>
+      <c r="N220" t="s" s="2">
+        <v>629</v>
+      </c>
       <c r="O220" s="2"/>
-      <c r="P220" s="2"/>
+      <c r="P220" t="s" s="2">
+        <v>630</v>
+      </c>
       <c r="Q220" t="s" s="2">
         <v>76</v>
       </c>
       <c r="R220" s="2"/>
       <c r="S220" t="s" s="2">
-        <v>620</v>
+        <v>76</v>
       </c>
       <c r="T220" t="s" s="2">
         <v>76</v>
@@ -28917,31 +28898,31 @@
         <v>76</v>
       </c>
       <c r="AC220" t="s" s="2">
-        <v>76</v>
+        <v>631</v>
       </c>
       <c r="AD220" t="s" s="2">
-        <v>76</v>
+        <v>632</v>
       </c>
       <c r="AE220" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF220" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AG220" t="s" s="2">
-        <v>95</v>
+        <v>627</v>
       </c>
       <c r="AH220" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AI220" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ220" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AK220" t="s" s="2">
-        <v>76</v>
+        <v>104</v>
       </c>
     </row>
     <row r="221">
@@ -28949,13 +28930,13 @@
         <v>573</v>
       </c>
       <c r="B221" t="s" s="2">
-        <v>625</v>
+        <v>633</v>
       </c>
       <c r="C221" t="s" s="2">
-        <v>589</v>
+        <v>627</v>
       </c>
       <c r="D221" t="s" s="2">
-        <v>547</v>
+        <v>634</v>
       </c>
       <c r="E221" t="s" s="2">
         <v>76</v>
@@ -28965,7 +28946,7 @@
         <v>77</v>
       </c>
       <c r="H221" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I221" t="s" s="2">
         <v>205</v>
@@ -28974,19 +28955,21 @@
         <v>76</v>
       </c>
       <c r="K221" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="L221" t="s" s="2">
-        <v>626</v>
+        <v>253</v>
       </c>
       <c r="M221" t="s" s="2">
-        <v>627</v>
+        <v>635</v>
       </c>
       <c r="N221" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="O221" s="2"/>
-      <c r="P221" s="2"/>
+      <c r="P221" t="s" s="2">
+        <v>630</v>
+      </c>
       <c r="Q221" t="s" s="2">
         <v>76</v>
       </c>
@@ -29034,7 +29017,7 @@
         <v>76</v>
       </c>
       <c r="AG221" t="s" s="2">
-        <v>246</v>
+        <v>627</v>
       </c>
       <c r="AH221" t="s" s="2">
         <v>77</v>
@@ -29046,7 +29029,7 @@
         <v>80</v>
       </c>
       <c r="AK221" t="s" s="2">
-        <v>81</v>
+        <v>104</v>
       </c>
     </row>
     <row r="222">
@@ -29054,14 +29037,12 @@
         <v>573</v>
       </c>
       <c r="B222" t="s" s="2">
-        <v>629</v>
+        <v>636</v>
       </c>
       <c r="C222" t="s" s="2">
-        <v>589</v>
-      </c>
-      <c r="D222" t="s" s="2">
-        <v>133</v>
-      </c>
+        <v>637</v>
+      </c>
+      <c r="D222" s="2"/>
       <c r="E222" t="s" s="2">
         <v>76</v>
       </c>
@@ -29070,10 +29051,10 @@
         <v>77</v>
       </c>
       <c r="H222" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I222" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="J222" t="s" s="2">
         <v>76</v>
@@ -29082,13 +29063,13 @@
         <v>76</v>
       </c>
       <c r="L222" t="s" s="2">
-        <v>630</v>
+        <v>84</v>
       </c>
       <c r="M222" t="s" s="2">
-        <v>631</v>
+        <v>85</v>
       </c>
       <c r="N222" t="s" s="2">
-        <v>632</v>
+        <v>86</v>
       </c>
       <c r="O222" s="2"/>
       <c r="P222" s="2"/>
@@ -29139,19 +29120,19 @@
         <v>76</v>
       </c>
       <c r="AG222" t="s" s="2">
-        <v>246</v>
+        <v>87</v>
       </c>
       <c r="AH222" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI222" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ222" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AK222" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="223">
@@ -29159,16 +29140,14 @@
         <v>573</v>
       </c>
       <c r="B223" t="s" s="2">
-        <v>633</v>
+        <v>638</v>
       </c>
       <c r="C223" t="s" s="2">
-        <v>589</v>
-      </c>
-      <c r="D223" t="s" s="2">
-        <v>360</v>
-      </c>
+        <v>639</v>
+      </c>
+      <c r="D223" s="2"/>
       <c r="E223" t="s" s="2">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="F223" s="2"/>
       <c r="G223" t="s" s="2">
@@ -29178,7 +29157,7 @@
         <v>78</v>
       </c>
       <c r="I223" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="J223" t="s" s="2">
         <v>76</v>
@@ -29187,15 +29166,17 @@
         <v>76</v>
       </c>
       <c r="L223" t="s" s="2">
-        <v>634</v>
+        <v>89</v>
       </c>
       <c r="M223" t="s" s="2">
-        <v>635</v>
+        <v>111</v>
       </c>
       <c r="N223" t="s" s="2">
-        <v>636</v>
-      </c>
-      <c r="O223" s="2"/>
+        <v>112</v>
+      </c>
+      <c r="O223" t="s" s="2">
+        <v>113</v>
+      </c>
       <c r="P223" s="2"/>
       <c r="Q223" t="s" s="2">
         <v>76</v>
@@ -29232,19 +29213,19 @@
         <v>76</v>
       </c>
       <c r="AC223" t="s" s="2">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="AD223" t="s" s="2">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="AE223" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF223" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AG223" t="s" s="2">
-        <v>246</v>
+        <v>94</v>
       </c>
       <c r="AH223" t="s" s="2">
         <v>77</v>
@@ -29264,21 +29245,21 @@
         <v>573</v>
       </c>
       <c r="B224" t="s" s="2">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="C224" t="s" s="2">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="D224" s="2"/>
       <c r="E224" t="s" s="2">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="F224" s="2"/>
       <c r="G224" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="H224" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I224" t="s" s="2">
         <v>76</v>
@@ -29287,22 +29268,22 @@
         <v>205</v>
       </c>
       <c r="K224" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="L224" t="s" s="2">
-        <v>89</v>
+        <v>222</v>
       </c>
       <c r="M224" t="s" s="2">
-        <v>248</v>
+        <v>642</v>
       </c>
       <c r="N224" t="s" s="2">
-        <v>249</v>
+        <v>643</v>
       </c>
       <c r="O224" t="s" s="2">
-        <v>113</v>
+        <v>644</v>
       </c>
       <c r="P224" t="s" s="2">
-        <v>250</v>
+        <v>645</v>
       </c>
       <c r="Q224" t="s" s="2">
         <v>76</v>
@@ -29312,7 +29293,7 @@
         <v>76</v>
       </c>
       <c r="T224" t="s" s="2">
-        <v>76</v>
+        <v>646</v>
       </c>
       <c r="U224" t="s" s="2">
         <v>76</v>
@@ -29327,43 +29308,43 @@
         <v>76</v>
       </c>
       <c r="Y224" t="s" s="2">
-        <v>76</v>
+        <v>191</v>
       </c>
       <c r="Z224" t="s" s="2">
-        <v>76</v>
+        <v>647</v>
       </c>
       <c r="AA224" t="s" s="2">
-        <v>76</v>
+        <v>648</v>
       </c>
       <c r="AB224" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AC224" t="s" s="2">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AD224" t="s" s="2">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="AE224" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF224" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AG224" t="s" s="2">
-        <v>251</v>
+        <v>649</v>
       </c>
       <c r="AH224" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI224" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ224" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK224" t="s" s="2">
-        <v>81</v>
+        <v>104</v>
       </c>
     </row>
     <row r="225">
@@ -29371,10 +29352,10 @@
         <v>573</v>
       </c>
       <c r="B225" t="s" s="2">
-        <v>638</v>
+        <v>650</v>
       </c>
       <c r="C225" t="s" s="2">
-        <v>638</v>
+        <v>651</v>
       </c>
       <c r="D225" s="2"/>
       <c r="E225" t="s" s="2">
@@ -29385,7 +29366,7 @@
         <v>77</v>
       </c>
       <c r="H225" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I225" t="s" s="2">
         <v>76</v>
@@ -29397,17 +29378,19 @@
         <v>205</v>
       </c>
       <c r="L225" t="s" s="2">
-        <v>253</v>
+        <v>145</v>
       </c>
       <c r="M225" t="s" s="2">
-        <v>639</v>
+        <v>652</v>
       </c>
       <c r="N225" t="s" s="2">
-        <v>640</v>
-      </c>
-      <c r="O225" s="2"/>
+        <v>653</v>
+      </c>
+      <c r="O225" t="s" s="2">
+        <v>654</v>
+      </c>
       <c r="P225" t="s" s="2">
-        <v>641</v>
+        <v>655</v>
       </c>
       <c r="Q225" t="s" s="2">
         <v>76</v>
@@ -29432,37 +29415,37 @@
         <v>76</v>
       </c>
       <c r="Y225" t="s" s="2">
-        <v>76</v>
+        <v>146</v>
       </c>
       <c r="Z225" t="s" s="2">
-        <v>76</v>
+        <v>656</v>
       </c>
       <c r="AA225" t="s" s="2">
-        <v>76</v>
+        <v>657</v>
       </c>
       <c r="AB225" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AC225" t="s" s="2">
-        <v>642</v>
+        <v>76</v>
       </c>
       <c r="AD225" t="s" s="2">
-        <v>643</v>
+        <v>76</v>
       </c>
       <c r="AE225" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF225" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AG225" t="s" s="2">
-        <v>638</v>
+        <v>658</v>
       </c>
       <c r="AH225" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI225" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ225" t="s" s="2">
         <v>80</v>
@@ -29476,14 +29459,12 @@
         <v>573</v>
       </c>
       <c r="B226" t="s" s="2">
-        <v>644</v>
+        <v>659</v>
       </c>
       <c r="C226" t="s" s="2">
-        <v>638</v>
-      </c>
-      <c r="D226" t="s" s="2">
-        <v>645</v>
-      </c>
+        <v>660</v>
+      </c>
+      <c r="D226" s="2"/>
       <c r="E226" t="s" s="2">
         <v>76</v>
       </c>
@@ -29495,7 +29476,7 @@
         <v>83</v>
       </c>
       <c r="I226" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="J226" t="s" s="2">
         <v>76</v>
@@ -29504,17 +29485,19 @@
         <v>205</v>
       </c>
       <c r="L226" t="s" s="2">
-        <v>253</v>
+        <v>96</v>
       </c>
       <c r="M226" t="s" s="2">
-        <v>646</v>
+        <v>661</v>
       </c>
       <c r="N226" t="s" s="2">
-        <v>640</v>
-      </c>
-      <c r="O226" s="2"/>
+        <v>662</v>
+      </c>
+      <c r="O226" t="s" s="2">
+        <v>663</v>
+      </c>
       <c r="P226" t="s" s="2">
-        <v>641</v>
+        <v>664</v>
       </c>
       <c r="Q226" t="s" s="2">
         <v>76</v>
@@ -29527,7 +29510,7 @@
         <v>76</v>
       </c>
       <c r="U226" t="s" s="2">
-        <v>76</v>
+        <v>665</v>
       </c>
       <c r="V226" t="s" s="2">
         <v>76</v>
@@ -29563,13 +29546,13 @@
         <v>76</v>
       </c>
       <c r="AG226" t="s" s="2">
-        <v>638</v>
+        <v>666</v>
       </c>
       <c r="AH226" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI226" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ226" t="s" s="2">
         <v>80</v>
@@ -29583,10 +29566,10 @@
         <v>573</v>
       </c>
       <c r="B227" t="s" s="2">
-        <v>647</v>
+        <v>667</v>
       </c>
       <c r="C227" t="s" s="2">
-        <v>648</v>
+        <v>668</v>
       </c>
       <c r="D227" s="2"/>
       <c r="E227" t="s" s="2">
@@ -29606,18 +29589,20 @@
         <v>76</v>
       </c>
       <c r="K227" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="L227" t="s" s="2">
         <v>84</v>
       </c>
       <c r="M227" t="s" s="2">
-        <v>85</v>
+        <v>669</v>
       </c>
       <c r="N227" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="O227" s="2"/>
+        <v>670</v>
+      </c>
+      <c r="O227" t="s" s="2">
+        <v>671</v>
+      </c>
       <c r="P227" s="2"/>
       <c r="Q227" t="s" s="2">
         <v>76</v>
@@ -29630,7 +29615,7 @@
         <v>76</v>
       </c>
       <c r="U227" t="s" s="2">
-        <v>76</v>
+        <v>672</v>
       </c>
       <c r="V227" t="s" s="2">
         <v>76</v>
@@ -29666,7 +29651,7 @@
         <v>76</v>
       </c>
       <c r="AG227" t="s" s="2">
-        <v>87</v>
+        <v>673</v>
       </c>
       <c r="AH227" t="s" s="2">
         <v>77</v>
@@ -29675,10 +29660,10 @@
         <v>83</v>
       </c>
       <c r="AJ227" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AK227" t="s" s="2">
-        <v>76</v>
+        <v>104</v>
       </c>
     </row>
     <row r="228">
@@ -29686,21 +29671,21 @@
         <v>573</v>
       </c>
       <c r="B228" t="s" s="2">
-        <v>649</v>
+        <v>674</v>
       </c>
       <c r="C228" t="s" s="2">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="D228" s="2"/>
       <c r="E228" t="s" s="2">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="F228" s="2"/>
       <c r="G228" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H228" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I228" t="s" s="2">
         <v>76</v>
@@ -29709,19 +29694,19 @@
         <v>76</v>
       </c>
       <c r="K228" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="L228" t="s" s="2">
-        <v>89</v>
+        <v>155</v>
       </c>
       <c r="M228" t="s" s="2">
-        <v>111</v>
+        <v>676</v>
       </c>
       <c r="N228" t="s" s="2">
-        <v>112</v>
+        <v>677</v>
       </c>
       <c r="O228" t="s" s="2">
-        <v>113</v>
+        <v>336</v>
       </c>
       <c r="P228" s="2"/>
       <c r="Q228" t="s" s="2">
@@ -29759,31 +29744,31 @@
         <v>76</v>
       </c>
       <c r="AC228" t="s" s="2">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AD228" t="s" s="2">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="AE228" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF228" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AG228" t="s" s="2">
-        <v>94</v>
+        <v>678</v>
       </c>
       <c r="AH228" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI228" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ228" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK228" t="s" s="2">
-        <v>81</v>
+        <v>337</v>
       </c>
     </row>
     <row r="229">
@@ -29791,10 +29776,10 @@
         <v>573</v>
       </c>
       <c r="B229" t="s" s="2">
-        <v>651</v>
+        <v>679</v>
       </c>
       <c r="C229" t="s" s="2">
-        <v>652</v>
+        <v>680</v>
       </c>
       <c r="D229" s="2"/>
       <c r="E229" t="s" s="2">
@@ -29802,7 +29787,7 @@
       </c>
       <c r="F229" s="2"/>
       <c r="G229" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H229" t="s" s="2">
         <v>83</v>
@@ -29811,26 +29796,22 @@
         <v>76</v>
       </c>
       <c r="J229" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="K229" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="L229" t="s" s="2">
-        <v>222</v>
+        <v>84</v>
       </c>
       <c r="M229" t="s" s="2">
-        <v>653</v>
+        <v>85</v>
       </c>
       <c r="N229" t="s" s="2">
-        <v>654</v>
-      </c>
-      <c r="O229" t="s" s="2">
-        <v>655</v>
-      </c>
-      <c r="P229" t="s" s="2">
-        <v>656</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="O229" s="2"/>
+      <c r="P229" s="2"/>
       <c r="Q229" t="s" s="2">
         <v>76</v>
       </c>
@@ -29839,7 +29820,7 @@
         <v>76</v>
       </c>
       <c r="T229" t="s" s="2">
-        <v>657</v>
+        <v>76</v>
       </c>
       <c r="U229" t="s" s="2">
         <v>76</v>
@@ -29854,13 +29835,13 @@
         <v>76</v>
       </c>
       <c r="Y229" t="s" s="2">
-        <v>191</v>
+        <v>76</v>
       </c>
       <c r="Z229" t="s" s="2">
-        <v>658</v>
+        <v>76</v>
       </c>
       <c r="AA229" t="s" s="2">
-        <v>659</v>
+        <v>76</v>
       </c>
       <c r="AB229" t="s" s="2">
         <v>76</v>
@@ -29878,7 +29859,7 @@
         <v>76</v>
       </c>
       <c r="AG229" t="s" s="2">
-        <v>660</v>
+        <v>87</v>
       </c>
       <c r="AH229" t="s" s="2">
         <v>77</v>
@@ -29887,10 +29868,10 @@
         <v>83</v>
       </c>
       <c r="AJ229" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AK229" t="s" s="2">
-        <v>104</v>
+        <v>76</v>
       </c>
     </row>
     <row r="230">
@@ -29898,21 +29879,21 @@
         <v>573</v>
       </c>
       <c r="B230" t="s" s="2">
-        <v>661</v>
+        <v>681</v>
       </c>
       <c r="C230" t="s" s="2">
-        <v>662</v>
+        <v>682</v>
       </c>
       <c r="D230" s="2"/>
       <c r="E230" t="s" s="2">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="F230" s="2"/>
       <c r="G230" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H230" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I230" t="s" s="2">
         <v>76</v>
@@ -29921,23 +29902,21 @@
         <v>76</v>
       </c>
       <c r="K230" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="L230" t="s" s="2">
-        <v>145</v>
+        <v>89</v>
       </c>
       <c r="M230" t="s" s="2">
-        <v>663</v>
+        <v>111</v>
       </c>
       <c r="N230" t="s" s="2">
-        <v>664</v>
+        <v>112</v>
       </c>
       <c r="O230" t="s" s="2">
-        <v>665</v>
-      </c>
-      <c r="P230" t="s" s="2">
-        <v>666</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="P230" s="2"/>
       <c r="Q230" t="s" s="2">
         <v>76</v>
       </c>
@@ -29961,43 +29940,43 @@
         <v>76</v>
       </c>
       <c r="Y230" t="s" s="2">
-        <v>146</v>
+        <v>76</v>
       </c>
       <c r="Z230" t="s" s="2">
-        <v>667</v>
+        <v>76</v>
       </c>
       <c r="AA230" t="s" s="2">
-        <v>668</v>
+        <v>76</v>
       </c>
       <c r="AB230" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AC230" t="s" s="2">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="AD230" t="s" s="2">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="AE230" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF230" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AG230" t="s" s="2">
-        <v>669</v>
+        <v>94</v>
       </c>
       <c r="AH230" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI230" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ230" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK230" t="s" s="2">
-        <v>104</v>
+        <v>81</v>
       </c>
     </row>
     <row r="231">
@@ -30005,10 +29984,10 @@
         <v>573</v>
       </c>
       <c r="B231" t="s" s="2">
-        <v>670</v>
+        <v>683</v>
       </c>
       <c r="C231" t="s" s="2">
-        <v>671</v>
+        <v>684</v>
       </c>
       <c r="D231" s="2"/>
       <c r="E231" t="s" s="2">
@@ -30031,20 +30010,18 @@
         <v>205</v>
       </c>
       <c r="L231" t="s" s="2">
-        <v>96</v>
+        <v>685</v>
       </c>
       <c r="M231" t="s" s="2">
-        <v>672</v>
+        <v>686</v>
       </c>
       <c r="N231" t="s" s="2">
-        <v>673</v>
+        <v>687</v>
       </c>
       <c r="O231" t="s" s="2">
-        <v>674</v>
-      </c>
-      <c r="P231" t="s" s="2">
-        <v>675</v>
-      </c>
+        <v>688</v>
+      </c>
+      <c r="P231" s="2"/>
       <c r="Q231" t="s" s="2">
         <v>76</v>
       </c>
@@ -30056,7 +30033,7 @@
         <v>76</v>
       </c>
       <c r="U231" t="s" s="2">
-        <v>676</v>
+        <v>76</v>
       </c>
       <c r="V231" t="s" s="2">
         <v>76</v>
@@ -30092,7 +30069,7 @@
         <v>76</v>
       </c>
       <c r="AG231" t="s" s="2">
-        <v>677</v>
+        <v>689</v>
       </c>
       <c r="AH231" t="s" s="2">
         <v>77</v>
@@ -30101,7 +30078,7 @@
         <v>83</v>
       </c>
       <c r="AJ231" t="s" s="2">
-        <v>80</v>
+        <v>690</v>
       </c>
       <c r="AK231" t="s" s="2">
         <v>104</v>
@@ -30112,10 +30089,10 @@
         <v>573</v>
       </c>
       <c r="B232" t="s" s="2">
-        <v>678</v>
+        <v>691</v>
       </c>
       <c r="C232" t="s" s="2">
-        <v>679</v>
+        <v>692</v>
       </c>
       <c r="D232" s="2"/>
       <c r="E232" t="s" s="2">
@@ -30138,22 +30115,24 @@
         <v>205</v>
       </c>
       <c r="L232" t="s" s="2">
-        <v>84</v>
+        <v>685</v>
       </c>
       <c r="M232" t="s" s="2">
-        <v>680</v>
+        <v>693</v>
       </c>
       <c r="N232" t="s" s="2">
-        <v>681</v>
+        <v>694</v>
       </c>
       <c r="O232" t="s" s="2">
-        <v>682</v>
+        <v>695</v>
       </c>
       <c r="P232" s="2"/>
       <c r="Q232" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="R232" s="2"/>
+      <c r="R232" t="s" s="2">
+        <v>696</v>
+      </c>
       <c r="S232" t="s" s="2">
         <v>76</v>
       </c>
@@ -30161,7 +30140,7 @@
         <v>76</v>
       </c>
       <c r="U232" t="s" s="2">
-        <v>683</v>
+        <v>76</v>
       </c>
       <c r="V232" t="s" s="2">
         <v>76</v>
@@ -30197,7 +30176,7 @@
         <v>76</v>
       </c>
       <c r="AG232" t="s" s="2">
-        <v>684</v>
+        <v>697</v>
       </c>
       <c r="AH232" t="s" s="2">
         <v>77</v>
@@ -30206,7 +30185,7 @@
         <v>83</v>
       </c>
       <c r="AJ232" t="s" s="2">
-        <v>80</v>
+        <v>690</v>
       </c>
       <c r="AK232" t="s" s="2">
         <v>104</v>
@@ -30217,10 +30196,10 @@
         <v>573</v>
       </c>
       <c r="B233" t="s" s="2">
-        <v>685</v>
+        <v>698</v>
       </c>
       <c r="C233" t="s" s="2">
-        <v>686</v>
+        <v>699</v>
       </c>
       <c r="D233" s="2"/>
       <c r="E233" t="s" s="2">
@@ -30243,16 +30222,16 @@
         <v>205</v>
       </c>
       <c r="L233" t="s" s="2">
-        <v>155</v>
+        <v>507</v>
       </c>
       <c r="M233" t="s" s="2">
-        <v>687</v>
+        <v>700</v>
       </c>
       <c r="N233" t="s" s="2">
-        <v>688</v>
+        <v>701</v>
       </c>
       <c r="O233" t="s" s="2">
-        <v>336</v>
+        <v>702</v>
       </c>
       <c r="P233" s="2"/>
       <c r="Q233" t="s" s="2">
@@ -30302,7 +30281,7 @@
         <v>76</v>
       </c>
       <c r="AG233" t="s" s="2">
-        <v>689</v>
+        <v>703</v>
       </c>
       <c r="AH233" t="s" s="2">
         <v>77</v>
@@ -30314,7 +30293,7 @@
         <v>80</v>
       </c>
       <c r="AK233" t="s" s="2">
-        <v>337</v>
+        <v>297</v>
       </c>
     </row>
     <row r="234">
@@ -30322,12 +30301,14 @@
         <v>573</v>
       </c>
       <c r="B234" t="s" s="2">
-        <v>690</v>
+        <v>704</v>
       </c>
       <c r="C234" t="s" s="2">
-        <v>691</v>
-      </c>
-      <c r="D234" s="2"/>
+        <v>627</v>
+      </c>
+      <c r="D234" t="s" s="2">
+        <v>705</v>
+      </c>
       <c r="E234" t="s" s="2">
         <v>76</v>
       </c>
@@ -30336,28 +30317,30 @@
         <v>77</v>
       </c>
       <c r="H234" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I234" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="J234" t="s" s="2">
         <v>76</v>
       </c>
       <c r="K234" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="L234" t="s" s="2">
-        <v>84</v>
+        <v>253</v>
       </c>
       <c r="M234" t="s" s="2">
-        <v>85</v>
+        <v>706</v>
       </c>
       <c r="N234" t="s" s="2">
-        <v>86</v>
+        <v>629</v>
       </c>
       <c r="O234" s="2"/>
-      <c r="P234" s="2"/>
+      <c r="P234" t="s" s="2">
+        <v>630</v>
+      </c>
       <c r="Q234" t="s" s="2">
         <v>76</v>
       </c>
@@ -30405,19 +30388,19 @@
         <v>76</v>
       </c>
       <c r="AG234" t="s" s="2">
-        <v>87</v>
+        <v>627</v>
       </c>
       <c r="AH234" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI234" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ234" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AK234" t="s" s="2">
-        <v>76</v>
+        <v>104</v>
       </c>
     </row>
     <row r="235">
@@ -30425,21 +30408,21 @@
         <v>573</v>
       </c>
       <c r="B235" t="s" s="2">
-        <v>692</v>
+        <v>707</v>
       </c>
       <c r="C235" t="s" s="2">
-        <v>693</v>
+        <v>637</v>
       </c>
       <c r="D235" s="2"/>
       <c r="E235" t="s" s="2">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="F235" s="2"/>
       <c r="G235" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H235" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I235" t="s" s="2">
         <v>76</v>
@@ -30451,17 +30434,15 @@
         <v>76</v>
       </c>
       <c r="L235" t="s" s="2">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="M235" t="s" s="2">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="N235" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="O235" t="s" s="2">
-        <v>113</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="O235" s="2"/>
       <c r="P235" s="2"/>
       <c r="Q235" t="s" s="2">
         <v>76</v>
@@ -30498,31 +30479,31 @@
         <v>76</v>
       </c>
       <c r="AC235" t="s" s="2">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AD235" t="s" s="2">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="AE235" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF235" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AG235" t="s" s="2">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="AH235" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI235" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ235" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AK235" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="236">
@@ -30530,21 +30511,21 @@
         <v>573</v>
       </c>
       <c r="B236" t="s" s="2">
-        <v>694</v>
+        <v>708</v>
       </c>
       <c r="C236" t="s" s="2">
-        <v>695</v>
+        <v>639</v>
       </c>
       <c r="D236" s="2"/>
       <c r="E236" t="s" s="2">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="F236" s="2"/>
       <c r="G236" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H236" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I236" t="s" s="2">
         <v>76</v>
@@ -30553,19 +30534,19 @@
         <v>76</v>
       </c>
       <c r="K236" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="L236" t="s" s="2">
-        <v>696</v>
+        <v>89</v>
       </c>
       <c r="M236" t="s" s="2">
-        <v>697</v>
+        <v>111</v>
       </c>
       <c r="N236" t="s" s="2">
-        <v>698</v>
+        <v>112</v>
       </c>
       <c r="O236" t="s" s="2">
-        <v>699</v>
+        <v>113</v>
       </c>
       <c r="P236" s="2"/>
       <c r="Q236" t="s" s="2">
@@ -30603,31 +30584,31 @@
         <v>76</v>
       </c>
       <c r="AC236" t="s" s="2">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="AD236" t="s" s="2">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="AE236" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF236" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AG236" t="s" s="2">
-        <v>700</v>
+        <v>94</v>
       </c>
       <c r="AH236" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI236" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ236" t="s" s="2">
-        <v>701</v>
+        <v>80</v>
       </c>
       <c r="AK236" t="s" s="2">
-        <v>104</v>
+        <v>81</v>
       </c>
     </row>
     <row r="237">
@@ -30635,10 +30616,10 @@
         <v>573</v>
       </c>
       <c r="B237" t="s" s="2">
-        <v>702</v>
+        <v>709</v>
       </c>
       <c r="C237" t="s" s="2">
-        <v>703</v>
+        <v>641</v>
       </c>
       <c r="D237" s="2"/>
       <c r="E237" t="s" s="2">
@@ -30646,7 +30627,7 @@
       </c>
       <c r="F237" s="2"/>
       <c r="G237" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="H237" t="s" s="2">
         <v>83</v>
@@ -30655,35 +30636,35 @@
         <v>76</v>
       </c>
       <c r="J237" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="K237" t="s" s="2">
         <v>205</v>
       </c>
       <c r="L237" t="s" s="2">
-        <v>696</v>
+        <v>222</v>
       </c>
       <c r="M237" t="s" s="2">
-        <v>704</v>
+        <v>642</v>
       </c>
       <c r="N237" t="s" s="2">
-        <v>705</v>
+        <v>643</v>
       </c>
       <c r="O237" t="s" s="2">
-        <v>706</v>
-      </c>
-      <c r="P237" s="2"/>
+        <v>644</v>
+      </c>
+      <c r="P237" t="s" s="2">
+        <v>645</v>
+      </c>
       <c r="Q237" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="R237" t="s" s="2">
-        <v>707</v>
-      </c>
+      <c r="R237" s="2"/>
       <c r="S237" t="s" s="2">
         <v>76</v>
       </c>
       <c r="T237" t="s" s="2">
-        <v>76</v>
+        <v>710</v>
       </c>
       <c r="U237" t="s" s="2">
         <v>76</v>
@@ -30698,13 +30679,13 @@
         <v>76</v>
       </c>
       <c r="Y237" t="s" s="2">
-        <v>76</v>
+        <v>191</v>
       </c>
       <c r="Z237" t="s" s="2">
-        <v>76</v>
+        <v>647</v>
       </c>
       <c r="AA237" t="s" s="2">
-        <v>76</v>
+        <v>648</v>
       </c>
       <c r="AB237" t="s" s="2">
         <v>76</v>
@@ -30722,7 +30703,7 @@
         <v>76</v>
       </c>
       <c r="AG237" t="s" s="2">
-        <v>708</v>
+        <v>649</v>
       </c>
       <c r="AH237" t="s" s="2">
         <v>77</v>
@@ -30731,7 +30712,7 @@
         <v>83</v>
       </c>
       <c r="AJ237" t="s" s="2">
-        <v>701</v>
+        <v>80</v>
       </c>
       <c r="AK237" t="s" s="2">
         <v>104</v>
@@ -30742,10 +30723,10 @@
         <v>573</v>
       </c>
       <c r="B238" t="s" s="2">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="C238" t="s" s="2">
-        <v>710</v>
+        <v>651</v>
       </c>
       <c r="D238" s="2"/>
       <c r="E238" t="s" s="2">
@@ -30768,18 +30749,20 @@
         <v>205</v>
       </c>
       <c r="L238" t="s" s="2">
-        <v>507</v>
+        <v>145</v>
       </c>
       <c r="M238" t="s" s="2">
-        <v>711</v>
+        <v>652</v>
       </c>
       <c r="N238" t="s" s="2">
-        <v>712</v>
+        <v>653</v>
       </c>
       <c r="O238" t="s" s="2">
-        <v>713</v>
-      </c>
-      <c r="P238" s="2"/>
+        <v>654</v>
+      </c>
+      <c r="P238" t="s" s="2">
+        <v>655</v>
+      </c>
       <c r="Q238" t="s" s="2">
         <v>76</v>
       </c>
@@ -30803,13 +30786,13 @@
         <v>76</v>
       </c>
       <c r="Y238" t="s" s="2">
-        <v>76</v>
+        <v>146</v>
       </c>
       <c r="Z238" t="s" s="2">
-        <v>76</v>
+        <v>656</v>
       </c>
       <c r="AA238" t="s" s="2">
-        <v>76</v>
+        <v>657</v>
       </c>
       <c r="AB238" t="s" s="2">
         <v>76</v>
@@ -30827,7 +30810,7 @@
         <v>76</v>
       </c>
       <c r="AG238" t="s" s="2">
-        <v>714</v>
+        <v>658</v>
       </c>
       <c r="AH238" t="s" s="2">
         <v>77</v>
@@ -30839,7 +30822,7 @@
         <v>80</v>
       </c>
       <c r="AK238" t="s" s="2">
-        <v>297</v>
+        <v>104</v>
       </c>
     </row>
     <row r="239">
@@ -30847,14 +30830,12 @@
         <v>573</v>
       </c>
       <c r="B239" t="s" s="2">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="C239" t="s" s="2">
-        <v>638</v>
-      </c>
-      <c r="D239" t="s" s="2">
-        <v>716</v>
-      </c>
+        <v>660</v>
+      </c>
+      <c r="D239" s="2"/>
       <c r="E239" t="s" s="2">
         <v>76</v>
       </c>
@@ -30863,10 +30844,10 @@
         <v>77</v>
       </c>
       <c r="H239" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I239" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="J239" t="s" s="2">
         <v>76</v>
@@ -30875,17 +30856,19 @@
         <v>205</v>
       </c>
       <c r="L239" t="s" s="2">
-        <v>253</v>
+        <v>96</v>
       </c>
       <c r="M239" t="s" s="2">
-        <v>717</v>
+        <v>661</v>
       </c>
       <c r="N239" t="s" s="2">
-        <v>640</v>
-      </c>
-      <c r="O239" s="2"/>
+        <v>662</v>
+      </c>
+      <c r="O239" t="s" s="2">
+        <v>663</v>
+      </c>
       <c r="P239" t="s" s="2">
-        <v>641</v>
+        <v>664</v>
       </c>
       <c r="Q239" t="s" s="2">
         <v>76</v>
@@ -30898,7 +30881,7 @@
         <v>76</v>
       </c>
       <c r="U239" t="s" s="2">
-        <v>76</v>
+        <v>665</v>
       </c>
       <c r="V239" t="s" s="2">
         <v>76</v>
@@ -30934,13 +30917,13 @@
         <v>76</v>
       </c>
       <c r="AG239" t="s" s="2">
-        <v>638</v>
+        <v>666</v>
       </c>
       <c r="AH239" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI239" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ239" t="s" s="2">
         <v>80</v>
@@ -30954,10 +30937,10 @@
         <v>573</v>
       </c>
       <c r="B240" t="s" s="2">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="C240" t="s" s="2">
-        <v>648</v>
+        <v>668</v>
       </c>
       <c r="D240" s="2"/>
       <c r="E240" t="s" s="2">
@@ -30977,18 +30960,20 @@
         <v>76</v>
       </c>
       <c r="K240" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="L240" t="s" s="2">
         <v>84</v>
       </c>
       <c r="M240" t="s" s="2">
-        <v>85</v>
+        <v>669</v>
       </c>
       <c r="N240" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="O240" s="2"/>
+        <v>670</v>
+      </c>
+      <c r="O240" t="s" s="2">
+        <v>671</v>
+      </c>
       <c r="P240" s="2"/>
       <c r="Q240" t="s" s="2">
         <v>76</v>
@@ -31001,7 +30986,7 @@
         <v>76</v>
       </c>
       <c r="U240" t="s" s="2">
-        <v>76</v>
+        <v>672</v>
       </c>
       <c r="V240" t="s" s="2">
         <v>76</v>
@@ -31037,7 +31022,7 @@
         <v>76</v>
       </c>
       <c r="AG240" t="s" s="2">
-        <v>87</v>
+        <v>673</v>
       </c>
       <c r="AH240" t="s" s="2">
         <v>77</v>
@@ -31046,10 +31031,10 @@
         <v>83</v>
       </c>
       <c r="AJ240" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AK240" t="s" s="2">
-        <v>76</v>
+        <v>104</v>
       </c>
     </row>
     <row r="241">
@@ -31057,21 +31042,21 @@
         <v>573</v>
       </c>
       <c r="B241" t="s" s="2">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="C241" t="s" s="2">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="D241" s="2"/>
       <c r="E241" t="s" s="2">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="F241" s="2"/>
       <c r="G241" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H241" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I241" t="s" s="2">
         <v>76</v>
@@ -31080,19 +31065,19 @@
         <v>76</v>
       </c>
       <c r="K241" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="L241" t="s" s="2">
-        <v>89</v>
+        <v>155</v>
       </c>
       <c r="M241" t="s" s="2">
-        <v>111</v>
+        <v>676</v>
       </c>
       <c r="N241" t="s" s="2">
-        <v>112</v>
+        <v>677</v>
       </c>
       <c r="O241" t="s" s="2">
-        <v>113</v>
+        <v>336</v>
       </c>
       <c r="P241" s="2"/>
       <c r="Q241" t="s" s="2">
@@ -31130,31 +31115,31 @@
         <v>76</v>
       </c>
       <c r="AC241" t="s" s="2">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AD241" t="s" s="2">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="AE241" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF241" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AG241" t="s" s="2">
-        <v>94</v>
+        <v>678</v>
       </c>
       <c r="AH241" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI241" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ241" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK241" t="s" s="2">
-        <v>81</v>
+        <v>337</v>
       </c>
     </row>
     <row r="242">
@@ -31162,10 +31147,10 @@
         <v>573</v>
       </c>
       <c r="B242" t="s" s="2">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="C242" t="s" s="2">
-        <v>652</v>
+        <v>699</v>
       </c>
       <c r="D242" s="2"/>
       <c r="E242" t="s" s="2">
@@ -31173,7 +31158,7 @@
       </c>
       <c r="F242" s="2"/>
       <c r="G242" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H242" t="s" s="2">
         <v>83</v>
@@ -31182,26 +31167,24 @@
         <v>76</v>
       </c>
       <c r="J242" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="K242" t="s" s="2">
         <v>205</v>
       </c>
       <c r="L242" t="s" s="2">
-        <v>222</v>
+        <v>507</v>
       </c>
       <c r="M242" t="s" s="2">
-        <v>653</v>
+        <v>700</v>
       </c>
       <c r="N242" t="s" s="2">
-        <v>654</v>
+        <v>701</v>
       </c>
       <c r="O242" t="s" s="2">
-        <v>655</v>
-      </c>
-      <c r="P242" t="s" s="2">
-        <v>656</v>
-      </c>
+        <v>702</v>
+      </c>
+      <c r="P242" s="2"/>
       <c r="Q242" t="s" s="2">
         <v>76</v>
       </c>
@@ -31210,7 +31193,7 @@
         <v>76</v>
       </c>
       <c r="T242" t="s" s="2">
-        <v>721</v>
+        <v>76</v>
       </c>
       <c r="U242" t="s" s="2">
         <v>76</v>
@@ -31225,13 +31208,13 @@
         <v>76</v>
       </c>
       <c r="Y242" t="s" s="2">
-        <v>191</v>
+        <v>76</v>
       </c>
       <c r="Z242" t="s" s="2">
-        <v>658</v>
+        <v>76</v>
       </c>
       <c r="AA242" t="s" s="2">
-        <v>659</v>
+        <v>76</v>
       </c>
       <c r="AB242" t="s" s="2">
         <v>76</v>
@@ -31249,7 +31232,7 @@
         <v>76</v>
       </c>
       <c r="AG242" t="s" s="2">
-        <v>660</v>
+        <v>703</v>
       </c>
       <c r="AH242" t="s" s="2">
         <v>77</v>
@@ -31261,7 +31244,7 @@
         <v>80</v>
       </c>
       <c r="AK242" t="s" s="2">
-        <v>104</v>
+        <v>297</v>
       </c>
     </row>
     <row r="243">
@@ -31269,10 +31252,10 @@
         <v>573</v>
       </c>
       <c r="B243" t="s" s="2">
-        <v>722</v>
+        <v>716</v>
       </c>
       <c r="C243" t="s" s="2">
-        <v>662</v>
+        <v>716</v>
       </c>
       <c r="D243" s="2"/>
       <c r="E243" t="s" s="2">
@@ -31286,7 +31269,7 @@
         <v>83</v>
       </c>
       <c r="I243" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="J243" t="s" s="2">
         <v>76</v>
@@ -31295,20 +31278,18 @@
         <v>205</v>
       </c>
       <c r="L243" t="s" s="2">
-        <v>145</v>
+        <v>84</v>
       </c>
       <c r="M243" t="s" s="2">
-        <v>663</v>
+        <v>717</v>
       </c>
       <c r="N243" t="s" s="2">
-        <v>664</v>
+        <v>718</v>
       </c>
       <c r="O243" t="s" s="2">
-        <v>665</v>
-      </c>
-      <c r="P243" t="s" s="2">
-        <v>666</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="P243" s="2"/>
       <c r="Q243" t="s" s="2">
         <v>76</v>
       </c>
@@ -31332,13 +31313,13 @@
         <v>76</v>
       </c>
       <c r="Y243" t="s" s="2">
-        <v>146</v>
+        <v>76</v>
       </c>
       <c r="Z243" t="s" s="2">
-        <v>667</v>
+        <v>76</v>
       </c>
       <c r="AA243" t="s" s="2">
-        <v>668</v>
+        <v>76</v>
       </c>
       <c r="AB243" t="s" s="2">
         <v>76</v>
@@ -31356,7 +31337,7 @@
         <v>76</v>
       </c>
       <c r="AG243" t="s" s="2">
-        <v>669</v>
+        <v>716</v>
       </c>
       <c r="AH243" t="s" s="2">
         <v>77</v>
@@ -31376,10 +31357,10 @@
         <v>573</v>
       </c>
       <c r="B244" t="s" s="2">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="C244" t="s" s="2">
-        <v>671</v>
+        <v>719</v>
       </c>
       <c r="D244" s="2"/>
       <c r="E244" t="s" s="2">
@@ -31390,7 +31371,7 @@
         <v>77</v>
       </c>
       <c r="H244" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I244" t="s" s="2">
         <v>76</v>
@@ -31402,20 +31383,18 @@
         <v>205</v>
       </c>
       <c r="L244" t="s" s="2">
-        <v>96</v>
+        <v>720</v>
       </c>
       <c r="M244" t="s" s="2">
-        <v>672</v>
+        <v>721</v>
       </c>
       <c r="N244" t="s" s="2">
-        <v>673</v>
+        <v>722</v>
       </c>
       <c r="O244" t="s" s="2">
-        <v>674</v>
-      </c>
-      <c r="P244" t="s" s="2">
-        <v>675</v>
-      </c>
+        <v>349</v>
+      </c>
+      <c r="P244" s="2"/>
       <c r="Q244" t="s" s="2">
         <v>76</v>
       </c>
@@ -31427,7 +31406,7 @@
         <v>76</v>
       </c>
       <c r="U244" t="s" s="2">
-        <v>676</v>
+        <v>76</v>
       </c>
       <c r="V244" t="s" s="2">
         <v>76</v>
@@ -31463,19 +31442,19 @@
         <v>76</v>
       </c>
       <c r="AG244" t="s" s="2">
-        <v>677</v>
+        <v>719</v>
       </c>
       <c r="AH244" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI244" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ244" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK244" t="s" s="2">
-        <v>104</v>
+        <v>297</v>
       </c>
     </row>
     <row r="245">
@@ -31483,21 +31462,21 @@
         <v>573</v>
       </c>
       <c r="B245" t="s" s="2">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="C245" t="s" s="2">
-        <v>679</v>
+        <v>723</v>
       </c>
       <c r="D245" s="2"/>
       <c r="E245" t="s" s="2">
-        <v>76</v>
+        <v>724</v>
       </c>
       <c r="F245" s="2"/>
       <c r="G245" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H245" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I245" t="s" s="2">
         <v>76</v>
@@ -31509,18 +31488,20 @@
         <v>205</v>
       </c>
       <c r="L245" t="s" s="2">
-        <v>84</v>
+        <v>725</v>
       </c>
       <c r="M245" t="s" s="2">
-        <v>680</v>
+        <v>726</v>
       </c>
       <c r="N245" t="s" s="2">
-        <v>681</v>
+        <v>727</v>
       </c>
       <c r="O245" t="s" s="2">
-        <v>682</v>
-      </c>
-      <c r="P245" s="2"/>
+        <v>349</v>
+      </c>
+      <c r="P245" t="s" s="2">
+        <v>728</v>
+      </c>
       <c r="Q245" t="s" s="2">
         <v>76</v>
       </c>
@@ -31532,7 +31513,7 @@
         <v>76</v>
       </c>
       <c r="U245" t="s" s="2">
-        <v>683</v>
+        <v>76</v>
       </c>
       <c r="V245" t="s" s="2">
         <v>76</v>
@@ -31568,19 +31549,19 @@
         <v>76</v>
       </c>
       <c r="AG245" t="s" s="2">
-        <v>684</v>
+        <v>723</v>
       </c>
       <c r="AH245" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI245" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ245" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK245" t="s" s="2">
-        <v>104</v>
+        <v>297</v>
       </c>
     </row>
     <row r="246">
@@ -31588,10 +31569,10 @@
         <v>573</v>
       </c>
       <c r="B246" t="s" s="2">
-        <v>725</v>
+        <v>729</v>
       </c>
       <c r="C246" t="s" s="2">
-        <v>686</v>
+        <v>729</v>
       </c>
       <c r="D246" s="2"/>
       <c r="E246" t="s" s="2">
@@ -31599,31 +31580,31 @@
       </c>
       <c r="F246" s="2"/>
       <c r="G246" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="H246" t="s" s="2">
         <v>83</v>
       </c>
       <c r="I246" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="J246" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="K246" t="s" s="2">
         <v>205</v>
       </c>
       <c r="L246" t="s" s="2">
-        <v>155</v>
+        <v>222</v>
       </c>
       <c r="M246" t="s" s="2">
-        <v>687</v>
+        <v>730</v>
       </c>
       <c r="N246" t="s" s="2">
-        <v>688</v>
+        <v>731</v>
       </c>
       <c r="O246" t="s" s="2">
-        <v>336</v>
+        <v>284</v>
       </c>
       <c r="P246" s="2"/>
       <c r="Q246" t="s" s="2">
@@ -31649,13 +31630,13 @@
         <v>76</v>
       </c>
       <c r="Y246" t="s" s="2">
-        <v>76</v>
+        <v>191</v>
       </c>
       <c r="Z246" t="s" s="2">
-        <v>76</v>
+        <v>732</v>
       </c>
       <c r="AA246" t="s" s="2">
-        <v>76</v>
+        <v>733</v>
       </c>
       <c r="AB246" t="s" s="2">
         <v>76</v>
@@ -31673,10 +31654,10 @@
         <v>76</v>
       </c>
       <c r="AG246" t="s" s="2">
-        <v>689</v>
+        <v>729</v>
       </c>
       <c r="AH246" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="AI246" t="s" s="2">
         <v>83</v>
@@ -31685,7 +31666,7 @@
         <v>80</v>
       </c>
       <c r="AK246" t="s" s="2">
-        <v>337</v>
+        <v>104</v>
       </c>
     </row>
     <row r="247">
@@ -31693,10 +31674,10 @@
         <v>573</v>
       </c>
       <c r="B247" t="s" s="2">
-        <v>726</v>
+        <v>734</v>
       </c>
       <c r="C247" t="s" s="2">
-        <v>710</v>
+        <v>734</v>
       </c>
       <c r="D247" s="2"/>
       <c r="E247" t="s" s="2">
@@ -31710,7 +31691,7 @@
         <v>83</v>
       </c>
       <c r="I247" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="J247" t="s" s="2">
         <v>76</v>
@@ -31719,16 +31700,16 @@
         <v>205</v>
       </c>
       <c r="L247" t="s" s="2">
-        <v>507</v>
+        <v>145</v>
       </c>
       <c r="M247" t="s" s="2">
-        <v>711</v>
+        <v>735</v>
       </c>
       <c r="N247" t="s" s="2">
-        <v>712</v>
+        <v>736</v>
       </c>
       <c r="O247" t="s" s="2">
-        <v>713</v>
+        <v>314</v>
       </c>
       <c r="P247" s="2"/>
       <c r="Q247" t="s" s="2">
@@ -31754,13 +31735,13 @@
         <v>76</v>
       </c>
       <c r="Y247" t="s" s="2">
-        <v>76</v>
+        <v>146</v>
       </c>
       <c r="Z247" t="s" s="2">
-        <v>76</v>
+        <v>737</v>
       </c>
       <c r="AA247" t="s" s="2">
-        <v>76</v>
+        <v>738</v>
       </c>
       <c r="AB247" t="s" s="2">
         <v>76</v>
@@ -31778,7 +31759,7 @@
         <v>76</v>
       </c>
       <c r="AG247" t="s" s="2">
-        <v>714</v>
+        <v>734</v>
       </c>
       <c r="AH247" t="s" s="2">
         <v>77</v>
@@ -31790,7 +31771,7 @@
         <v>80</v>
       </c>
       <c r="AK247" t="s" s="2">
-        <v>297</v>
+        <v>104</v>
       </c>
     </row>
     <row r="248">
@@ -31798,10 +31779,10 @@
         <v>573</v>
       </c>
       <c r="B248" t="s" s="2">
-        <v>727</v>
+        <v>739</v>
       </c>
       <c r="C248" t="s" s="2">
-        <v>727</v>
+        <v>739</v>
       </c>
       <c r="D248" s="2"/>
       <c r="E248" t="s" s="2">
@@ -31824,16 +31805,16 @@
         <v>205</v>
       </c>
       <c r="L248" t="s" s="2">
-        <v>84</v>
+        <v>145</v>
       </c>
       <c r="M248" t="s" s="2">
-        <v>728</v>
+        <v>740</v>
       </c>
       <c r="N248" t="s" s="2">
-        <v>729</v>
+        <v>741</v>
       </c>
       <c r="O248" t="s" s="2">
-        <v>284</v>
+        <v>314</v>
       </c>
       <c r="P248" s="2"/>
       <c r="Q248" t="s" s="2">
@@ -31859,13 +31840,11 @@
         <v>76</v>
       </c>
       <c r="Y248" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z248" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="Z248" s="2"/>
       <c r="AA248" t="s" s="2">
-        <v>76</v>
+        <v>742</v>
       </c>
       <c r="AB248" t="s" s="2">
         <v>76</v>
@@ -31883,7 +31862,7 @@
         <v>76</v>
       </c>
       <c r="AG248" t="s" s="2">
-        <v>727</v>
+        <v>739</v>
       </c>
       <c r="AH248" t="s" s="2">
         <v>77</v>
@@ -31903,10 +31882,10 @@
         <v>573</v>
       </c>
       <c r="B249" t="s" s="2">
-        <v>730</v>
+        <v>743</v>
       </c>
       <c r="C249" t="s" s="2">
-        <v>730</v>
+        <v>743</v>
       </c>
       <c r="D249" s="2"/>
       <c r="E249" t="s" s="2">
@@ -31920,7 +31899,7 @@
         <v>78</v>
       </c>
       <c r="I249" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="J249" t="s" s="2">
         <v>76</v>
@@ -31929,16 +31908,16 @@
         <v>205</v>
       </c>
       <c r="L249" t="s" s="2">
-        <v>731</v>
+        <v>145</v>
       </c>
       <c r="M249" t="s" s="2">
-        <v>732</v>
+        <v>744</v>
       </c>
       <c r="N249" t="s" s="2">
-        <v>733</v>
+        <v>745</v>
       </c>
       <c r="O249" t="s" s="2">
-        <v>349</v>
+        <v>314</v>
       </c>
       <c r="P249" s="2"/>
       <c r="Q249" t="s" s="2">
@@ -31964,13 +31943,11 @@
         <v>76</v>
       </c>
       <c r="Y249" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z249" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="Z249" s="2"/>
       <c r="AA249" t="s" s="2">
-        <v>76</v>
+        <v>746</v>
       </c>
       <c r="AB249" t="s" s="2">
         <v>76</v>
@@ -31988,7 +31965,7 @@
         <v>76</v>
       </c>
       <c r="AG249" t="s" s="2">
-        <v>730</v>
+        <v>743</v>
       </c>
       <c r="AH249" t="s" s="2">
         <v>77</v>
@@ -32000,7 +31977,7 @@
         <v>80</v>
       </c>
       <c r="AK249" t="s" s="2">
-        <v>297</v>
+        <v>104</v>
       </c>
     </row>
     <row r="250">
@@ -32008,14 +31985,14 @@
         <v>573</v>
       </c>
       <c r="B250" t="s" s="2">
-        <v>734</v>
+        <v>747</v>
       </c>
       <c r="C250" t="s" s="2">
-        <v>734</v>
+        <v>747</v>
       </c>
       <c r="D250" s="2"/>
       <c r="E250" t="s" s="2">
-        <v>735</v>
+        <v>76</v>
       </c>
       <c r="F250" s="2"/>
       <c r="G250" t="s" s="2">
@@ -32034,20 +32011,18 @@
         <v>205</v>
       </c>
       <c r="L250" t="s" s="2">
-        <v>736</v>
+        <v>145</v>
       </c>
       <c r="M250" t="s" s="2">
-        <v>737</v>
+        <v>748</v>
       </c>
       <c r="N250" t="s" s="2">
-        <v>738</v>
+        <v>749</v>
       </c>
       <c r="O250" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="P250" t="s" s="2">
-        <v>739</v>
-      </c>
+        <v>314</v>
+      </c>
+      <c r="P250" s="2"/>
       <c r="Q250" t="s" s="2">
         <v>76</v>
       </c>
@@ -32071,10 +32046,10 @@
         <v>76</v>
       </c>
       <c r="Y250" t="s" s="2">
-        <v>76</v>
+        <v>279</v>
       </c>
       <c r="Z250" t="s" s="2">
-        <v>76</v>
+        <v>750</v>
       </c>
       <c r="AA250" t="s" s="2">
         <v>76</v>
@@ -32095,7 +32070,7 @@
         <v>76</v>
       </c>
       <c r="AG250" t="s" s="2">
-        <v>734</v>
+        <v>747</v>
       </c>
       <c r="AH250" t="s" s="2">
         <v>77</v>
@@ -32107,7 +32082,7 @@
         <v>80</v>
       </c>
       <c r="AK250" t="s" s="2">
-        <v>297</v>
+        <v>104</v>
       </c>
     </row>
     <row r="251">
@@ -32115,10 +32090,10 @@
         <v>573</v>
       </c>
       <c r="B251" t="s" s="2">
-        <v>740</v>
+        <v>751</v>
       </c>
       <c r="C251" t="s" s="2">
-        <v>740</v>
+        <v>751</v>
       </c>
       <c r="D251" s="2"/>
       <c r="E251" t="s" s="2">
@@ -32126,31 +32101,31 @@
       </c>
       <c r="F251" s="2"/>
       <c r="G251" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H251" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I251" t="s" s="2">
         <v>205</v>
       </c>
       <c r="J251" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="K251" t="s" s="2">
         <v>205</v>
       </c>
       <c r="L251" t="s" s="2">
-        <v>222</v>
+        <v>145</v>
       </c>
       <c r="M251" t="s" s="2">
-        <v>741</v>
+        <v>752</v>
       </c>
       <c r="N251" t="s" s="2">
-        <v>742</v>
+        <v>753</v>
       </c>
       <c r="O251" t="s" s="2">
-        <v>284</v>
+        <v>314</v>
       </c>
       <c r="P251" s="2"/>
       <c r="Q251" t="s" s="2">
@@ -32176,13 +32151,13 @@
         <v>76</v>
       </c>
       <c r="Y251" t="s" s="2">
-        <v>191</v>
+        <v>279</v>
       </c>
       <c r="Z251" t="s" s="2">
-        <v>743</v>
+        <v>754</v>
       </c>
       <c r="AA251" t="s" s="2">
-        <v>744</v>
+        <v>755</v>
       </c>
       <c r="AB251" t="s" s="2">
         <v>76</v>
@@ -32191,22 +32166,22 @@
         <v>76</v>
       </c>
       <c r="AD251" t="s" s="2">
-        <v>76</v>
+        <v>756</v>
       </c>
       <c r="AE251" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF251" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AG251" t="s" s="2">
-        <v>740</v>
+        <v>751</v>
       </c>
       <c r="AH251" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AI251" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ251" t="s" s="2">
         <v>80</v>
@@ -32220,12 +32195,14 @@
         <v>573</v>
       </c>
       <c r="B252" t="s" s="2">
-        <v>745</v>
+        <v>757</v>
       </c>
       <c r="C252" t="s" s="2">
-        <v>745</v>
-      </c>
-      <c r="D252" s="2"/>
+        <v>751</v>
+      </c>
+      <c r="D252" t="s" s="2">
+        <v>758</v>
+      </c>
       <c r="E252" t="s" s="2">
         <v>76</v>
       </c>
@@ -32234,7 +32211,7 @@
         <v>77</v>
       </c>
       <c r="H252" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I252" t="s" s="2">
         <v>205</v>
@@ -32249,10 +32226,10 @@
         <v>145</v>
       </c>
       <c r="M252" t="s" s="2">
-        <v>746</v>
+        <v>759</v>
       </c>
       <c r="N252" t="s" s="2">
-        <v>747</v>
+        <v>753</v>
       </c>
       <c r="O252" t="s" s="2">
         <v>314</v>
@@ -32281,13 +32258,13 @@
         <v>76</v>
       </c>
       <c r="Y252" t="s" s="2">
-        <v>146</v>
+        <v>279</v>
       </c>
       <c r="Z252" t="s" s="2">
-        <v>748</v>
+        <v>754</v>
       </c>
       <c r="AA252" t="s" s="2">
-        <v>749</v>
+        <v>755</v>
       </c>
       <c r="AB252" t="s" s="2">
         <v>76</v>
@@ -32305,13 +32282,13 @@
         <v>76</v>
       </c>
       <c r="AG252" t="s" s="2">
-        <v>745</v>
+        <v>751</v>
       </c>
       <c r="AH252" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI252" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ252" t="s" s="2">
         <v>80</v>
@@ -32325,10 +32302,10 @@
         <v>573</v>
       </c>
       <c r="B253" t="s" s="2">
-        <v>750</v>
+        <v>760</v>
       </c>
       <c r="C253" t="s" s="2">
-        <v>750</v>
+        <v>761</v>
       </c>
       <c r="D253" s="2"/>
       <c r="E253" t="s" s="2">
@@ -32342,26 +32319,24 @@
         <v>83</v>
       </c>
       <c r="I253" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="J253" t="s" s="2">
         <v>76</v>
       </c>
       <c r="K253" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="L253" t="s" s="2">
-        <v>145</v>
+        <v>84</v>
       </c>
       <c r="M253" t="s" s="2">
-        <v>751</v>
+        <v>85</v>
       </c>
       <c r="N253" t="s" s="2">
-        <v>752</v>
-      </c>
-      <c r="O253" t="s" s="2">
-        <v>314</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="O253" s="2"/>
       <c r="P253" s="2"/>
       <c r="Q253" t="s" s="2">
         <v>76</v>
@@ -32371,7 +32346,7 @@
         <v>76</v>
       </c>
       <c r="T253" t="s" s="2">
-        <v>76</v>
+        <v>762</v>
       </c>
       <c r="U253" t="s" s="2">
         <v>76</v>
@@ -32386,11 +32361,13 @@
         <v>76</v>
       </c>
       <c r="Y253" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="Z253" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="Z253" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="AA253" t="s" s="2">
-        <v>753</v>
+        <v>76</v>
       </c>
       <c r="AB253" t="s" s="2">
         <v>76</v>
@@ -32408,7 +32385,7 @@
         <v>76</v>
       </c>
       <c r="AG253" t="s" s="2">
-        <v>750</v>
+        <v>87</v>
       </c>
       <c r="AH253" t="s" s="2">
         <v>77</v>
@@ -32417,10 +32394,10 @@
         <v>83</v>
       </c>
       <c r="AJ253" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AK253" t="s" s="2">
-        <v>104</v>
+        <v>76</v>
       </c>
     </row>
     <row r="254">
@@ -32428,14 +32405,14 @@
         <v>573</v>
       </c>
       <c r="B254" t="s" s="2">
-        <v>754</v>
+        <v>763</v>
       </c>
       <c r="C254" t="s" s="2">
-        <v>754</v>
+        <v>764</v>
       </c>
       <c r="D254" s="2"/>
       <c r="E254" t="s" s="2">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="F254" s="2"/>
       <c r="G254" t="s" s="2">
@@ -32445,25 +32422,25 @@
         <v>78</v>
       </c>
       <c r="I254" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="J254" t="s" s="2">
         <v>76</v>
       </c>
       <c r="K254" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="L254" t="s" s="2">
-        <v>145</v>
+        <v>89</v>
       </c>
       <c r="M254" t="s" s="2">
-        <v>755</v>
+        <v>111</v>
       </c>
       <c r="N254" t="s" s="2">
-        <v>756</v>
+        <v>112</v>
       </c>
       <c r="O254" t="s" s="2">
-        <v>314</v>
+        <v>113</v>
       </c>
       <c r="P254" s="2"/>
       <c r="Q254" t="s" s="2">
@@ -32489,29 +32466,31 @@
         <v>76</v>
       </c>
       <c r="Y254" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="Z254" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="Z254" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="AA254" t="s" s="2">
-        <v>757</v>
+        <v>76</v>
       </c>
       <c r="AB254" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AC254" t="s" s="2">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="AD254" t="s" s="2">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="AE254" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF254" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AG254" t="s" s="2">
-        <v>754</v>
+        <v>94</v>
       </c>
       <c r="AH254" t="s" s="2">
         <v>77</v>
@@ -32523,7 +32502,7 @@
         <v>80</v>
       </c>
       <c r="AK254" t="s" s="2">
-        <v>104</v>
+        <v>81</v>
       </c>
     </row>
     <row r="255">
@@ -32531,10 +32510,10 @@
         <v>573</v>
       </c>
       <c r="B255" t="s" s="2">
-        <v>758</v>
+        <v>765</v>
       </c>
       <c r="C255" t="s" s="2">
-        <v>758</v>
+        <v>766</v>
       </c>
       <c r="D255" s="2"/>
       <c r="E255" t="s" s="2">
@@ -32557,18 +32536,20 @@
         <v>205</v>
       </c>
       <c r="L255" t="s" s="2">
-        <v>145</v>
+        <v>405</v>
       </c>
       <c r="M255" t="s" s="2">
-        <v>759</v>
+        <v>767</v>
       </c>
       <c r="N255" t="s" s="2">
-        <v>760</v>
+        <v>768</v>
       </c>
       <c r="O255" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="P255" s="2"/>
+        <v>769</v>
+      </c>
+      <c r="P255" t="s" s="2">
+        <v>770</v>
+      </c>
       <c r="Q255" t="s" s="2">
         <v>76</v>
       </c>
@@ -32592,10 +32573,10 @@
         <v>76</v>
       </c>
       <c r="Y255" t="s" s="2">
-        <v>279</v>
+        <v>76</v>
       </c>
       <c r="Z255" t="s" s="2">
-        <v>761</v>
+        <v>76</v>
       </c>
       <c r="AA255" t="s" s="2">
         <v>76</v>
@@ -32616,7 +32597,7 @@
         <v>76</v>
       </c>
       <c r="AG255" t="s" s="2">
-        <v>758</v>
+        <v>771</v>
       </c>
       <c r="AH255" t="s" s="2">
         <v>77</v>
@@ -32636,10 +32617,10 @@
         <v>573</v>
       </c>
       <c r="B256" t="s" s="2">
-        <v>762</v>
+        <v>772</v>
       </c>
       <c r="C256" t="s" s="2">
-        <v>762</v>
+        <v>773</v>
       </c>
       <c r="D256" s="2"/>
       <c r="E256" t="s" s="2">
@@ -32650,29 +32631,27 @@
         <v>77</v>
       </c>
       <c r="H256" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I256" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="J256" t="s" s="2">
         <v>76</v>
       </c>
       <c r="K256" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="L256" t="s" s="2">
-        <v>145</v>
+        <v>84</v>
       </c>
       <c r="M256" t="s" s="2">
-        <v>763</v>
+        <v>85</v>
       </c>
       <c r="N256" t="s" s="2">
-        <v>764</v>
-      </c>
-      <c r="O256" t="s" s="2">
-        <v>314</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="O256" s="2"/>
       <c r="P256" s="2"/>
       <c r="Q256" t="s" s="2">
         <v>76</v>
@@ -32697,13 +32676,13 @@
         <v>76</v>
       </c>
       <c r="Y256" t="s" s="2">
-        <v>279</v>
+        <v>76</v>
       </c>
       <c r="Z256" t="s" s="2">
-        <v>765</v>
+        <v>76</v>
       </c>
       <c r="AA256" t="s" s="2">
-        <v>766</v>
+        <v>76</v>
       </c>
       <c r="AB256" t="s" s="2">
         <v>76</v>
@@ -32712,28 +32691,28 @@
         <v>76</v>
       </c>
       <c r="AD256" t="s" s="2">
-        <v>767</v>
+        <v>76</v>
       </c>
       <c r="AE256" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF256" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AG256" t="s" s="2">
-        <v>762</v>
+        <v>87</v>
       </c>
       <c r="AH256" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI256" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ256" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AK256" t="s" s="2">
-        <v>104</v>
+        <v>76</v>
       </c>
     </row>
     <row r="257">
@@ -32741,16 +32720,14 @@
         <v>573</v>
       </c>
       <c r="B257" t="s" s="2">
-        <v>768</v>
+        <v>774</v>
       </c>
       <c r="C257" t="s" s="2">
-        <v>762</v>
-      </c>
-      <c r="D257" t="s" s="2">
-        <v>769</v>
-      </c>
+        <v>775</v>
+      </c>
+      <c r="D257" s="2"/>
       <c r="E257" t="s" s="2">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="F257" s="2"/>
       <c r="G257" t="s" s="2">
@@ -32760,25 +32737,25 @@
         <v>78</v>
       </c>
       <c r="I257" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="J257" t="s" s="2">
         <v>76</v>
       </c>
       <c r="K257" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="L257" t="s" s="2">
-        <v>145</v>
+        <v>89</v>
       </c>
       <c r="M257" t="s" s="2">
-        <v>770</v>
+        <v>111</v>
       </c>
       <c r="N257" t="s" s="2">
-        <v>764</v>
+        <v>112</v>
       </c>
       <c r="O257" t="s" s="2">
-        <v>314</v>
+        <v>113</v>
       </c>
       <c r="P257" s="2"/>
       <c r="Q257" t="s" s="2">
@@ -32804,31 +32781,31 @@
         <v>76</v>
       </c>
       <c r="Y257" t="s" s="2">
-        <v>279</v>
+        <v>76</v>
       </c>
       <c r="Z257" t="s" s="2">
-        <v>765</v>
+        <v>76</v>
       </c>
       <c r="AA257" t="s" s="2">
-        <v>766</v>
+        <v>76</v>
       </c>
       <c r="AB257" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AC257" t="s" s="2">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="AD257" t="s" s="2">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="AE257" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF257" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AG257" t="s" s="2">
-        <v>762</v>
+        <v>94</v>
       </c>
       <c r="AH257" t="s" s="2">
         <v>77</v>
@@ -32840,7 +32817,7 @@
         <v>80</v>
       </c>
       <c r="AK257" t="s" s="2">
-        <v>104</v>
+        <v>81</v>
       </c>
     </row>
     <row r="258">
@@ -32848,10 +32825,10 @@
         <v>573</v>
       </c>
       <c r="B258" t="s" s="2">
-        <v>771</v>
+        <v>776</v>
       </c>
       <c r="C258" t="s" s="2">
-        <v>772</v>
+        <v>777</v>
       </c>
       <c r="D258" s="2"/>
       <c r="E258" t="s" s="2">
@@ -32871,19 +32848,23 @@
         <v>76</v>
       </c>
       <c r="K258" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="L258" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="M258" t="s" s="2">
-        <v>85</v>
+        <v>778</v>
       </c>
       <c r="N258" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="O258" s="2"/>
-      <c r="P258" s="2"/>
+        <v>779</v>
+      </c>
+      <c r="O258" t="s" s="2">
+        <v>780</v>
+      </c>
+      <c r="P258" t="s" s="2">
+        <v>781</v>
+      </c>
       <c r="Q258" t="s" s="2">
         <v>76</v>
       </c>
@@ -32892,7 +32873,7 @@
         <v>76</v>
       </c>
       <c r="T258" t="s" s="2">
-        <v>773</v>
+        <v>782</v>
       </c>
       <c r="U258" t="s" s="2">
         <v>76</v>
@@ -32931,7 +32912,7 @@
         <v>76</v>
       </c>
       <c r="AG258" t="s" s="2">
-        <v>87</v>
+        <v>783</v>
       </c>
       <c r="AH258" t="s" s="2">
         <v>77</v>
@@ -32940,10 +32921,10 @@
         <v>83</v>
       </c>
       <c r="AJ258" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AK258" t="s" s="2">
-        <v>76</v>
+        <v>104</v>
       </c>
     </row>
     <row r="259">
@@ -32951,21 +32932,21 @@
         <v>573</v>
       </c>
       <c r="B259" t="s" s="2">
-        <v>774</v>
+        <v>784</v>
       </c>
       <c r="C259" t="s" s="2">
-        <v>775</v>
+        <v>785</v>
       </c>
       <c r="D259" s="2"/>
       <c r="E259" t="s" s="2">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="F259" s="2"/>
       <c r="G259" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H259" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I259" t="s" s="2">
         <v>76</v>
@@ -32974,19 +32955,19 @@
         <v>76</v>
       </c>
       <c r="K259" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="L259" t="s" s="2">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="M259" t="s" s="2">
-        <v>111</v>
+        <v>786</v>
       </c>
       <c r="N259" t="s" s="2">
-        <v>112</v>
+        <v>787</v>
       </c>
       <c r="O259" t="s" s="2">
-        <v>113</v>
+        <v>788</v>
       </c>
       <c r="P259" s="2"/>
       <c r="Q259" t="s" s="2">
@@ -33024,31 +33005,31 @@
         <v>76</v>
       </c>
       <c r="AC259" t="s" s="2">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AD259" t="s" s="2">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="AE259" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF259" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AG259" t="s" s="2">
-        <v>94</v>
+        <v>789</v>
       </c>
       <c r="AH259" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI259" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ259" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK259" t="s" s="2">
-        <v>81</v>
+        <v>104</v>
       </c>
     </row>
     <row r="260">
@@ -33056,10 +33037,10 @@
         <v>573</v>
       </c>
       <c r="B260" t="s" s="2">
-        <v>776</v>
+        <v>790</v>
       </c>
       <c r="C260" t="s" s="2">
-        <v>777</v>
+        <v>791</v>
       </c>
       <c r="D260" s="2"/>
       <c r="E260" t="s" s="2">
@@ -33070,7 +33051,7 @@
         <v>77</v>
       </c>
       <c r="H260" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I260" t="s" s="2">
         <v>76</v>
@@ -33082,19 +33063,19 @@
         <v>205</v>
       </c>
       <c r="L260" t="s" s="2">
-        <v>405</v>
+        <v>222</v>
       </c>
       <c r="M260" t="s" s="2">
-        <v>778</v>
+        <v>792</v>
       </c>
       <c r="N260" t="s" s="2">
-        <v>779</v>
+        <v>793</v>
       </c>
       <c r="O260" t="s" s="2">
-        <v>780</v>
+        <v>284</v>
       </c>
       <c r="P260" t="s" s="2">
-        <v>781</v>
+        <v>794</v>
       </c>
       <c r="Q260" t="s" s="2">
         <v>76</v>
@@ -33143,13 +33124,13 @@
         <v>76</v>
       </c>
       <c r="AG260" t="s" s="2">
-        <v>782</v>
+        <v>795</v>
       </c>
       <c r="AH260" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI260" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ260" t="s" s="2">
         <v>80</v>
@@ -33163,10 +33144,10 @@
         <v>573</v>
       </c>
       <c r="B261" t="s" s="2">
-        <v>783</v>
+        <v>796</v>
       </c>
       <c r="C261" t="s" s="2">
-        <v>784</v>
+        <v>797</v>
       </c>
       <c r="D261" s="2"/>
       <c r="E261" t="s" s="2">
@@ -33186,19 +33167,23 @@
         <v>76</v>
       </c>
       <c r="K261" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="L261" t="s" s="2">
         <v>84</v>
       </c>
       <c r="M261" t="s" s="2">
-        <v>85</v>
+        <v>798</v>
       </c>
       <c r="N261" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="O261" s="2"/>
-      <c r="P261" s="2"/>
+        <v>799</v>
+      </c>
+      <c r="O261" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="P261" t="s" s="2">
+        <v>800</v>
+      </c>
       <c r="Q261" t="s" s="2">
         <v>76</v>
       </c>
@@ -33246,7 +33231,7 @@
         <v>76</v>
       </c>
       <c r="AG261" t="s" s="2">
-        <v>87</v>
+        <v>801</v>
       </c>
       <c r="AH261" t="s" s="2">
         <v>77</v>
@@ -33255,10 +33240,10 @@
         <v>83</v>
       </c>
       <c r="AJ261" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AK261" t="s" s="2">
-        <v>76</v>
+        <v>104</v>
       </c>
     </row>
     <row r="262">
@@ -33266,21 +33251,21 @@
         <v>573</v>
       </c>
       <c r="B262" t="s" s="2">
-        <v>785</v>
+        <v>802</v>
       </c>
       <c r="C262" t="s" s="2">
-        <v>786</v>
+        <v>803</v>
       </c>
       <c r="D262" s="2"/>
       <c r="E262" t="s" s="2">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="F262" s="2"/>
       <c r="G262" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H262" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I262" t="s" s="2">
         <v>76</v>
@@ -33289,21 +33274,23 @@
         <v>76</v>
       </c>
       <c r="K262" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="L262" t="s" s="2">
-        <v>89</v>
+        <v>258</v>
       </c>
       <c r="M262" t="s" s="2">
-        <v>111</v>
+        <v>804</v>
       </c>
       <c r="N262" t="s" s="2">
-        <v>112</v>
+        <v>805</v>
       </c>
       <c r="O262" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="P262" s="2"/>
+        <v>806</v>
+      </c>
+      <c r="P262" t="s" s="2">
+        <v>807</v>
+      </c>
       <c r="Q262" t="s" s="2">
         <v>76</v>
       </c>
@@ -33339,31 +33326,31 @@
         <v>76</v>
       </c>
       <c r="AC262" t="s" s="2">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AD262" t="s" s="2">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="AE262" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF262" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AG262" t="s" s="2">
-        <v>94</v>
+        <v>808</v>
       </c>
       <c r="AH262" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI262" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ262" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK262" t="s" s="2">
-        <v>81</v>
+        <v>104</v>
       </c>
     </row>
     <row r="263">
@@ -33371,10 +33358,10 @@
         <v>573</v>
       </c>
       <c r="B263" t="s" s="2">
-        <v>787</v>
+        <v>809</v>
       </c>
       <c r="C263" t="s" s="2">
-        <v>788</v>
+        <v>810</v>
       </c>
       <c r="D263" s="2"/>
       <c r="E263" t="s" s="2">
@@ -33397,19 +33384,19 @@
         <v>205</v>
       </c>
       <c r="L263" t="s" s="2">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="M263" t="s" s="2">
-        <v>789</v>
+        <v>811</v>
       </c>
       <c r="N263" t="s" s="2">
-        <v>790</v>
+        <v>812</v>
       </c>
       <c r="O263" t="s" s="2">
-        <v>791</v>
+        <v>813</v>
       </c>
       <c r="P263" t="s" s="2">
-        <v>792</v>
+        <v>814</v>
       </c>
       <c r="Q263" t="s" s="2">
         <v>76</v>
@@ -33419,7 +33406,7 @@
         <v>76</v>
       </c>
       <c r="T263" t="s" s="2">
-        <v>793</v>
+        <v>76</v>
       </c>
       <c r="U263" t="s" s="2">
         <v>76</v>
@@ -33458,7 +33445,7 @@
         <v>76</v>
       </c>
       <c r="AG263" t="s" s="2">
-        <v>794</v>
+        <v>815</v>
       </c>
       <c r="AH263" t="s" s="2">
         <v>77</v>
@@ -33478,12 +33465,14 @@
         <v>573</v>
       </c>
       <c r="B264" t="s" s="2">
-        <v>795</v>
+        <v>816</v>
       </c>
       <c r="C264" t="s" s="2">
-        <v>796</v>
-      </c>
-      <c r="D264" s="2"/>
+        <v>751</v>
+      </c>
+      <c r="D264" t="s" s="2">
+        <v>817</v>
+      </c>
       <c r="E264" t="s" s="2">
         <v>76</v>
       </c>
@@ -33492,10 +33481,10 @@
         <v>77</v>
       </c>
       <c r="H264" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I264" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="J264" t="s" s="2">
         <v>76</v>
@@ -33504,16 +33493,16 @@
         <v>205</v>
       </c>
       <c r="L264" t="s" s="2">
-        <v>84</v>
+        <v>145</v>
       </c>
       <c r="M264" t="s" s="2">
-        <v>797</v>
+        <v>818</v>
       </c>
       <c r="N264" t="s" s="2">
-        <v>798</v>
+        <v>753</v>
       </c>
       <c r="O264" t="s" s="2">
-        <v>799</v>
+        <v>314</v>
       </c>
       <c r="P264" s="2"/>
       <c r="Q264" t="s" s="2">
@@ -33539,13 +33528,13 @@
         <v>76</v>
       </c>
       <c r="Y264" t="s" s="2">
-        <v>76</v>
+        <v>279</v>
       </c>
       <c r="Z264" t="s" s="2">
-        <v>76</v>
+        <v>754</v>
       </c>
       <c r="AA264" t="s" s="2">
-        <v>76</v>
+        <v>755</v>
       </c>
       <c r="AB264" t="s" s="2">
         <v>76</v>
@@ -33563,13 +33552,13 @@
         <v>76</v>
       </c>
       <c r="AG264" t="s" s="2">
-        <v>800</v>
+        <v>751</v>
       </c>
       <c r="AH264" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI264" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ264" t="s" s="2">
         <v>80</v>
@@ -33583,10 +33572,10 @@
         <v>573</v>
       </c>
       <c r="B265" t="s" s="2">
-        <v>801</v>
+        <v>819</v>
       </c>
       <c r="C265" t="s" s="2">
-        <v>802</v>
+        <v>761</v>
       </c>
       <c r="D265" s="2"/>
       <c r="E265" t="s" s="2">
@@ -33606,23 +33595,19 @@
         <v>76</v>
       </c>
       <c r="K265" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="L265" t="s" s="2">
-        <v>222</v>
+        <v>84</v>
       </c>
       <c r="M265" t="s" s="2">
-        <v>803</v>
+        <v>85</v>
       </c>
       <c r="N265" t="s" s="2">
-        <v>804</v>
-      </c>
-      <c r="O265" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="P265" t="s" s="2">
-        <v>805</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="O265" s="2"/>
+      <c r="P265" s="2"/>
       <c r="Q265" t="s" s="2">
         <v>76</v>
       </c>
@@ -33631,7 +33616,7 @@
         <v>76</v>
       </c>
       <c r="T265" t="s" s="2">
-        <v>76</v>
+        <v>820</v>
       </c>
       <c r="U265" t="s" s="2">
         <v>76</v>
@@ -33670,7 +33655,7 @@
         <v>76</v>
       </c>
       <c r="AG265" t="s" s="2">
-        <v>806</v>
+        <v>87</v>
       </c>
       <c r="AH265" t="s" s="2">
         <v>77</v>
@@ -33679,10 +33664,10 @@
         <v>83</v>
       </c>
       <c r="AJ265" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AK265" t="s" s="2">
-        <v>104</v>
+        <v>76</v>
       </c>
     </row>
     <row r="266">
@@ -33690,21 +33675,21 @@
         <v>573</v>
       </c>
       <c r="B266" t="s" s="2">
-        <v>807</v>
+        <v>821</v>
       </c>
       <c r="C266" t="s" s="2">
-        <v>808</v>
+        <v>764</v>
       </c>
       <c r="D266" s="2"/>
       <c r="E266" t="s" s="2">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="F266" s="2"/>
       <c r="G266" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H266" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I266" t="s" s="2">
         <v>76</v>
@@ -33713,23 +33698,21 @@
         <v>76</v>
       </c>
       <c r="K266" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="L266" t="s" s="2">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="M266" t="s" s="2">
-        <v>809</v>
+        <v>111</v>
       </c>
       <c r="N266" t="s" s="2">
-        <v>810</v>
+        <v>112</v>
       </c>
       <c r="O266" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="P266" t="s" s="2">
-        <v>811</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="P266" s="2"/>
       <c r="Q266" t="s" s="2">
         <v>76</v>
       </c>
@@ -33765,31 +33748,31 @@
         <v>76</v>
       </c>
       <c r="AC266" t="s" s="2">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="AD266" t="s" s="2">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="AE266" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF266" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AG266" t="s" s="2">
-        <v>812</v>
+        <v>94</v>
       </c>
       <c r="AH266" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI266" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ266" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK266" t="s" s="2">
-        <v>104</v>
+        <v>81</v>
       </c>
     </row>
     <row r="267">
@@ -33797,10 +33780,10 @@
         <v>573</v>
       </c>
       <c r="B267" t="s" s="2">
-        <v>813</v>
+        <v>822</v>
       </c>
       <c r="C267" t="s" s="2">
-        <v>814</v>
+        <v>766</v>
       </c>
       <c r="D267" s="2"/>
       <c r="E267" t="s" s="2">
@@ -33811,7 +33794,7 @@
         <v>77</v>
       </c>
       <c r="H267" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I267" t="s" s="2">
         <v>76</v>
@@ -33823,19 +33806,19 @@
         <v>205</v>
       </c>
       <c r="L267" t="s" s="2">
-        <v>258</v>
+        <v>405</v>
       </c>
       <c r="M267" t="s" s="2">
-        <v>815</v>
+        <v>767</v>
       </c>
       <c r="N267" t="s" s="2">
-        <v>816</v>
+        <v>768</v>
       </c>
       <c r="O267" t="s" s="2">
-        <v>817</v>
+        <v>769</v>
       </c>
       <c r="P267" t="s" s="2">
-        <v>818</v>
+        <v>770</v>
       </c>
       <c r="Q267" t="s" s="2">
         <v>76</v>
@@ -33884,13 +33867,13 @@
         <v>76</v>
       </c>
       <c r="AG267" t="s" s="2">
-        <v>819</v>
+        <v>771</v>
       </c>
       <c r="AH267" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI267" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ267" t="s" s="2">
         <v>80</v>
@@ -33904,10 +33887,10 @@
         <v>573</v>
       </c>
       <c r="B268" t="s" s="2">
-        <v>820</v>
+        <v>823</v>
       </c>
       <c r="C268" t="s" s="2">
-        <v>821</v>
+        <v>810</v>
       </c>
       <c r="D268" s="2"/>
       <c r="E268" t="s" s="2">
@@ -33915,7 +33898,7 @@
       </c>
       <c r="F268" s="2"/>
       <c r="G268" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="H268" t="s" s="2">
         <v>83</v>
@@ -33933,16 +33916,16 @@
         <v>84</v>
       </c>
       <c r="M268" t="s" s="2">
-        <v>822</v>
+        <v>811</v>
       </c>
       <c r="N268" t="s" s="2">
-        <v>823</v>
+        <v>812</v>
       </c>
       <c r="O268" t="s" s="2">
-        <v>824</v>
+        <v>813</v>
       </c>
       <c r="P268" t="s" s="2">
-        <v>825</v>
+        <v>814</v>
       </c>
       <c r="Q268" t="s" s="2">
         <v>76</v>
@@ -33991,7 +33974,7 @@
         <v>76</v>
       </c>
       <c r="AG268" t="s" s="2">
-        <v>826</v>
+        <v>815</v>
       </c>
       <c r="AH268" t="s" s="2">
         <v>77</v>
@@ -34011,14 +33994,12 @@
         <v>573</v>
       </c>
       <c r="B269" t="s" s="2">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="C269" t="s" s="2">
-        <v>762</v>
-      </c>
-      <c r="D269" t="s" s="2">
-        <v>828</v>
-      </c>
+        <v>824</v>
+      </c>
+      <c r="D269" s="2"/>
       <c r="E269" t="s" s="2">
         <v>76</v>
       </c>
@@ -34039,17 +34020,15 @@
         <v>205</v>
       </c>
       <c r="L269" t="s" s="2">
-        <v>145</v>
+        <v>825</v>
       </c>
       <c r="M269" t="s" s="2">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="N269" t="s" s="2">
-        <v>764</v>
-      </c>
-      <c r="O269" t="s" s="2">
-        <v>314</v>
-      </c>
+        <v>827</v>
+      </c>
+      <c r="O269" s="2"/>
       <c r="P269" s="2"/>
       <c r="Q269" t="s" s="2">
         <v>76</v>
@@ -34074,13 +34053,13 @@
         <v>76</v>
       </c>
       <c r="Y269" t="s" s="2">
-        <v>279</v>
+        <v>76</v>
       </c>
       <c r="Z269" t="s" s="2">
-        <v>765</v>
+        <v>76</v>
       </c>
       <c r="AA269" t="s" s="2">
-        <v>766</v>
+        <v>76</v>
       </c>
       <c r="AB269" t="s" s="2">
         <v>76</v>
@@ -34098,7 +34077,7 @@
         <v>76</v>
       </c>
       <c r="AG269" t="s" s="2">
-        <v>762</v>
+        <v>824</v>
       </c>
       <c r="AH269" t="s" s="2">
         <v>77</v>
@@ -34118,10 +34097,10 @@
         <v>573</v>
       </c>
       <c r="B270" t="s" s="2">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="C270" t="s" s="2">
-        <v>772</v>
+        <v>828</v>
       </c>
       <c r="D270" s="2"/>
       <c r="E270" t="s" s="2">
@@ -34162,7 +34141,7 @@
         <v>76</v>
       </c>
       <c r="T270" t="s" s="2">
-        <v>831</v>
+        <v>76</v>
       </c>
       <c r="U270" t="s" s="2">
         <v>76</v>
@@ -34221,10 +34200,10 @@
         <v>573</v>
       </c>
       <c r="B271" t="s" s="2">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="C271" t="s" s="2">
-        <v>775</v>
+        <v>829</v>
       </c>
       <c r="D271" s="2"/>
       <c r="E271" t="s" s="2">
@@ -34326,12 +34305,14 @@
         <v>573</v>
       </c>
       <c r="B272" t="s" s="2">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="C272" t="s" s="2">
-        <v>777</v>
-      </c>
-      <c r="D272" s="2"/>
+        <v>829</v>
+      </c>
+      <c r="D272" t="s" s="2">
+        <v>187</v>
+      </c>
       <c r="E272" t="s" s="2">
         <v>76</v>
       </c>
@@ -34340,32 +34321,28 @@
         <v>77</v>
       </c>
       <c r="H272" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I272" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="J272" t="s" s="2">
         <v>76</v>
       </c>
       <c r="K272" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="L272" t="s" s="2">
-        <v>405</v>
+        <v>831</v>
       </c>
       <c r="M272" t="s" s="2">
-        <v>778</v>
+        <v>832</v>
       </c>
       <c r="N272" t="s" s="2">
-        <v>779</v>
-      </c>
-      <c r="O272" t="s" s="2">
-        <v>780</v>
-      </c>
-      <c r="P272" t="s" s="2">
-        <v>781</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="O272" s="2"/>
+      <c r="P272" s="2"/>
       <c r="Q272" t="s" s="2">
         <v>76</v>
       </c>
@@ -34413,7 +34390,7 @@
         <v>76</v>
       </c>
       <c r="AG272" t="s" s="2">
-        <v>782</v>
+        <v>94</v>
       </c>
       <c r="AH272" t="s" s="2">
         <v>77</v>
@@ -34425,7 +34402,7 @@
         <v>80</v>
       </c>
       <c r="AK272" t="s" s="2">
-        <v>104</v>
+        <v>81</v>
       </c>
     </row>
     <row r="273">
@@ -34433,46 +34410,44 @@
         <v>573</v>
       </c>
       <c r="B273" t="s" s="2">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="C273" t="s" s="2">
-        <v>821</v>
-      </c>
-      <c r="D273" s="2"/>
+        <v>829</v>
+      </c>
+      <c r="D273" t="s" s="2">
+        <v>172</v>
+      </c>
       <c r="E273" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F273" s="2"/>
       <c r="G273" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H273" t="s" s="2">
         <v>83</v>
       </c>
       <c r="I273" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="J273" t="s" s="2">
         <v>76</v>
       </c>
       <c r="K273" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="L273" t="s" s="2">
-        <v>84</v>
+        <v>834</v>
       </c>
       <c r="M273" t="s" s="2">
-        <v>822</v>
+        <v>835</v>
       </c>
       <c r="N273" t="s" s="2">
-        <v>823</v>
-      </c>
-      <c r="O273" t="s" s="2">
-        <v>824</v>
-      </c>
-      <c r="P273" t="s" s="2">
-        <v>825</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="O273" s="2"/>
+      <c r="P273" s="2"/>
       <c r="Q273" t="s" s="2">
         <v>76</v>
       </c>
@@ -34520,19 +34495,19 @@
         <v>76</v>
       </c>
       <c r="AG273" t="s" s="2">
-        <v>826</v>
+        <v>94</v>
       </c>
       <c r="AH273" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI273" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ273" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK273" t="s" s="2">
-        <v>104</v>
+        <v>81</v>
       </c>
     </row>
     <row r="274">
@@ -34540,12 +34515,14 @@
         <v>573</v>
       </c>
       <c r="B274" t="s" s="2">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="C274" t="s" s="2">
-        <v>835</v>
-      </c>
-      <c r="D274" s="2"/>
+        <v>829</v>
+      </c>
+      <c r="D274" t="s" s="2">
+        <v>178</v>
+      </c>
       <c r="E274" t="s" s="2">
         <v>76</v>
       </c>
@@ -34554,7 +34531,7 @@
         <v>77</v>
       </c>
       <c r="H274" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I274" t="s" s="2">
         <v>205</v>
@@ -34563,16 +34540,16 @@
         <v>76</v>
       </c>
       <c r="K274" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="L274" t="s" s="2">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="M274" t="s" s="2">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="N274" t="s" s="2">
-        <v>838</v>
+        <v>181</v>
       </c>
       <c r="O274" s="2"/>
       <c r="P274" s="2"/>
@@ -34623,7 +34600,7 @@
         <v>76</v>
       </c>
       <c r="AG274" t="s" s="2">
-        <v>835</v>
+        <v>94</v>
       </c>
       <c r="AH274" t="s" s="2">
         <v>77</v>
@@ -34635,7 +34612,7 @@
         <v>80</v>
       </c>
       <c r="AK274" t="s" s="2">
-        <v>104</v>
+        <v>81</v>
       </c>
     </row>
     <row r="275">
@@ -34646,9 +34623,11 @@
         <v>839</v>
       </c>
       <c r="C275" t="s" s="2">
-        <v>839</v>
-      </c>
-      <c r="D275" s="2"/>
+        <v>829</v>
+      </c>
+      <c r="D275" t="s" s="2">
+        <v>182</v>
+      </c>
       <c r="E275" t="s" s="2">
         <v>76</v>
       </c>
@@ -34660,7 +34639,7 @@
         <v>83</v>
       </c>
       <c r="I275" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="J275" t="s" s="2">
         <v>76</v>
@@ -34669,13 +34648,13 @@
         <v>76</v>
       </c>
       <c r="L275" t="s" s="2">
-        <v>84</v>
+        <v>840</v>
       </c>
       <c r="M275" t="s" s="2">
-        <v>85</v>
+        <v>841</v>
       </c>
       <c r="N275" t="s" s="2">
-        <v>86</v>
+        <v>185</v>
       </c>
       <c r="O275" s="2"/>
       <c r="P275" s="2"/>
@@ -34726,19 +34705,19 @@
         <v>76</v>
       </c>
       <c r="AG275" t="s" s="2">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="AH275" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI275" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ275" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AK275" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="276">
@@ -34746,21 +34725,21 @@
         <v>573</v>
       </c>
       <c r="B276" t="s" s="2">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="C276" t="s" s="2">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="D276" s="2"/>
       <c r="E276" t="s" s="2">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="F276" s="2"/>
       <c r="G276" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H276" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I276" t="s" s="2">
         <v>76</v>
@@ -34769,19 +34748,19 @@
         <v>76</v>
       </c>
       <c r="K276" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="L276" t="s" s="2">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="M276" t="s" s="2">
-        <v>111</v>
+        <v>843</v>
       </c>
       <c r="N276" t="s" s="2">
-        <v>112</v>
+        <v>844</v>
       </c>
       <c r="O276" t="s" s="2">
-        <v>113</v>
+        <v>845</v>
       </c>
       <c r="P276" s="2"/>
       <c r="Q276" t="s" s="2">
@@ -34819,31 +34798,31 @@
         <v>76</v>
       </c>
       <c r="AC276" t="s" s="2">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AD276" t="s" s="2">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="AE276" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF276" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AG276" t="s" s="2">
-        <v>94</v>
+        <v>846</v>
       </c>
       <c r="AH276" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI276" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ276" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK276" t="s" s="2">
-        <v>81</v>
+        <v>104</v>
       </c>
     </row>
     <row r="277">
@@ -34851,14 +34830,12 @@
         <v>573</v>
       </c>
       <c r="B277" t="s" s="2">
-        <v>841</v>
+        <v>847</v>
       </c>
       <c r="C277" t="s" s="2">
-        <v>840</v>
-      </c>
-      <c r="D277" t="s" s="2">
-        <v>187</v>
-      </c>
+        <v>847</v>
+      </c>
+      <c r="D277" s="2"/>
       <c r="E277" t="s" s="2">
         <v>76</v>
       </c>
@@ -34867,25 +34844,25 @@
         <v>77</v>
       </c>
       <c r="H277" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I277" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J277" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K277" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="J277" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K277" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="L277" t="s" s="2">
-        <v>842</v>
+        <v>435</v>
       </c>
       <c r="M277" t="s" s="2">
-        <v>843</v>
+        <v>848</v>
       </c>
       <c r="N277" t="s" s="2">
-        <v>190</v>
+        <v>849</v>
       </c>
       <c r="O277" s="2"/>
       <c r="P277" s="2"/>
@@ -34936,7 +34913,7 @@
         <v>76</v>
       </c>
       <c r="AG277" t="s" s="2">
-        <v>94</v>
+        <v>850</v>
       </c>
       <c r="AH277" t="s" s="2">
         <v>77</v>
@@ -34948,7 +34925,7 @@
         <v>80</v>
       </c>
       <c r="AK277" t="s" s="2">
-        <v>81</v>
+        <v>438</v>
       </c>
     </row>
     <row r="278">
@@ -34956,14 +34933,12 @@
         <v>573</v>
       </c>
       <c r="B278" t="s" s="2">
-        <v>844</v>
+        <v>851</v>
       </c>
       <c r="C278" t="s" s="2">
-        <v>840</v>
-      </c>
-      <c r="D278" t="s" s="2">
-        <v>172</v>
-      </c>
+        <v>851</v>
+      </c>
+      <c r="D278" s="2"/>
       <c r="E278" t="s" s="2">
         <v>76</v>
       </c>
@@ -34972,7 +34947,7 @@
         <v>77</v>
       </c>
       <c r="H278" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I278" t="s" s="2">
         <v>205</v>
@@ -34984,15 +34959,17 @@
         <v>76</v>
       </c>
       <c r="L278" t="s" s="2">
-        <v>845</v>
+        <v>852</v>
       </c>
       <c r="M278" t="s" s="2">
-        <v>846</v>
+        <v>853</v>
       </c>
       <c r="N278" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="O278" s="2"/>
+        <v>854</v>
+      </c>
+      <c r="O278" t="s" s="2">
+        <v>855</v>
+      </c>
       <c r="P278" s="2"/>
       <c r="Q278" t="s" s="2">
         <v>76</v>
@@ -35041,7 +35018,7 @@
         <v>76</v>
       </c>
       <c r="AG278" t="s" s="2">
-        <v>94</v>
+        <v>851</v>
       </c>
       <c r="AH278" t="s" s="2">
         <v>77</v>
@@ -35053,7 +35030,7 @@
         <v>80</v>
       </c>
       <c r="AK278" t="s" s="2">
-        <v>81</v>
+        <v>104</v>
       </c>
     </row>
     <row r="279">
@@ -35061,14 +35038,12 @@
         <v>573</v>
       </c>
       <c r="B279" t="s" s="2">
-        <v>847</v>
+        <v>856</v>
       </c>
       <c r="C279" t="s" s="2">
-        <v>840</v>
-      </c>
-      <c r="D279" t="s" s="2">
-        <v>178</v>
-      </c>
+        <v>856</v>
+      </c>
+      <c r="D279" s="2"/>
       <c r="E279" t="s" s="2">
         <v>76</v>
       </c>
@@ -35077,27 +35052,29 @@
         <v>77</v>
       </c>
       <c r="H279" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I279" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J279" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K279" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="J279" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K279" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="L279" t="s" s="2">
-        <v>848</v>
+        <v>145</v>
       </c>
       <c r="M279" t="s" s="2">
-        <v>849</v>
+        <v>857</v>
       </c>
       <c r="N279" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="O279" s="2"/>
+        <v>858</v>
+      </c>
+      <c r="O279" t="s" s="2">
+        <v>314</v>
+      </c>
       <c r="P279" s="2"/>
       <c r="Q279" t="s" s="2">
         <v>76</v>
@@ -35122,10 +35099,10 @@
         <v>76</v>
       </c>
       <c r="Y279" t="s" s="2">
-        <v>76</v>
+        <v>279</v>
       </c>
       <c r="Z279" t="s" s="2">
-        <v>76</v>
+        <v>859</v>
       </c>
       <c r="AA279" t="s" s="2">
         <v>76</v>
@@ -35146,7 +35123,7 @@
         <v>76</v>
       </c>
       <c r="AG279" t="s" s="2">
-        <v>94</v>
+        <v>856</v>
       </c>
       <c r="AH279" t="s" s="2">
         <v>77</v>
@@ -35158,7 +35135,7 @@
         <v>80</v>
       </c>
       <c r="AK279" t="s" s="2">
-        <v>81</v>
+        <v>104</v>
       </c>
     </row>
     <row r="280">
@@ -35166,14 +35143,12 @@
         <v>573</v>
       </c>
       <c r="B280" t="s" s="2">
-        <v>850</v>
+        <v>860</v>
       </c>
       <c r="C280" t="s" s="2">
-        <v>840</v>
-      </c>
-      <c r="D280" t="s" s="2">
-        <v>182</v>
-      </c>
+        <v>860</v>
+      </c>
+      <c r="D280" s="2"/>
       <c r="E280" t="s" s="2">
         <v>76</v>
       </c>
@@ -35182,7 +35157,7 @@
         <v>77</v>
       </c>
       <c r="H280" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I280" t="s" s="2">
         <v>205</v>
@@ -35191,18 +35166,20 @@
         <v>76</v>
       </c>
       <c r="K280" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="L280" t="s" s="2">
-        <v>851</v>
+        <v>145</v>
       </c>
       <c r="M280" t="s" s="2">
-        <v>852</v>
+        <v>861</v>
       </c>
       <c r="N280" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="O280" s="2"/>
+        <v>862</v>
+      </c>
+      <c r="O280" t="s" s="2">
+        <v>314</v>
+      </c>
       <c r="P280" s="2"/>
       <c r="Q280" t="s" s="2">
         <v>76</v>
@@ -35227,13 +35204,13 @@
         <v>76</v>
       </c>
       <c r="Y280" t="s" s="2">
-        <v>76</v>
+        <v>146</v>
       </c>
       <c r="Z280" t="s" s="2">
-        <v>76</v>
+        <v>863</v>
       </c>
       <c r="AA280" t="s" s="2">
-        <v>76</v>
+        <v>864</v>
       </c>
       <c r="AB280" t="s" s="2">
         <v>76</v>
@@ -35251,7 +35228,7 @@
         <v>76</v>
       </c>
       <c r="AG280" t="s" s="2">
-        <v>94</v>
+        <v>860</v>
       </c>
       <c r="AH280" t="s" s="2">
         <v>77</v>
@@ -35263,7 +35240,7 @@
         <v>80</v>
       </c>
       <c r="AK280" t="s" s="2">
-        <v>81</v>
+        <v>104</v>
       </c>
     </row>
     <row r="281">
@@ -35271,10 +35248,10 @@
         <v>573</v>
       </c>
       <c r="B281" t="s" s="2">
-        <v>853</v>
+        <v>865</v>
       </c>
       <c r="C281" t="s" s="2">
-        <v>853</v>
+        <v>865</v>
       </c>
       <c r="D281" s="2"/>
       <c r="E281" t="s" s="2">
@@ -35288,25 +35265,25 @@
         <v>83</v>
       </c>
       <c r="I281" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="J281" t="s" s="2">
         <v>76</v>
       </c>
       <c r="K281" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="L281" t="s" s="2">
-        <v>84</v>
+        <v>555</v>
       </c>
       <c r="M281" t="s" s="2">
-        <v>854</v>
+        <v>866</v>
       </c>
       <c r="N281" t="s" s="2">
-        <v>855</v>
+        <v>867</v>
       </c>
       <c r="O281" t="s" s="2">
-        <v>856</v>
+        <v>868</v>
       </c>
       <c r="P281" s="2"/>
       <c r="Q281" t="s" s="2">
@@ -35356,7 +35333,7 @@
         <v>76</v>
       </c>
       <c r="AG281" t="s" s="2">
-        <v>857</v>
+        <v>865</v>
       </c>
       <c r="AH281" t="s" s="2">
         <v>77</v>
@@ -35376,14 +35353,14 @@
         <v>573</v>
       </c>
       <c r="B282" t="s" s="2">
-        <v>858</v>
+        <v>869</v>
       </c>
       <c r="C282" t="s" s="2">
-        <v>858</v>
+        <v>869</v>
       </c>
       <c r="D282" s="2"/>
       <c r="E282" t="s" s="2">
-        <v>76</v>
+        <v>870</v>
       </c>
       <c r="F282" s="2"/>
       <c r="G282" t="s" s="2">
@@ -35393,7 +35370,7 @@
         <v>78</v>
       </c>
       <c r="I282" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="J282" t="s" s="2">
         <v>76</v>
@@ -35402,15 +35379,17 @@
         <v>205</v>
       </c>
       <c r="L282" t="s" s="2">
-        <v>435</v>
+        <v>871</v>
       </c>
       <c r="M282" t="s" s="2">
-        <v>859</v>
+        <v>872</v>
       </c>
       <c r="N282" t="s" s="2">
-        <v>860</v>
-      </c>
-      <c r="O282" s="2"/>
+        <v>873</v>
+      </c>
+      <c r="O282" t="s" s="2">
+        <v>874</v>
+      </c>
       <c r="P282" s="2"/>
       <c r="Q282" t="s" s="2">
         <v>76</v>
@@ -35459,7 +35438,7 @@
         <v>76</v>
       </c>
       <c r="AG282" t="s" s="2">
-        <v>861</v>
+        <v>869</v>
       </c>
       <c r="AH282" t="s" s="2">
         <v>77</v>
@@ -35471,7 +35450,7 @@
         <v>80</v>
       </c>
       <c r="AK282" t="s" s="2">
-        <v>438</v>
+        <v>297</v>
       </c>
     </row>
     <row r="283">
@@ -35479,42 +35458,42 @@
         <v>573</v>
       </c>
       <c r="B283" t="s" s="2">
-        <v>862</v>
+        <v>875</v>
       </c>
       <c r="C283" t="s" s="2">
-        <v>862</v>
+        <v>875</v>
       </c>
       <c r="D283" s="2"/>
       <c r="E283" t="s" s="2">
-        <v>76</v>
+        <v>876</v>
       </c>
       <c r="F283" s="2"/>
       <c r="G283" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H283" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I283" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J283" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K283" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="J283" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K283" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="L283" t="s" s="2">
-        <v>863</v>
+        <v>155</v>
       </c>
       <c r="M283" t="s" s="2">
-        <v>864</v>
+        <v>877</v>
       </c>
       <c r="N283" t="s" s="2">
-        <v>865</v>
+        <v>878</v>
       </c>
       <c r="O283" t="s" s="2">
-        <v>866</v>
+        <v>336</v>
       </c>
       <c r="P283" s="2"/>
       <c r="Q283" t="s" s="2">
@@ -35564,19 +35543,19 @@
         <v>76</v>
       </c>
       <c r="AG283" t="s" s="2">
-        <v>862</v>
+        <v>875</v>
       </c>
       <c r="AH283" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI283" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ283" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK283" t="s" s="2">
-        <v>104</v>
+        <v>337</v>
       </c>
     </row>
     <row r="284">
@@ -35584,10 +35563,10 @@
         <v>573</v>
       </c>
       <c r="B284" t="s" s="2">
-        <v>867</v>
+        <v>879</v>
       </c>
       <c r="C284" t="s" s="2">
-        <v>867</v>
+        <v>879</v>
       </c>
       <c r="D284" s="2"/>
       <c r="E284" t="s" s="2">
@@ -35598,7 +35577,7 @@
         <v>77</v>
       </c>
       <c r="H284" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I284" t="s" s="2">
         <v>76</v>
@@ -35607,20 +35586,18 @@
         <v>76</v>
       </c>
       <c r="K284" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="L284" t="s" s="2">
-        <v>145</v>
+        <v>84</v>
       </c>
       <c r="M284" t="s" s="2">
-        <v>868</v>
+        <v>85</v>
       </c>
       <c r="N284" t="s" s="2">
-        <v>869</v>
-      </c>
-      <c r="O284" t="s" s="2">
-        <v>314</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="O284" s="2"/>
       <c r="P284" s="2"/>
       <c r="Q284" t="s" s="2">
         <v>76</v>
@@ -35645,10 +35622,10 @@
         <v>76</v>
       </c>
       <c r="Y284" t="s" s="2">
-        <v>279</v>
+        <v>76</v>
       </c>
       <c r="Z284" t="s" s="2">
-        <v>870</v>
+        <v>76</v>
       </c>
       <c r="AA284" t="s" s="2">
         <v>76</v>
@@ -35669,19 +35646,19 @@
         <v>76</v>
       </c>
       <c r="AG284" t="s" s="2">
-        <v>867</v>
+        <v>87</v>
       </c>
       <c r="AH284" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI284" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ284" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AK284" t="s" s="2">
-        <v>104</v>
+        <v>76</v>
       </c>
     </row>
     <row r="285">
@@ -35689,14 +35666,14 @@
         <v>573</v>
       </c>
       <c r="B285" t="s" s="2">
-        <v>871</v>
+        <v>880</v>
       </c>
       <c r="C285" t="s" s="2">
-        <v>871</v>
+        <v>880</v>
       </c>
       <c r="D285" s="2"/>
       <c r="E285" t="s" s="2">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="F285" s="2"/>
       <c r="G285" t="s" s="2">
@@ -35706,25 +35683,25 @@
         <v>78</v>
       </c>
       <c r="I285" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="J285" t="s" s="2">
         <v>76</v>
       </c>
       <c r="K285" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="L285" t="s" s="2">
-        <v>145</v>
+        <v>89</v>
       </c>
       <c r="M285" t="s" s="2">
-        <v>872</v>
+        <v>111</v>
       </c>
       <c r="N285" t="s" s="2">
-        <v>873</v>
+        <v>112</v>
       </c>
       <c r="O285" t="s" s="2">
-        <v>314</v>
+        <v>113</v>
       </c>
       <c r="P285" s="2"/>
       <c r="Q285" t="s" s="2">
@@ -35750,31 +35727,31 @@
         <v>76</v>
       </c>
       <c r="Y285" t="s" s="2">
-        <v>146</v>
+        <v>76</v>
       </c>
       <c r="Z285" t="s" s="2">
-        <v>874</v>
+        <v>76</v>
       </c>
       <c r="AA285" t="s" s="2">
-        <v>875</v>
+        <v>76</v>
       </c>
       <c r="AB285" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AC285" t="s" s="2">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="AD285" t="s" s="2">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="AE285" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF285" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AG285" t="s" s="2">
-        <v>871</v>
+        <v>94</v>
       </c>
       <c r="AH285" t="s" s="2">
         <v>77</v>
@@ -35786,7 +35763,7 @@
         <v>80</v>
       </c>
       <c r="AK285" t="s" s="2">
-        <v>104</v>
+        <v>81</v>
       </c>
     </row>
     <row r="286">
@@ -35794,10 +35771,10 @@
         <v>573</v>
       </c>
       <c r="B286" t="s" s="2">
-        <v>876</v>
+        <v>881</v>
       </c>
       <c r="C286" t="s" s="2">
-        <v>876</v>
+        <v>881</v>
       </c>
       <c r="D286" s="2"/>
       <c r="E286" t="s" s="2">
@@ -35811,25 +35788,25 @@
         <v>83</v>
       </c>
       <c r="I286" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J286" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K286" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="J286" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K286" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="L286" t="s" s="2">
-        <v>555</v>
+        <v>685</v>
       </c>
       <c r="M286" t="s" s="2">
-        <v>877</v>
+        <v>882</v>
       </c>
       <c r="N286" t="s" s="2">
-        <v>878</v>
+        <v>687</v>
       </c>
       <c r="O286" t="s" s="2">
-        <v>879</v>
+        <v>688</v>
       </c>
       <c r="P286" s="2"/>
       <c r="Q286" t="s" s="2">
@@ -35879,7 +35856,7 @@
         <v>76</v>
       </c>
       <c r="AG286" t="s" s="2">
-        <v>876</v>
+        <v>689</v>
       </c>
       <c r="AH286" t="s" s="2">
         <v>77</v>
@@ -35888,7 +35865,7 @@
         <v>83</v>
       </c>
       <c r="AJ286" t="s" s="2">
-        <v>80</v>
+        <v>690</v>
       </c>
       <c r="AK286" t="s" s="2">
         <v>104</v>
@@ -35899,21 +35876,21 @@
         <v>573</v>
       </c>
       <c r="B287" t="s" s="2">
-        <v>880</v>
+        <v>883</v>
       </c>
       <c r="C287" t="s" s="2">
-        <v>880</v>
+        <v>883</v>
       </c>
       <c r="D287" s="2"/>
       <c r="E287" t="s" s="2">
-        <v>881</v>
+        <v>76</v>
       </c>
       <c r="F287" s="2"/>
       <c r="G287" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H287" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I287" t="s" s="2">
         <v>205</v>
@@ -35925,22 +35902,24 @@
         <v>205</v>
       </c>
       <c r="L287" t="s" s="2">
-        <v>882</v>
+        <v>685</v>
       </c>
       <c r="M287" t="s" s="2">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="N287" t="s" s="2">
-        <v>884</v>
+        <v>694</v>
       </c>
       <c r="O287" t="s" s="2">
-        <v>885</v>
+        <v>695</v>
       </c>
       <c r="P287" s="2"/>
       <c r="Q287" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="R287" s="2"/>
+      <c r="R287" t="s" s="2">
+        <v>696</v>
+      </c>
       <c r="S287" t="s" s="2">
         <v>76</v>
       </c>
@@ -35984,19 +35963,19 @@
         <v>76</v>
       </c>
       <c r="AG287" t="s" s="2">
-        <v>880</v>
+        <v>697</v>
       </c>
       <c r="AH287" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI287" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ287" t="s" s="2">
-        <v>80</v>
+        <v>690</v>
       </c>
       <c r="AK287" t="s" s="2">
-        <v>297</v>
+        <v>104</v>
       </c>
     </row>
     <row r="288">
@@ -36004,21 +35983,21 @@
         <v>573</v>
       </c>
       <c r="B288" t="s" s="2">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="C288" t="s" s="2">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="D288" s="2"/>
       <c r="E288" t="s" s="2">
-        <v>887</v>
+        <v>76</v>
       </c>
       <c r="F288" s="2"/>
       <c r="G288" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H288" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I288" t="s" s="2">
         <v>76</v>
@@ -36030,16 +36009,16 @@
         <v>205</v>
       </c>
       <c r="L288" t="s" s="2">
-        <v>155</v>
+        <v>507</v>
       </c>
       <c r="M288" t="s" s="2">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="N288" t="s" s="2">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="O288" t="s" s="2">
-        <v>336</v>
+        <v>349</v>
       </c>
       <c r="P288" s="2"/>
       <c r="Q288" t="s" s="2">
@@ -36089,7 +36068,7 @@
         <v>76</v>
       </c>
       <c r="AG288" t="s" s="2">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="AH288" t="s" s="2">
         <v>77</v>
@@ -36101,7 +36080,7 @@
         <v>80</v>
       </c>
       <c r="AK288" t="s" s="2">
-        <v>337</v>
+        <v>297</v>
       </c>
     </row>
     <row r="289">
@@ -36109,10 +36088,10 @@
         <v>573</v>
       </c>
       <c r="B289" t="s" s="2">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="C289" t="s" s="2">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="D289" s="2"/>
       <c r="E289" t="s" s="2">
@@ -36123,7 +36102,7 @@
         <v>77</v>
       </c>
       <c r="H289" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I289" t="s" s="2">
         <v>76</v>
@@ -36132,18 +36111,20 @@
         <v>76</v>
       </c>
       <c r="K289" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="L289" t="s" s="2">
-        <v>84</v>
+        <v>889</v>
       </c>
       <c r="M289" t="s" s="2">
-        <v>85</v>
+        <v>890</v>
       </c>
       <c r="N289" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="O289" s="2"/>
+        <v>891</v>
+      </c>
+      <c r="O289" t="s" s="2">
+        <v>349</v>
+      </c>
       <c r="P289" s="2"/>
       <c r="Q289" t="s" s="2">
         <v>76</v>
@@ -36192,7 +36173,7 @@
         <v>76</v>
       </c>
       <c r="AG289" t="s" s="2">
-        <v>87</v>
+        <v>888</v>
       </c>
       <c r="AH289" t="s" s="2">
         <v>77</v>
@@ -36201,10 +36182,10 @@
         <v>83</v>
       </c>
       <c r="AJ289" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AK289" t="s" s="2">
-        <v>76</v>
+        <v>297</v>
       </c>
     </row>
     <row r="290">
@@ -36212,14 +36193,14 @@
         <v>573</v>
       </c>
       <c r="B290" t="s" s="2">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="C290" t="s" s="2">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="D290" s="2"/>
       <c r="E290" t="s" s="2">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="F290" s="2"/>
       <c r="G290" t="s" s="2">
@@ -36229,25 +36210,25 @@
         <v>78</v>
       </c>
       <c r="I290" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="J290" t="s" s="2">
         <v>76</v>
       </c>
       <c r="K290" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="L290" t="s" s="2">
-        <v>89</v>
+        <v>893</v>
       </c>
       <c r="M290" t="s" s="2">
-        <v>111</v>
+        <v>894</v>
       </c>
       <c r="N290" t="s" s="2">
-        <v>112</v>
+        <v>895</v>
       </c>
       <c r="O290" t="s" s="2">
-        <v>113</v>
+        <v>349</v>
       </c>
       <c r="P290" s="2"/>
       <c r="Q290" t="s" s="2">
@@ -36285,19 +36266,19 @@
         <v>76</v>
       </c>
       <c r="AC290" t="s" s="2">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AD290" t="s" s="2">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="AE290" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF290" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AG290" t="s" s="2">
-        <v>94</v>
+        <v>892</v>
       </c>
       <c r="AH290" t="s" s="2">
         <v>77</v>
@@ -36309,7 +36290,7 @@
         <v>80</v>
       </c>
       <c r="AK290" t="s" s="2">
-        <v>81</v>
+        <v>297</v>
       </c>
     </row>
     <row r="291">
@@ -36317,10 +36298,10 @@
         <v>573</v>
       </c>
       <c r="B291" t="s" s="2">
-        <v>892</v>
+        <v>896</v>
       </c>
       <c r="C291" t="s" s="2">
-        <v>892</v>
+        <v>896</v>
       </c>
       <c r="D291" s="2"/>
       <c r="E291" t="s" s="2">
@@ -36343,16 +36324,16 @@
         <v>205</v>
       </c>
       <c r="L291" t="s" s="2">
-        <v>696</v>
+        <v>145</v>
       </c>
       <c r="M291" t="s" s="2">
-        <v>893</v>
+        <v>897</v>
       </c>
       <c r="N291" t="s" s="2">
-        <v>698</v>
+        <v>898</v>
       </c>
       <c r="O291" t="s" s="2">
-        <v>699</v>
+        <v>314</v>
       </c>
       <c r="P291" s="2"/>
       <c r="Q291" t="s" s="2">
@@ -36378,13 +36359,13 @@
         <v>76</v>
       </c>
       <c r="Y291" t="s" s="2">
-        <v>76</v>
+        <v>279</v>
       </c>
       <c r="Z291" t="s" s="2">
-        <v>76</v>
+        <v>899</v>
       </c>
       <c r="AA291" t="s" s="2">
-        <v>76</v>
+        <v>900</v>
       </c>
       <c r="AB291" t="s" s="2">
         <v>76</v>
@@ -36402,7 +36383,7 @@
         <v>76</v>
       </c>
       <c r="AG291" t="s" s="2">
-        <v>700</v>
+        <v>896</v>
       </c>
       <c r="AH291" t="s" s="2">
         <v>77</v>
@@ -36411,7 +36392,7 @@
         <v>83</v>
       </c>
       <c r="AJ291" t="s" s="2">
-        <v>701</v>
+        <v>80</v>
       </c>
       <c r="AK291" t="s" s="2">
         <v>104</v>
@@ -36422,10 +36403,10 @@
         <v>573</v>
       </c>
       <c r="B292" t="s" s="2">
-        <v>894</v>
+        <v>901</v>
       </c>
       <c r="C292" t="s" s="2">
-        <v>894</v>
+        <v>901</v>
       </c>
       <c r="D292" s="2"/>
       <c r="E292" t="s" s="2">
@@ -36436,36 +36417,34 @@
         <v>77</v>
       </c>
       <c r="H292" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I292" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="J292" t="s" s="2">
         <v>76</v>
       </c>
       <c r="K292" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="L292" t="s" s="2">
-        <v>696</v>
+        <v>902</v>
       </c>
       <c r="M292" t="s" s="2">
-        <v>895</v>
+        <v>903</v>
       </c>
       <c r="N292" t="s" s="2">
-        <v>705</v>
+        <v>904</v>
       </c>
       <c r="O292" t="s" s="2">
-        <v>706</v>
+        <v>905</v>
       </c>
       <c r="P292" s="2"/>
       <c r="Q292" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="R292" t="s" s="2">
-        <v>707</v>
-      </c>
+      <c r="R292" s="2"/>
       <c r="S292" t="s" s="2">
         <v>76</v>
       </c>
@@ -36509,16 +36488,16 @@
         <v>76</v>
       </c>
       <c r="AG292" t="s" s="2">
-        <v>708</v>
+        <v>901</v>
       </c>
       <c r="AH292" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI292" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ292" t="s" s="2">
-        <v>701</v>
+        <v>80</v>
       </c>
       <c r="AK292" t="s" s="2">
         <v>104</v>
@@ -36529,10 +36508,10 @@
         <v>573</v>
       </c>
       <c r="B293" t="s" s="2">
-        <v>896</v>
+        <v>906</v>
       </c>
       <c r="C293" t="s" s="2">
-        <v>896</v>
+        <v>906</v>
       </c>
       <c r="D293" s="2"/>
       <c r="E293" t="s" s="2">
@@ -36543,7 +36522,7 @@
         <v>77</v>
       </c>
       <c r="H293" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I293" t="s" s="2">
         <v>76</v>
@@ -36552,20 +36531,18 @@
         <v>76</v>
       </c>
       <c r="K293" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="L293" t="s" s="2">
-        <v>507</v>
+        <v>299</v>
       </c>
       <c r="M293" t="s" s="2">
-        <v>897</v>
+        <v>907</v>
       </c>
       <c r="N293" t="s" s="2">
-        <v>898</v>
-      </c>
-      <c r="O293" t="s" s="2">
-        <v>349</v>
-      </c>
+        <v>908</v>
+      </c>
+      <c r="O293" s="2"/>
       <c r="P293" s="2"/>
       <c r="Q293" t="s" s="2">
         <v>76</v>
@@ -36614,19 +36591,19 @@
         <v>76</v>
       </c>
       <c r="AG293" t="s" s="2">
-        <v>896</v>
+        <v>906</v>
       </c>
       <c r="AH293" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI293" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ293" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK293" t="s" s="2">
-        <v>297</v>
+        <v>104</v>
       </c>
     </row>
     <row r="294">
@@ -36634,10 +36611,10 @@
         <v>573</v>
       </c>
       <c r="B294" t="s" s="2">
-        <v>899</v>
+        <v>909</v>
       </c>
       <c r="C294" t="s" s="2">
-        <v>899</v>
+        <v>909</v>
       </c>
       <c r="D294" s="2"/>
       <c r="E294" t="s" s="2">
@@ -36648,7 +36625,7 @@
         <v>77</v>
       </c>
       <c r="H294" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I294" t="s" s="2">
         <v>76</v>
@@ -36657,20 +36634,18 @@
         <v>76</v>
       </c>
       <c r="K294" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="L294" t="s" s="2">
-        <v>900</v>
+        <v>84</v>
       </c>
       <c r="M294" t="s" s="2">
-        <v>901</v>
+        <v>85</v>
       </c>
       <c r="N294" t="s" s="2">
-        <v>902</v>
-      </c>
-      <c r="O294" t="s" s="2">
-        <v>349</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="O294" s="2"/>
       <c r="P294" s="2"/>
       <c r="Q294" t="s" s="2">
         <v>76</v>
@@ -36719,7 +36694,7 @@
         <v>76</v>
       </c>
       <c r="AG294" t="s" s="2">
-        <v>899</v>
+        <v>87</v>
       </c>
       <c r="AH294" t="s" s="2">
         <v>77</v>
@@ -36728,10 +36703,10 @@
         <v>83</v>
       </c>
       <c r="AJ294" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AK294" t="s" s="2">
-        <v>297</v>
+        <v>76</v>
       </c>
     </row>
     <row r="295">
@@ -36739,14 +36714,14 @@
         <v>573</v>
       </c>
       <c r="B295" t="s" s="2">
-        <v>903</v>
+        <v>910</v>
       </c>
       <c r="C295" t="s" s="2">
-        <v>903</v>
+        <v>910</v>
       </c>
       <c r="D295" s="2"/>
       <c r="E295" t="s" s="2">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="F295" s="2"/>
       <c r="G295" t="s" s="2">
@@ -36756,25 +36731,25 @@
         <v>78</v>
       </c>
       <c r="I295" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="J295" t="s" s="2">
         <v>76</v>
       </c>
       <c r="K295" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="L295" t="s" s="2">
-        <v>904</v>
+        <v>89</v>
       </c>
       <c r="M295" t="s" s="2">
-        <v>905</v>
+        <v>111</v>
       </c>
       <c r="N295" t="s" s="2">
-        <v>906</v>
+        <v>112</v>
       </c>
       <c r="O295" t="s" s="2">
-        <v>349</v>
+        <v>113</v>
       </c>
       <c r="P295" s="2"/>
       <c r="Q295" t="s" s="2">
@@ -36812,19 +36787,19 @@
         <v>76</v>
       </c>
       <c r="AC295" t="s" s="2">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="AD295" t="s" s="2">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="AE295" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF295" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AG295" t="s" s="2">
-        <v>903</v>
+        <v>94</v>
       </c>
       <c r="AH295" t="s" s="2">
         <v>77</v>
@@ -36836,7 +36811,7 @@
         <v>80</v>
       </c>
       <c r="AK295" t="s" s="2">
-        <v>297</v>
+        <v>81</v>
       </c>
     </row>
     <row r="296">
@@ -36844,12 +36819,14 @@
         <v>573</v>
       </c>
       <c r="B296" t="s" s="2">
-        <v>907</v>
+        <v>911</v>
       </c>
       <c r="C296" t="s" s="2">
-        <v>907</v>
-      </c>
-      <c r="D296" s="2"/>
+        <v>910</v>
+      </c>
+      <c r="D296" t="s" s="2">
+        <v>105</v>
+      </c>
       <c r="E296" t="s" s="2">
         <v>76</v>
       </c>
@@ -36858,29 +36835,27 @@
         <v>77</v>
       </c>
       <c r="H296" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I296" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="J296" t="s" s="2">
         <v>76</v>
       </c>
       <c r="K296" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="L296" t="s" s="2">
-        <v>145</v>
+        <v>912</v>
       </c>
       <c r="M296" t="s" s="2">
-        <v>908</v>
+        <v>913</v>
       </c>
       <c r="N296" t="s" s="2">
-        <v>909</v>
-      </c>
-      <c r="O296" t="s" s="2">
-        <v>314</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="O296" s="2"/>
       <c r="P296" s="2"/>
       <c r="Q296" t="s" s="2">
         <v>76</v>
@@ -36905,13 +36880,13 @@
         <v>76</v>
       </c>
       <c r="Y296" t="s" s="2">
-        <v>279</v>
+        <v>76</v>
       </c>
       <c r="Z296" t="s" s="2">
-        <v>910</v>
+        <v>76</v>
       </c>
       <c r="AA296" t="s" s="2">
-        <v>911</v>
+        <v>76</v>
       </c>
       <c r="AB296" t="s" s="2">
         <v>76</v>
@@ -36929,19 +36904,19 @@
         <v>76</v>
       </c>
       <c r="AG296" t="s" s="2">
-        <v>907</v>
+        <v>94</v>
       </c>
       <c r="AH296" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI296" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ296" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK296" t="s" s="2">
-        <v>104</v>
+        <v>81</v>
       </c>
     </row>
     <row r="297">
@@ -36949,14 +36924,14 @@
         <v>573</v>
       </c>
       <c r="B297" t="s" s="2">
-        <v>912</v>
+        <v>914</v>
       </c>
       <c r="C297" t="s" s="2">
-        <v>912</v>
+        <v>914</v>
       </c>
       <c r="D297" s="2"/>
       <c r="E297" t="s" s="2">
-        <v>76</v>
+        <v>307</v>
       </c>
       <c r="F297" s="2"/>
       <c r="G297" t="s" s="2">
@@ -36969,24 +36944,26 @@
         <v>76</v>
       </c>
       <c r="J297" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="K297" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="L297" t="s" s="2">
-        <v>913</v>
+        <v>89</v>
       </c>
       <c r="M297" t="s" s="2">
-        <v>914</v>
+        <v>308</v>
       </c>
       <c r="N297" t="s" s="2">
-        <v>915</v>
+        <v>309</v>
       </c>
       <c r="O297" t="s" s="2">
-        <v>916</v>
-      </c>
-      <c r="P297" s="2"/>
+        <v>113</v>
+      </c>
+      <c r="P297" t="s" s="2">
+        <v>250</v>
+      </c>
       <c r="Q297" t="s" s="2">
         <v>76</v>
       </c>
@@ -37034,7 +37011,7 @@
         <v>76</v>
       </c>
       <c r="AG297" t="s" s="2">
-        <v>912</v>
+        <v>310</v>
       </c>
       <c r="AH297" t="s" s="2">
         <v>77</v>
@@ -37046,7 +37023,7 @@
         <v>80</v>
       </c>
       <c r="AK297" t="s" s="2">
-        <v>104</v>
+        <v>81</v>
       </c>
     </row>
     <row r="298">
@@ -37054,10 +37031,10 @@
         <v>573</v>
       </c>
       <c r="B298" t="s" s="2">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="C298" t="s" s="2">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="D298" s="2"/>
       <c r="E298" t="s" s="2">
@@ -37065,10 +37042,10 @@
       </c>
       <c r="F298" s="2"/>
       <c r="G298" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="H298" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I298" t="s" s="2">
         <v>76</v>
@@ -37080,15 +37057,17 @@
         <v>76</v>
       </c>
       <c r="L298" t="s" s="2">
-        <v>299</v>
+        <v>84</v>
       </c>
       <c r="M298" t="s" s="2">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="N298" t="s" s="2">
-        <v>919</v>
-      </c>
-      <c r="O298" s="2"/>
+        <v>917</v>
+      </c>
+      <c r="O298" t="s" s="2">
+        <v>284</v>
+      </c>
       <c r="P298" s="2"/>
       <c r="Q298" t="s" s="2">
         <v>76</v>
@@ -37137,13 +37116,13 @@
         <v>76</v>
       </c>
       <c r="AG298" t="s" s="2">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="AH298" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="AI298" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ298" t="s" s="2">
         <v>80</v>
@@ -37157,10 +37136,10 @@
         <v>573</v>
       </c>
       <c r="B299" t="s" s="2">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="C299" t="s" s="2">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="D299" s="2"/>
       <c r="E299" t="s" s="2">
@@ -37183,15 +37162,17 @@
         <v>76</v>
       </c>
       <c r="L299" t="s" s="2">
-        <v>84</v>
+        <v>145</v>
       </c>
       <c r="M299" t="s" s="2">
-        <v>85</v>
+        <v>919</v>
       </c>
       <c r="N299" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="O299" s="2"/>
+        <v>920</v>
+      </c>
+      <c r="O299" t="s" s="2">
+        <v>314</v>
+      </c>
       <c r="P299" s="2"/>
       <c r="Q299" t="s" s="2">
         <v>76</v>
@@ -37240,7 +37221,7 @@
         <v>76</v>
       </c>
       <c r="AG299" t="s" s="2">
-        <v>87</v>
+        <v>918</v>
       </c>
       <c r="AH299" t="s" s="2">
         <v>77</v>
@@ -37249,10 +37230,10 @@
         <v>83</v>
       </c>
       <c r="AJ299" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AK299" t="s" s="2">
-        <v>76</v>
+        <v>104</v>
       </c>
     </row>
     <row r="300">
@@ -37267,14 +37248,14 @@
       </c>
       <c r="D300" s="2"/>
       <c r="E300" t="s" s="2">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="F300" s="2"/>
       <c r="G300" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H300" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I300" t="s" s="2">
         <v>76</v>
@@ -37286,16 +37267,16 @@
         <v>76</v>
       </c>
       <c r="L300" t="s" s="2">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="M300" t="s" s="2">
-        <v>111</v>
+        <v>922</v>
       </c>
       <c r="N300" t="s" s="2">
-        <v>112</v>
+        <v>923</v>
       </c>
       <c r="O300" t="s" s="2">
-        <v>113</v>
+        <v>284</v>
       </c>
       <c r="P300" s="2"/>
       <c r="Q300" t="s" s="2">
@@ -37333,31 +37314,31 @@
         <v>76</v>
       </c>
       <c r="AC300" t="s" s="2">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AD300" t="s" s="2">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="AE300" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF300" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AG300" t="s" s="2">
-        <v>94</v>
+        <v>921</v>
       </c>
       <c r="AH300" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI300" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ300" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK300" t="s" s="2">
-        <v>81</v>
+        <v>104</v>
       </c>
     </row>
     <row r="301">
@@ -37365,14 +37346,12 @@
         <v>573</v>
       </c>
       <c r="B301" t="s" s="2">
-        <v>922</v>
+        <v>924</v>
       </c>
       <c r="C301" t="s" s="2">
-        <v>921</v>
-      </c>
-      <c r="D301" t="s" s="2">
-        <v>105</v>
-      </c>
+        <v>924</v>
+      </c>
+      <c r="D301" s="2"/>
       <c r="E301" t="s" s="2">
         <v>76</v>
       </c>
@@ -37384,7 +37363,7 @@
         <v>78</v>
       </c>
       <c r="I301" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="J301" t="s" s="2">
         <v>76</v>
@@ -37393,13 +37372,13 @@
         <v>76</v>
       </c>
       <c r="L301" t="s" s="2">
-        <v>923</v>
+        <v>299</v>
       </c>
       <c r="M301" t="s" s="2">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="N301" t="s" s="2">
-        <v>108</v>
+        <v>926</v>
       </c>
       <c r="O301" s="2"/>
       <c r="P301" s="2"/>
@@ -37450,7 +37429,7 @@
         <v>76</v>
       </c>
       <c r="AG301" t="s" s="2">
-        <v>94</v>
+        <v>924</v>
       </c>
       <c r="AH301" t="s" s="2">
         <v>77</v>
@@ -37462,7 +37441,7 @@
         <v>80</v>
       </c>
       <c r="AK301" t="s" s="2">
-        <v>81</v>
+        <v>104</v>
       </c>
     </row>
     <row r="302">
@@ -37470,46 +37449,42 @@
         <v>573</v>
       </c>
       <c r="B302" t="s" s="2">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="C302" t="s" s="2">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="D302" s="2"/>
       <c r="E302" t="s" s="2">
-        <v>307</v>
+        <v>76</v>
       </c>
       <c r="F302" s="2"/>
       <c r="G302" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H302" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I302" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J302" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="K302" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="L302" t="s" s="2">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="M302" t="s" s="2">
-        <v>308</v>
+        <v>85</v>
       </c>
       <c r="N302" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="O302" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="P302" t="s" s="2">
-        <v>250</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="O302" s="2"/>
+      <c r="P302" s="2"/>
       <c r="Q302" t="s" s="2">
         <v>76</v>
       </c>
@@ -37557,19 +37532,19 @@
         <v>76</v>
       </c>
       <c r="AG302" t="s" s="2">
-        <v>310</v>
+        <v>87</v>
       </c>
       <c r="AH302" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI302" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ302" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AK302" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="303">
@@ -37577,21 +37552,21 @@
         <v>573</v>
       </c>
       <c r="B303" t="s" s="2">
-        <v>926</v>
+        <v>928</v>
       </c>
       <c r="C303" t="s" s="2">
-        <v>926</v>
+        <v>928</v>
       </c>
       <c r="D303" s="2"/>
       <c r="E303" t="s" s="2">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="F303" s="2"/>
       <c r="G303" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H303" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I303" t="s" s="2">
         <v>76</v>
@@ -37603,16 +37578,16 @@
         <v>76</v>
       </c>
       <c r="L303" t="s" s="2">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="M303" t="s" s="2">
-        <v>927</v>
+        <v>111</v>
       </c>
       <c r="N303" t="s" s="2">
-        <v>928</v>
+        <v>112</v>
       </c>
       <c r="O303" t="s" s="2">
-        <v>284</v>
+        <v>113</v>
       </c>
       <c r="P303" s="2"/>
       <c r="Q303" t="s" s="2">
@@ -37650,31 +37625,31 @@
         <v>76</v>
       </c>
       <c r="AC303" t="s" s="2">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="AD303" t="s" s="2">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="AE303" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF303" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AG303" t="s" s="2">
-        <v>926</v>
+        <v>94</v>
       </c>
       <c r="AH303" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AI303" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ303" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK303" t="s" s="2">
-        <v>104</v>
+        <v>81</v>
       </c>
     </row>
     <row r="304">
@@ -37689,37 +37664,39 @@
       </c>
       <c r="D304" s="2"/>
       <c r="E304" t="s" s="2">
-        <v>76</v>
+        <v>307</v>
       </c>
       <c r="F304" s="2"/>
       <c r="G304" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H304" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I304" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J304" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="K304" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="L304" t="s" s="2">
-        <v>145</v>
+        <v>89</v>
       </c>
       <c r="M304" t="s" s="2">
-        <v>930</v>
+        <v>308</v>
       </c>
       <c r="N304" t="s" s="2">
-        <v>931</v>
+        <v>309</v>
       </c>
       <c r="O304" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="P304" s="2"/>
+        <v>113</v>
+      </c>
+      <c r="P304" t="s" s="2">
+        <v>250</v>
+      </c>
       <c r="Q304" t="s" s="2">
         <v>76</v>
       </c>
@@ -37767,19 +37744,19 @@
         <v>76</v>
       </c>
       <c r="AG304" t="s" s="2">
-        <v>929</v>
+        <v>310</v>
       </c>
       <c r="AH304" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI304" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ304" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK304" t="s" s="2">
-        <v>104</v>
+        <v>81</v>
       </c>
     </row>
     <row r="305">
@@ -37787,10 +37764,10 @@
         <v>573</v>
       </c>
       <c r="B305" t="s" s="2">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="C305" t="s" s="2">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="D305" s="2"/>
       <c r="E305" t="s" s="2">
@@ -37816,10 +37793,10 @@
         <v>84</v>
       </c>
       <c r="M305" t="s" s="2">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="N305" t="s" s="2">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="O305" t="s" s="2">
         <v>284</v>
@@ -37872,7 +37849,7 @@
         <v>76</v>
       </c>
       <c r="AG305" t="s" s="2">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="AH305" t="s" s="2">
         <v>77</v>
@@ -37892,10 +37869,10 @@
         <v>573</v>
       </c>
       <c r="B306" t="s" s="2">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="C306" t="s" s="2">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="D306" s="2"/>
       <c r="E306" t="s" s="2">
@@ -37906,7 +37883,7 @@
         <v>77</v>
       </c>
       <c r="H306" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I306" t="s" s="2">
         <v>76</v>
@@ -37918,15 +37895,17 @@
         <v>76</v>
       </c>
       <c r="L306" t="s" s="2">
-        <v>299</v>
+        <v>145</v>
       </c>
       <c r="M306" t="s" s="2">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="N306" t="s" s="2">
-        <v>937</v>
-      </c>
-      <c r="O306" s="2"/>
+        <v>935</v>
+      </c>
+      <c r="O306" t="s" s="2">
+        <v>314</v>
+      </c>
       <c r="P306" s="2"/>
       <c r="Q306" t="s" s="2">
         <v>76</v>
@@ -37951,13 +37930,13 @@
         <v>76</v>
       </c>
       <c r="Y306" t="s" s="2">
-        <v>76</v>
+        <v>226</v>
       </c>
       <c r="Z306" t="s" s="2">
-        <v>76</v>
+        <v>936</v>
       </c>
       <c r="AA306" t="s" s="2">
-        <v>76</v>
+        <v>937</v>
       </c>
       <c r="AB306" t="s" s="2">
         <v>76</v>
@@ -37975,13 +37954,13 @@
         <v>76</v>
       </c>
       <c r="AG306" t="s" s="2">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="AH306" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI306" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ306" t="s" s="2">
         <v>80</v>
@@ -37992,13 +37971,13 @@
     </row>
     <row r="307">
       <c r="A307" t="s" s="2">
-        <v>573</v>
+        <v>591</v>
       </c>
       <c r="B307" t="s" s="2">
-        <v>938</v>
+        <v>31</v>
       </c>
       <c r="C307" t="s" s="2">
-        <v>938</v>
+        <v>31</v>
       </c>
       <c r="D307" s="2"/>
       <c r="E307" t="s" s="2">
@@ -38009,7 +37988,7 @@
         <v>77</v>
       </c>
       <c r="H307" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I307" t="s" s="2">
         <v>76</v>
@@ -38021,13 +38000,13 @@
         <v>76</v>
       </c>
       <c r="L307" t="s" s="2">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="M307" t="s" s="2">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="N307" t="s" s="2">
-        <v>86</v>
+        <v>594</v>
       </c>
       <c r="O307" s="2"/>
       <c r="P307" s="2"/>
@@ -38078,41 +38057,41 @@
         <v>76</v>
       </c>
       <c r="AG307" t="s" s="2">
-        <v>87</v>
+        <v>31</v>
       </c>
       <c r="AH307" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI307" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ307" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AK307" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="s" s="2">
-        <v>573</v>
+        <v>591</v>
       </c>
       <c r="B308" t="s" s="2">
-        <v>939</v>
+        <v>82</v>
       </c>
       <c r="C308" t="s" s="2">
-        <v>939</v>
+        <v>82</v>
       </c>
       <c r="D308" s="2"/>
       <c r="E308" t="s" s="2">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="F308" s="2"/>
       <c r="G308" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H308" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I308" t="s" s="2">
         <v>76</v>
@@ -38124,17 +38103,15 @@
         <v>76</v>
       </c>
       <c r="L308" t="s" s="2">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="M308" t="s" s="2">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="N308" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="O308" t="s" s="2">
-        <v>113</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="O308" s="2"/>
       <c r="P308" s="2"/>
       <c r="Q308" t="s" s="2">
         <v>76</v>
@@ -38171,78 +38148,74 @@
         <v>76</v>
       </c>
       <c r="AC308" t="s" s="2">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AD308" t="s" s="2">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="AE308" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF308" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AG308" t="s" s="2">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="AH308" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI308" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ308" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AK308" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="s" s="2">
-        <v>573</v>
+        <v>591</v>
       </c>
       <c r="B309" t="s" s="2">
-        <v>940</v>
+        <v>88</v>
       </c>
       <c r="C309" t="s" s="2">
-        <v>940</v>
+        <v>88</v>
       </c>
       <c r="D309" s="2"/>
       <c r="E309" t="s" s="2">
-        <v>307</v>
+        <v>76</v>
       </c>
       <c r="F309" s="2"/>
       <c r="G309" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H309" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I309" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J309" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="K309" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="L309" t="s" s="2">
         <v>89</v>
       </c>
       <c r="M309" t="s" s="2">
-        <v>308</v>
+        <v>31</v>
       </c>
       <c r="N309" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="O309" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="P309" t="s" s="2">
-        <v>250</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="O309" s="2"/>
+      <c r="P309" s="2"/>
       <c r="Q309" t="s" s="2">
         <v>76</v>
       </c>
@@ -38278,19 +38251,19 @@
         <v>76</v>
       </c>
       <c r="AC309" t="s" s="2">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="AD309" t="s" s="2">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="AE309" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF309" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AG309" t="s" s="2">
-        <v>310</v>
+        <v>94</v>
       </c>
       <c r="AH309" t="s" s="2">
         <v>77</v>
@@ -38307,13 +38280,13 @@
     </row>
     <row r="310">
       <c r="A310" t="s" s="2">
-        <v>573</v>
+        <v>591</v>
       </c>
       <c r="B310" t="s" s="2">
-        <v>941</v>
+        <v>95</v>
       </c>
       <c r="C310" t="s" s="2">
-        <v>941</v>
+        <v>95</v>
       </c>
       <c r="D310" s="2"/>
       <c r="E310" t="s" s="2">
@@ -38321,7 +38294,7 @@
       </c>
       <c r="F310" s="2"/>
       <c r="G310" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="H310" t="s" s="2">
         <v>83</v>
@@ -38336,16 +38309,16 @@
         <v>76</v>
       </c>
       <c r="L310" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="M310" t="s" s="2">
-        <v>942</v>
+        <v>97</v>
       </c>
       <c r="N310" t="s" s="2">
-        <v>943</v>
+        <v>98</v>
       </c>
       <c r="O310" t="s" s="2">
-        <v>284</v>
+        <v>99</v>
       </c>
       <c r="P310" s="2"/>
       <c r="Q310" t="s" s="2">
@@ -38353,7 +38326,7 @@
       </c>
       <c r="R310" s="2"/>
       <c r="S310" t="s" s="2">
-        <v>76</v>
+        <v>938</v>
       </c>
       <c r="T310" t="s" s="2">
         <v>76</v>
@@ -38395,30 +38368,30 @@
         <v>76</v>
       </c>
       <c r="AG310" t="s" s="2">
-        <v>941</v>
+        <v>95</v>
       </c>
       <c r="AH310" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="AI310" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ310" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AK310" t="s" s="2">
-        <v>104</v>
+        <v>76</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="s" s="2">
-        <v>573</v>
+        <v>591</v>
       </c>
       <c r="B311" t="s" s="2">
-        <v>944</v>
+        <v>100</v>
       </c>
       <c r="C311" t="s" s="2">
-        <v>944</v>
+        <v>100</v>
       </c>
       <c r="D311" s="2"/>
       <c r="E311" t="s" s="2">
@@ -38441,17 +38414,15 @@
         <v>76</v>
       </c>
       <c r="L311" t="s" s="2">
-        <v>145</v>
+        <v>101</v>
       </c>
       <c r="M311" t="s" s="2">
-        <v>945</v>
+        <v>102</v>
       </c>
       <c r="N311" t="s" s="2">
-        <v>946</v>
-      </c>
-      <c r="O311" t="s" s="2">
-        <v>314</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="O311" s="2"/>
       <c r="P311" s="2"/>
       <c r="Q311" t="s" s="2">
         <v>76</v>
@@ -38476,13 +38447,13 @@
         <v>76</v>
       </c>
       <c r="Y311" t="s" s="2">
-        <v>226</v>
+        <v>76</v>
       </c>
       <c r="Z311" t="s" s="2">
-        <v>947</v>
+        <v>76</v>
       </c>
       <c r="AA311" t="s" s="2">
-        <v>948</v>
+        <v>76</v>
       </c>
       <c r="AB311" t="s" s="2">
         <v>76</v>
@@ -38500,7 +38471,7 @@
         <v>76</v>
       </c>
       <c r="AG311" t="s" s="2">
-        <v>944</v>
+        <v>100</v>
       </c>
       <c r="AH311" t="s" s="2">
         <v>77</v>
@@ -38517,7 +38488,7 @@
     </row>
     <row r="312">
       <c r="A312" t="s" s="2">
-        <v>591</v>
+        <v>442</v>
       </c>
       <c r="B312" t="s" s="2">
         <v>31</v>
@@ -38552,7 +38523,7 @@
         <v>31</v>
       </c>
       <c r="N312" t="s" s="2">
-        <v>594</v>
+        <v>445</v>
       </c>
       <c r="O312" s="2"/>
       <c r="P312" s="2"/>
@@ -38620,7 +38591,7 @@
     </row>
     <row r="313">
       <c r="A313" t="s" s="2">
-        <v>591</v>
+        <v>442</v>
       </c>
       <c r="B313" t="s" s="2">
         <v>82</v>
@@ -38723,7 +38694,7 @@
     </row>
     <row r="314">
       <c r="A314" t="s" s="2">
-        <v>591</v>
+        <v>442</v>
       </c>
       <c r="B314" t="s" s="2">
         <v>88</v>
@@ -38826,7 +38797,7 @@
     </row>
     <row r="315">
       <c r="A315" t="s" s="2">
-        <v>591</v>
+        <v>442</v>
       </c>
       <c r="B315" t="s" s="2">
         <v>95</v>
@@ -38872,7 +38843,7 @@
       </c>
       <c r="R315" s="2"/>
       <c r="S315" t="s" s="2">
-        <v>949</v>
+        <v>940</v>
       </c>
       <c r="T315" t="s" s="2">
         <v>76</v>
@@ -38931,7 +38902,7 @@
     </row>
     <row r="316">
       <c r="A316" t="s" s="2">
-        <v>591</v>
+        <v>442</v>
       </c>
       <c r="B316" t="s" s="2">
         <v>100</v>
@@ -38960,7 +38931,7 @@
         <v>76</v>
       </c>
       <c r="L316" t="s" s="2">
-        <v>101</v>
+        <v>186</v>
       </c>
       <c r="M316" t="s" s="2">
         <v>102</v>
@@ -39034,7 +39005,7 @@
     </row>
     <row r="317">
       <c r="A317" t="s" s="2">
-        <v>442</v>
+        <v>599</v>
       </c>
       <c r="B317" t="s" s="2">
         <v>31</v>
@@ -39069,7 +39040,7 @@
         <v>31</v>
       </c>
       <c r="N317" t="s" s="2">
-        <v>445</v>
+        <v>602</v>
       </c>
       <c r="O317" s="2"/>
       <c r="P317" s="2"/>
@@ -39137,7 +39108,7 @@
     </row>
     <row r="318">
       <c r="A318" t="s" s="2">
-        <v>442</v>
+        <v>599</v>
       </c>
       <c r="B318" t="s" s="2">
         <v>82</v>
@@ -39240,7 +39211,7 @@
     </row>
     <row r="319">
       <c r="A319" t="s" s="2">
-        <v>442</v>
+        <v>599</v>
       </c>
       <c r="B319" t="s" s="2">
         <v>88</v>
@@ -39343,7 +39314,7 @@
     </row>
     <row r="320">
       <c r="A320" t="s" s="2">
-        <v>442</v>
+        <v>599</v>
       </c>
       <c r="B320" t="s" s="2">
         <v>95</v>
@@ -39389,7 +39360,7 @@
       </c>
       <c r="R320" s="2"/>
       <c r="S320" t="s" s="2">
-        <v>951</v>
+        <v>943</v>
       </c>
       <c r="T320" t="s" s="2">
         <v>76</v>
@@ -39448,7 +39419,7 @@
     </row>
     <row r="321">
       <c r="A321" t="s" s="2">
-        <v>442</v>
+        <v>599</v>
       </c>
       <c r="B321" t="s" s="2">
         <v>100</v>
@@ -39477,7 +39448,7 @@
         <v>76</v>
       </c>
       <c r="L321" t="s" s="2">
-        <v>186</v>
+        <v>84</v>
       </c>
       <c r="M321" t="s" s="2">
         <v>102</v>
@@ -39546,523 +39517,6 @@
         <v>80</v>
       </c>
       <c r="AK321" t="s" s="2">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="322">
-      <c r="A322" t="s" s="2">
-        <v>599</v>
-      </c>
-      <c r="B322" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="C322" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="D322" s="2"/>
-      <c r="E322" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="F322" s="2"/>
-      <c r="G322" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H322" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I322" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J322" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K322" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="L322" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="M322" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="N322" t="s" s="2">
-        <v>602</v>
-      </c>
-      <c r="O322" s="2"/>
-      <c r="P322" s="2"/>
-      <c r="Q322" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R322" s="2"/>
-      <c r="S322" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T322" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U322" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V322" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W322" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X322" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y322" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z322" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA322" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB322" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC322" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD322" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE322" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF322" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG322" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="AH322" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI322" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ322" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK322" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="323">
-      <c r="A323" t="s" s="2">
-        <v>599</v>
-      </c>
-      <c r="B323" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="C323" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="D323" s="2"/>
-      <c r="E323" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="F323" s="2"/>
-      <c r="G323" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H323" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="I323" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J323" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K323" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="L323" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="M323" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="N323" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="O323" s="2"/>
-      <c r="P323" s="2"/>
-      <c r="Q323" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R323" s="2"/>
-      <c r="S323" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T323" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U323" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V323" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W323" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X323" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y323" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z323" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA323" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB323" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC323" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD323" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE323" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF323" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG323" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH323" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI323" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AJ323" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK323" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="324">
-      <c r="A324" t="s" s="2">
-        <v>599</v>
-      </c>
-      <c r="B324" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="C324" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="D324" s="2"/>
-      <c r="E324" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="F324" s="2"/>
-      <c r="G324" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H324" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I324" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J324" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K324" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="L324" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="M324" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="N324" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="O324" s="2"/>
-      <c r="P324" s="2"/>
-      <c r="Q324" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R324" s="2"/>
-      <c r="S324" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T324" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U324" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V324" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W324" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X324" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y324" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z324" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA324" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB324" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC324" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AD324" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AE324" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF324" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AG324" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AH324" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI324" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ324" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK324" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="325">
-      <c r="A325" t="s" s="2">
-        <v>599</v>
-      </c>
-      <c r="B325" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="C325" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="D325" s="2"/>
-      <c r="E325" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="F325" s="2"/>
-      <c r="G325" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="H325" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="I325" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J325" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K325" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="L325" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="M325" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="N325" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="O325" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="P325" s="2"/>
-      <c r="Q325" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R325" s="2"/>
-      <c r="S325" t="s" s="2">
-        <v>954</v>
-      </c>
-      <c r="T325" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U325" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V325" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W325" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X325" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y325" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z325" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA325" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB325" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC325" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD325" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE325" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF325" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG325" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AH325" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI325" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AJ325" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK325" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="326">
-      <c r="A326" t="s" s="2">
-        <v>599</v>
-      </c>
-      <c r="B326" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="C326" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="D326" s="2"/>
-      <c r="E326" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="F326" s="2"/>
-      <c r="G326" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H326" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="I326" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J326" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K326" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="L326" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="M326" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="N326" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="O326" s="2"/>
-      <c r="P326" s="2"/>
-      <c r="Q326" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R326" s="2"/>
-      <c r="S326" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T326" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U326" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V326" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W326" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X326" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y326" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z326" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA326" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB326" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC326" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD326" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE326" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF326" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG326" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AH326" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI326" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AJ326" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK326" t="s" s="2">
         <v>104</v>
       </c>
     </row>

--- a/cp-descriptionsummary/ig/all-profiles.xlsx
+++ b/cp-descriptionsummary/ig/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-24T09:17:47+00:00</t>
+    <t>2025-07-24T15:58:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/cp-descriptionsummary/ig/all-profiles.xlsx
+++ b/cp-descriptionsummary/ig/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-24T15:58:49+00:00</t>
+    <t>2025-07-24T16:13:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/cp-descriptionsummary/ig/all-profiles.xlsx
+++ b/cp-descriptionsummary/ig/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11431" uniqueCount="948">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11430" uniqueCount="948">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-24T16:28:48+00:00</t>
+    <t>2025-07-25T15:12:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -623,6 +623,10 @@
  Cette extension implemente l'élément descriptionSummary de R5 https://hl7.org/fhir/R5/researchstudy-definitions.html#ResearchStudy.descriptionSummary. elle permet l'ajout d'un texte bref décrivant l'essai (Brief summary)</t>
   </si>
   <si>
+    <t xml:space="preserve">markdown
+</t>
+  </si>
+  <si>
     <t>eclaire-group</t>
   </si>
   <si>
@@ -1744,10 +1748,6 @@
   </si>
   <si>
     <t>Description de la conséquence / Description of the outcome</t>
-  </si>
-  <si>
-    <t xml:space="preserve">markdown
-</t>
   </si>
   <si>
     <t>Extension.extension:reference</t>
@@ -4443,7 +4443,7 @@
         <v>2</v>
       </c>
       <c r="B178" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="179">
@@ -4451,7 +4451,7 @@
         <v>4</v>
       </c>
       <c r="B179" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="180">
@@ -4467,7 +4467,7 @@
         <v>8</v>
       </c>
       <c r="B181" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="182">
@@ -4527,7 +4527,7 @@
         <v>22</v>
       </c>
       <c r="B189" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="190">
@@ -4555,7 +4555,7 @@
         <v>28</v>
       </c>
       <c r="B193" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="194">
@@ -4563,7 +4563,7 @@
         <v>30</v>
       </c>
       <c r="B194" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="195">
@@ -4571,7 +4571,7 @@
         <v>32</v>
       </c>
       <c r="B195" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="196">
@@ -4603,7 +4603,7 @@
         <v>2</v>
       </c>
       <c r="B199" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="200">
@@ -4611,7 +4611,7 @@
         <v>4</v>
       </c>
       <c r="B200" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="201">
@@ -4627,7 +4627,7 @@
         <v>8</v>
       </c>
       <c r="B202" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="203">
@@ -4687,7 +4687,7 @@
         <v>22</v>
       </c>
       <c r="B210" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="211">
@@ -4771,7 +4771,7 @@
         <v>2</v>
       </c>
       <c r="B221" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="222">
@@ -4779,7 +4779,7 @@
         <v>4</v>
       </c>
       <c r="B222" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="223">
@@ -4795,7 +4795,7 @@
         <v>8</v>
       </c>
       <c r="B224" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="225">
@@ -4855,7 +4855,7 @@
         <v>22</v>
       </c>
       <c r="B232" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="233">
@@ -4883,7 +4883,7 @@
         <v>28</v>
       </c>
       <c r="B236" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="237">
@@ -4891,7 +4891,7 @@
         <v>30</v>
       </c>
       <c r="B237" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="238">
@@ -4899,7 +4899,7 @@
         <v>32</v>
       </c>
       <c r="B238" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="239">
@@ -4931,7 +4931,7 @@
         <v>2</v>
       </c>
       <c r="B242" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="243">
@@ -4939,7 +4939,7 @@
         <v>4</v>
       </c>
       <c r="B243" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="244">
@@ -4955,7 +4955,7 @@
         <v>8</v>
       </c>
       <c r="B245" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="246">
@@ -5015,7 +5015,7 @@
         <v>22</v>
       </c>
       <c r="B253" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="254">
@@ -5547,7 +5547,7 @@
         <v>28</v>
       </c>
       <c r="B323" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="324">
@@ -5763,7 +5763,7 @@
         <v>2</v>
       </c>
       <c r="B351" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="352">
@@ -5847,7 +5847,7 @@
         <v>22</v>
       </c>
       <c r="B362" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="363">
@@ -13718,14 +13718,14 @@
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="F74" s="2"/>
       <c r="G74" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H74" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I74" t="s" s="2">
         <v>76</v>
@@ -13740,14 +13740,12 @@
         <v>89</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>111</v>
+        <v>31</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="O74" t="s" s="2">
-        <v>113</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="O74" s="2"/>
       <c r="P74" s="2"/>
       <c r="Q74" t="s" s="2">
         <v>76</v>
@@ -13947,7 +13945,7 @@
         <v>76</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>132</v>
+        <v>197</v>
       </c>
       <c r="M76" t="s" s="2">
         <v>102</v>
@@ -14021,13 +14019,13 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C77" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
@@ -14053,13 +14051,13 @@
         <v>79</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="O77" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="P77" s="2"/>
       <c r="Q77" t="s" s="2">
@@ -14109,7 +14107,7 @@
         <v>76</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>77</v>
@@ -14121,18 +14119,18 @@
         <v>76</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C78" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
@@ -14152,19 +14150,19 @@
         <v>76</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="O78" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="P78" s="2"/>
       <c r="Q78" t="s" s="2">
@@ -14214,7 +14212,7 @@
         <v>76</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>77</v>
@@ -14231,13 +14229,13 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C79" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
@@ -14257,16 +14255,16 @@
         <v>76</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O79" s="2"/>
       <c r="P79" s="2"/>
@@ -14317,7 +14315,7 @@
         <v>76</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>77</v>
@@ -14334,13 +14332,13 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C80" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
@@ -14357,22 +14355,22 @@
         <v>76</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L80" t="s" s="2">
         <v>96</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="O80" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="P80" s="2"/>
       <c r="Q80" t="s" s="2">
@@ -14422,7 +14420,7 @@
         <v>76</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AH80" t="s" s="2">
         <v>77</v>
@@ -14439,13 +14437,13 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C81" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
@@ -14468,16 +14466,16 @@
         <v>76</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O81" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="P81" s="2"/>
       <c r="Q81" t="s" s="2">
@@ -14503,13 +14501,13 @@
         <v>76</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Z81" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AA81" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AB81" t="s" s="2">
         <v>76</v>
@@ -14527,7 +14525,7 @@
         <v>76</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AH81" t="s" s="2">
         <v>77</v>
@@ -14544,17 +14542,17 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C82" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F82" s="2"/>
       <c r="G82" t="s" s="2">
@@ -14573,16 +14571,16 @@
         <v>76</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="O82" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="P82" s="2"/>
       <c r="Q82" t="s" s="2">
@@ -14632,7 +14630,7 @@
         <v>76</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AH82" t="s" s="2">
         <v>77</v>
@@ -14649,17 +14647,17 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C83" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F83" s="2"/>
       <c r="G83" t="s" s="2">
@@ -14678,16 +14676,16 @@
         <v>76</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="O83" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="P83" s="2"/>
       <c r="Q83" t="s" s="2">
@@ -14737,7 +14735,7 @@
         <v>76</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AH83" t="s" s="2">
         <v>77</v>
@@ -14754,13 +14752,13 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C84" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
@@ -14789,7 +14787,7 @@
         <v>111</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="O84" t="s" s="2">
         <v>113</v>
@@ -14842,7 +14840,7 @@
         <v>93</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AH84" t="s" s="2">
         <v>77</v>
@@ -14859,13 +14857,13 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C85" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
@@ -14882,7 +14880,7 @@
         <v>76</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K85" t="s" s="2">
         <v>76</v>
@@ -14891,16 +14889,16 @@
         <v>89</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="O85" t="s" s="2">
         <v>113</v>
       </c>
       <c r="P85" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q85" t="s" s="2">
         <v>76</v>
@@ -14949,7 +14947,7 @@
         <v>93</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AH85" t="s" s="2">
         <v>77</v>
@@ -14966,13 +14964,13 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C86" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
@@ -14992,20 +14990,20 @@
         <v>76</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q86" t="s" s="2">
         <v>76</v>
@@ -15054,7 +15052,7 @@
         <v>76</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AH86" t="s" s="2">
         <v>77</v>
@@ -15071,13 +15069,13 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C87" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
@@ -15097,26 +15095,26 @@
         <v>76</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q87" t="s" s="2">
         <v>76</v>
       </c>
       <c r="R87" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="S87" t="s" s="2">
         <v>76</v>
@@ -15161,7 +15159,7 @@
         <v>76</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AH87" t="s" s="2">
         <v>77</v>
@@ -15178,13 +15176,13 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C88" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s" s="2">
@@ -15204,22 +15202,22 @@
         <v>76</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="O88" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="P88" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q88" t="s" s="2">
         <v>76</v>
@@ -15247,10 +15245,10 @@
         <v>191</v>
       </c>
       <c r="Z88" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AA88" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AB88" t="s" s="2">
         <v>76</v>
@@ -15268,7 +15266,7 @@
         <v>76</v>
       </c>
       <c r="AG88" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AH88" t="s" s="2">
         <v>83</v>
@@ -15285,13 +15283,13 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C89" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
@@ -15311,20 +15309,20 @@
         <v>76</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q89" t="s" s="2">
         <v>76</v>
@@ -15373,7 +15371,7 @@
         <v>76</v>
       </c>
       <c r="AG89" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AH89" t="s" s="2">
         <v>83</v>
@@ -15382,7 +15380,7 @@
         <v>83</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AK89" t="s" s="2">
         <v>104</v>
@@ -15390,13 +15388,13 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C90" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" t="s" s="2">
@@ -15416,19 +15414,19 @@
         <v>76</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L90" t="s" s="2">
         <v>145</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="O90" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="P90" s="2"/>
       <c r="Q90" t="s" s="2">
@@ -15454,10 +15452,10 @@
         <v>76</v>
       </c>
       <c r="Y90" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Z90" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AA90" t="s" s="2">
         <v>76</v>
@@ -15478,7 +15476,7 @@
         <v>76</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AH90" t="s" s="2">
         <v>77</v>
@@ -15495,13 +15493,13 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C91" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" t="s" s="2">
@@ -15521,22 +15519,22 @@
         <v>76</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L91" t="s" s="2">
         <v>84</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="O91" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="P91" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q91" t="s" s="2">
         <v>76</v>
@@ -15585,7 +15583,7 @@
         <v>76</v>
       </c>
       <c r="AG91" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AH91" t="s" s="2">
         <v>77</v>
@@ -15602,13 +15600,13 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C92" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" t="s" s="2">
@@ -15628,22 +15626,22 @@
         <v>76</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="O92" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="P92" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q92" t="s" s="2">
         <v>76</v>
@@ -15692,7 +15690,7 @@
         <v>76</v>
       </c>
       <c r="AG92" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AH92" t="s" s="2">
         <v>77</v>
@@ -15709,13 +15707,13 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C93" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" t="s" s="2">
@@ -15735,19 +15733,19 @@
         <v>76</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="O93" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="P93" s="2"/>
       <c r="Q93" t="s" s="2">
@@ -15797,7 +15795,7 @@
         <v>76</v>
       </c>
       <c r="AG93" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AH93" t="s" s="2">
         <v>77</v>
@@ -15809,18 +15807,18 @@
         <v>80</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C94" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" t="s" s="2">
@@ -15843,19 +15841,19 @@
         <v>76</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="O94" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="P94" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q94" t="s" s="2">
         <v>76</v>
@@ -15904,7 +15902,7 @@
         <v>76</v>
       </c>
       <c r="AG94" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AH94" t="s" s="2">
         <v>77</v>
@@ -15921,13 +15919,13 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C95" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" t="s" s="2">
@@ -16024,13 +16022,13 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C96" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D96" s="2"/>
       <c r="E96" t="s" s="2">
@@ -16129,17 +16127,17 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C97" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D97" s="2"/>
       <c r="E97" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="F97" s="2"/>
       <c r="G97" t="s" s="2">
@@ -16152,25 +16150,25 @@
         <v>76</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L97" t="s" s="2">
         <v>89</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="O97" t="s" s="2">
         <v>113</v>
       </c>
       <c r="P97" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q97" t="s" s="2">
         <v>76</v>
@@ -16219,7 +16217,7 @@
         <v>76</v>
       </c>
       <c r="AG97" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AH97" t="s" s="2">
         <v>77</v>
@@ -16236,13 +16234,13 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C98" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D98" s="2"/>
       <c r="E98" t="s" s="2">
@@ -16256,7 +16254,7 @@
         <v>83</v>
       </c>
       <c r="I98" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="J98" t="s" s="2">
         <v>76</v>
@@ -16268,16 +16266,16 @@
         <v>145</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="O98" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="P98" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q98" t="s" s="2">
         <v>76</v>
@@ -16306,7 +16304,7 @@
       </c>
       <c r="Z98" s="2"/>
       <c r="AA98" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AB98" t="s" s="2">
         <v>76</v>
@@ -16324,7 +16322,7 @@
         <v>76</v>
       </c>
       <c r="AG98" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AH98" t="s" s="2">
         <v>83</v>
@@ -16341,13 +16339,13 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C99" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D99" s="2"/>
       <c r="E99" t="s" s="2">
@@ -16370,19 +16368,19 @@
         <v>76</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="O99" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="P99" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q99" t="s" s="2">
         <v>76</v>
@@ -16407,10 +16405,10 @@
         <v>76</v>
       </c>
       <c r="Y99" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Z99" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AA99" t="s" s="2">
         <v>76</v>
@@ -16419,7 +16417,7 @@
         <v>76</v>
       </c>
       <c r="AC99" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AD99" s="2"/>
       <c r="AE99" t="s" s="2">
@@ -16429,7 +16427,7 @@
         <v>93</v>
       </c>
       <c r="AG99" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AH99" t="s" s="2">
         <v>83</v>
@@ -16446,16 +16444,16 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C100" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D100" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="E100" t="s" s="2">
         <v>76</v>
@@ -16468,7 +16466,7 @@
         <v>83</v>
       </c>
       <c r="I100" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="J100" t="s" s="2">
         <v>76</v>
@@ -16480,16 +16478,16 @@
         <v>145</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="O100" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="P100" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q100" t="s" s="2">
         <v>76</v>
@@ -16518,7 +16516,7 @@
       </c>
       <c r="Z100" s="2"/>
       <c r="AA100" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AB100" t="s" s="2">
         <v>76</v>
@@ -16536,7 +16534,7 @@
         <v>76</v>
       </c>
       <c r="AG100" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AH100" t="s" s="2">
         <v>83</v>
@@ -16553,13 +16551,13 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C101" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D101" s="2"/>
       <c r="E101" t="s" s="2">
@@ -16582,19 +16580,19 @@
         <v>76</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O101" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="P101" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q101" t="s" s="2">
         <v>76</v>
@@ -16643,7 +16641,7 @@
         <v>76</v>
       </c>
       <c r="AG101" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AH101" t="s" s="2">
         <v>83</v>
@@ -16660,13 +16658,13 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C102" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D102" s="2"/>
       <c r="E102" t="s" s="2">
@@ -16692,13 +16690,13 @@
         <v>155</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="O102" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="P102" s="2"/>
       <c r="Q102" t="s" s="2">
@@ -16748,7 +16746,7 @@
         <v>76</v>
       </c>
       <c r="AG102" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AH102" t="s" s="2">
         <v>77</v>
@@ -16760,18 +16758,18 @@
         <v>80</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C103" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D103" s="2"/>
       <c r="E103" t="s" s="2">
@@ -16794,17 +16792,17 @@
         <v>76</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="O103" s="2"/>
       <c r="P103" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q103" t="s" s="2">
         <v>76</v>
@@ -16853,7 +16851,7 @@
         <v>76</v>
       </c>
       <c r="AG103" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AH103" t="s" s="2">
         <v>77</v>
@@ -16862,7 +16860,7 @@
         <v>78</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AK103" t="s" s="2">
         <v>104</v>
@@ -16870,13 +16868,13 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C104" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D104" s="2"/>
       <c r="E104" t="s" s="2">
@@ -16973,13 +16971,13 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C105" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D105" s="2"/>
       <c r="E105" t="s" s="2">
@@ -17078,17 +17076,17 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C106" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D106" s="2"/>
       <c r="E106" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="F106" s="2"/>
       <c r="G106" t="s" s="2">
@@ -17101,25 +17099,25 @@
         <v>76</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L106" t="s" s="2">
         <v>89</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="N106" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="O106" t="s" s="2">
         <v>113</v>
       </c>
       <c r="P106" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q106" t="s" s="2">
         <v>76</v>
@@ -17168,7 +17166,7 @@
         <v>76</v>
       </c>
       <c r="AG106" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AH106" t="s" s="2">
         <v>77</v>
@@ -17185,13 +17183,13 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C107" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D107" s="2"/>
       <c r="E107" t="s" s="2">
@@ -17214,16 +17212,16 @@
         <v>76</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="O107" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="P107" s="2"/>
       <c r="Q107" t="s" s="2">
@@ -17273,7 +17271,7 @@
         <v>76</v>
       </c>
       <c r="AG107" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AH107" t="s" s="2">
         <v>83</v>
@@ -17285,18 +17283,18 @@
         <v>80</v>
       </c>
       <c r="AK107" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C108" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D108" s="2"/>
       <c r="E108" t="s" s="2">
@@ -17322,67 +17320,67 @@
         <v>155</v>
       </c>
       <c r="M108" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="N108" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="O108" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="P108" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="Q108" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R108" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="S108" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T108" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U108" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V108" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W108" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X108" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y108" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z108" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA108" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB108" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC108" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD108" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE108" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF108" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG108" t="s" s="2">
         <v>355</v>
-      </c>
-      <c r="N108" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="O108" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="P108" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="Q108" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R108" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="S108" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T108" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U108" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V108" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W108" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X108" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y108" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z108" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA108" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB108" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC108" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD108" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE108" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF108" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG108" t="s" s="2">
-        <v>354</v>
       </c>
       <c r="AH108" t="s" s="2">
         <v>77</v>
@@ -17394,18 +17392,18 @@
         <v>80</v>
       </c>
       <c r="AK108" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C109" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D109" s="2"/>
       <c r="E109" t="s" s="2">
@@ -17428,23 +17426,23 @@
         <v>76</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="N109" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="O109" s="2"/>
       <c r="P109" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q109" t="s" s="2">
         <v>76</v>
       </c>
       <c r="R109" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="S109" t="s" s="2">
         <v>76</v>
@@ -17489,7 +17487,7 @@
         <v>76</v>
       </c>
       <c r="AG109" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AH109" t="s" s="2">
         <v>77</v>
@@ -17506,7 +17504,7 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B110" t="s" s="2">
         <v>31</v>
@@ -17541,7 +17539,7 @@
         <v>31</v>
       </c>
       <c r="N110" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="O110" s="2"/>
       <c r="P110" s="2"/>
@@ -17609,7 +17607,7 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B111" t="s" s="2">
         <v>82</v>
@@ -17712,7 +17710,7 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B112" t="s" s="2">
         <v>88</v>
@@ -17817,16 +17815,16 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C113" t="s" s="2">
         <v>88</v>
       </c>
       <c r="D113" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E113" t="s" s="2">
         <v>76</v>
@@ -17851,7 +17849,7 @@
         <v>89</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="N113" t="s" s="2">
         <v>90</v>
@@ -17922,10 +17920,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C114" t="s" s="2">
         <v>118</v>
@@ -18025,10 +18023,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C115" t="s" s="2">
         <v>120</v>
@@ -18128,10 +18126,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C116" t="s" s="2">
         <v>122</v>
@@ -18174,7 +18172,7 @@
       </c>
       <c r="R116" s="2"/>
       <c r="S116" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="T116" t="s" s="2">
         <v>76</v>
@@ -18233,10 +18231,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C117" t="s" s="2">
         <v>124</v>
@@ -18299,7 +18297,7 @@
       </c>
       <c r="Z117" s="2"/>
       <c r="AA117" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AB117" t="s" s="2">
         <v>76</v>
@@ -18334,16 +18332,16 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C118" t="s" s="2">
         <v>88</v>
       </c>
       <c r="D118" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E118" t="s" s="2">
         <v>76</v>
@@ -18439,10 +18437,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C119" t="s" s="2">
         <v>118</v>
@@ -18542,10 +18540,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C120" t="s" s="2">
         <v>120</v>
@@ -18645,10 +18643,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C121" t="s" s="2">
         <v>122</v>
@@ -18691,7 +18689,7 @@
       </c>
       <c r="R121" s="2"/>
       <c r="S121" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="T121" t="s" s="2">
         <v>76</v>
@@ -18750,10 +18748,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C122" t="s" s="2">
         <v>124</v>
@@ -18853,7 +18851,7 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B123" t="s" s="2">
         <v>95</v>
@@ -18899,7 +18897,7 @@
       </c>
       <c r="R123" s="2"/>
       <c r="S123" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="T123" t="s" s="2">
         <v>76</v>
@@ -18958,7 +18956,7 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B124" t="s" s="2">
         <v>100</v>
@@ -19061,13 +19059,13 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C125" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D125" s="2"/>
       <c r="E125" t="s" s="2">
@@ -19093,10 +19091,10 @@
         <v>79</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="N125" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="O125" s="2"/>
       <c r="P125" s="2"/>
@@ -19147,7 +19145,7 @@
         <v>76</v>
       </c>
       <c r="AG125" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AH125" t="s" s="2">
         <v>77</v>
@@ -19159,18 +19157,18 @@
         <v>76</v>
       </c>
       <c r="AK125" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C126" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D126" s="2"/>
       <c r="E126" t="s" s="2">
@@ -19190,19 +19188,19 @@
         <v>76</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="N126" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="O126" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="P126" s="2"/>
       <c r="Q126" t="s" s="2">
@@ -19252,7 +19250,7 @@
         <v>76</v>
       </c>
       <c r="AG126" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AH126" t="s" s="2">
         <v>77</v>
@@ -19269,13 +19267,13 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C127" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D127" s="2"/>
       <c r="E127" t="s" s="2">
@@ -19295,16 +19293,16 @@
         <v>76</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N127" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O127" s="2"/>
       <c r="P127" s="2"/>
@@ -19355,7 +19353,7 @@
         <v>76</v>
       </c>
       <c r="AG127" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AH127" t="s" s="2">
         <v>77</v>
@@ -19372,13 +19370,13 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C128" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D128" s="2"/>
       <c r="E128" t="s" s="2">
@@ -19395,22 +19393,22 @@
         <v>76</v>
       </c>
       <c r="J128" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L128" t="s" s="2">
         <v>96</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N128" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="O128" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="P128" s="2"/>
       <c r="Q128" t="s" s="2">
@@ -19460,7 +19458,7 @@
         <v>76</v>
       </c>
       <c r="AG128" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AH128" t="s" s="2">
         <v>77</v>
@@ -19477,13 +19475,13 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C129" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D129" s="2"/>
       <c r="E129" t="s" s="2">
@@ -19506,16 +19504,16 @@
         <v>76</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N129" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O129" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="P129" s="2"/>
       <c r="Q129" t="s" s="2">
@@ -19541,13 +19539,13 @@
         <v>76</v>
       </c>
       <c r="Y129" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Z129" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AA129" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AB129" t="s" s="2">
         <v>76</v>
@@ -19565,7 +19563,7 @@
         <v>76</v>
       </c>
       <c r="AG129" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AH129" t="s" s="2">
         <v>77</v>
@@ -19582,17 +19580,17 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C130" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D130" s="2"/>
       <c r="E130" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F130" s="2"/>
       <c r="G130" t="s" s="2">
@@ -19611,16 +19609,16 @@
         <v>76</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="N130" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="O130" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="P130" s="2"/>
       <c r="Q130" t="s" s="2">
@@ -19670,7 +19668,7 @@
         <v>76</v>
       </c>
       <c r="AG130" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AH130" t="s" s="2">
         <v>77</v>
@@ -19687,17 +19685,17 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C131" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D131" s="2"/>
       <c r="E131" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F131" s="2"/>
       <c r="G131" t="s" s="2">
@@ -19716,16 +19714,16 @@
         <v>76</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="N131" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="O131" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="P131" s="2"/>
       <c r="Q131" t="s" s="2">
@@ -19775,7 +19773,7 @@
         <v>76</v>
       </c>
       <c r="AG131" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AH131" t="s" s="2">
         <v>77</v>
@@ -19792,13 +19790,13 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C132" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D132" s="2"/>
       <c r="E132" t="s" s="2">
@@ -19827,7 +19825,7 @@
         <v>111</v>
       </c>
       <c r="N132" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="O132" t="s" s="2">
         <v>113</v>
@@ -19880,7 +19878,7 @@
         <v>93</v>
       </c>
       <c r="AG132" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AH132" t="s" s="2">
         <v>77</v>
@@ -19897,13 +19895,13 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C133" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D133" s="2"/>
       <c r="E133" t="s" s="2">
@@ -19920,7 +19918,7 @@
         <v>76</v>
       </c>
       <c r="J133" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K133" t="s" s="2">
         <v>76</v>
@@ -19929,16 +19927,16 @@
         <v>89</v>
       </c>
       <c r="M133" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="N133" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="O133" t="s" s="2">
         <v>113</v>
       </c>
       <c r="P133" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q133" t="s" s="2">
         <v>76</v>
@@ -19987,7 +19985,7 @@
         <v>93</v>
       </c>
       <c r="AG133" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AH133" t="s" s="2">
         <v>77</v>
@@ -20004,13 +20002,13 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C134" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D134" s="2"/>
       <c r="E134" t="s" s="2">
@@ -20030,20 +20028,20 @@
         <v>76</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M134" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N134" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="O134" s="2"/>
       <c r="P134" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="Q134" t="s" s="2">
         <v>76</v>
@@ -20092,7 +20090,7 @@
         <v>76</v>
       </c>
       <c r="AG134" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AH134" t="s" s="2">
         <v>77</v>
@@ -20109,13 +20107,13 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C135" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D135" s="2"/>
       <c r="E135" t="s" s="2">
@@ -20132,22 +20130,22 @@
         <v>76</v>
       </c>
       <c r="J135" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="N135" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="O135" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="P135" s="2"/>
       <c r="Q135" t="s" s="2">
@@ -20176,10 +20174,10 @@
         <v>191</v>
       </c>
       <c r="Z135" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AA135" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AB135" t="s" s="2">
         <v>76</v>
@@ -20197,7 +20195,7 @@
         <v>76</v>
       </c>
       <c r="AG135" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AH135" t="s" s="2">
         <v>77</v>
@@ -20214,13 +20212,13 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C136" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D136" s="2"/>
       <c r="E136" t="s" s="2">
@@ -20240,19 +20238,19 @@
         <v>76</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="M136" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="N136" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="O136" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="P136" s="2"/>
       <c r="Q136" t="s" s="2">
@@ -20278,13 +20276,13 @@
         <v>76</v>
       </c>
       <c r="Y136" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Z136" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AA136" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AB136" t="s" s="2">
         <v>76</v>
@@ -20302,7 +20300,7 @@
         <v>76</v>
       </c>
       <c r="AG136" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AH136" t="s" s="2">
         <v>77</v>
@@ -20319,13 +20317,13 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C137" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D137" s="2"/>
       <c r="E137" t="s" s="2">
@@ -20345,19 +20343,19 @@
         <v>76</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L137" t="s" s="2">
         <v>84</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="N137" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="O137" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="P137" s="2"/>
       <c r="Q137" t="s" s="2">
@@ -20407,7 +20405,7 @@
         <v>76</v>
       </c>
       <c r="AG137" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AH137" t="s" s="2">
         <v>77</v>
@@ -20424,13 +20422,13 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C138" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D138" s="2"/>
       <c r="E138" t="s" s="2">
@@ -20456,16 +20454,16 @@
         <v>84</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="N138" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="O138" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="P138" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="Q138" t="s" s="2">
         <v>76</v>
@@ -20514,7 +20512,7 @@
         <v>76</v>
       </c>
       <c r="AG138" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AH138" t="s" s="2">
         <v>77</v>
@@ -20531,13 +20529,13 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C139" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D139" s="2"/>
       <c r="E139" t="s" s="2">
@@ -20557,22 +20555,22 @@
         <v>76</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L139" t="s" s="2">
         <v>84</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="N139" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="O139" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="P139" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="Q139" t="s" s="2">
         <v>76</v>
@@ -20621,7 +20619,7 @@
         <v>76</v>
       </c>
       <c r="AG139" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AH139" t="s" s="2">
         <v>77</v>
@@ -20638,13 +20636,13 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C140" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D140" s="2"/>
       <c r="E140" t="s" s="2">
@@ -20664,22 +20662,22 @@
         <v>76</v>
       </c>
       <c r="K140" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="N140" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="O140" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="P140" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="Q140" t="s" s="2">
         <v>76</v>
@@ -20707,10 +20705,10 @@
         <v>191</v>
       </c>
       <c r="Z140" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AA140" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AB140" t="s" s="2">
         <v>76</v>
@@ -20728,7 +20726,7 @@
         <v>76</v>
       </c>
       <c r="AG140" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AH140" t="s" s="2">
         <v>77</v>
@@ -20745,13 +20743,13 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C141" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D141" s="2"/>
       <c r="E141" t="s" s="2">
@@ -20771,19 +20769,19 @@
         <v>76</v>
       </c>
       <c r="K141" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L141" t="s" s="2">
         <v>145</v>
       </c>
       <c r="M141" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="N141" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="O141" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="P141" s="2"/>
       <c r="Q141" t="s" s="2">
@@ -20812,10 +20810,10 @@
         <v>146</v>
       </c>
       <c r="Z141" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AA141" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AB141" t="s" s="2">
         <v>76</v>
@@ -20833,7 +20831,7 @@
         <v>76</v>
       </c>
       <c r="AG141" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AH141" t="s" s="2">
         <v>77</v>
@@ -20850,13 +20848,13 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C142" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D142" s="2"/>
       <c r="E142" t="s" s="2">
@@ -20879,13 +20877,13 @@
         <v>76</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="M142" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="N142" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="O142" s="2"/>
       <c r="P142" s="2"/>
@@ -20936,7 +20934,7 @@
         <v>76</v>
       </c>
       <c r="AG142" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AH142" t="s" s="2">
         <v>77</v>
@@ -20948,18 +20946,18 @@
         <v>80</v>
       </c>
       <c r="AK142" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C143" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="D143" s="2"/>
       <c r="E143" t="s" s="2">
@@ -21056,13 +21054,13 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C144" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D144" s="2"/>
       <c r="E144" t="s" s="2">
@@ -21161,16 +21159,16 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B145" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="C145" t="s" s="2">
         <v>445</v>
       </c>
-      <c r="C145" t="s" s="2">
-        <v>444</v>
-      </c>
       <c r="D145" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="E145" t="s" s="2">
         <v>76</v>
@@ -21183,7 +21181,7 @@
         <v>83</v>
       </c>
       <c r="I145" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="J145" t="s" s="2">
         <v>76</v>
@@ -21192,13 +21190,13 @@
         <v>76</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="M145" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="N145" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="O145" s="2"/>
       <c r="P145" s="2"/>
@@ -21266,13 +21264,13 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C146" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D146" s="2"/>
       <c r="E146" t="s" s="2">
@@ -21292,19 +21290,19 @@
         <v>76</v>
       </c>
       <c r="K146" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M146" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="N146" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="O146" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="P146" s="2"/>
       <c r="Q146" t="s" s="2">
@@ -21333,10 +21331,10 @@
         <v>191</v>
       </c>
       <c r="Z146" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AA146" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AB146" t="s" s="2">
         <v>76</v>
@@ -21354,7 +21352,7 @@
         <v>76</v>
       </c>
       <c r="AG146" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AH146" t="s" s="2">
         <v>77</v>
@@ -21363,7 +21361,7 @@
         <v>83</v>
       </c>
       <c r="AJ146" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AK146" t="s" s="2">
         <v>104</v>
@@ -21371,13 +21369,13 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C147" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D147" s="2"/>
       <c r="E147" t="s" s="2">
@@ -21397,22 +21395,22 @@
         <v>76</v>
       </c>
       <c r="K147" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L147" t="s" s="2">
         <v>84</v>
       </c>
       <c r="M147" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="N147" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="O147" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="P147" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="Q147" t="s" s="2">
         <v>76</v>
@@ -21461,7 +21459,7 @@
         <v>76</v>
       </c>
       <c r="AG147" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AH147" t="s" s="2">
         <v>77</v>
@@ -21478,13 +21476,13 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C148" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="D148" s="2"/>
       <c r="E148" t="s" s="2">
@@ -21501,25 +21499,25 @@
         <v>76</v>
       </c>
       <c r="J148" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K148" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M148" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="N148" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="O148" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="P148" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="Q148" t="s" s="2">
         <v>76</v>
@@ -21547,10 +21545,10 @@
         <v>191</v>
       </c>
       <c r="Z148" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AA148" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AB148" t="s" s="2">
         <v>76</v>
@@ -21568,7 +21566,7 @@
         <v>76</v>
       </c>
       <c r="AG148" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AH148" t="s" s="2">
         <v>77</v>
@@ -21585,13 +21583,13 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C149" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="D149" s="2"/>
       <c r="E149" t="s" s="2">
@@ -21611,19 +21609,19 @@
         <v>76</v>
       </c>
       <c r="K149" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L149" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="M149" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="N149" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="O149" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="P149" s="2"/>
       <c r="Q149" t="s" s="2">
@@ -21673,7 +21671,7 @@
         <v>76</v>
       </c>
       <c r="AG149" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AH149" t="s" s="2">
         <v>77</v>
@@ -21690,13 +21688,13 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C150" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="D150" s="2"/>
       <c r="E150" t="s" s="2">
@@ -21716,19 +21714,19 @@
         <v>76</v>
       </c>
       <c r="K150" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L150" t="s" s="2">
         <v>155</v>
       </c>
       <c r="M150" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="N150" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="O150" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="P150" s="2"/>
       <c r="Q150" t="s" s="2">
@@ -21778,7 +21776,7 @@
         <v>76</v>
       </c>
       <c r="AG150" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AH150" t="s" s="2">
         <v>77</v>
@@ -21790,18 +21788,18 @@
         <v>80</v>
       </c>
       <c r="AK150" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C151" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D151" s="2"/>
       <c r="E151" t="s" s="2">
@@ -21827,16 +21825,16 @@
         <v>177</v>
       </c>
       <c r="M151" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="N151" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="O151" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="P151" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="Q151" t="s" s="2">
         <v>76</v>
@@ -21885,7 +21883,7 @@
         <v>76</v>
       </c>
       <c r="AG151" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AH151" t="s" s="2">
         <v>77</v>
@@ -21902,13 +21900,13 @@
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C152" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="D152" s="2"/>
       <c r="E152" t="s" s="2">
@@ -21928,22 +21926,22 @@
         <v>76</v>
       </c>
       <c r="K152" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L152" t="s" s="2">
         <v>145</v>
       </c>
       <c r="M152" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="N152" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="O152" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="P152" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="Q152" t="s" s="2">
         <v>76</v>
@@ -21968,13 +21966,13 @@
         <v>76</v>
       </c>
       <c r="Y152" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Z152" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="AA152" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="AB152" t="s" s="2">
         <v>76</v>
@@ -21992,7 +21990,7 @@
         <v>76</v>
       </c>
       <c r="AG152" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AH152" t="s" s="2">
         <v>77</v>
@@ -22009,13 +22007,13 @@
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C153" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="D153" s="2"/>
       <c r="E153" t="s" s="2">
@@ -22038,17 +22036,17 @@
         <v>76</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M153" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="N153" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="O153" s="2"/>
       <c r="P153" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="Q153" t="s" s="2">
         <v>76</v>
@@ -22097,7 +22095,7 @@
         <v>76</v>
       </c>
       <c r="AG153" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="AH153" t="s" s="2">
         <v>77</v>
@@ -22114,13 +22112,13 @@
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C154" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="D154" s="2"/>
       <c r="E154" t="s" s="2">
@@ -22217,13 +22215,13 @@
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C155" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="D155" s="2"/>
       <c r="E155" t="s" s="2">
@@ -22322,17 +22320,17 @@
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C156" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="D156" s="2"/>
       <c r="E156" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="F156" s="2"/>
       <c r="G156" t="s" s="2">
@@ -22345,25 +22343,25 @@
         <v>76</v>
       </c>
       <c r="J156" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K156" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L156" t="s" s="2">
         <v>89</v>
       </c>
       <c r="M156" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="N156" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="O156" t="s" s="2">
         <v>113</v>
       </c>
       <c r="P156" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q156" t="s" s="2">
         <v>76</v>
@@ -22412,7 +22410,7 @@
         <v>76</v>
       </c>
       <c r="AG156" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AH156" t="s" s="2">
         <v>77</v>
@@ -22429,13 +22427,13 @@
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C157" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="D157" s="2"/>
       <c r="E157" t="s" s="2">
@@ -22458,16 +22456,16 @@
         <v>76</v>
       </c>
       <c r="L157" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="M157" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="N157" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="O157" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="P157" s="2"/>
       <c r="Q157" t="s" s="2">
@@ -22517,7 +22515,7 @@
         <v>76</v>
       </c>
       <c r="AG157" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="AH157" t="s" s="2">
         <v>83</v>
@@ -22534,13 +22532,13 @@
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C158" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="D158" s="2"/>
       <c r="E158" t="s" s="2">
@@ -22563,16 +22561,16 @@
         <v>76</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="M158" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="N158" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="O158" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="P158" s="2"/>
       <c r="Q158" t="s" s="2">
@@ -22622,7 +22620,7 @@
         <v>76</v>
       </c>
       <c r="AG158" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="AH158" t="s" s="2">
         <v>83</v>
@@ -22639,13 +22637,13 @@
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C159" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D159" s="2"/>
       <c r="E159" t="s" s="2">
@@ -22668,16 +22666,16 @@
         <v>76</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="M159" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="N159" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="O159" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="P159" s="2"/>
       <c r="Q159" t="s" s="2">
@@ -22727,7 +22725,7 @@
         <v>76</v>
       </c>
       <c r="AG159" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="AH159" t="s" s="2">
         <v>77</v>
@@ -22744,13 +22742,13 @@
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C160" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="D160" s="2"/>
       <c r="E160" t="s" s="2">
@@ -22770,22 +22768,22 @@
         <v>76</v>
       </c>
       <c r="K160" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L160" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="M160" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="N160" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="O160" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="P160" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="Q160" t="s" s="2">
         <v>76</v>
@@ -22834,7 +22832,7 @@
         <v>76</v>
       </c>
       <c r="AG160" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AH160" t="s" s="2">
         <v>77</v>
@@ -22846,18 +22844,18 @@
         <v>80</v>
       </c>
       <c r="AK160" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C161" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="D161" s="2"/>
       <c r="E161" t="s" s="2">
@@ -22880,19 +22878,19 @@
         <v>76</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="M161" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="N161" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="O161" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="P161" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="Q161" t="s" s="2">
         <v>76</v>
@@ -22941,7 +22939,7 @@
         <v>76</v>
       </c>
       <c r="AG161" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AH161" t="s" s="2">
         <v>77</v>
@@ -22953,18 +22951,18 @@
         <v>80</v>
       </c>
       <c r="AK161" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C162" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D162" s="2"/>
       <c r="E162" t="s" s="2">
@@ -22987,16 +22985,16 @@
         <v>76</v>
       </c>
       <c r="L162" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M162" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="N162" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="O162" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="P162" s="2"/>
       <c r="Q162" t="s" s="2">
@@ -23046,7 +23044,7 @@
         <v>76</v>
       </c>
       <c r="AG162" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="AH162" t="s" s="2">
         <v>77</v>
@@ -23063,13 +23061,13 @@
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C163" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="D163" s="2"/>
       <c r="E163" t="s" s="2">
@@ -23166,13 +23164,13 @@
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="C164" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="D164" s="2"/>
       <c r="E164" t="s" s="2">
@@ -23271,17 +23269,17 @@
     </row>
     <row r="165">
       <c r="A165" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C165" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="D165" s="2"/>
       <c r="E165" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="F165" s="2"/>
       <c r="G165" t="s" s="2">
@@ -23294,25 +23292,25 @@
         <v>76</v>
       </c>
       <c r="J165" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K165" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L165" t="s" s="2">
         <v>89</v>
       </c>
       <c r="M165" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="N165" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="O165" t="s" s="2">
         <v>113</v>
       </c>
       <c r="P165" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q165" t="s" s="2">
         <v>76</v>
@@ -23361,7 +23359,7 @@
         <v>76</v>
       </c>
       <c r="AG165" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AH165" t="s" s="2">
         <v>77</v>
@@ -23378,13 +23376,13 @@
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C166" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="D166" s="2"/>
       <c r="E166" t="s" s="2">
@@ -23407,16 +23405,16 @@
         <v>76</v>
       </c>
       <c r="L166" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M166" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="N166" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="O166" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="P166" s="2"/>
       <c r="Q166" t="s" s="2">
@@ -23445,10 +23443,10 @@
         <v>191</v>
       </c>
       <c r="Z166" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="AA166" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="AB166" t="s" s="2">
         <v>76</v>
@@ -23466,7 +23464,7 @@
         <v>76</v>
       </c>
       <c r="AG166" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="AH166" t="s" s="2">
         <v>77</v>
@@ -23483,13 +23481,13 @@
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C167" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="D167" s="2"/>
       <c r="E167" t="s" s="2">
@@ -23512,13 +23510,13 @@
         <v>76</v>
       </c>
       <c r="L167" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M167" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="N167" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="O167" s="2"/>
       <c r="P167" s="2"/>
@@ -23569,7 +23567,7 @@
         <v>76</v>
       </c>
       <c r="AG167" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="AH167" t="s" s="2">
         <v>77</v>
@@ -23586,13 +23584,13 @@
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B168" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="C168" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="D168" s="2"/>
       <c r="E168" t="s" s="2">
@@ -23615,13 +23613,13 @@
         <v>76</v>
       </c>
       <c r="L168" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="M168" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="N168" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="O168" s="2"/>
       <c r="P168" s="2"/>
@@ -23672,7 +23670,7 @@
         <v>76</v>
       </c>
       <c r="AG168" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="AH168" t="s" s="2">
         <v>77</v>
@@ -23689,13 +23687,13 @@
     </row>
     <row r="169">
       <c r="A169" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B169" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C169" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="D169" s="2"/>
       <c r="E169" t="s" s="2">
@@ -23718,13 +23716,13 @@
         <v>76</v>
       </c>
       <c r="L169" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="M169" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="N169" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="O169" s="2"/>
       <c r="P169" s="2"/>
@@ -23775,7 +23773,7 @@
         <v>76</v>
       </c>
       <c r="AG169" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AH169" t="s" s="2">
         <v>77</v>
@@ -23792,13 +23790,13 @@
     </row>
     <row r="170">
       <c r="A170" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B170" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C170" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="D170" s="2"/>
       <c r="E170" t="s" s="2">
@@ -23824,13 +23822,13 @@
         <v>84</v>
       </c>
       <c r="M170" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="N170" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="O170" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="P170" s="2"/>
       <c r="Q170" t="s" s="2">
@@ -23880,7 +23878,7 @@
         <v>76</v>
       </c>
       <c r="AG170" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AH170" t="s" s="2">
         <v>77</v>
@@ -23897,13 +23895,13 @@
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C171" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="D171" s="2"/>
       <c r="E171" t="s" s="2">
@@ -23926,19 +23924,19 @@
         <v>76</v>
       </c>
       <c r="L171" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="M171" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="N171" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="O171" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="P171" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="Q171" t="s" s="2">
         <v>76</v>
@@ -23987,7 +23985,7 @@
         <v>76</v>
       </c>
       <c r="AG171" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AH171" t="s" s="2">
         <v>77</v>
@@ -23999,12 +23997,12 @@
         <v>80</v>
       </c>
       <c r="AK171" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B172" t="s" s="2">
         <v>31</v>
@@ -24039,7 +24037,7 @@
         <v>31</v>
       </c>
       <c r="N172" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="O172" s="2"/>
       <c r="P172" s="2"/>
@@ -24107,7 +24105,7 @@
     </row>
     <row r="173">
       <c r="A173" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B173" t="s" s="2">
         <v>82</v>
@@ -24210,7 +24208,7 @@
     </row>
     <row r="174">
       <c r="A174" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B174" t="s" s="2">
         <v>88</v>
@@ -24315,7 +24313,7 @@
     </row>
     <row r="175">
       <c r="A175" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B175" t="s" s="2">
         <v>114</v>
@@ -24349,7 +24347,7 @@
         <v>89</v>
       </c>
       <c r="M175" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="N175" t="s" s="2">
         <v>90</v>
@@ -24420,7 +24418,7 @@
     </row>
     <row r="176">
       <c r="A176" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B176" t="s" s="2">
         <v>117</v>
@@ -24523,7 +24521,7 @@
     </row>
     <row r="177">
       <c r="A177" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B177" t="s" s="2">
         <v>119</v>
@@ -24626,7 +24624,7 @@
     </row>
     <row r="178">
       <c r="A178" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B178" t="s" s="2">
         <v>121</v>
@@ -24731,7 +24729,7 @@
     </row>
     <row r="179">
       <c r="A179" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B179" t="s" s="2">
         <v>123</v>
@@ -24834,16 +24832,16 @@
     </row>
     <row r="180">
       <c r="A180" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B180" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C180" t="s" s="2">
         <v>88</v>
       </c>
       <c r="D180" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E180" t="s" s="2">
         <v>76</v>
@@ -24868,7 +24866,7 @@
         <v>89</v>
       </c>
       <c r="M180" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="N180" t="s" s="2">
         <v>90</v>
@@ -24939,10 +24937,10 @@
     </row>
     <row r="181">
       <c r="A181" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B181" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C181" t="s" s="2">
         <v>118</v>
@@ -25042,10 +25040,10 @@
     </row>
     <row r="182">
       <c r="A182" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B182" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C182" t="s" s="2">
         <v>120</v>
@@ -25145,10 +25143,10 @@
     </row>
     <row r="183">
       <c r="A183" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B183" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C183" t="s" s="2">
         <v>122</v>
@@ -25191,7 +25189,7 @@
       </c>
       <c r="R183" s="2"/>
       <c r="S183" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="T183" t="s" s="2">
         <v>76</v>
@@ -25250,10 +25248,10 @@
     </row>
     <row r="184">
       <c r="A184" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B184" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C184" t="s" s="2">
         <v>124</v>
@@ -25316,7 +25314,7 @@
       </c>
       <c r="Z184" s="2"/>
       <c r="AA184" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="AB184" t="s" s="2">
         <v>76</v>
@@ -25351,7 +25349,7 @@
     </row>
     <row r="185">
       <c r="A185" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B185" t="s" s="2">
         <v>125</v>
@@ -25385,7 +25383,7 @@
         <v>89</v>
       </c>
       <c r="M185" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="N185" t="s" s="2">
         <v>90</v>
@@ -25456,7 +25454,7 @@
     </row>
     <row r="186">
       <c r="A186" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B186" t="s" s="2">
         <v>128</v>
@@ -25559,7 +25557,7 @@
     </row>
     <row r="187">
       <c r="A187" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B187" t="s" s="2">
         <v>129</v>
@@ -25662,7 +25660,7 @@
     </row>
     <row r="188">
       <c r="A188" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B188" t="s" s="2">
         <v>130</v>
@@ -25767,7 +25765,7 @@
     </row>
     <row r="189">
       <c r="A189" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B189" t="s" s="2">
         <v>131</v>
@@ -25796,7 +25794,7 @@
         <v>76</v>
       </c>
       <c r="L189" t="s" s="2">
-        <v>559</v>
+        <v>197</v>
       </c>
       <c r="M189" t="s" s="2">
         <v>102</v>
@@ -25870,7 +25868,7 @@
     </row>
     <row r="190">
       <c r="A190" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B190" t="s" s="2">
         <v>560</v>
@@ -25975,7 +25973,7 @@
     </row>
     <row r="191">
       <c r="A191" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B191" t="s" s="2">
         <v>563</v>
@@ -26078,7 +26076,7 @@
     </row>
     <row r="192">
       <c r="A192" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B192" t="s" s="2">
         <v>564</v>
@@ -26181,7 +26179,7 @@
     </row>
     <row r="193">
       <c r="A193" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B193" t="s" s="2">
         <v>565</v>
@@ -26286,7 +26284,7 @@
     </row>
     <row r="194">
       <c r="A194" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B194" t="s" s="2">
         <v>566</v>
@@ -26389,7 +26387,7 @@
     </row>
     <row r="195">
       <c r="A195" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B195" t="s" s="2">
         <v>95</v>
@@ -26435,7 +26433,7 @@
       </c>
       <c r="R195" s="2"/>
       <c r="S195" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="T195" t="s" s="2">
         <v>76</v>
@@ -26494,7 +26492,7 @@
     </row>
     <row r="196">
       <c r="A196" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B196" t="s" s="2">
         <v>100</v>
@@ -27729,7 +27727,7 @@
         <v>76</v>
       </c>
       <c r="AK207" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="208">
@@ -27760,19 +27758,19 @@
         <v>76</v>
       </c>
       <c r="K208" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L208" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M208" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="N208" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="O208" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="P208" s="2"/>
       <c r="Q208" t="s" s="2">
@@ -27822,7 +27820,7 @@
         <v>76</v>
       </c>
       <c r="AG208" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AH208" t="s" s="2">
         <v>77</v>
@@ -27865,16 +27863,16 @@
         <v>76</v>
       </c>
       <c r="K209" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L209" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M209" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N209" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O209" s="2"/>
       <c r="P209" s="2"/>
@@ -27925,7 +27923,7 @@
         <v>76</v>
       </c>
       <c r="AG209" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AH209" t="s" s="2">
         <v>77</v>
@@ -27965,22 +27963,22 @@
         <v>76</v>
       </c>
       <c r="J210" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K210" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L210" t="s" s="2">
         <v>96</v>
       </c>
       <c r="M210" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N210" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="O210" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="P210" s="2"/>
       <c r="Q210" t="s" s="2">
@@ -28030,7 +28028,7 @@
         <v>76</v>
       </c>
       <c r="AG210" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AH210" t="s" s="2">
         <v>77</v>
@@ -28076,16 +28074,16 @@
         <v>76</v>
       </c>
       <c r="L211" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M211" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N211" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O211" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="P211" s="2"/>
       <c r="Q211" t="s" s="2">
@@ -28111,13 +28109,13 @@
         <v>76</v>
       </c>
       <c r="Y211" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Z211" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AA211" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AB211" t="s" s="2">
         <v>76</v>
@@ -28135,7 +28133,7 @@
         <v>76</v>
       </c>
       <c r="AG211" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AH211" t="s" s="2">
         <v>77</v>
@@ -28162,7 +28160,7 @@
       </c>
       <c r="D212" s="2"/>
       <c r="E212" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F212" s="2"/>
       <c r="G212" t="s" s="2">
@@ -28181,16 +28179,16 @@
         <v>76</v>
       </c>
       <c r="L212" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M212" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="N212" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="O212" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="P212" s="2"/>
       <c r="Q212" t="s" s="2">
@@ -28240,7 +28238,7 @@
         <v>76</v>
       </c>
       <c r="AG212" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AH212" t="s" s="2">
         <v>77</v>
@@ -28267,7 +28265,7 @@
       </c>
       <c r="D213" s="2"/>
       <c r="E213" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F213" s="2"/>
       <c r="G213" t="s" s="2">
@@ -28286,16 +28284,16 @@
         <v>76</v>
       </c>
       <c r="L213" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M213" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="N213" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="O213" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="P213" s="2"/>
       <c r="Q213" t="s" s="2">
@@ -28345,7 +28343,7 @@
         <v>76</v>
       </c>
       <c r="AG213" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AH213" t="s" s="2">
         <v>77</v>
@@ -28397,7 +28395,7 @@
         <v>111</v>
       </c>
       <c r="N214" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="O214" t="s" s="2">
         <v>113</v>
@@ -28450,7 +28448,7 @@
         <v>93</v>
       </c>
       <c r="AG214" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AH214" t="s" s="2">
         <v>77</v>
@@ -28489,7 +28487,7 @@
         <v>83</v>
       </c>
       <c r="I215" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="J215" t="s" s="2">
         <v>76</v>
@@ -28555,7 +28553,7 @@
         <v>76</v>
       </c>
       <c r="AG215" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AH215" t="s" s="2">
         <v>77</v>
@@ -28594,7 +28592,7 @@
         <v>83</v>
       </c>
       <c r="I216" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="J216" t="s" s="2">
         <v>76</v>
@@ -28660,7 +28658,7 @@
         <v>76</v>
       </c>
       <c r="AG216" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AH216" t="s" s="2">
         <v>77</v>
@@ -28699,7 +28697,7 @@
         <v>83</v>
       </c>
       <c r="I217" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="J217" t="s" s="2">
         <v>76</v>
@@ -28765,7 +28763,7 @@
         <v>76</v>
       </c>
       <c r="AG217" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AH217" t="s" s="2">
         <v>77</v>
@@ -28804,7 +28802,7 @@
         <v>83</v>
       </c>
       <c r="I218" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="J218" t="s" s="2">
         <v>76</v>
@@ -28870,7 +28868,7 @@
         <v>76</v>
       </c>
       <c r="AG218" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AH218" t="s" s="2">
         <v>77</v>
@@ -28909,7 +28907,7 @@
         <v>83</v>
       </c>
       <c r="I219" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="J219" t="s" s="2">
         <v>76</v>
@@ -28975,7 +28973,7 @@
         <v>76</v>
       </c>
       <c r="AG219" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AH219" t="s" s="2">
         <v>77</v>
@@ -29014,7 +29012,7 @@
         <v>83</v>
       </c>
       <c r="I220" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="J220" t="s" s="2">
         <v>76</v>
@@ -29080,7 +29078,7 @@
         <v>76</v>
       </c>
       <c r="AG220" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AH220" t="s" s="2">
         <v>77</v>
@@ -29106,7 +29104,7 @@
         <v>593</v>
       </c>
       <c r="D221" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="E221" t="s" s="2">
         <v>76</v>
@@ -29119,7 +29117,7 @@
         <v>78</v>
       </c>
       <c r="I221" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="J221" t="s" s="2">
         <v>76</v>
@@ -29185,7 +29183,7 @@
         <v>76</v>
       </c>
       <c r="AG221" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AH221" t="s" s="2">
         <v>77</v>
@@ -29224,7 +29222,7 @@
         <v>78</v>
       </c>
       <c r="I222" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="J222" t="s" s="2">
         <v>76</v>
@@ -29290,7 +29288,7 @@
         <v>76</v>
       </c>
       <c r="AG222" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AH222" t="s" s="2">
         <v>77</v>
@@ -29316,7 +29314,7 @@
         <v>593</v>
       </c>
       <c r="D223" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E223" t="s" s="2">
         <v>76</v>
@@ -29329,7 +29327,7 @@
         <v>78</v>
       </c>
       <c r="I223" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="J223" t="s" s="2">
         <v>76</v>
@@ -29395,7 +29393,7 @@
         <v>76</v>
       </c>
       <c r="AG223" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AH223" t="s" s="2">
         <v>77</v>
@@ -29435,7 +29433,7 @@
         <v>76</v>
       </c>
       <c r="J224" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K224" t="s" s="2">
         <v>76</v>
@@ -29444,16 +29442,16 @@
         <v>89</v>
       </c>
       <c r="M224" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="N224" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="O224" t="s" s="2">
         <v>113</v>
       </c>
       <c r="P224" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q224" t="s" s="2">
         <v>76</v>
@@ -29502,7 +29500,7 @@
         <v>93</v>
       </c>
       <c r="AG224" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AH224" t="s" s="2">
         <v>77</v>
@@ -29545,10 +29543,10 @@
         <v>76</v>
       </c>
       <c r="K225" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L225" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M225" t="s" s="2">
         <v>631</v>
@@ -29646,16 +29644,16 @@
         <v>83</v>
       </c>
       <c r="I226" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="J226" t="s" s="2">
         <v>76</v>
       </c>
       <c r="K226" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L226" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M226" t="s" s="2">
         <v>638</v>
@@ -29962,13 +29960,13 @@
         <v>76</v>
       </c>
       <c r="J229" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K229" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L229" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M229" t="s" s="2">
         <v>645</v>
@@ -30072,7 +30070,7 @@
         <v>76</v>
       </c>
       <c r="K230" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L230" t="s" s="2">
         <v>145</v>
@@ -30179,7 +30177,7 @@
         <v>76</v>
       </c>
       <c r="K231" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L231" t="s" s="2">
         <v>96</v>
@@ -30286,7 +30284,7 @@
         <v>76</v>
       </c>
       <c r="K232" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L232" t="s" s="2">
         <v>84</v>
@@ -30391,7 +30389,7 @@
         <v>76</v>
       </c>
       <c r="K233" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L233" t="s" s="2">
         <v>155</v>
@@ -30403,7 +30401,7 @@
         <v>680</v>
       </c>
       <c r="O233" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="P233" s="2"/>
       <c r="Q233" t="s" s="2">
@@ -30465,7 +30463,7 @@
         <v>80</v>
       </c>
       <c r="AK233" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="234">
@@ -30704,7 +30702,7 @@
         <v>76</v>
       </c>
       <c r="K236" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L236" t="s" s="2">
         <v>688</v>
@@ -30809,7 +30807,7 @@
         <v>76</v>
       </c>
       <c r="K237" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L237" t="s" s="2">
         <v>688</v>
@@ -30916,10 +30914,10 @@
         <v>76</v>
       </c>
       <c r="K238" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L238" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="M238" t="s" s="2">
         <v>703</v>
@@ -30990,7 +30988,7 @@
         <v>80</v>
       </c>
       <c r="AK238" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="239">
@@ -31017,16 +31015,16 @@
         <v>78</v>
       </c>
       <c r="I239" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="J239" t="s" s="2">
         <v>76</v>
       </c>
       <c r="K239" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L239" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M239" t="s" s="2">
         <v>709</v>
@@ -31333,13 +31331,13 @@
         <v>76</v>
       </c>
       <c r="J242" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K242" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L242" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M242" t="s" s="2">
         <v>645</v>
@@ -31443,7 +31441,7 @@
         <v>76</v>
       </c>
       <c r="K243" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L243" t="s" s="2">
         <v>145</v>
@@ -31550,7 +31548,7 @@
         <v>76</v>
       </c>
       <c r="K244" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L244" t="s" s="2">
         <v>96</v>
@@ -31657,7 +31655,7 @@
         <v>76</v>
       </c>
       <c r="K245" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L245" t="s" s="2">
         <v>84</v>
@@ -31762,7 +31760,7 @@
         <v>76</v>
       </c>
       <c r="K246" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L246" t="s" s="2">
         <v>155</v>
@@ -31774,7 +31772,7 @@
         <v>680</v>
       </c>
       <c r="O246" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="P246" s="2"/>
       <c r="Q246" t="s" s="2">
@@ -31836,7 +31834,7 @@
         <v>80</v>
       </c>
       <c r="AK246" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="247">
@@ -31867,10 +31865,10 @@
         <v>76</v>
       </c>
       <c r="K247" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L247" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="M247" t="s" s="2">
         <v>703</v>
@@ -31941,7 +31939,7 @@
         <v>80</v>
       </c>
       <c r="AK247" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="248">
@@ -31966,13 +31964,13 @@
         <v>83</v>
       </c>
       <c r="I248" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="J248" t="s" s="2">
         <v>76</v>
       </c>
       <c r="K248" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L248" t="s" s="2">
         <v>84</v>
@@ -31984,7 +31982,7 @@
         <v>721</v>
       </c>
       <c r="O248" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="P248" s="2"/>
       <c r="Q248" t="s" s="2">
@@ -32077,7 +32075,7 @@
         <v>76</v>
       </c>
       <c r="K249" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L249" t="s" s="2">
         <v>723</v>
@@ -32089,7 +32087,7 @@
         <v>725</v>
       </c>
       <c r="O249" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="P249" s="2"/>
       <c r="Q249" t="s" s="2">
@@ -32151,7 +32149,7 @@
         <v>80</v>
       </c>
       <c r="AK249" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="250">
@@ -32182,7 +32180,7 @@
         <v>76</v>
       </c>
       <c r="K250" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L250" t="s" s="2">
         <v>728</v>
@@ -32194,7 +32192,7 @@
         <v>730</v>
       </c>
       <c r="O250" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="P250" t="s" s="2">
         <v>731</v>
@@ -32258,7 +32256,7 @@
         <v>80</v>
       </c>
       <c r="AK250" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="251">
@@ -32283,16 +32281,16 @@
         <v>83</v>
       </c>
       <c r="I251" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="J251" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K251" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L251" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M251" t="s" s="2">
         <v>733</v>
@@ -32301,7 +32299,7 @@
         <v>734</v>
       </c>
       <c r="O251" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="P251" s="2"/>
       <c r="Q251" t="s" s="2">
@@ -32388,13 +32386,13 @@
         <v>83</v>
       </c>
       <c r="I252" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="J252" t="s" s="2">
         <v>76</v>
       </c>
       <c r="K252" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L252" t="s" s="2">
         <v>145</v>
@@ -32406,7 +32404,7 @@
         <v>739</v>
       </c>
       <c r="O252" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="P252" s="2"/>
       <c r="Q252" t="s" s="2">
@@ -32493,13 +32491,13 @@
         <v>83</v>
       </c>
       <c r="I253" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="J253" t="s" s="2">
         <v>76</v>
       </c>
       <c r="K253" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L253" t="s" s="2">
         <v>145</v>
@@ -32511,7 +32509,7 @@
         <v>744</v>
       </c>
       <c r="O253" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="P253" s="2"/>
       <c r="Q253" t="s" s="2">
@@ -32596,13 +32594,13 @@
         <v>78</v>
       </c>
       <c r="I254" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="J254" t="s" s="2">
         <v>76</v>
       </c>
       <c r="K254" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L254" t="s" s="2">
         <v>145</v>
@@ -32614,7 +32612,7 @@
         <v>748</v>
       </c>
       <c r="O254" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="P254" s="2"/>
       <c r="Q254" t="s" s="2">
@@ -32705,7 +32703,7 @@
         <v>76</v>
       </c>
       <c r="K255" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L255" t="s" s="2">
         <v>145</v>
@@ -32717,7 +32715,7 @@
         <v>752</v>
       </c>
       <c r="O255" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="P255" s="2"/>
       <c r="Q255" t="s" s="2">
@@ -32743,7 +32741,7 @@
         <v>76</v>
       </c>
       <c r="Y255" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Z255" t="s" s="2">
         <v>753</v>
@@ -32804,13 +32802,13 @@
         <v>78</v>
       </c>
       <c r="I256" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="J256" t="s" s="2">
         <v>76</v>
       </c>
       <c r="K256" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L256" t="s" s="2">
         <v>145</v>
@@ -32822,7 +32820,7 @@
         <v>756</v>
       </c>
       <c r="O256" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="P256" s="2"/>
       <c r="Q256" t="s" s="2">
@@ -32848,7 +32846,7 @@
         <v>76</v>
       </c>
       <c r="Y256" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Z256" t="s" s="2">
         <v>757</v>
@@ -32911,13 +32909,13 @@
         <v>78</v>
       </c>
       <c r="I257" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="J257" t="s" s="2">
         <v>76</v>
       </c>
       <c r="K257" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L257" t="s" s="2">
         <v>145</v>
@@ -32929,7 +32927,7 @@
         <v>756</v>
       </c>
       <c r="O257" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="P257" s="2"/>
       <c r="Q257" t="s" s="2">
@@ -32955,7 +32953,7 @@
         <v>76</v>
       </c>
       <c r="Y257" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Z257" t="s" s="2">
         <v>757</v>
@@ -33230,10 +33228,10 @@
         <v>76</v>
       </c>
       <c r="K260" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L260" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="M260" t="s" s="2">
         <v>770</v>
@@ -33545,7 +33543,7 @@
         <v>76</v>
       </c>
       <c r="K263" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L263" t="s" s="2">
         <v>96</v>
@@ -33652,7 +33650,7 @@
         <v>76</v>
       </c>
       <c r="K264" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L264" t="s" s="2">
         <v>84</v>
@@ -33757,10 +33755,10 @@
         <v>76</v>
       </c>
       <c r="K265" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L265" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M265" t="s" s="2">
         <v>795</v>
@@ -33769,7 +33767,7 @@
         <v>796</v>
       </c>
       <c r="O265" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="P265" t="s" s="2">
         <v>797</v>
@@ -33864,7 +33862,7 @@
         <v>76</v>
       </c>
       <c r="K266" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L266" t="s" s="2">
         <v>84</v>
@@ -33876,7 +33874,7 @@
         <v>802</v>
       </c>
       <c r="O266" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="P266" t="s" s="2">
         <v>803</v>
@@ -33971,10 +33969,10 @@
         <v>76</v>
       </c>
       <c r="K267" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L267" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M267" t="s" s="2">
         <v>807</v>
@@ -34078,7 +34076,7 @@
         <v>76</v>
       </c>
       <c r="K268" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L268" t="s" s="2">
         <v>84</v>
@@ -34181,13 +34179,13 @@
         <v>78</v>
       </c>
       <c r="I269" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="J269" t="s" s="2">
         <v>76</v>
       </c>
       <c r="K269" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L269" t="s" s="2">
         <v>145</v>
@@ -34199,7 +34197,7 @@
         <v>756</v>
       </c>
       <c r="O269" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="P269" s="2"/>
       <c r="Q269" t="s" s="2">
@@ -34225,7 +34223,7 @@
         <v>76</v>
       </c>
       <c r="Y269" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Z269" t="s" s="2">
         <v>757</v>
@@ -34500,10 +34498,10 @@
         <v>76</v>
       </c>
       <c r="K272" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L272" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="M272" t="s" s="2">
         <v>770</v>
@@ -34607,7 +34605,7 @@
         <v>76</v>
       </c>
       <c r="K273" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L273" t="s" s="2">
         <v>84</v>
@@ -34708,13 +34706,13 @@
         <v>78</v>
       </c>
       <c r="I274" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="J274" t="s" s="2">
         <v>76</v>
       </c>
       <c r="K274" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L274" t="s" s="2">
         <v>828</v>
@@ -35021,7 +35019,7 @@
         <v>83</v>
       </c>
       <c r="I277" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="J277" t="s" s="2">
         <v>76</v>
@@ -35126,7 +35124,7 @@
         <v>83</v>
       </c>
       <c r="I278" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="J278" t="s" s="2">
         <v>76</v>
@@ -35231,7 +35229,7 @@
         <v>83</v>
       </c>
       <c r="I279" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="J279" t="s" s="2">
         <v>76</v>
@@ -35336,7 +35334,7 @@
         <v>83</v>
       </c>
       <c r="I280" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="J280" t="s" s="2">
         <v>76</v>
@@ -35445,7 +35443,7 @@
         <v>76</v>
       </c>
       <c r="K281" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L281" t="s" s="2">
         <v>84</v>
@@ -35550,10 +35548,10 @@
         <v>76</v>
       </c>
       <c r="K282" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L282" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="M282" t="s" s="2">
         <v>851</v>
@@ -35622,7 +35620,7 @@
         <v>80</v>
       </c>
       <c r="AK282" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="283">
@@ -35647,7 +35645,7 @@
         <v>78</v>
       </c>
       <c r="I283" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="J283" t="s" s="2">
         <v>76</v>
@@ -35758,7 +35756,7 @@
         <v>76</v>
       </c>
       <c r="K284" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L284" t="s" s="2">
         <v>145</v>
@@ -35770,7 +35768,7 @@
         <v>861</v>
       </c>
       <c r="O284" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="P284" s="2"/>
       <c r="Q284" t="s" s="2">
@@ -35796,7 +35794,7 @@
         <v>76</v>
       </c>
       <c r="Y284" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Z284" t="s" s="2">
         <v>862</v>
@@ -35857,13 +35855,13 @@
         <v>78</v>
       </c>
       <c r="I285" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="J285" t="s" s="2">
         <v>76</v>
       </c>
       <c r="K285" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L285" t="s" s="2">
         <v>145</v>
@@ -35875,7 +35873,7 @@
         <v>865</v>
       </c>
       <c r="O285" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="P285" s="2"/>
       <c r="Q285" t="s" s="2">
@@ -35962,7 +35960,7 @@
         <v>83</v>
       </c>
       <c r="I286" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="J286" t="s" s="2">
         <v>76</v>
@@ -35971,7 +35969,7 @@
         <v>76</v>
       </c>
       <c r="L286" t="s" s="2">
-        <v>559</v>
+        <v>197</v>
       </c>
       <c r="M286" t="s" s="2">
         <v>869</v>
@@ -36067,13 +36065,13 @@
         <v>78</v>
       </c>
       <c r="I287" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="J287" t="s" s="2">
         <v>76</v>
       </c>
       <c r="K287" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L287" t="s" s="2">
         <v>874</v>
@@ -36147,7 +36145,7 @@
         <v>80</v>
       </c>
       <c r="AK287" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="288">
@@ -36178,7 +36176,7 @@
         <v>76</v>
       </c>
       <c r="K288" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L288" t="s" s="2">
         <v>155</v>
@@ -36190,7 +36188,7 @@
         <v>881</v>
       </c>
       <c r="O288" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="P288" s="2"/>
       <c r="Q288" t="s" s="2">
@@ -36252,7 +36250,7 @@
         <v>80</v>
       </c>
       <c r="AK288" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="289">
@@ -36491,7 +36489,7 @@
         <v>76</v>
       </c>
       <c r="K291" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L291" t="s" s="2">
         <v>688</v>
@@ -36590,13 +36588,13 @@
         <v>83</v>
       </c>
       <c r="I292" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="J292" t="s" s="2">
         <v>76</v>
       </c>
       <c r="K292" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L292" t="s" s="2">
         <v>688</v>
@@ -36703,10 +36701,10 @@
         <v>76</v>
       </c>
       <c r="K293" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L293" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="M293" t="s" s="2">
         <v>889</v>
@@ -36715,7 +36713,7 @@
         <v>890</v>
       </c>
       <c r="O293" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="P293" s="2"/>
       <c r="Q293" t="s" s="2">
@@ -36777,7 +36775,7 @@
         <v>80</v>
       </c>
       <c r="AK293" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="294">
@@ -36808,7 +36806,7 @@
         <v>76</v>
       </c>
       <c r="K294" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L294" t="s" s="2">
         <v>892</v>
@@ -36820,7 +36818,7 @@
         <v>894</v>
       </c>
       <c r="O294" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="P294" s="2"/>
       <c r="Q294" t="s" s="2">
@@ -36882,7 +36880,7 @@
         <v>80</v>
       </c>
       <c r="AK294" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="295">
@@ -36907,13 +36905,13 @@
         <v>78</v>
       </c>
       <c r="I295" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="J295" t="s" s="2">
         <v>76</v>
       </c>
       <c r="K295" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L295" t="s" s="2">
         <v>896</v>
@@ -36925,7 +36923,7 @@
         <v>898</v>
       </c>
       <c r="O295" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="P295" s="2"/>
       <c r="Q295" t="s" s="2">
@@ -36987,7 +36985,7 @@
         <v>80</v>
       </c>
       <c r="AK295" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="296">
@@ -37018,7 +37016,7 @@
         <v>76</v>
       </c>
       <c r="K296" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L296" t="s" s="2">
         <v>145</v>
@@ -37030,7 +37028,7 @@
         <v>901</v>
       </c>
       <c r="O296" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="P296" s="2"/>
       <c r="Q296" t="s" s="2">
@@ -37056,7 +37054,7 @@
         <v>76</v>
       </c>
       <c r="Y296" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Z296" t="s" s="2">
         <v>902</v>
@@ -37231,7 +37229,7 @@
         <v>76</v>
       </c>
       <c r="L298" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M298" t="s" s="2">
         <v>910</v>
@@ -37535,7 +37533,7 @@
         <v>78</v>
       </c>
       <c r="I301" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="J301" t="s" s="2">
         <v>76</v>
@@ -37628,7 +37626,7 @@
       </c>
       <c r="D302" s="2"/>
       <c r="E302" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="F302" s="2"/>
       <c r="G302" t="s" s="2">
@@ -37641,25 +37639,25 @@
         <v>76</v>
       </c>
       <c r="J302" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K302" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L302" t="s" s="2">
         <v>89</v>
       </c>
       <c r="M302" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="N302" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="O302" t="s" s="2">
         <v>113</v>
       </c>
       <c r="P302" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q302" t="s" s="2">
         <v>76</v>
@@ -37708,7 +37706,7 @@
         <v>76</v>
       </c>
       <c r="AG302" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AH302" t="s" s="2">
         <v>77</v>
@@ -37763,7 +37761,7 @@
         <v>920</v>
       </c>
       <c r="O303" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="P303" s="2"/>
       <c r="Q303" t="s" s="2">
@@ -37868,7 +37866,7 @@
         <v>923</v>
       </c>
       <c r="O304" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="P304" s="2"/>
       <c r="Q304" t="s" s="2">
@@ -37973,7 +37971,7 @@
         <v>926</v>
       </c>
       <c r="O305" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="P305" s="2"/>
       <c r="Q305" t="s" s="2">
@@ -38069,7 +38067,7 @@
         <v>76</v>
       </c>
       <c r="L306" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M306" t="s" s="2">
         <v>928</v>
@@ -38361,7 +38359,7 @@
       </c>
       <c r="D309" s="2"/>
       <c r="E309" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="F309" s="2"/>
       <c r="G309" t="s" s="2">
@@ -38374,25 +38372,25 @@
         <v>76</v>
       </c>
       <c r="J309" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K309" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L309" t="s" s="2">
         <v>89</v>
       </c>
       <c r="M309" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="N309" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="O309" t="s" s="2">
         <v>113</v>
       </c>
       <c r="P309" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q309" t="s" s="2">
         <v>76</v>
@@ -38441,7 +38439,7 @@
         <v>76</v>
       </c>
       <c r="AG309" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AH309" t="s" s="2">
         <v>77</v>
@@ -38496,7 +38494,7 @@
         <v>935</v>
       </c>
       <c r="O310" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="P310" s="2"/>
       <c r="Q310" t="s" s="2">
@@ -38601,7 +38599,7 @@
         <v>938</v>
       </c>
       <c r="O311" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="P311" s="2"/>
       <c r="Q311" t="s" s="2">
@@ -38627,7 +38625,7 @@
         <v>76</v>
       </c>
       <c r="Y311" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Z311" t="s" s="2">
         <v>939</v>
@@ -39185,7 +39183,7 @@
     </row>
     <row r="317">
       <c r="A317" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B317" t="s" s="2">
         <v>31</v>
@@ -39220,7 +39218,7 @@
         <v>31</v>
       </c>
       <c r="N317" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="O317" s="2"/>
       <c r="P317" s="2"/>
@@ -39288,7 +39286,7 @@
     </row>
     <row r="318">
       <c r="A318" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B318" t="s" s="2">
         <v>82</v>
@@ -39391,7 +39389,7 @@
     </row>
     <row r="319">
       <c r="A319" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B319" t="s" s="2">
         <v>88</v>
@@ -39494,7 +39492,7 @@
     </row>
     <row r="320">
       <c r="A320" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B320" t="s" s="2">
         <v>95</v>
@@ -39599,7 +39597,7 @@
     </row>
     <row r="321">
       <c r="A321" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B321" t="s" s="2">
         <v>100</v>
